--- a/Global_M2/TVDataFeed/FinalData/Morocco.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/Morocco.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D459"/>
+  <dimension ref="A1:D462"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5905,13 +5905,13 @@
         <v>44197</v>
       </c>
       <c r="B434" t="n">
-        <v>1183618000000</v>
+        <v>1182578000000</v>
       </c>
       <c r="C434" t="n">
         <v>0.1118968758392266</v>
       </c>
       <c r="D434" t="n">
-        <v>132443156387.0737</v>
+        <v>132326783636.2009</v>
       </c>
     </row>
     <row r="435">
@@ -5919,13 +5919,13 @@
         <v>44228</v>
       </c>
       <c r="B435" t="n">
-        <v>1181166000000</v>
+        <v>1180145000000</v>
       </c>
       <c r="C435" t="n">
         <v>0.112020970325645</v>
       </c>
       <c r="D435" t="n">
-        <v>132315361435.6608</v>
+        <v>132200988024.9583</v>
       </c>
     </row>
     <row r="436">
@@ -6143,13 +6143,13 @@
         <v>44713</v>
       </c>
       <c r="B451" t="n">
-        <v>1297397000000</v>
+        <v>1297962000000</v>
       </c>
       <c r="C451" t="n">
         <v>0.09957184108334163</v>
       </c>
       <c r="D451" t="n">
-        <v>129184207906.0042</v>
+        <v>129240465996.2163</v>
       </c>
     </row>
     <row r="452">
@@ -6227,13 +6227,13 @@
         <v>44896</v>
       </c>
       <c r="B457" t="n">
-        <v>1376065000000</v>
+        <v>1375618000000</v>
       </c>
       <c r="C457" t="n">
         <v>0.09604763962925611</v>
       </c>
       <c r="D457" t="n">
-        <v>132167795226.4323</v>
+        <v>132124861931.518</v>
       </c>
     </row>
     <row r="458">
@@ -6241,13 +6241,13 @@
         <v>44927</v>
       </c>
       <c r="B458" t="n">
-        <v>1365331000000</v>
+        <v>1365405000000</v>
       </c>
       <c r="C458" t="n">
         <v>0.09818456734970396</v>
       </c>
       <c r="D458" t="n">
-        <v>134054433524.1387</v>
+        <v>134061699182.1225</v>
       </c>
     </row>
     <row r="459">
@@ -6262,6 +6262,48 @@
       </c>
       <c r="D459" t="n">
         <v>131766887315.4188</v>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" s="2" t="n">
+        <v>44986</v>
+      </c>
+      <c r="B460" t="n">
+        <v>1393379000000</v>
+      </c>
+      <c r="C460" t="n">
+        <v>0.09767818943708059</v>
+      </c>
+      <c r="D460" t="n">
+        <v>136102737919.6499</v>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" s="2" t="n">
+        <v>45017</v>
+      </c>
+      <c r="B461" t="n">
+        <v>1391394000000</v>
+      </c>
+      <c r="C461" t="n">
+        <v>0.09943323058566172</v>
+      </c>
+      <c r="D461" t="n">
+        <v>138350800437.5062</v>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" s="2" t="n">
+        <v>45047</v>
+      </c>
+      <c r="B462" t="n">
+        <v>1394414000000</v>
+      </c>
+      <c r="C462" t="n">
+        <v>0.09827237170541873</v>
+      </c>
+      <c r="D462" t="n">
+        <v>137032370919.2398</v>
       </c>
     </row>
   </sheetData>

--- a/Global_M2/TVDataFeed/FinalData/Morocco.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/Morocco.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D462"/>
+  <dimension ref="A1:D463"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6269,13 +6269,13 @@
         <v>44986</v>
       </c>
       <c r="B460" t="n">
-        <v>1393379000000</v>
+        <v>1393850000000</v>
       </c>
       <c r="C460" t="n">
         <v>0.09767818943708059</v>
       </c>
       <c r="D460" t="n">
-        <v>136102737919.6499</v>
+        <v>136148744346.8748</v>
       </c>
     </row>
     <row r="461">
@@ -6304,6 +6304,20 @@
       </c>
       <c r="D462" t="n">
         <v>137032370919.2398</v>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" s="2" t="n">
+        <v>45078</v>
+      </c>
+      <c r="B463" t="n">
+        <v>1430306000000</v>
+      </c>
+      <c r="C463" t="n">
+        <v>0.1012115016750504</v>
+      </c>
+      <c r="D463" t="n">
+        <v>144763418114.8346</v>
       </c>
     </row>
   </sheetData>

--- a/Global_M2/TVDataFeed/FinalData/Morocco.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/Morocco.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D463"/>
+  <dimension ref="A1:D466"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6320,6 +6320,48 @@
         <v>144763418114.8346</v>
       </c>
     </row>
+    <row r="464">
+      <c r="A464" s="2" t="n">
+        <v>45108</v>
+      </c>
+      <c r="B464" t="n">
+        <v>1417792000000</v>
+      </c>
+      <c r="C464" t="n">
+        <v>0.1015383053256841</v>
+      </c>
+      <c r="D464" t="n">
+        <v>143960196984.3123</v>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" s="2" t="n">
+        <v>45139</v>
+      </c>
+      <c r="B465" t="n">
+        <v>1419788000000</v>
+      </c>
+      <c r="C465" t="n">
+        <v>0.09842132199519704</v>
+      </c>
+      <c r="D465" t="n">
+        <v>139737411912.9168</v>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" s="2" t="n">
+        <v>45170</v>
+      </c>
+      <c r="B466" t="n">
+        <v>1430691000000</v>
+      </c>
+      <c r="C466" t="n">
+        <v>0.09724504779594098</v>
+      </c>
+      <c r="D466" t="n">
+        <v>139127614676.2226</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Global_M2/TVDataFeed/FinalData/Morocco.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/Morocco.xlsx
@@ -1,40 +1,57 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+  <si>
+    <t>Morocco_M2 (MAD)</t>
+  </si>
+  <si>
+    <t>Morocco_FX (USD)</t>
+  </si>
+  <si>
+    <t>Morocco_M2 (USD)</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -49,96 +66,38 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -426,5943 +385,5629 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D466"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Morocco_M2 (MAD)</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Morocco_FX (USD)</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Morocco_M2 (USD)</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
+    <row r="1" spans="1:4">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="2">
         <v>31048</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B2">
         <v>38311000000</v>
       </c>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="2">
         <v>31079</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3">
         <v>39529000000</v>
       </c>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="2">
         <v>31107</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4">
         <v>39712000000</v>
       </c>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="2">
         <v>31138</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5">
         <v>40425000000</v>
       </c>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="2">
         <v>31168</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B6">
         <v>40941000000</v>
       </c>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="2">
         <v>31199</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B7">
         <v>42409000000</v>
       </c>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="2">
         <v>31229</v>
       </c>
-      <c r="B8" t="n">
+      <c r="B8">
         <v>42939000000</v>
       </c>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="2">
         <v>31260</v>
       </c>
-      <c r="B9" t="n">
+      <c r="B9">
         <v>43443000000</v>
       </c>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="2">
         <v>31291</v>
       </c>
-      <c r="B10" t="n">
+      <c r="B10">
         <v>42620000000</v>
       </c>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="2">
         <v>31321</v>
       </c>
-      <c r="B11" t="n">
+      <c r="B11">
         <v>42861000000</v>
       </c>
-      <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="2">
         <v>31352</v>
       </c>
-      <c r="B12" t="n">
+      <c r="B12">
         <v>42957000000</v>
       </c>
-      <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="2">
         <v>31382</v>
       </c>
-      <c r="B13" t="n">
+      <c r="B13">
         <v>44211000000</v>
       </c>
-      <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="2">
         <v>31413</v>
       </c>
-      <c r="B14" t="n">
+      <c r="B14">
         <v>44318000000</v>
       </c>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="2">
         <v>31444</v>
       </c>
-      <c r="B15" t="n">
+      <c r="B15">
         <v>45628000000</v>
       </c>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="2">
         <v>31472</v>
       </c>
-      <c r="B16" t="n">
+      <c r="B16">
         <v>45865000000</v>
       </c>
-      <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="2">
         <v>31503</v>
       </c>
-      <c r="B17" t="n">
+      <c r="B17">
         <v>47578000000</v>
       </c>
-      <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="2">
         <v>31533</v>
       </c>
-      <c r="B18" t="n">
+      <c r="B18">
         <v>48184000000</v>
       </c>
-      <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="2">
         <v>31564</v>
       </c>
-      <c r="B19" t="n">
+      <c r="B19">
         <v>50292000000</v>
       </c>
-      <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="2">
         <v>31594</v>
       </c>
-      <c r="B20" t="n">
+      <c r="B20">
         <v>52728000000</v>
       </c>
-      <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="2">
         <v>31625</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B21">
         <v>52765000000</v>
       </c>
-      <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="2">
         <v>31656</v>
       </c>
-      <c r="B22" t="n">
+      <c r="B22">
         <v>51837000000</v>
       </c>
-      <c r="C22" t="inlineStr"/>
-      <c r="D22" t="inlineStr"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="2">
         <v>31686</v>
       </c>
-      <c r="B23" t="n">
+      <c r="B23">
         <v>55536000000</v>
       </c>
-      <c r="C23" t="inlineStr"/>
-      <c r="D23" t="inlineStr"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="2">
         <v>31717</v>
       </c>
-      <c r="B24" t="n">
+      <c r="B24">
         <v>55658000000</v>
       </c>
-      <c r="C24" t="inlineStr"/>
-      <c r="D24" t="inlineStr"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="n">
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="2">
         <v>31747</v>
       </c>
-      <c r="B25" t="n">
+      <c r="B25">
         <v>52924000000</v>
       </c>
-      <c r="C25" t="inlineStr"/>
-      <c r="D25" t="inlineStr"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="2" t="n">
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="2">
         <v>31778</v>
       </c>
-      <c r="B26" t="n">
+      <c r="B26">
         <v>53892000000</v>
       </c>
-      <c r="C26" t="inlineStr"/>
-      <c r="D26" t="inlineStr"/>
-    </row>
-    <row r="27">
-      <c r="A27" s="2" t="n">
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="2">
         <v>31809</v>
       </c>
-      <c r="B27" t="n">
+      <c r="B27">
         <v>58360000000</v>
       </c>
-      <c r="C27" t="inlineStr"/>
-      <c r="D27" t="inlineStr"/>
-    </row>
-    <row r="28">
-      <c r="A28" s="2" t="n">
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="2">
         <v>31837</v>
       </c>
-      <c r="B28" t="n">
+      <c r="B28">
         <v>54499000000</v>
       </c>
-      <c r="C28" t="inlineStr"/>
-      <c r="D28" t="inlineStr"/>
-    </row>
-    <row r="29">
-      <c r="A29" s="2" t="n">
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="2">
         <v>31868</v>
       </c>
-      <c r="B29" t="n">
+      <c r="B29">
         <v>55554000000</v>
       </c>
-      <c r="C29" t="inlineStr"/>
-      <c r="D29" t="inlineStr"/>
-    </row>
-    <row r="30">
-      <c r="A30" s="2" t="n">
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="2">
         <v>31898</v>
       </c>
-      <c r="B30" t="n">
+      <c r="B30">
         <v>56755000000</v>
       </c>
-      <c r="C30" t="inlineStr"/>
-      <c r="D30" t="inlineStr"/>
-    </row>
-    <row r="31">
-      <c r="A31" s="2" t="n">
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="2">
         <v>31929</v>
       </c>
-      <c r="B31" t="n">
+      <c r="B31">
         <v>56685000000</v>
       </c>
-      <c r="C31" t="inlineStr"/>
-      <c r="D31" t="inlineStr"/>
-    </row>
-    <row r="32">
-      <c r="A32" s="2" t="n">
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="2">
         <v>31959</v>
       </c>
-      <c r="B32" t="n">
+      <c r="B32">
         <v>58381000000</v>
       </c>
-      <c r="C32" t="inlineStr"/>
-      <c r="D32" t="inlineStr"/>
-    </row>
-    <row r="33">
-      <c r="A33" s="2" t="n">
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="2">
         <v>31990</v>
       </c>
-      <c r="B33" t="n">
+      <c r="B33">
         <v>59170000000</v>
       </c>
-      <c r="C33" t="inlineStr"/>
-      <c r="D33" t="inlineStr"/>
-    </row>
-    <row r="34">
-      <c r="A34" s="2" t="n">
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="2">
         <v>32021</v>
       </c>
-      <c r="B34" t="n">
+      <c r="B34">
         <v>57957000000</v>
       </c>
-      <c r="C34" t="inlineStr"/>
-      <c r="D34" t="inlineStr"/>
-    </row>
-    <row r="35">
-      <c r="A35" s="2" t="n">
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="2">
         <v>32051</v>
       </c>
-      <c r="B35" t="n">
+      <c r="B35">
         <v>57606000000</v>
       </c>
-      <c r="C35" t="inlineStr"/>
-      <c r="D35" t="inlineStr"/>
-    </row>
-    <row r="36">
-      <c r="A36" s="2" t="n">
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="2">
         <v>32082</v>
       </c>
-      <c r="B36" t="n">
+      <c r="B36">
         <v>57515000000</v>
       </c>
-      <c r="C36" t="inlineStr"/>
-      <c r="D36" t="inlineStr"/>
-    </row>
-    <row r="37">
-      <c r="A37" s="2" t="n">
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="2">
         <v>32112</v>
       </c>
-      <c r="B37" t="n">
+      <c r="B37">
         <v>59123000000</v>
       </c>
-      <c r="C37" t="inlineStr"/>
-      <c r="D37" t="inlineStr"/>
-    </row>
-    <row r="38">
-      <c r="A38" s="2" t="n">
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="2">
         <v>32143</v>
       </c>
-      <c r="B38" t="n">
+      <c r="B38">
         <v>62343000000</v>
       </c>
-      <c r="C38" t="inlineStr"/>
-      <c r="D38" t="inlineStr"/>
-    </row>
-    <row r="39">
-      <c r="A39" s="2" t="n">
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="2">
         <v>32174</v>
       </c>
-      <c r="B39" t="n">
+      <c r="B39">
         <v>63042000000</v>
       </c>
-      <c r="C39" t="inlineStr"/>
-      <c r="D39" t="inlineStr"/>
-    </row>
-    <row r="40">
-      <c r="A40" s="2" t="n">
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" s="2">
         <v>32203</v>
       </c>
-      <c r="B40" t="n">
+      <c r="B40">
         <v>64202000000</v>
       </c>
-      <c r="C40" t="inlineStr"/>
-      <c r="D40" t="inlineStr"/>
-    </row>
-    <row r="41">
-      <c r="A41" s="2" t="n">
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="2">
         <v>32234</v>
       </c>
-      <c r="B41" t="n">
+      <c r="B41">
         <v>65385000000</v>
       </c>
-      <c r="C41" t="inlineStr"/>
-      <c r="D41" t="inlineStr"/>
-    </row>
-    <row r="42">
-      <c r="A42" s="2" t="n">
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="2">
         <v>32264</v>
       </c>
-      <c r="B42" t="n">
+      <c r="B42">
         <v>65658000000</v>
       </c>
-      <c r="C42" t="inlineStr"/>
-      <c r="D42" t="inlineStr"/>
-    </row>
-    <row r="43">
-      <c r="A43" s="2" t="n">
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="2">
         <v>32295</v>
       </c>
-      <c r="B43" t="n">
+      <c r="B43">
         <v>72591000000</v>
       </c>
-      <c r="C43" t="inlineStr"/>
-      <c r="D43" t="inlineStr"/>
-    </row>
-    <row r="44">
-      <c r="A44" s="2" t="n">
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" s="2">
         <v>32325</v>
       </c>
-      <c r="B44" t="n">
+      <c r="B44">
         <v>68609000000</v>
       </c>
-      <c r="C44" t="inlineStr"/>
-      <c r="D44" t="inlineStr"/>
-    </row>
-    <row r="45">
-      <c r="A45" s="2" t="n">
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" s="2">
         <v>32356</v>
       </c>
-      <c r="B45" t="n">
+      <c r="B45">
         <v>68417000000</v>
       </c>
-      <c r="C45" t="inlineStr"/>
-      <c r="D45" t="inlineStr"/>
-    </row>
-    <row r="46">
-      <c r="A46" s="2" t="n">
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" s="2">
         <v>32387</v>
       </c>
-      <c r="B46" t="n">
+      <c r="B46">
         <v>69770000000</v>
       </c>
-      <c r="C46" t="inlineStr"/>
-      <c r="D46" t="inlineStr"/>
-    </row>
-    <row r="47">
-      <c r="A47" s="2" t="n">
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" s="2">
         <v>32417</v>
       </c>
-      <c r="B47" t="n">
+      <c r="B47">
         <v>70447000000</v>
       </c>
-      <c r="C47" t="inlineStr"/>
-      <c r="D47" t="inlineStr"/>
-    </row>
-    <row r="48">
-      <c r="A48" s="2" t="n">
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" s="2">
         <v>32448</v>
       </c>
-      <c r="B48" t="n">
+      <c r="B48">
         <v>69919000000</v>
       </c>
-      <c r="C48" t="inlineStr"/>
-      <c r="D48" t="inlineStr"/>
-    </row>
-    <row r="49">
-      <c r="A49" s="2" t="n">
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" s="2">
         <v>32478</v>
       </c>
-      <c r="B49" t="n">
+      <c r="B49">
         <v>71375000000</v>
       </c>
-      <c r="C49" t="inlineStr"/>
-      <c r="D49" t="inlineStr"/>
-    </row>
-    <row r="50">
-      <c r="A50" s="2" t="n">
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" s="2">
         <v>32509</v>
       </c>
-      <c r="B50" t="n">
+      <c r="B50">
         <v>69215000000</v>
       </c>
-      <c r="C50" t="inlineStr"/>
-      <c r="D50" t="inlineStr"/>
-    </row>
-    <row r="51">
-      <c r="A51" s="2" t="n">
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" s="2">
         <v>32540</v>
       </c>
-      <c r="B51" t="n">
+      <c r="B51">
         <v>69532000000</v>
       </c>
-      <c r="C51" t="inlineStr"/>
-      <c r="D51" t="inlineStr"/>
-    </row>
-    <row r="52">
-      <c r="A52" s="2" t="n">
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" s="2">
         <v>32568</v>
       </c>
-      <c r="B52" t="n">
+      <c r="B52">
         <v>70476000000</v>
       </c>
-      <c r="C52" t="inlineStr"/>
-      <c r="D52" t="inlineStr"/>
-    </row>
-    <row r="53">
-      <c r="A53" s="2" t="n">
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" s="2">
         <v>32599</v>
       </c>
-      <c r="B53" t="n">
+      <c r="B53">
         <v>70341000000</v>
       </c>
-      <c r="C53" t="inlineStr"/>
-      <c r="D53" t="inlineStr"/>
-    </row>
-    <row r="54">
-      <c r="A54" s="2" t="n">
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" s="2">
         <v>32629</v>
       </c>
-      <c r="B54" t="n">
+      <c r="B54">
         <v>71622000000</v>
       </c>
-      <c r="C54" t="inlineStr"/>
-      <c r="D54" t="inlineStr"/>
-    </row>
-    <row r="55">
-      <c r="A55" s="2" t="n">
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" s="2">
         <v>32660</v>
       </c>
-      <c r="B55" t="n">
+      <c r="B55">
         <v>72300000000</v>
       </c>
-      <c r="C55" t="inlineStr"/>
-      <c r="D55" t="inlineStr"/>
-    </row>
-    <row r="56">
-      <c r="A56" s="2" t="n">
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" s="2">
         <v>32690</v>
       </c>
-      <c r="B56" t="n">
+      <c r="B56">
         <v>75417000000</v>
       </c>
-      <c r="C56" t="inlineStr"/>
-      <c r="D56" t="inlineStr"/>
-    </row>
-    <row r="57">
-      <c r="A57" s="2" t="n">
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" s="2">
         <v>32721</v>
       </c>
-      <c r="B57" t="n">
+      <c r="B57">
         <v>75390000000</v>
       </c>
-      <c r="C57" t="inlineStr"/>
-      <c r="D57" t="inlineStr"/>
-    </row>
-    <row r="58">
-      <c r="A58" s="2" t="n">
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" s="2">
         <v>32752</v>
       </c>
-      <c r="B58" t="n">
+      <c r="B58">
         <v>74120000000</v>
       </c>
-      <c r="C58" t="inlineStr"/>
-      <c r="D58" t="inlineStr"/>
-    </row>
-    <row r="59">
-      <c r="A59" s="2" t="n">
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" s="2">
         <v>32782</v>
       </c>
-      <c r="B59" t="n">
+      <c r="B59">
         <v>74488000000</v>
       </c>
-      <c r="C59" t="inlineStr"/>
-      <c r="D59" t="inlineStr"/>
-    </row>
-    <row r="60">
-      <c r="A60" s="2" t="n">
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" s="2">
         <v>32813</v>
       </c>
-      <c r="B60" t="n">
+      <c r="B60">
         <v>75402000000</v>
       </c>
-      <c r="C60" t="inlineStr"/>
-      <c r="D60" t="inlineStr"/>
-    </row>
-    <row r="61">
-      <c r="A61" s="2" t="n">
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" s="2">
         <v>32843</v>
       </c>
-      <c r="B61" t="n">
+      <c r="B61">
         <v>76884000000</v>
       </c>
-      <c r="C61" t="inlineStr"/>
-      <c r="D61" t="inlineStr"/>
-    </row>
-    <row r="62">
-      <c r="A62" s="2" t="n">
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" s="2">
         <v>32874</v>
       </c>
-      <c r="B62" t="n">
+      <c r="B62">
         <v>83697000000</v>
       </c>
-      <c r="C62" t="inlineStr"/>
-      <c r="D62" t="inlineStr"/>
-    </row>
-    <row r="63">
-      <c r="A63" s="2" t="n">
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" s="2">
         <v>32905</v>
       </c>
-      <c r="B63" t="n">
+      <c r="B63">
         <v>84613000000</v>
       </c>
-      <c r="C63" t="inlineStr"/>
-      <c r="D63" t="inlineStr"/>
-    </row>
-    <row r="64">
-      <c r="A64" s="2" t="n">
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" s="2">
         <v>32933</v>
       </c>
-      <c r="B64" t="n">
+      <c r="B64">
         <v>85038000000</v>
       </c>
-      <c r="C64" t="inlineStr"/>
-      <c r="D64" t="inlineStr"/>
-    </row>
-    <row r="65">
-      <c r="A65" s="2" t="n">
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" s="2">
         <v>32964</v>
       </c>
-      <c r="B65" t="n">
+      <c r="B65">
         <v>86334000000</v>
       </c>
-      <c r="C65" t="inlineStr"/>
-      <c r="D65" t="inlineStr"/>
-    </row>
-    <row r="66">
-      <c r="A66" s="2" t="n">
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" s="2">
         <v>32994</v>
       </c>
-      <c r="B66" t="n">
+      <c r="B66">
         <v>88489000000</v>
       </c>
-      <c r="C66" t="inlineStr"/>
-      <c r="D66" t="inlineStr"/>
-    </row>
-    <row r="67">
-      <c r="A67" s="2" t="n">
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" s="2">
         <v>33025</v>
       </c>
-      <c r="B67" t="n">
+      <c r="B67">
         <v>90310000000</v>
       </c>
-      <c r="C67" t="inlineStr"/>
-      <c r="D67" t="inlineStr"/>
-    </row>
-    <row r="68">
-      <c r="A68" s="2" t="n">
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" s="2">
         <v>33055</v>
       </c>
-      <c r="B68" t="n">
+      <c r="B68">
         <v>92844000000</v>
       </c>
-      <c r="C68" t="inlineStr"/>
-      <c r="D68" t="inlineStr"/>
-    </row>
-    <row r="69">
-      <c r="A69" s="2" t="n">
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" s="2">
         <v>33086</v>
       </c>
-      <c r="B69" t="n">
+      <c r="B69">
         <v>95016000000</v>
       </c>
-      <c r="C69" t="inlineStr"/>
-      <c r="D69" t="inlineStr"/>
-    </row>
-    <row r="70">
-      <c r="A70" s="2" t="n">
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" s="2">
         <v>33117</v>
       </c>
-      <c r="B70" t="n">
+      <c r="B70">
         <v>95372000000</v>
       </c>
-      <c r="C70" t="inlineStr"/>
-      <c r="D70" t="inlineStr"/>
-    </row>
-    <row r="71">
-      <c r="A71" s="2" t="n">
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" s="2">
         <v>33147</v>
       </c>
-      <c r="B71" t="n">
+      <c r="B71">
         <v>96957000000</v>
       </c>
-      <c r="C71" t="inlineStr"/>
-      <c r="D71" t="inlineStr"/>
-    </row>
-    <row r="72">
-      <c r="A72" s="2" t="n">
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" s="2">
         <v>33178</v>
       </c>
-      <c r="B72" t="n">
+      <c r="B72">
         <v>98356000000</v>
       </c>
-      <c r="C72" t="inlineStr"/>
-      <c r="D72" t="inlineStr"/>
-    </row>
-    <row r="73">
-      <c r="A73" s="2" t="n">
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73" s="2">
         <v>33208</v>
       </c>
-      <c r="B73" t="n">
+      <c r="B73">
         <v>101547000000</v>
       </c>
-      <c r="C73" t="inlineStr"/>
-      <c r="D73" t="inlineStr"/>
-    </row>
-    <row r="74">
-      <c r="A74" s="2" t="n">
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74" s="2">
         <v>33239</v>
       </c>
-      <c r="B74" t="n">
+      <c r="B74">
         <v>102802000000</v>
       </c>
-      <c r="C74" t="inlineStr"/>
-      <c r="D74" t="inlineStr"/>
-    </row>
-    <row r="75">
-      <c r="A75" s="2" t="n">
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75" s="2">
         <v>33270</v>
       </c>
-      <c r="B75" t="n">
+      <c r="B75">
         <v>94779000000</v>
       </c>
-      <c r="C75" t="inlineStr"/>
-      <c r="D75" t="inlineStr"/>
-    </row>
-    <row r="76">
-      <c r="A76" s="2" t="n">
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76" s="2">
         <v>33298</v>
       </c>
-      <c r="B76" t="n">
+      <c r="B76">
         <v>96186000000</v>
       </c>
-      <c r="C76" t="inlineStr"/>
-      <c r="D76" t="inlineStr"/>
-    </row>
-    <row r="77">
-      <c r="A77" s="2" t="n">
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77" s="2">
         <v>33329</v>
       </c>
-      <c r="B77" t="n">
+      <c r="B77">
         <v>96655000000</v>
       </c>
-      <c r="C77" t="inlineStr"/>
-      <c r="D77" t="inlineStr"/>
-    </row>
-    <row r="78">
-      <c r="A78" s="2" t="n">
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78" s="2">
         <v>33359</v>
       </c>
-      <c r="B78" t="n">
+      <c r="B78">
         <v>97183000000</v>
       </c>
-      <c r="C78" t="inlineStr"/>
-      <c r="D78" t="inlineStr"/>
-    </row>
-    <row r="79">
-      <c r="A79" s="2" t="n">
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79" s="2">
         <v>33390</v>
       </c>
-      <c r="B79" t="n">
+      <c r="B79">
         <v>100525000000</v>
       </c>
-      <c r="C79" t="inlineStr"/>
-      <c r="D79" t="inlineStr"/>
-    </row>
-    <row r="80">
-      <c r="A80" s="2" t="n">
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80" s="2">
         <v>33420</v>
       </c>
-      <c r="B80" t="n">
+      <c r="B80">
         <v>103374000000</v>
       </c>
-      <c r="C80" t="inlineStr"/>
-      <c r="D80" t="inlineStr"/>
-    </row>
-    <row r="81">
-      <c r="A81" s="2" t="n">
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81" s="2">
         <v>33451</v>
       </c>
-      <c r="B81" t="n">
+      <c r="B81">
         <v>103987000000</v>
       </c>
-      <c r="C81" t="inlineStr"/>
-      <c r="D81" t="inlineStr"/>
-    </row>
-    <row r="82">
-      <c r="A82" s="2" t="n">
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82" s="2">
         <v>33482</v>
       </c>
-      <c r="B82" t="n">
+      <c r="B82">
         <v>103398000000</v>
       </c>
-      <c r="C82" t="inlineStr"/>
-      <c r="D82" t="inlineStr"/>
-    </row>
-    <row r="83">
-      <c r="A83" s="2" t="n">
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83" s="2">
         <v>33512</v>
       </c>
-      <c r="B83" t="n">
+      <c r="B83">
         <v>103038000000</v>
       </c>
-      <c r="C83" t="inlineStr"/>
-      <c r="D83" t="inlineStr"/>
-    </row>
-    <row r="84">
-      <c r="A84" s="2" t="n">
+    </row>
+    <row r="84" spans="1:2">
+      <c r="A84" s="2">
         <v>33543</v>
       </c>
-      <c r="B84" t="n">
+      <c r="B84">
         <v>103643000000</v>
       </c>
-      <c r="C84" t="inlineStr"/>
-      <c r="D84" t="inlineStr"/>
-    </row>
-    <row r="85">
-      <c r="A85" s="2" t="n">
+    </row>
+    <row r="85" spans="1:2">
+      <c r="A85" s="2">
         <v>33573</v>
       </c>
-      <c r="B85" t="n">
+      <c r="B85">
         <v>106820000000</v>
       </c>
-      <c r="C85" t="inlineStr"/>
-      <c r="D85" t="inlineStr"/>
-    </row>
-    <row r="86">
-      <c r="A86" s="2" t="n">
+    </row>
+    <row r="86" spans="1:2">
+      <c r="A86" s="2">
         <v>33604</v>
       </c>
-      <c r="B86" t="n">
+      <c r="B86">
         <v>106314000000</v>
       </c>
-      <c r="C86" t="inlineStr"/>
-      <c r="D86" t="inlineStr"/>
-    </row>
-    <row r="87">
-      <c r="A87" s="2" t="n">
+    </row>
+    <row r="87" spans="1:2">
+      <c r="A87" s="2">
         <v>33635</v>
       </c>
-      <c r="B87" t="n">
+      <c r="B87">
         <v>107196000000</v>
       </c>
-      <c r="C87" t="inlineStr"/>
-      <c r="D87" t="inlineStr"/>
-    </row>
-    <row r="88">
-      <c r="A88" s="2" t="n">
+    </row>
+    <row r="88" spans="1:2">
+      <c r="A88" s="2">
         <v>33664</v>
       </c>
-      <c r="B88" t="n">
+      <c r="B88">
         <v>108342000000</v>
       </c>
-      <c r="C88" t="inlineStr"/>
-      <c r="D88" t="inlineStr"/>
-    </row>
-    <row r="89">
-      <c r="A89" s="2" t="n">
+    </row>
+    <row r="89" spans="1:2">
+      <c r="A89" s="2">
         <v>33695</v>
       </c>
-      <c r="B89" t="n">
+      <c r="B89">
         <v>108991000000</v>
       </c>
-      <c r="C89" t="inlineStr"/>
-      <c r="D89" t="inlineStr"/>
-    </row>
-    <row r="90">
-      <c r="A90" s="2" t="n">
+    </row>
+    <row r="90" spans="1:2">
+      <c r="A90" s="2">
         <v>33725</v>
       </c>
-      <c r="B90" t="n">
+      <c r="B90">
         <v>108712000000</v>
       </c>
-      <c r="C90" t="inlineStr"/>
-      <c r="D90" t="inlineStr"/>
-    </row>
-    <row r="91">
-      <c r="A91" s="2" t="n">
+    </row>
+    <row r="91" spans="1:2">
+      <c r="A91" s="2">
         <v>33756</v>
       </c>
-      <c r="B91" t="n">
+      <c r="B91">
         <v>108797000000</v>
       </c>
-      <c r="C91" t="inlineStr"/>
-      <c r="D91" t="inlineStr"/>
-    </row>
-    <row r="92">
-      <c r="A92" s="2" t="n">
+    </row>
+    <row r="92" spans="1:2">
+      <c r="A92" s="2">
         <v>33786</v>
       </c>
-      <c r="B92" t="n">
+      <c r="B92">
         <v>112673000000</v>
       </c>
-      <c r="C92" t="inlineStr"/>
-      <c r="D92" t="inlineStr"/>
-    </row>
-    <row r="93">
-      <c r="A93" s="2" t="n">
+    </row>
+    <row r="93" spans="1:2">
+      <c r="A93" s="2">
         <v>33817</v>
       </c>
-      <c r="B93" t="n">
+      <c r="B93">
         <v>113625000000</v>
       </c>
-      <c r="C93" t="inlineStr"/>
-      <c r="D93" t="inlineStr"/>
-    </row>
-    <row r="94">
-      <c r="A94" s="2" t="n">
+    </row>
+    <row r="94" spans="1:2">
+      <c r="A94" s="2">
         <v>33848</v>
       </c>
-      <c r="B94" t="n">
+      <c r="B94">
         <v>112708000000</v>
       </c>
-      <c r="C94" t="inlineStr"/>
-      <c r="D94" t="inlineStr"/>
-    </row>
-    <row r="95">
-      <c r="A95" s="2" t="n">
+    </row>
+    <row r="95" spans="1:2">
+      <c r="A95" s="2">
         <v>33878</v>
       </c>
-      <c r="B95" t="n">
+      <c r="B95">
         <v>112263000000</v>
       </c>
-      <c r="C95" t="inlineStr"/>
-      <c r="D95" t="inlineStr"/>
-    </row>
-    <row r="96">
-      <c r="A96" s="2" t="n">
+    </row>
+    <row r="96" spans="1:2">
+      <c r="A96" s="2">
         <v>33909</v>
       </c>
-      <c r="B96" t="n">
+      <c r="B96">
         <v>111018000000</v>
       </c>
-      <c r="C96" t="inlineStr"/>
-      <c r="D96" t="inlineStr"/>
-    </row>
-    <row r="97">
-      <c r="A97" s="2" t="n">
+    </row>
+    <row r="97" spans="1:2">
+      <c r="A97" s="2">
         <v>33939</v>
       </c>
-      <c r="B97" t="n">
+      <c r="B97">
         <v>113885000000</v>
       </c>
-      <c r="C97" t="inlineStr"/>
-      <c r="D97" t="inlineStr"/>
-    </row>
-    <row r="98">
-      <c r="A98" s="2" t="n">
+    </row>
+    <row r="98" spans="1:2">
+      <c r="A98" s="2">
         <v>33970</v>
       </c>
-      <c r="B98" t="n">
+      <c r="B98">
         <v>111458000000</v>
       </c>
-      <c r="C98" t="inlineStr"/>
-      <c r="D98" t="inlineStr"/>
-    </row>
-    <row r="99">
-      <c r="A99" s="2" t="n">
+    </row>
+    <row r="99" spans="1:2">
+      <c r="A99" s="2">
         <v>34001</v>
       </c>
-      <c r="B99" t="n">
+      <c r="B99">
         <v>111633000000</v>
       </c>
-      <c r="C99" t="inlineStr"/>
-      <c r="D99" t="inlineStr"/>
-    </row>
-    <row r="100">
-      <c r="A100" s="2" t="n">
+    </row>
+    <row r="100" spans="1:2">
+      <c r="A100" s="2">
         <v>34029</v>
       </c>
-      <c r="B100" t="n">
+      <c r="B100">
         <v>113221000000</v>
       </c>
-      <c r="C100" t="inlineStr"/>
-      <c r="D100" t="inlineStr"/>
-    </row>
-    <row r="101">
-      <c r="A101" s="2" t="n">
+    </row>
+    <row r="101" spans="1:2">
+      <c r="A101" s="2">
         <v>34060</v>
       </c>
-      <c r="B101" t="n">
+      <c r="B101">
         <v>112189000000</v>
       </c>
-      <c r="C101" t="inlineStr"/>
-      <c r="D101" t="inlineStr"/>
-    </row>
-    <row r="102">
-      <c r="A102" s="2" t="n">
+    </row>
+    <row r="102" spans="1:2">
+      <c r="A102" s="2">
         <v>34090</v>
       </c>
-      <c r="B102" t="n">
+      <c r="B102">
         <v>114242000000</v>
       </c>
-      <c r="C102" t="inlineStr"/>
-      <c r="D102" t="inlineStr"/>
-    </row>
-    <row r="103">
-      <c r="A103" s="2" t="n">
+    </row>
+    <row r="103" spans="1:2">
+      <c r="A103" s="2">
         <v>34121</v>
       </c>
-      <c r="B103" t="n">
+      <c r="B103">
         <v>114471000000</v>
       </c>
-      <c r="C103" t="inlineStr"/>
-      <c r="D103" t="inlineStr"/>
-    </row>
-    <row r="104">
-      <c r="A104" s="2" t="n">
+    </row>
+    <row r="104" spans="1:2">
+      <c r="A104" s="2">
         <v>34151</v>
       </c>
-      <c r="B104" t="n">
+      <c r="B104">
         <v>118049000000</v>
       </c>
-      <c r="C104" t="inlineStr"/>
-      <c r="D104" t="inlineStr"/>
-    </row>
-    <row r="105">
-      <c r="A105" s="2" t="n">
+    </row>
+    <row r="105" spans="1:2">
+      <c r="A105" s="2">
         <v>34182</v>
       </c>
-      <c r="B105" t="n">
+      <c r="B105">
         <v>118530000000</v>
       </c>
-      <c r="C105" t="inlineStr"/>
-      <c r="D105" t="inlineStr"/>
-    </row>
-    <row r="106">
-      <c r="A106" s="2" t="n">
+    </row>
+    <row r="106" spans="1:2">
+      <c r="A106" s="2">
         <v>34213</v>
       </c>
-      <c r="B106" t="n">
+      <c r="B106">
         <v>116190000000</v>
       </c>
-      <c r="C106" t="inlineStr"/>
-      <c r="D106" t="inlineStr"/>
-    </row>
-    <row r="107">
-      <c r="A107" s="2" t="n">
+    </row>
+    <row r="107" spans="1:2">
+      <c r="A107" s="2">
         <v>34243</v>
       </c>
-      <c r="B107" t="n">
+      <c r="B107">
         <v>117012000000</v>
       </c>
-      <c r="C107" t="inlineStr"/>
-      <c r="D107" t="inlineStr"/>
-    </row>
-    <row r="108">
-      <c r="A108" s="2" t="n">
+    </row>
+    <row r="108" spans="1:2">
+      <c r="A108" s="2">
         <v>34274</v>
       </c>
-      <c r="B108" t="n">
+      <c r="B108">
         <v>116249000000</v>
       </c>
-      <c r="C108" t="inlineStr"/>
-      <c r="D108" t="inlineStr"/>
-    </row>
-    <row r="109">
-      <c r="A109" s="2" t="n">
+    </row>
+    <row r="109" spans="1:2">
+      <c r="A109" s="2">
         <v>34304</v>
       </c>
-      <c r="B109" t="n">
+      <c r="B109">
         <v>119601000000</v>
       </c>
-      <c r="C109" t="inlineStr"/>
-      <c r="D109" t="inlineStr"/>
-    </row>
-    <row r="110">
-      <c r="A110" s="2" t="n">
+    </row>
+    <row r="110" spans="1:2">
+      <c r="A110" s="2">
         <v>34335</v>
       </c>
-      <c r="B110" t="n">
+      <c r="B110">
         <v>117951000000</v>
       </c>
-      <c r="C110" t="inlineStr"/>
-      <c r="D110" t="inlineStr"/>
-    </row>
-    <row r="111">
-      <c r="A111" s="2" t="n">
+    </row>
+    <row r="111" spans="1:2">
+      <c r="A111" s="2">
         <v>34366</v>
       </c>
-      <c r="B111" t="n">
+      <c r="B111">
         <v>120500000000</v>
       </c>
-      <c r="C111" t="inlineStr"/>
-      <c r="D111" t="inlineStr"/>
-    </row>
-    <row r="112">
-      <c r="A112" s="2" t="n">
+    </row>
+    <row r="112" spans="1:2">
+      <c r="A112" s="2">
         <v>34394</v>
       </c>
-      <c r="B112" t="n">
+      <c r="B112">
         <v>121431000000</v>
       </c>
-      <c r="C112" t="inlineStr"/>
-      <c r="D112" t="inlineStr"/>
-    </row>
-    <row r="113">
-      <c r="A113" s="2" t="n">
+    </row>
+    <row r="113" spans="1:2">
+      <c r="A113" s="2">
         <v>34425</v>
       </c>
-      <c r="B113" t="n">
+      <c r="B113">
         <v>122436000000</v>
       </c>
-      <c r="C113" t="inlineStr"/>
-      <c r="D113" t="inlineStr"/>
-    </row>
-    <row r="114">
-      <c r="A114" s="2" t="n">
+    </row>
+    <row r="114" spans="1:2">
+      <c r="A114" s="2">
         <v>34455</v>
       </c>
-      <c r="B114" t="n">
+      <c r="B114">
         <v>124481000000</v>
       </c>
-      <c r="C114" t="inlineStr"/>
-      <c r="D114" t="inlineStr"/>
-    </row>
-    <row r="115">
-      <c r="A115" s="2" t="n">
+    </row>
+    <row r="115" spans="1:2">
+      <c r="A115" s="2">
         <v>34486</v>
       </c>
-      <c r="B115" t="n">
+      <c r="B115">
         <v>126540000000</v>
       </c>
-      <c r="C115" t="inlineStr"/>
-      <c r="D115" t="inlineStr"/>
-    </row>
-    <row r="116">
-      <c r="A116" s="2" t="n">
+    </row>
+    <row r="116" spans="1:2">
+      <c r="A116" s="2">
         <v>34516</v>
       </c>
-      <c r="B116" t="n">
+      <c r="B116">
         <v>131619000000</v>
       </c>
-      <c r="C116" t="inlineStr"/>
-      <c r="D116" t="inlineStr"/>
-    </row>
-    <row r="117">
-      <c r="A117" s="2" t="n">
+    </row>
+    <row r="117" spans="1:2">
+      <c r="A117" s="2">
         <v>34547</v>
       </c>
-      <c r="B117" t="n">
+      <c r="B117">
         <v>132919000000</v>
       </c>
-      <c r="C117" t="inlineStr"/>
-      <c r="D117" t="inlineStr"/>
-    </row>
-    <row r="118">
-      <c r="A118" s="2" t="n">
+    </row>
+    <row r="118" spans="1:2">
+      <c r="A118" s="2">
         <v>34578</v>
       </c>
-      <c r="B118" t="n">
+      <c r="B118">
         <v>130711000000</v>
       </c>
-      <c r="C118" t="inlineStr"/>
-      <c r="D118" t="inlineStr"/>
-    </row>
-    <row r="119">
-      <c r="A119" s="2" t="n">
+    </row>
+    <row r="119" spans="1:2">
+      <c r="A119" s="2">
         <v>34608</v>
       </c>
-      <c r="B119" t="n">
+      <c r="B119">
         <v>130777000000</v>
       </c>
-      <c r="C119" t="inlineStr"/>
-      <c r="D119" t="inlineStr"/>
-    </row>
-    <row r="120">
-      <c r="A120" s="2" t="n">
+    </row>
+    <row r="120" spans="1:2">
+      <c r="A120" s="2">
         <v>34639</v>
       </c>
-      <c r="B120" t="n">
+      <c r="B120">
         <v>131221000000</v>
       </c>
-      <c r="C120" t="inlineStr"/>
-      <c r="D120" t="inlineStr"/>
-    </row>
-    <row r="121">
-      <c r="A121" s="2" t="n">
+    </row>
+    <row r="121" spans="1:2">
+      <c r="A121" s="2">
         <v>34669</v>
       </c>
-      <c r="B121" t="n">
+      <c r="B121">
         <v>133806000000</v>
       </c>
-      <c r="C121" t="inlineStr"/>
-      <c r="D121" t="inlineStr"/>
-    </row>
-    <row r="122">
-      <c r="A122" s="2" t="n">
+    </row>
+    <row r="122" spans="1:2">
+      <c r="A122" s="2">
         <v>34700</v>
       </c>
-      <c r="B122" t="n">
+      <c r="B122">
         <v>134146000000</v>
       </c>
-      <c r="C122" t="inlineStr"/>
-      <c r="D122" t="inlineStr"/>
-    </row>
-    <row r="123">
-      <c r="A123" s="2" t="n">
+    </row>
+    <row r="123" spans="1:2">
+      <c r="A123" s="2">
         <v>34731</v>
       </c>
-      <c r="B123" t="n">
+      <c r="B123">
         <v>135906000000</v>
       </c>
-      <c r="C123" t="inlineStr"/>
-      <c r="D123" t="inlineStr"/>
-    </row>
-    <row r="124">
-      <c r="A124" s="2" t="n">
+    </row>
+    <row r="124" spans="1:2">
+      <c r="A124" s="2">
         <v>34759</v>
       </c>
-      <c r="B124" t="n">
+      <c r="B124">
         <v>134738000000</v>
       </c>
-      <c r="C124" t="inlineStr"/>
-      <c r="D124" t="inlineStr"/>
-    </row>
-    <row r="125">
-      <c r="A125" s="2" t="n">
+    </row>
+    <row r="125" spans="1:2">
+      <c r="A125" s="2">
         <v>34790</v>
       </c>
-      <c r="B125" t="n">
+      <c r="B125">
         <v>135225000000</v>
       </c>
-      <c r="C125" t="inlineStr"/>
-      <c r="D125" t="inlineStr"/>
-    </row>
-    <row r="126">
-      <c r="A126" s="2" t="n">
+    </row>
+    <row r="126" spans="1:2">
+      <c r="A126" s="2">
         <v>34820</v>
       </c>
-      <c r="B126" t="n">
+      <c r="B126">
         <v>136898000000</v>
       </c>
-      <c r="C126" t="inlineStr"/>
-      <c r="D126" t="inlineStr"/>
-    </row>
-    <row r="127">
-      <c r="A127" s="2" t="n">
+    </row>
+    <row r="127" spans="1:2">
+      <c r="A127" s="2">
         <v>34851</v>
       </c>
-      <c r="B127" t="n">
+      <c r="B127">
         <v>136616000000</v>
       </c>
-      <c r="C127" t="inlineStr"/>
-      <c r="D127" t="inlineStr"/>
-    </row>
-    <row r="128">
-      <c r="A128" s="2" t="n">
+    </row>
+    <row r="128" spans="1:2">
+      <c r="A128" s="2">
         <v>34881</v>
       </c>
-      <c r="B128" t="n">
+      <c r="B128">
         <v>139809000000</v>
       </c>
-      <c r="C128" t="inlineStr"/>
-      <c r="D128" t="inlineStr"/>
-    </row>
-    <row r="129">
-      <c r="A129" s="2" t="n">
+    </row>
+    <row r="129" spans="1:2">
+      <c r="A129" s="2">
         <v>34912</v>
       </c>
-      <c r="B129" t="n">
+      <c r="B129">
         <v>141583000000</v>
       </c>
-      <c r="C129" t="inlineStr"/>
-      <c r="D129" t="inlineStr"/>
-    </row>
-    <row r="130">
-      <c r="A130" s="2" t="n">
+    </row>
+    <row r="130" spans="1:2">
+      <c r="A130" s="2">
         <v>34943</v>
       </c>
-      <c r="B130" t="n">
+      <c r="B130">
         <v>140924000000</v>
       </c>
-      <c r="C130" t="inlineStr"/>
-      <c r="D130" t="inlineStr"/>
-    </row>
-    <row r="131">
-      <c r="A131" s="2" t="n">
+    </row>
+    <row r="131" spans="1:2">
+      <c r="A131" s="2">
         <v>34973</v>
       </c>
-      <c r="B131" t="n">
+      <c r="B131">
         <v>139999000000</v>
       </c>
-      <c r="C131" t="inlineStr"/>
-      <c r="D131" t="inlineStr"/>
-    </row>
-    <row r="132">
-      <c r="A132" s="2" t="n">
+    </row>
+    <row r="132" spans="1:2">
+      <c r="A132" s="2">
         <v>35004</v>
       </c>
-      <c r="B132" t="n">
+      <c r="B132">
         <v>139645000000</v>
       </c>
-      <c r="C132" t="inlineStr"/>
-      <c r="D132" t="inlineStr"/>
-    </row>
-    <row r="133">
-      <c r="A133" s="2" t="n">
+    </row>
+    <row r="133" spans="1:2">
+      <c r="A133" s="2">
         <v>35034</v>
       </c>
-      <c r="B133" t="n">
+      <c r="B133">
         <v>142391000000</v>
       </c>
-      <c r="C133" t="inlineStr"/>
-      <c r="D133" t="inlineStr"/>
-    </row>
-    <row r="134">
-      <c r="A134" s="2" t="n">
+    </row>
+    <row r="134" spans="1:2">
+      <c r="A134" s="2">
         <v>35065</v>
       </c>
-      <c r="B134" t="n">
+      <c r="B134">
         <v>141539000000</v>
       </c>
-      <c r="C134" t="inlineStr"/>
-      <c r="D134" t="inlineStr"/>
-    </row>
-    <row r="135">
-      <c r="A135" s="2" t="n">
+    </row>
+    <row r="135" spans="1:2">
+      <c r="A135" s="2">
         <v>35096</v>
       </c>
-      <c r="B135" t="n">
+      <c r="B135">
         <v>141952000000</v>
       </c>
-      <c r="C135" t="inlineStr"/>
-      <c r="D135" t="inlineStr"/>
-    </row>
-    <row r="136">
-      <c r="A136" s="2" t="n">
+    </row>
+    <row r="136" spans="1:2">
+      <c r="A136" s="2">
         <v>35125</v>
       </c>
-      <c r="B136" t="n">
+      <c r="B136">
         <v>141801000000</v>
       </c>
-      <c r="C136" t="inlineStr"/>
-      <c r="D136" t="inlineStr"/>
-    </row>
-    <row r="137">
-      <c r="A137" s="2" t="n">
+    </row>
+    <row r="137" spans="1:2">
+      <c r="A137" s="2">
         <v>35156</v>
       </c>
-      <c r="B137" t="n">
+      <c r="B137">
         <v>143139000000</v>
       </c>
-      <c r="C137" t="inlineStr"/>
-      <c r="D137" t="inlineStr"/>
-    </row>
-    <row r="138">
-      <c r="A138" s="2" t="n">
+    </row>
+    <row r="138" spans="1:2">
+      <c r="A138" s="2">
         <v>35186</v>
       </c>
-      <c r="B138" t="n">
+      <c r="B138">
         <v>142762000000</v>
       </c>
-      <c r="C138" t="inlineStr"/>
-      <c r="D138" t="inlineStr"/>
-    </row>
-    <row r="139">
-      <c r="A139" s="2" t="n">
+    </row>
+    <row r="139" spans="1:2">
+      <c r="A139" s="2">
         <v>35217</v>
       </c>
-      <c r="B139" t="n">
+      <c r="B139">
         <v>145319000000</v>
       </c>
-      <c r="C139" t="inlineStr"/>
-      <c r="D139" t="inlineStr"/>
-    </row>
-    <row r="140">
-      <c r="A140" s="2" t="n">
+    </row>
+    <row r="140" spans="1:2">
+      <c r="A140" s="2">
         <v>35247</v>
       </c>
-      <c r="B140" t="n">
+      <c r="B140">
         <v>148897000000</v>
       </c>
-      <c r="C140" t="inlineStr"/>
-      <c r="D140" t="inlineStr"/>
-    </row>
-    <row r="141">
-      <c r="A141" s="2" t="n">
+    </row>
+    <row r="141" spans="1:2">
+      <c r="A141" s="2">
         <v>35278</v>
       </c>
-      <c r="B141" t="n">
+      <c r="B141">
         <v>149813000000</v>
       </c>
-      <c r="C141" t="inlineStr"/>
-      <c r="D141" t="inlineStr"/>
-    </row>
-    <row r="142">
-      <c r="A142" s="2" t="n">
+    </row>
+    <row r="142" spans="1:2">
+      <c r="A142" s="2">
         <v>35309</v>
       </c>
-      <c r="B142" t="n">
+      <c r="B142">
         <v>149470000000</v>
       </c>
-      <c r="C142" t="inlineStr"/>
-      <c r="D142" t="inlineStr"/>
-    </row>
-    <row r="143">
-      <c r="A143" s="2" t="n">
+    </row>
+    <row r="143" spans="1:2">
+      <c r="A143" s="2">
         <v>35339</v>
       </c>
-      <c r="B143" t="n">
+      <c r="B143">
         <v>148428000000</v>
       </c>
-      <c r="C143" t="inlineStr"/>
-      <c r="D143" t="inlineStr"/>
-    </row>
-    <row r="144">
-      <c r="A144" s="2" t="n">
+    </row>
+    <row r="144" spans="1:2">
+      <c r="A144" s="2">
         <v>35370</v>
       </c>
-      <c r="B144" t="n">
+      <c r="B144">
         <v>149603000000</v>
       </c>
-      <c r="C144" t="inlineStr"/>
-      <c r="D144" t="inlineStr"/>
-    </row>
-    <row r="145">
-      <c r="A145" s="2" t="n">
+    </row>
+    <row r="145" spans="1:4">
+      <c r="A145" s="2">
         <v>35400</v>
       </c>
-      <c r="B145" t="n">
+      <c r="B145">
         <v>151448000000</v>
       </c>
-      <c r="C145" t="inlineStr"/>
-      <c r="D145" t="inlineStr"/>
-    </row>
-    <row r="146">
-      <c r="A146" s="2" t="n">
+    </row>
+    <row r="146" spans="1:4">
+      <c r="A146" s="2">
         <v>35431</v>
       </c>
-      <c r="B146" t="n">
+      <c r="B146">
         <v>151822000000</v>
       </c>
-      <c r="C146" t="inlineStr"/>
-      <c r="D146" t="inlineStr"/>
-    </row>
-    <row r="147">
-      <c r="A147" s="2" t="n">
+    </row>
+    <row r="147" spans="1:4">
+      <c r="A147" s="2">
         <v>35462</v>
       </c>
-      <c r="B147" t="n">
+      <c r="B147">
         <v>152459000000</v>
       </c>
-      <c r="C147" t="inlineStr"/>
-      <c r="D147" t="inlineStr"/>
-    </row>
-    <row r="148">
-      <c r="A148" s="2" t="n">
+    </row>
+    <row r="148" spans="1:4">
+      <c r="A148" s="2">
         <v>35490</v>
       </c>
-      <c r="B148" t="n">
+      <c r="B148">
         <v>152805000000</v>
       </c>
-      <c r="C148" t="inlineStr"/>
-      <c r="D148" t="inlineStr"/>
-    </row>
-    <row r="149">
-      <c r="A149" s="2" t="n">
+    </row>
+    <row r="149" spans="1:4">
+      <c r="A149" s="2">
         <v>35521</v>
       </c>
-      <c r="B149" t="n">
+      <c r="B149">
         <v>154234000000</v>
       </c>
-      <c r="C149" t="inlineStr"/>
-      <c r="D149" t="inlineStr"/>
-    </row>
-    <row r="150">
-      <c r="A150" s="2" t="n">
+    </row>
+    <row r="150" spans="1:4">
+      <c r="A150" s="2">
         <v>35551</v>
       </c>
-      <c r="B150" t="n">
+      <c r="B150">
         <v>152647000000</v>
       </c>
-      <c r="C150" t="inlineStr"/>
-      <c r="D150" t="inlineStr"/>
-    </row>
-    <row r="151">
-      <c r="A151" s="2" t="n">
+    </row>
+    <row r="151" spans="1:4">
+      <c r="A151" s="2">
         <v>35582</v>
       </c>
-      <c r="B151" t="n">
+      <c r="B151">
         <v>159095000000</v>
       </c>
-      <c r="C151" t="inlineStr"/>
-      <c r="D151" t="inlineStr"/>
-    </row>
-    <row r="152">
-      <c r="A152" s="2" t="n">
+    </row>
+    <row r="152" spans="1:4">
+      <c r="A152" s="2">
         <v>35612</v>
       </c>
-      <c r="B152" t="n">
+      <c r="B152">
         <v>159166000000</v>
       </c>
-      <c r="C152" t="inlineStr"/>
-      <c r="D152" t="inlineStr"/>
-    </row>
-    <row r="153">
-      <c r="A153" s="2" t="n">
+    </row>
+    <row r="153" spans="1:4">
+      <c r="A153" s="2">
         <v>35643</v>
       </c>
-      <c r="B153" t="n">
+      <c r="B153">
         <v>160199000000</v>
       </c>
-      <c r="C153" t="n">
+      <c r="C153">
         <v>0.1029866117404737</v>
       </c>
-      <c r="D153" t="n">
+      <c r="D153">
         <v>16498352214.21215</v>
       </c>
     </row>
-    <row r="154">
-      <c r="A154" s="2" t="n">
+    <row r="154" spans="1:4">
+      <c r="A154" s="2">
         <v>35674</v>
       </c>
-      <c r="B154" t="n">
+      <c r="B154">
         <v>159313000000</v>
       </c>
-      <c r="C154" t="n">
+      <c r="C154">
         <v>0.1038745195803469</v>
       </c>
-      <c r="D154" t="n">
+      <c r="D154">
         <v>16548561337.90381</v>
       </c>
     </row>
-    <row r="155">
-      <c r="A155" s="2" t="n">
+    <row r="155" spans="1:4">
+      <c r="A155" s="2">
         <v>35704</v>
       </c>
-      <c r="B155" t="n">
+      <c r="B155">
         <v>160113000000</v>
       </c>
-      <c r="C155" t="n">
+      <c r="C155">
         <v>0.1059973288673125</v>
       </c>
-      <c r="D155" t="n">
+      <c r="D155">
         <v>16971550316.93201</v>
       </c>
     </row>
-    <row r="156">
-      <c r="A156" s="2" t="n">
+    <row r="156" spans="1:4">
+      <c r="A156" s="2">
         <v>35735</v>
       </c>
-      <c r="B156" t="n">
+      <c r="B156">
         <v>160228000000</v>
       </c>
-      <c r="C156" t="n">
+      <c r="C156">
         <v>0.1044713748432929</v>
       </c>
-      <c r="D156" t="n">
+      <c r="D156">
         <v>16739239448.39114</v>
       </c>
     </row>
-    <row r="157">
-      <c r="A157" s="2" t="n">
+    <row r="157" spans="1:4">
+      <c r="A157" s="2">
         <v>35765</v>
       </c>
-      <c r="B157" t="n">
+      <c r="B157">
         <v>163184000000</v>
       </c>
-      <c r="C157" t="n">
+      <c r="C157">
         <v>0.1032204789430223</v>
       </c>
-      <c r="D157" t="n">
+      <c r="D157">
         <v>16843930635.83815</v>
       </c>
     </row>
-    <row r="158">
-      <c r="A158" s="2" t="n">
+    <row r="158" spans="1:4">
+      <c r="A158" s="2">
         <v>35796</v>
       </c>
-      <c r="B158" t="n">
+      <c r="B158">
         <v>161461000000</v>
       </c>
-      <c r="C158" t="n">
+      <c r="C158">
         <v>0.1017293997965412</v>
       </c>
-      <c r="D158" t="n">
+      <c r="D158">
         <v>16425330620.54934</v>
       </c>
     </row>
-    <row r="159">
-      <c r="A159" s="2" t="n">
+    <row r="159" spans="1:4">
+      <c r="A159" s="2">
         <v>35827</v>
       </c>
-      <c r="B159" t="n">
+      <c r="B159">
         <v>161374000000</v>
       </c>
-      <c r="C159" t="n">
+      <c r="C159">
         <v>0.1022306732912143</v>
       </c>
-      <c r="D159" t="n">
+      <c r="D159">
         <v>16497372671.69642</v>
       </c>
     </row>
-    <row r="160">
-      <c r="A160" s="2" t="n">
+    <row r="160" spans="1:4">
+      <c r="A160" s="2">
         <v>35855</v>
       </c>
-      <c r="B160" t="n">
+      <c r="B160">
         <v>162918000000</v>
       </c>
-      <c r="C160" t="n">
+      <c r="C160">
         <v>0.1011695196471207</v>
       </c>
-      <c r="D160" t="n">
+      <c r="D160">
         <v>16482335801.86961</v>
       </c>
     </row>
-    <row r="161">
-      <c r="A161" s="2" t="n">
+    <row r="161" spans="1:4">
+      <c r="A161" s="2">
         <v>35886</v>
       </c>
-      <c r="B161" t="n">
+      <c r="B161">
         <v>163812000000</v>
       </c>
-      <c r="C161" t="n">
+      <c r="C161">
         <v>0.1028912439551394</v>
       </c>
-      <c r="D161" t="n">
+      <c r="D161">
         <v>16854820454.7793</v>
       </c>
     </row>
-    <row r="162">
-      <c r="A162" s="2" t="n">
+    <row r="162" spans="1:4">
+      <c r="A162" s="2">
         <v>35916</v>
       </c>
-      <c r="B162" t="n">
+      <c r="B162">
         <v>164643000000</v>
       </c>
-      <c r="C162" t="n">
+      <c r="C162">
         <v>0.1030609089972174</v>
       </c>
-      <c r="D162" t="n">
+      <c r="D162">
         <v>16968257240.02886</v>
       </c>
     </row>
-    <row r="163">
-      <c r="A163" s="2" t="n">
+    <row r="163" spans="1:4">
+      <c r="A163" s="2">
         <v>35947</v>
       </c>
-      <c r="B163" t="n">
+      <c r="B163">
         <v>168271000000</v>
       </c>
-      <c r="C163" t="n">
+      <c r="C163">
         <v>0.1025209911729427</v>
       </c>
-      <c r="D163" t="n">
+      <c r="D163">
         <v>17251309705.66224</v>
       </c>
     </row>
-    <row r="164">
-      <c r="A164" s="2" t="n">
+    <row r="164" spans="1:4">
+      <c r="A164" s="2">
         <v>35977</v>
       </c>
-      <c r="B164" t="n">
+      <c r="B164">
         <v>173811000000</v>
       </c>
-      <c r="C164" t="n">
+      <c r="C164">
         <v>0.1033837501421526</v>
       </c>
-      <c r="D164" t="n">
+      <c r="D164">
         <v>17969232995.9577</v>
       </c>
     </row>
-    <row r="165">
-      <c r="A165" s="2" t="n">
+    <row r="165" spans="1:4">
+      <c r="A165" s="2">
         <v>36008</v>
       </c>
-      <c r="B165" t="n">
+      <c r="B165">
         <v>174922000000</v>
       </c>
-      <c r="C165" t="n">
+      <c r="C165">
         <v>0.1039447014188452</v>
       </c>
-      <c r="D165" t="n">
+      <c r="D165">
         <v>18182215061.58724</v>
       </c>
     </row>
-    <row r="166">
-      <c r="A166" s="2" t="n">
+    <row r="166" spans="1:4">
+      <c r="A166" s="2">
         <v>36039</v>
       </c>
-      <c r="B166" t="n">
+      <c r="B166">
         <v>176781000000</v>
       </c>
-      <c r="C166" t="n">
+      <c r="C166">
         <v>0.1081993464759473</v>
       </c>
-      <c r="D166" t="n">
+      <c r="D166">
         <v>19127588669.36444</v>
       </c>
     </row>
-    <row r="167">
-      <c r="A167" s="2" t="n">
+    <row r="167" spans="1:4">
+      <c r="A167" s="2">
         <v>36069</v>
       </c>
-      <c r="B167" t="n">
+      <c r="B167">
         <v>174993000000</v>
       </c>
-      <c r="C167" t="n">
+      <c r="C167">
         <v>0.1090857523098908</v>
       </c>
-      <c r="D167" t="n">
+      <c r="D167">
         <v>19089243053.96472</v>
       </c>
     </row>
-    <row r="168">
-      <c r="A168" s="2" t="n">
+    <row r="168" spans="1:4">
+      <c r="A168" s="2">
         <v>36100</v>
       </c>
-      <c r="B168" t="n">
+      <c r="B168">
         <v>174225000000</v>
       </c>
-      <c r="C168" t="n">
+      <c r="C168">
         <v>0.1063377286261166</v>
       </c>
-      <c r="D168" t="n">
+      <c r="D168">
         <v>18526690769.88515</v>
       </c>
     </row>
-    <row r="169">
-      <c r="A169" s="2" t="n">
+    <row r="169" spans="1:4">
+      <c r="A169" s="2">
         <v>36130</v>
       </c>
-      <c r="B169" t="n">
+      <c r="B169">
         <v>175995000000</v>
       </c>
-      <c r="C169" t="n">
+      <c r="C169">
         <v>0.1077354018530489</v>
       </c>
-      <c r="D169" t="n">
+      <c r="D169">
         <v>18960892049.12735</v>
       </c>
     </row>
-    <row r="170">
-      <c r="A170" s="2" t="n">
+    <row r="170" spans="1:4">
+      <c r="A170" s="2">
         <v>36161</v>
       </c>
-      <c r="B170" t="n">
+      <c r="B170">
         <v>178892000000</v>
       </c>
-      <c r="C170" t="n">
+      <c r="C170">
         <v>0.106951871657754</v>
       </c>
-      <c r="D170" t="n">
+      <c r="D170">
         <v>19132834224.59893</v>
       </c>
     </row>
-    <row r="171">
-      <c r="A171" s="2" t="n">
+    <row r="171" spans="1:4">
+      <c r="A171" s="2">
         <v>36192</v>
       </c>
-      <c r="B171" t="n">
+      <c r="B171">
         <v>178083000000</v>
       </c>
-      <c r="C171" t="n">
+      <c r="C171">
         <v>0.1034757504578802</v>
       </c>
-      <c r="D171" t="n">
+      <c r="D171">
         <v>18427272068.79068</v>
       </c>
     </row>
-    <row r="172">
-      <c r="A172" s="2" t="n">
+    <row r="172" spans="1:4">
+      <c r="A172" s="2">
         <v>36220</v>
       </c>
-      <c r="B172" t="n">
+      <c r="B172">
         <v>181361000000</v>
       </c>
-      <c r="C172" t="n">
+      <c r="C172">
         <v>0.1030715316429602</v>
       </c>
-      <c r="D172" t="n">
+      <c r="D172">
         <v>18693156050.29891</v>
       </c>
     </row>
-    <row r="173">
-      <c r="A173" s="2" t="n">
+    <row r="173" spans="1:4">
+      <c r="A173" s="2">
         <v>36251</v>
       </c>
-      <c r="B173" t="n">
+      <c r="B173">
         <v>179073000000</v>
       </c>
-      <c r="C173" t="n">
+      <c r="C173">
         <v>0.1022285831118381</v>
       </c>
-      <c r="D173" t="n">
+      <c r="D173">
         <v>18306379063.58618</v>
       </c>
     </row>
-    <row r="174">
-      <c r="A174" s="2" t="n">
+    <row r="174" spans="1:4">
+      <c r="A174" s="2">
         <v>36281</v>
       </c>
-      <c r="B174" t="n">
+      <c r="B174">
         <v>180201000000</v>
       </c>
-      <c r="C174" t="n">
+      <c r="C174">
         <v>0.1015331505736623</v>
       </c>
-      <c r="D174" t="n">
+      <c r="D174">
         <v>18296375266.52452</v>
       </c>
     </row>
-    <row r="175">
-      <c r="A175" s="2" t="n">
+    <row r="175" spans="1:4">
+      <c r="A175" s="2">
         <v>36312</v>
       </c>
-      <c r="B175" t="n">
+      <c r="B175">
         <v>184525000000</v>
       </c>
-      <c r="C175" t="n">
+      <c r="C175">
         <v>0.09998000399920015</v>
       </c>
-      <c r="D175" t="n">
+      <c r="D175">
         <v>18448810237.95241</v>
       </c>
     </row>
-    <row r="176">
-      <c r="A176" s="2" t="n">
+    <row r="176" spans="1:4">
+      <c r="A176" s="2">
         <v>36342</v>
       </c>
-      <c r="B176" t="n">
+      <c r="B176">
         <v>192468000000</v>
       </c>
-      <c r="C176" t="n">
+      <c r="C176">
         <v>0.102997219075085</v>
       </c>
-      <c r="D176" t="n">
+      <c r="D176">
         <v>19823668760.94345</v>
       </c>
     </row>
-    <row r="177">
-      <c r="A177" s="2" t="n">
+    <row r="177" spans="1:4">
+      <c r="A177" s="2">
         <v>36373</v>
       </c>
-      <c r="B177" t="n">
+      <c r="B177">
         <v>190370000000</v>
       </c>
-      <c r="C177" t="n">
+      <c r="C177">
         <v>0.1026167265264238</v>
       </c>
-      <c r="D177" t="n">
+      <c r="D177">
         <v>19535146228.8353</v>
       </c>
     </row>
-    <row r="178">
-      <c r="A178" s="2" t="n">
+    <row r="178" spans="1:4">
+      <c r="A178" s="2">
         <v>36404</v>
       </c>
-      <c r="B178" t="n">
+      <c r="B178">
         <v>189087000000</v>
       </c>
-      <c r="C178" t="n">
+      <c r="C178">
         <v>0.1028425685959933</v>
       </c>
-      <c r="D178" t="n">
+      <c r="D178">
         <v>19446192768.11058</v>
       </c>
     </row>
-    <row r="179">
-      <c r="A179" s="2" t="n">
+    <row r="179" spans="1:4">
+      <c r="A179" s="2">
         <v>36434</v>
       </c>
-      <c r="B179" t="n">
+      <c r="B179">
         <v>189042000000</v>
       </c>
-      <c r="C179" t="n">
+      <c r="C179">
         <v>0.101633246267519</v>
       </c>
-      <c r="D179" t="n">
+      <c r="D179">
         <v>19212952140.90433</v>
       </c>
     </row>
-    <row r="180">
-      <c r="A180" s="2" t="n">
+    <row r="180" spans="1:4">
+      <c r="A180" s="2">
         <v>36465</v>
       </c>
-      <c r="B180" t="n">
+      <c r="B180">
         <v>189123000000</v>
       </c>
-      <c r="C180" t="n">
+      <c r="C180">
         <v>0.09959167413604222</v>
       </c>
-      <c r="D180" t="n">
+      <c r="D180">
         <v>18835076187.63071</v>
       </c>
     </row>
-    <row r="181">
-      <c r="A181" s="2" t="n">
+    <row r="181" spans="1:4">
+      <c r="A181" s="2">
         <v>36495</v>
       </c>
-      <c r="B181" t="n">
+      <c r="B181">
         <v>195067000000</v>
       </c>
-      <c r="C181" t="n">
+      <c r="C181">
         <v>0.09943323058566172</v>
       </c>
-      <c r="D181" t="n">
+      <c r="D181">
         <v>19396141990.65327</v>
       </c>
     </row>
-    <row r="182">
-      <c r="A182" s="2" t="n">
+    <row r="182" spans="1:4">
+      <c r="A182" s="2">
         <v>36526</v>
       </c>
-      <c r="B182" t="n">
+      <c r="B182">
         <v>192396000000</v>
       </c>
-      <c r="C182" t="n">
+      <c r="C182">
         <v>0.09800078400627205</v>
       </c>
-      <c r="D182" t="n">
+      <c r="D182">
         <v>18854958839.67072</v>
       </c>
     </row>
-    <row r="183">
-      <c r="A183" s="2" t="n">
+    <row r="183" spans="1:4">
+      <c r="A183" s="2">
         <v>36557</v>
       </c>
-      <c r="B183" t="n">
+      <c r="B183">
         <v>194116000000</v>
       </c>
-      <c r="C183" t="n">
+      <c r="C183">
         <v>0.09722897423432182</v>
       </c>
-      <c r="D183" t="n">
+      <c r="D183">
         <v>18873699562.46962</v>
       </c>
     </row>
-    <row r="184">
-      <c r="A184" s="2" t="n">
+    <row r="184" spans="1:4">
+      <c r="A184" s="2">
         <v>36586</v>
       </c>
-      <c r="B184" t="n">
+      <c r="B184">
         <v>195625000000</v>
       </c>
-      <c r="C184" t="n">
+      <c r="C184">
         <v>0.09664637092877162</v>
       </c>
-      <c r="D184" t="n">
+      <c r="D184">
         <v>18906446312.94095</v>
       </c>
     </row>
-    <row r="185">
-      <c r="A185" s="2" t="n">
+    <row r="185" spans="1:4">
+      <c r="A185" s="2">
         <v>36617</v>
       </c>
-      <c r="B185" t="n">
+      <c r="B185">
         <v>195469000000</v>
       </c>
-      <c r="C185" t="n">
+      <c r="C185">
         <v>0.09417082587814295</v>
       </c>
-      <c r="D185" t="n">
+      <c r="D185">
         <v>18407477163.57472</v>
       </c>
     </row>
-    <row r="186">
-      <c r="A186" s="2" t="n">
+    <row r="186" spans="1:4">
+      <c r="A186" s="2">
         <v>36647</v>
       </c>
-      <c r="B186" t="n">
+      <c r="B186">
         <v>195335000000</v>
       </c>
-      <c r="C186" t="n">
+      <c r="C186">
         <v>0.09479571523367145</v>
       </c>
-      <c r="D186" t="n">
+      <c r="D186">
         <v>18516921035.16921</v>
       </c>
     </row>
-    <row r="187">
-      <c r="A187" s="2" t="n">
+    <row r="187" spans="1:4">
+      <c r="A187" s="2">
         <v>36678</v>
       </c>
-      <c r="B187" t="n">
+      <c r="B187">
         <v>200209000000</v>
       </c>
-      <c r="C187" t="n">
+      <c r="C187">
         <v>0.09640412609659695</v>
       </c>
-      <c r="D187" t="n">
+      <c r="D187">
         <v>19300973681.67358</v>
       </c>
     </row>
-    <row r="188">
-      <c r="A188" s="2" t="n">
+    <row r="188" spans="1:4">
+      <c r="A188" s="2">
         <v>36708</v>
       </c>
-      <c r="B188" t="n">
+      <c r="B188">
         <v>202612000000</v>
       </c>
-      <c r="C188" t="n">
+      <c r="C188">
         <v>0.09416195856873824</v>
       </c>
-      <c r="D188" t="n">
+      <c r="D188">
         <v>19078342749.52919</v>
       </c>
     </row>
-    <row r="189">
-      <c r="A189" s="2" t="n">
+    <row r="189" spans="1:4">
+      <c r="A189" s="2">
         <v>36739</v>
       </c>
-      <c r="B189" t="n">
+      <c r="B189">
         <v>205152000000</v>
       </c>
-      <c r="C189" t="n">
+      <c r="C189">
         <v>0.0927643784786642</v>
       </c>
-      <c r="D189" t="n">
+      <c r="D189">
         <v>19030797773.65492</v>
       </c>
     </row>
-    <row r="190">
-      <c r="A190" s="2" t="n">
+    <row r="190" spans="1:4">
+      <c r="A190" s="2">
         <v>36770</v>
       </c>
-      <c r="B190" t="n">
+      <c r="B190">
         <v>206559000000</v>
       </c>
-      <c r="C190" t="n">
+      <c r="C190">
         <v>0.09230201218386561</v>
       </c>
-      <c r="D190" t="n">
+      <c r="D190">
         <v>19065811334.6871</v>
       </c>
     </row>
-    <row r="191">
-      <c r="A191" s="2" t="n">
+    <row r="191" spans="1:4">
+      <c r="A191" s="2">
         <v>36800</v>
       </c>
-      <c r="B191" t="n">
+      <c r="B191">
         <v>203731000000</v>
       </c>
-      <c r="C191" t="n">
+      <c r="C191">
         <v>0.08980691513246521</v>
       </c>
-      <c r="D191" t="n">
+      <c r="D191">
         <v>18296452626.85227</v>
       </c>
     </row>
-    <row r="192">
-      <c r="A192" s="2" t="n">
+    <row r="192" spans="1:4">
+      <c r="A192" s="2">
         <v>36831</v>
       </c>
-      <c r="B192" t="n">
+      <c r="B192">
         <v>202437000000</v>
       </c>
-      <c r="C192" t="n">
+      <c r="C192">
         <v>0.09110787172011661</v>
       </c>
-      <c r="D192" t="n">
+      <c r="D192">
         <v>18443604227.40525</v>
       </c>
     </row>
-    <row r="193">
-      <c r="A193" s="2" t="n">
+    <row r="193" spans="1:4">
+      <c r="A193" s="2">
         <v>36861</v>
       </c>
-      <c r="B193" t="n">
+      <c r="B193">
         <v>208951000000</v>
       </c>
-      <c r="C193" t="n">
+      <c r="C193">
         <v>0.09456264775413713</v>
       </c>
-      <c r="D193" t="n">
+      <c r="D193">
         <v>19758959810.87471</v>
       </c>
     </row>
-    <row r="194">
-      <c r="A194" s="2" t="n">
+    <row r="194" spans="1:4">
+      <c r="A194" s="2">
         <v>36892</v>
       </c>
-      <c r="B194" t="n">
+      <c r="B194">
         <v>205278000000</v>
       </c>
-      <c r="C194" t="n">
+      <c r="C194">
         <v>0.09404683532399136</v>
       </c>
-      <c r="D194" t="n">
+      <c r="D194">
         <v>19305746261.6383</v>
       </c>
     </row>
-    <row r="195">
-      <c r="A195" s="2" t="n">
+    <row r="195" spans="1:4">
+      <c r="A195" s="2">
         <v>36923</v>
       </c>
-      <c r="B195" t="n">
+      <c r="B195">
         <v>210265000000</v>
       </c>
-      <c r="C195" t="n">
+      <c r="C195">
         <v>0.09373388948774429</v>
       </c>
-      <c r="D195" t="n">
+      <c r="D195">
         <v>19708956273.14055</v>
       </c>
     </row>
-    <row r="196">
-      <c r="A196" s="2" t="n">
+    <row r="196" spans="1:4">
+      <c r="A196" s="2">
         <v>36951</v>
       </c>
-      <c r="B196" t="n">
+      <c r="B196">
         <v>213236000000</v>
       </c>
-      <c r="C196" t="n">
+      <c r="C196">
         <v>0.09101168590046961</v>
       </c>
-      <c r="D196" t="n">
+      <c r="D196">
         <v>19406967854.67254</v>
       </c>
     </row>
-    <row r="197">
-      <c r="A197" s="2" t="n">
+    <row r="197" spans="1:4">
+      <c r="A197" s="2">
         <v>36982</v>
       </c>
-      <c r="B197" t="n">
+      <c r="B197">
         <v>212781000000</v>
       </c>
-      <c r="C197" t="n">
+      <c r="C197">
         <v>0.08680555555555555</v>
       </c>
-      <c r="D197" t="n">
+      <c r="D197">
         <v>18470572916.66666</v>
       </c>
     </row>
-    <row r="198">
-      <c r="A198" s="2" t="n">
+    <row r="198" spans="1:4">
+      <c r="A198" s="2">
         <v>37012</v>
       </c>
-      <c r="B198" t="n">
+      <c r="B198">
         <v>216013000000</v>
       </c>
-      <c r="C198" t="n">
+      <c r="C198">
         <v>0.08399126490844952</v>
       </c>
-      <c r="D198" t="n">
+      <c r="D198">
         <v>18143205106.66891</v>
       </c>
     </row>
-    <row r="199">
-      <c r="A199" s="2" t="n">
+    <row r="199" spans="1:4">
+      <c r="A199" s="2">
         <v>37043</v>
       </c>
-      <c r="B199" t="n">
+      <c r="B199">
         <v>221194000000</v>
       </c>
-      <c r="C199" t="n">
+      <c r="C199">
         <v>0.08408943752575239</v>
       </c>
-      <c r="D199" t="n">
+      <c r="D199">
         <v>18600079044.07127</v>
       </c>
     </row>
-    <row r="200">
-      <c r="A200" s="2" t="n">
+    <row r="200" spans="1:4">
+      <c r="A200" s="2">
         <v>37073</v>
       </c>
-      <c r="B200" t="n">
+      <c r="B200">
         <v>227160000000</v>
       </c>
-      <c r="C200" t="n">
+      <c r="C200">
         <v>0.08599487470546754</v>
       </c>
-      <c r="D200" t="n">
+      <c r="D200">
         <v>19534595738.09401</v>
       </c>
     </row>
-    <row r="201">
-      <c r="A201" s="2" t="n">
+    <row r="201" spans="1:4">
+      <c r="A201" s="2">
         <v>37104</v>
       </c>
-      <c r="B201" t="n">
+      <c r="B201">
         <v>230304000000</v>
       </c>
-      <c r="C201" t="n">
+      <c r="C201">
         <v>0.08854258898530193</v>
       </c>
-      <c r="D201" t="n">
+      <c r="D201">
         <v>20391712413.67097</v>
       </c>
     </row>
-    <row r="202">
-      <c r="A202" s="2" t="n">
+    <row r="202" spans="1:4">
+      <c r="A202" s="2">
         <v>37135</v>
       </c>
-      <c r="B202" t="n">
+      <c r="B202">
         <v>230508000000</v>
       </c>
-      <c r="C202" t="n">
+      <c r="C202">
         <v>0.08866427273130292</v>
       </c>
-      <c r="D202" t="n">
+      <c r="D202">
         <v>20437824178.74717</v>
       </c>
     </row>
-    <row r="203">
-      <c r="A203" s="2" t="n">
+    <row r="203" spans="1:4">
+      <c r="A203" s="2">
         <v>37165</v>
       </c>
-      <c r="B203" t="n">
+      <c r="B203">
         <v>231543000000</v>
       </c>
-      <c r="C203" t="n">
+      <c r="C203">
         <v>0.08795848359574281</v>
       </c>
-      <c r="D203" t="n">
+      <c r="D203">
         <v>20366171167.20908</v>
       </c>
     </row>
-    <row r="204">
-      <c r="A204" s="2" t="n">
+    <row r="204" spans="1:4">
+      <c r="A204" s="2">
         <v>37196</v>
       </c>
-      <c r="B204" t="n">
+      <c r="B204">
         <v>233523000000</v>
       </c>
-      <c r="C204" t="n">
+      <c r="C204">
         <v>0.08733624454148473</v>
       </c>
-      <c r="D204" t="n">
+      <c r="D204">
         <v>20395021834.06114</v>
       </c>
     </row>
-    <row r="205">
-      <c r="A205" s="2" t="n">
+    <row r="205" spans="1:4">
+      <c r="A205" s="2">
         <v>37226</v>
       </c>
-      <c r="B205" t="n">
+      <c r="B205">
         <v>255903000000</v>
       </c>
-      <c r="C205" t="n">
+      <c r="C205">
         <v>0.0862738331464067</v>
       </c>
-      <c r="D205" t="n">
+      <c r="D205">
         <v>22077732723.66491</v>
       </c>
     </row>
-    <row r="206">
-      <c r="A206" s="2" t="n">
+    <row r="206" spans="1:4">
+      <c r="A206" s="2">
         <v>37257</v>
       </c>
-      <c r="B206" t="n">
+      <c r="B206">
         <v>251220000000</v>
       </c>
-      <c r="C206" t="n">
+      <c r="C206">
         <v>0.08488243782361429</v>
       </c>
-      <c r="D206" t="n">
+      <c r="D206">
         <v>21324166030.04838</v>
       </c>
     </row>
-    <row r="207">
-      <c r="A207" s="2" t="n">
+    <row r="207" spans="1:4">
+      <c r="A207" s="2">
         <v>37288</v>
       </c>
-      <c r="B207" t="n">
+      <c r="B207">
         <v>254503000000</v>
       </c>
-      <c r="C207" t="n">
+      <c r="C207">
         <v>0.08538324268479068</v>
       </c>
-      <c r="D207" t="n">
+      <c r="D207">
         <v>21730291413.00728</v>
       </c>
     </row>
-    <row r="208">
-      <c r="A208" s="2" t="n">
+    <row r="208" spans="1:4">
+      <c r="A208" s="2">
         <v>37316</v>
       </c>
-      <c r="B208" t="n">
+      <c r="B208">
         <v>255041000000</v>
       </c>
-      <c r="C208" t="n">
+      <c r="C208">
         <v>0.08558786021790669</v>
       </c>
-      <c r="D208" t="n">
+      <c r="D208">
         <v>21828413457.83514</v>
       </c>
     </row>
-    <row r="209">
-      <c r="A209" s="2" t="n">
+    <row r="209" spans="1:4">
+      <c r="A209" s="2">
         <v>37347</v>
       </c>
-      <c r="B209" t="n">
+      <c r="B209">
         <v>255563000000</v>
       </c>
-      <c r="C209" t="n">
+      <c r="C209">
         <v>0.08778706369829342</v>
       </c>
-      <c r="D209" t="n">
+      <c r="D209">
         <v>22435125359.92696</v>
       </c>
     </row>
-    <row r="210">
-      <c r="A210" s="2" t="n">
+    <row r="210" spans="1:4">
+      <c r="A210" s="2">
         <v>37377</v>
       </c>
-      <c r="B210" t="n">
+      <c r="B210">
         <v>256609000000</v>
       </c>
-      <c r="C210" t="n">
+      <c r="C210">
         <v>0.09016238245079387</v>
       </c>
-      <c r="D210" t="n">
+      <c r="D210">
         <v>23136478798.31577</v>
       </c>
     </row>
-    <row r="211">
-      <c r="A211" s="2" t="n">
+    <row r="211" spans="1:4">
+      <c r="A211" s="2">
         <v>37408</v>
       </c>
-      <c r="B211" t="n">
+      <c r="B211">
         <v>263546000000</v>
       </c>
-      <c r="C211" t="n">
+      <c r="C211">
         <v>0.09433428296511519</v>
       </c>
-      <c r="D211" t="n">
+      <c r="D211">
         <v>24861422938.32425</v>
       </c>
     </row>
-    <row r="212">
-      <c r="A212" s="2" t="n">
+    <row r="212" spans="1:4">
+      <c r="A212" s="2">
         <v>37438</v>
       </c>
-      <c r="B212" t="n">
+      <c r="B212">
         <v>268198000000</v>
       </c>
-      <c r="C212" t="n">
+      <c r="C212">
         <v>0.09338463262485526</v>
       </c>
-      <c r="D212" t="n">
+      <c r="D212">
         <v>25045571700.72093</v>
       </c>
     </row>
-    <row r="213">
-      <c r="A213" s="2" t="n">
+    <row r="213" spans="1:4">
+      <c r="A213" s="2">
         <v>37469</v>
       </c>
-      <c r="B213" t="n">
+      <c r="B213">
         <v>272019000000</v>
       </c>
-      <c r="C213" t="n">
+      <c r="C213">
         <v>0.09373125374925016</v>
       </c>
-      <c r="D213" t="n">
+      <c r="D213">
         <v>25496681913.61728</v>
       </c>
     </row>
-    <row r="214">
-      <c r="A214" s="2" t="n">
+    <row r="214" spans="1:4">
+      <c r="A214" s="2">
         <v>37500</v>
       </c>
-      <c r="B214" t="n">
+      <c r="B214">
         <v>272225000000</v>
       </c>
-      <c r="C214" t="n">
+      <c r="C214">
         <v>0.09407514722760542</v>
       </c>
-      <c r="D214" t="n">
+      <c r="D214">
         <v>25609606954.03489</v>
       </c>
     </row>
-    <row r="215">
-      <c r="A215" s="2" t="n">
+    <row r="215" spans="1:4">
+      <c r="A215" s="2">
         <v>37530</v>
       </c>
-      <c r="B215" t="n">
+      <c r="B215">
         <v>271258000000</v>
       </c>
-      <c r="C215" t="n">
+      <c r="C215">
         <v>0.09445189564954568</v>
       </c>
-      <c r="D215" t="n">
+      <c r="D215">
         <v>25620832310.10446</v>
       </c>
     </row>
-    <row r="216">
-      <c r="A216" s="2" t="n">
+    <row r="216" spans="1:4">
+      <c r="A216" s="2">
         <v>37561</v>
       </c>
-      <c r="B216" t="n">
+      <c r="B216">
         <v>275508000000</v>
       </c>
-      <c r="C216" t="n">
+      <c r="C216">
         <v>0.09461991181424219</v>
       </c>
-      <c r="D216" t="n">
+      <c r="D216">
         <v>26068542664.11824</v>
       </c>
     </row>
-    <row r="217">
-      <c r="A217" s="2" t="n">
+    <row r="217" spans="1:4">
+      <c r="A217" s="2">
         <v>37591</v>
       </c>
-      <c r="B217" t="n">
+      <c r="B217">
         <v>287109000000</v>
       </c>
-      <c r="C217" t="n">
+      <c r="C217">
         <v>0.09866019455790367</v>
       </c>
-      <c r="D217" t="n">
+      <c r="D217">
         <v>28326229799.32516</v>
       </c>
     </row>
-    <row r="218">
-      <c r="A218" s="2" t="n">
+    <row r="218" spans="1:4">
+      <c r="A218" s="2">
         <v>37622</v>
       </c>
-      <c r="B218" t="n">
+      <c r="B218">
         <v>286480000000</v>
       </c>
-      <c r="C218" t="n">
+      <c r="C218">
         <v>0.1003623079316332</v>
       </c>
-      <c r="D218" t="n">
+      <c r="D218">
         <v>28751793976.25428</v>
       </c>
     </row>
-    <row r="219">
-      <c r="A219" s="2" t="n">
+    <row r="219" spans="1:4">
+      <c r="A219" s="2">
         <v>37653</v>
       </c>
-      <c r="B219" t="n">
+      <c r="B219">
         <v>291159000000</v>
       </c>
-      <c r="C219" t="n">
+      <c r="C219">
         <v>0.1007556675062972</v>
       </c>
-      <c r="D219" t="n">
+      <c r="D219">
         <v>29335919395.46599</v>
       </c>
     </row>
-    <row r="220">
-      <c r="A220" s="2" t="n">
+    <row r="220" spans="1:4">
+      <c r="A220" s="2">
         <v>37681</v>
       </c>
-      <c r="B220" t="n">
+      <c r="B220">
         <v>289957000000</v>
       </c>
-      <c r="C220" t="n">
+      <c r="C220">
         <v>0.1015135672882681</v>
       </c>
-      <c r="D220" t="n">
+      <c r="D220">
         <v>29434569430.20435</v>
       </c>
     </row>
-    <row r="221">
-      <c r="A221" s="2" t="n">
+    <row r="221" spans="1:4">
+      <c r="A221" s="2">
         <v>37712</v>
       </c>
-      <c r="B221" t="n">
+      <c r="B221">
         <v>287788000000</v>
       </c>
-      <c r="C221" t="n">
+      <c r="C221">
         <v>0.1041449697979588</v>
       </c>
-      <c r="D221" t="n">
+      <c r="D221">
         <v>29971672568.21495</v>
       </c>
     </row>
-    <row r="222">
-      <c r="A222" s="2" t="n">
+    <row r="222" spans="1:4">
+      <c r="A222" s="2">
         <v>37742</v>
       </c>
-      <c r="B222" t="n">
+      <c r="B222">
         <v>285983000000</v>
       </c>
-      <c r="C222" t="n">
+      <c r="C222">
         <v>0.1079097874177188</v>
       </c>
-      <c r="D222" t="n">
+      <c r="D222">
         <v>30860364735.08147</v>
       </c>
     </row>
-    <row r="223">
-      <c r="A223" s="2" t="n">
+    <row r="223" spans="1:4">
+      <c r="A223" s="2">
         <v>37773</v>
       </c>
-      <c r="B223" t="n">
+      <c r="B223">
         <v>291372000000</v>
       </c>
-      <c r="C223" t="n">
+      <c r="C223">
         <v>0.1065416577881952</v>
       </c>
-      <c r="D223" t="n">
+      <c r="D223">
         <v>31043255913.06201</v>
       </c>
     </row>
-    <row r="224">
-      <c r="A224" s="2" t="n">
+    <row r="224" spans="1:4">
+      <c r="A224" s="2">
         <v>37803</v>
       </c>
-      <c r="B224" t="n">
+      <c r="B224">
         <v>301023000000</v>
       </c>
-      <c r="C224" t="n">
+      <c r="C224">
         <v>0.1039371388184426</v>
       </c>
-      <c r="D224" t="n">
+      <c r="D224">
         <v>31287469338.54405</v>
       </c>
     </row>
-    <row r="225">
-      <c r="A225" s="2" t="n">
+    <row r="225" spans="1:4">
+      <c r="A225" s="2">
         <v>37834</v>
       </c>
-      <c r="B225" t="n">
+      <c r="B225">
         <v>303815000000</v>
       </c>
-      <c r="C225" t="n">
+      <c r="C225">
         <v>0.1021909744931328</v>
       </c>
-      <c r="D225" t="n">
+      <c r="D225">
         <v>31047150915.63113</v>
       </c>
     </row>
-    <row r="226">
-      <c r="A226" s="2" t="n">
+    <row r="226" spans="1:4">
+      <c r="A226" s="2">
         <v>37865</v>
       </c>
-      <c r="B226" t="n">
+      <c r="B226">
         <v>303847000000</v>
       </c>
-      <c r="C226" t="n">
+      <c r="C226">
         <v>0.107654214662504</v>
       </c>
-      <c r="D226" t="n">
+      <c r="D226">
         <v>32710410162.55787</v>
       </c>
     </row>
-    <row r="227">
-      <c r="A227" s="2" t="n">
+    <row r="227" spans="1:4">
+      <c r="A227" s="2">
         <v>37895</v>
       </c>
-      <c r="B227" t="n">
+      <c r="B227">
         <v>306349000000</v>
       </c>
-      <c r="C227" t="n">
+      <c r="C227">
         <v>0.1065371175317481</v>
       </c>
-      <c r="D227" t="n">
+      <c r="D227">
         <v>32637539418.73349</v>
       </c>
     </row>
-    <row r="228">
-      <c r="A228" s="2" t="n">
+    <row r="228" spans="1:4">
+      <c r="A228" s="2">
         <v>37926</v>
       </c>
-      <c r="B228" t="n">
+      <c r="B228">
         <v>306538000000</v>
       </c>
-      <c r="C228" t="n">
+      <c r="C228">
         <v>0.1095326242921454</v>
       </c>
-      <c r="D228" t="n">
+      <c r="D228">
         <v>33575911585.26567</v>
       </c>
     </row>
-    <row r="229">
-      <c r="A229" s="2" t="n">
+    <row r="229" spans="1:4">
+      <c r="A229" s="2">
         <v>37956</v>
       </c>
-      <c r="B229" t="n">
+      <c r="B229">
         <v>316143000000</v>
       </c>
-      <c r="C229" t="n">
+      <c r="C229">
         <v>0.1138096647167278</v>
       </c>
-      <c r="D229" t="n">
+      <c r="D229">
         <v>35980128832.54046</v>
       </c>
     </row>
-    <row r="230">
-      <c r="A230" s="2" t="n">
+    <row r="230" spans="1:4">
+      <c r="A230" s="2">
         <v>37987</v>
       </c>
-      <c r="B230" t="n">
+      <c r="B230">
         <v>317571000000</v>
       </c>
-      <c r="C230" t="n">
+      <c r="C230">
         <v>0.113245153107447</v>
       </c>
-      <c r="D230" t="n">
+      <c r="D230">
         <v>35963376517.48505</v>
       </c>
     </row>
-    <row r="231">
-      <c r="A231" s="2" t="n">
+    <row r="231" spans="1:4">
+      <c r="A231" s="2">
         <v>38018</v>
       </c>
-      <c r="B231" t="n">
+      <c r="B231">
         <v>319168000000</v>
       </c>
-      <c r="C231" t="n">
+      <c r="C231">
         <v>0.112555574314818</v>
       </c>
-      <c r="D231" t="n">
+      <c r="D231">
         <v>35924137542.91182</v>
       </c>
     </row>
-    <row r="232">
-      <c r="A232" s="2" t="n">
+    <row r="232" spans="1:4">
+      <c r="A232" s="2">
         <v>38047</v>
       </c>
-      <c r="B232" t="n">
+      <c r="B232">
         <v>320816000000</v>
       </c>
-      <c r="C232" t="n">
+      <c r="C232">
         <v>0.1120448179271709</v>
       </c>
-      <c r="D232" t="n">
+      <c r="D232">
         <v>35945770308.12325</v>
       </c>
     </row>
-    <row r="233">
-      <c r="A233" s="2" t="n">
+    <row r="233" spans="1:4">
+      <c r="A233" s="2">
         <v>38078</v>
       </c>
-      <c r="B233" t="n">
+      <c r="B233">
         <v>321936000000</v>
       </c>
-      <c r="C233" t="n">
+      <c r="C233">
         <v>0.109379272627837</v>
       </c>
-      <c r="D233" t="n">
+      <c r="D233">
         <v>35213125512.71534</v>
       </c>
     </row>
-    <row r="234">
-      <c r="A234" s="2" t="n">
+    <row r="234" spans="1:4">
+      <c r="A234" s="2">
         <v>38108</v>
       </c>
-      <c r="B234" t="n">
+      <c r="B234">
         <v>323096000000</v>
       </c>
-      <c r="C234" t="n">
+      <c r="C234">
         <v>0.1110494169905608</v>
       </c>
-      <c r="D234" t="n">
+      <c r="D234">
         <v>35879622431.98222</v>
       </c>
     </row>
-    <row r="235">
-      <c r="A235" s="2" t="n">
+    <row r="235" spans="1:4">
+      <c r="A235" s="2">
         <v>38139</v>
       </c>
-      <c r="B235" t="n">
+      <c r="B235">
         <v>328793000000</v>
       </c>
-      <c r="C235" t="n">
+      <c r="C235">
         <v>0.1110432513463994</v>
       </c>
-      <c r="D235" t="n">
+      <c r="D235">
         <v>36510243739.93671</v>
       </c>
     </row>
-    <row r="236">
-      <c r="A236" s="2" t="n">
+    <row r="236" spans="1:4">
+      <c r="A236" s="2">
         <v>38169</v>
       </c>
-      <c r="B236" t="n">
+      <c r="B236">
         <v>336435000000</v>
       </c>
-      <c r="C236" t="n">
+      <c r="C236">
         <v>0.1099565671559734</v>
       </c>
-      <c r="D236" t="n">
+      <c r="D236">
         <v>36993237671.11991</v>
       </c>
     </row>
-    <row r="237">
-      <c r="A237" s="2" t="n">
+    <row r="237" spans="1:4">
+      <c r="A237" s="2">
         <v>38200</v>
       </c>
-      <c r="B237" t="n">
+      <c r="B237">
         <v>336331000000</v>
       </c>
-      <c r="C237" t="n">
+      <c r="C237">
         <v>0.1108057796294655</v>
       </c>
-      <c r="D237" t="n">
+      <c r="D237">
         <v>37267418668.55775</v>
       </c>
     </row>
-    <row r="238">
-      <c r="A238" s="2" t="n">
+    <row r="238" spans="1:4">
+      <c r="A238" s="2">
         <v>38231</v>
       </c>
-      <c r="B238" t="n">
+      <c r="B238">
         <v>336466000000</v>
       </c>
-      <c r="C238" t="n">
+      <c r="C238">
         <v>0.1128095211235828</v>
       </c>
-      <c r="D238" t="n">
+      <c r="D238">
         <v>37956568334.36742</v>
       </c>
     </row>
-    <row r="239">
-      <c r="A239" s="2" t="n">
+    <row r="239" spans="1:4">
+      <c r="A239" s="2">
         <v>38261</v>
       </c>
-      <c r="B239" t="n">
+      <c r="B239">
         <v>336958000000</v>
       </c>
-      <c r="C239" t="n">
+      <c r="C239">
         <v>0.1150020125352194</v>
       </c>
-      <c r="D239" t="n">
+      <c r="D239">
         <v>38750848139.84245</v>
       </c>
     </row>
-    <row r="240">
-      <c r="A240" s="2" t="n">
+    <row r="240" spans="1:4">
+      <c r="A240" s="2">
         <v>38292</v>
       </c>
-      <c r="B240" t="n">
+      <c r="B240">
         <v>337951000000</v>
       </c>
-      <c r="C240" t="n">
+      <c r="C240">
         <v>0.1191440690082448</v>
       </c>
-      <c r="D240" t="n">
+      <c r="D240">
         <v>40264857265.40533</v>
       </c>
     </row>
-    <row r="241">
-      <c r="A241" s="2" t="n">
+    <row r="241" spans="1:4">
+      <c r="A241" s="2">
         <v>38322</v>
       </c>
-      <c r="B241" t="n">
+      <c r="B241">
         <v>345506000000</v>
       </c>
-      <c r="C241" t="n">
+      <c r="C241">
         <v>0.1214919207872676</v>
       </c>
-      <c r="D241" t="n">
+      <c r="D241">
         <v>41976187583.5257</v>
       </c>
     </row>
-    <row r="242">
-      <c r="A242" s="2" t="n">
+    <row r="242" spans="1:4">
+      <c r="A242" s="2">
         <v>38353</v>
       </c>
-      <c r="B242" t="n">
+      <c r="B242">
         <v>347156000000</v>
       </c>
-      <c r="C242" t="n">
+      <c r="C242">
         <v>0.1177273904546632</v>
       </c>
-      <c r="D242" t="n">
+      <c r="D242">
         <v>40869769960.67905</v>
       </c>
     </row>
-    <row r="243">
-      <c r="A243" s="2" t="n">
+    <row r="243" spans="1:4">
+      <c r="A243" s="2">
         <v>38384</v>
       </c>
-      <c r="B243" t="n">
+      <c r="B243">
         <v>346557000000</v>
       </c>
-      <c r="C243" t="n">
+      <c r="C243">
         <v>0.11718795776546</v>
       </c>
-      <c r="D243" t="n">
+      <c r="D243">
         <v>40612307079.32452</v>
       </c>
     </row>
-    <row r="244">
-      <c r="A244" s="2" t="n">
+    <row r="244" spans="1:4">
+      <c r="A244" s="2">
         <v>38412</v>
       </c>
-      <c r="B244" t="n">
+      <c r="B244">
         <v>353457000000</v>
       </c>
-      <c r="C244" t="n">
+      <c r="C244">
         <v>0.1170275014628438</v>
       </c>
-      <c r="D244" t="n">
+      <c r="D244">
         <v>41364189584.55237</v>
       </c>
     </row>
-    <row r="245">
-      <c r="A245" s="2" t="n">
+    <row r="245" spans="1:4">
+      <c r="A245" s="2">
         <v>38443</v>
       </c>
-      <c r="B245" t="n">
+      <c r="B245">
         <v>352484000000</v>
       </c>
-      <c r="C245" t="n">
+      <c r="C245">
         <v>0.1160631383472609</v>
       </c>
-      <c r="D245" t="n">
+      <c r="D245">
         <v>40910399257.19592</v>
       </c>
     </row>
-    <row r="246">
-      <c r="A246" s="2" t="n">
+    <row r="246" spans="1:4">
+      <c r="A246" s="2">
         <v>38473</v>
       </c>
-      <c r="B246" t="n">
+      <c r="B246">
         <v>349974000000</v>
       </c>
-      <c r="C246" t="n">
+      <c r="C246">
         <v>0.1118630795905811</v>
       </c>
-      <c r="D246" t="n">
+      <c r="D246">
         <v>39149169416.63403</v>
       </c>
     </row>
-    <row r="247">
-      <c r="A247" s="2" t="n">
+    <row r="247" spans="1:4">
+      <c r="A247" s="2">
         <v>38504</v>
       </c>
-      <c r="B247" t="n">
+      <c r="B247">
         <v>358579000000</v>
       </c>
-      <c r="C247" t="n">
+      <c r="C247">
         <v>0.1105583195135434</v>
       </c>
-      <c r="D247" t="n">
+      <c r="D247">
         <v>39643891652.84688</v>
       </c>
     </row>
-    <row r="248">
-      <c r="A248" s="2" t="n">
+    <row r="248" spans="1:4">
+      <c r="A248" s="2">
         <v>38534</v>
       </c>
-      <c r="B248" t="n">
+      <c r="B248">
         <v>366714000000</v>
       </c>
-      <c r="C248" t="n">
+      <c r="C248">
         <v>0.1106427235812837</v>
       </c>
-      <c r="D248" t="n">
+      <c r="D248">
         <v>40574235735.38686</v>
       </c>
     </row>
-    <row r="249">
-      <c r="A249" s="2" t="n">
+    <row r="249" spans="1:4">
+      <c r="A249" s="2">
         <v>38565</v>
       </c>
-      <c r="B249" t="n">
+      <c r="B249">
         <v>371935000000</v>
       </c>
-      <c r="C249" t="n">
+      <c r="C249">
         <v>0.112113907730254</v>
       </c>
-      <c r="D249" t="n">
+      <c r="D249">
         <v>41699086271.652</v>
       </c>
     </row>
-    <row r="250">
-      <c r="A250" s="2" t="n">
+    <row r="250" spans="1:4">
+      <c r="A250" s="2">
         <v>38596</v>
       </c>
-      <c r="B250" t="n">
+      <c r="B250">
         <v>377129000000</v>
       </c>
-      <c r="C250" t="n">
+      <c r="C250">
         <v>0.1099106426475276</v>
       </c>
-      <c r="D250" t="n">
+      <c r="D250">
         <v>41450490751.01942</v>
       </c>
     </row>
-    <row r="251">
-      <c r="A251" s="2" t="n">
+    <row r="251" spans="1:4">
+      <c r="A251" s="2">
         <v>38626</v>
       </c>
-      <c r="B251" t="n">
+      <c r="B251">
         <v>375296000000</v>
       </c>
-      <c r="C251" t="n">
+      <c r="C251">
         <v>0.1098357954857488</v>
       </c>
-      <c r="D251" t="n">
+      <c r="D251">
         <v>41220934702.61958</v>
       </c>
     </row>
-    <row r="252">
-      <c r="A252" s="2" t="n">
+    <row r="252" spans="1:4">
+      <c r="A252" s="2">
         <v>38657</v>
       </c>
-      <c r="B252" t="n">
+      <c r="B252">
         <v>377488000000</v>
       </c>
-      <c r="C252" t="n">
+      <c r="C252">
         <v>0.1080905799059612</v>
       </c>
-      <c r="D252" t="n">
+      <c r="D252">
         <v>40802896827.54148</v>
       </c>
     </row>
-    <row r="253">
-      <c r="A253" s="2" t="n">
+    <row r="253" spans="1:4">
+      <c r="A253" s="2">
         <v>38687</v>
       </c>
-      <c r="B253" t="n">
+      <c r="B253">
         <v>388329000000</v>
       </c>
-      <c r="C253" t="n">
+      <c r="C253">
         <v>0.1086130118388183</v>
       </c>
-      <c r="D253" t="n">
+      <c r="D253">
         <v>42177582274.35647</v>
       </c>
     </row>
-    <row r="254">
-      <c r="A254" s="2" t="n">
+    <row r="254" spans="1:4">
+      <c r="A254" s="2">
         <v>38718</v>
       </c>
-      <c r="B254" t="n">
+      <c r="B254">
         <v>388759000000</v>
       </c>
-      <c r="C254" t="n">
+      <c r="C254">
         <v>0.1111111111111111</v>
       </c>
-      <c r="D254" t="n">
+      <c r="D254">
         <v>43195444444.44444</v>
       </c>
     </row>
-    <row r="255">
-      <c r="A255" s="2" t="n">
+    <row r="255" spans="1:4">
+      <c r="A255" s="2">
         <v>38749</v>
       </c>
-      <c r="B255" t="n">
+      <c r="B255">
         <v>392863000000</v>
       </c>
-      <c r="C255" t="n">
+      <c r="C255">
         <v>0.1091881858382923</v>
       </c>
-      <c r="D255" t="n">
+      <c r="D255">
         <v>42895998252.98902</v>
       </c>
     </row>
-    <row r="256">
-      <c r="A256" s="2" t="n">
+    <row r="256" spans="1:4">
+      <c r="A256" s="2">
         <v>38777</v>
       </c>
-      <c r="B256" t="n">
+      <c r="B256">
         <v>398623000000</v>
       </c>
-      <c r="C256" t="n">
+      <c r="C256">
         <v>0.1106011170712824</v>
       </c>
-      <c r="D256" t="n">
+      <c r="D256">
         <v>44088149090.30582</v>
       </c>
     </row>
-    <row r="257">
-      <c r="A257" s="2" t="n">
+    <row r="257" spans="1:4">
+      <c r="A257" s="2">
         <v>38808</v>
       </c>
-      <c r="B257" t="n">
+      <c r="B257">
         <v>400533000000</v>
       </c>
-      <c r="C257" t="n">
+      <c r="C257">
         <v>0.1143445200388771</v>
       </c>
-      <c r="D257" t="n">
+      <c r="D257">
         <v>45798753644.73158</v>
       </c>
     </row>
-    <row r="258">
-      <c r="A258" s="2" t="n">
+    <row r="258" spans="1:4">
+      <c r="A258" s="2">
         <v>38838</v>
       </c>
-      <c r="B258" t="n">
+      <c r="B258">
         <v>402245000000</v>
       </c>
-      <c r="C258" t="n">
+      <c r="C258">
         <v>0.1163399453202257</v>
       </c>
-      <c r="D258" t="n">
+      <c r="D258">
         <v>46797161305.33419</v>
       </c>
     </row>
-    <row r="259">
-      <c r="A259" s="2" t="n">
+    <row r="259" spans="1:4">
+      <c r="A259" s="2">
         <v>38869</v>
       </c>
-      <c r="B259" t="n">
+      <c r="B259">
         <v>410419000000</v>
       </c>
-      <c r="C259" t="n">
+      <c r="C259">
         <v>0.1152538465971302</v>
       </c>
-      <c r="D259" t="n">
+      <c r="D259">
         <v>47302368466.54757</v>
       </c>
     </row>
-    <row r="260">
-      <c r="A260" s="2" t="n">
+    <row r="260" spans="1:4">
+      <c r="A260" s="2">
         <v>38899</v>
       </c>
-      <c r="B260" t="n">
+      <c r="B260">
         <v>420174000000</v>
       </c>
-      <c r="C260" t="n">
+      <c r="C260">
         <v>0.1152379086624336</v>
       </c>
-      <c r="D260" t="n">
+      <c r="D260">
         <v>48419973034.32938</v>
       </c>
     </row>
-    <row r="261">
-      <c r="A261" s="2" t="n">
+    <row r="261" spans="1:4">
+      <c r="A261" s="2">
         <v>38930</v>
       </c>
-      <c r="B261" t="n">
+      <c r="B261">
         <v>426131000000</v>
       </c>
-      <c r="C261" t="n">
+      <c r="C261">
         <v>0.1157742402315485</v>
       </c>
-      <c r="D261" t="n">
+      <c r="D261">
         <v>49334992764.10999</v>
       </c>
     </row>
-    <row r="262">
-      <c r="A262" s="2" t="n">
+    <row r="262" spans="1:4">
+      <c r="A262" s="2">
         <v>38961</v>
       </c>
-      <c r="B262" t="n">
+      <c r="B262">
         <v>425978000000</v>
       </c>
-      <c r="C262" t="n">
+      <c r="C262">
         <v>0.1148435256962389</v>
       </c>
-      <c r="D262" t="n">
+      <c r="D262">
         <v>48920815389.03244</v>
       </c>
     </row>
-    <row r="263">
-      <c r="A263" s="2" t="n">
+    <row r="263" spans="1:4">
+      <c r="A263" s="2">
         <v>38991</v>
       </c>
-      <c r="B263" t="n">
+      <c r="B263">
         <v>426423000000</v>
       </c>
-      <c r="C263" t="n">
+      <c r="C263">
         <v>0.1152206475400392</v>
       </c>
-      <c r="D263" t="n">
+      <c r="D263">
         <v>49132734185.96613</v>
       </c>
     </row>
-    <row r="264">
-      <c r="A264" s="2" t="n">
+    <row r="264" spans="1:4">
+      <c r="A264" s="2">
         <v>39022</v>
       </c>
-      <c r="B264" t="n">
+      <c r="B264">
         <v>432534000000</v>
       </c>
-      <c r="C264" t="n">
+      <c r="C264">
         <v>0.11883541295306</v>
       </c>
-      <c r="D264" t="n">
+      <c r="D264">
         <v>51400356506.23886</v>
       </c>
     </row>
-    <row r="265">
-      <c r="A265" s="2" t="n">
+    <row r="265" spans="1:4">
+      <c r="A265" s="2">
         <v>39052</v>
       </c>
-      <c r="B265" t="n">
+      <c r="B265">
         <v>450659000000</v>
       </c>
-      <c r="C265" t="n">
+      <c r="C265">
         <v>0.1187648456057007</v>
       </c>
-      <c r="D265" t="n">
+      <c r="D265">
         <v>53522446555.81948</v>
       </c>
     </row>
-    <row r="266">
-      <c r="A266" s="2" t="n">
+    <row r="266" spans="1:4">
+      <c r="A266" s="2">
         <v>39083</v>
       </c>
-      <c r="B266" t="n">
+      <c r="B266">
         <v>452812000000</v>
       </c>
-      <c r="C266" t="n">
+      <c r="C266">
         <v>0.1172195522213105</v>
       </c>
-      <c r="D266" t="n">
+      <c r="D266">
         <v>53078419880.43605</v>
       </c>
     </row>
-    <row r="267">
-      <c r="A267" s="2" t="n">
+    <row r="267" spans="1:4">
+      <c r="A267" s="2">
         <v>39114</v>
       </c>
-      <c r="B267" t="n">
+      <c r="B267">
         <v>455605000000</v>
       </c>
-      <c r="C267" t="n">
+      <c r="C267">
         <v>0.1187620246549963</v>
       </c>
-      <c r="D267" t="n">
+      <c r="D267">
         <v>54108572242.93961</v>
       </c>
     </row>
-    <row r="268">
-      <c r="A268" s="2" t="n">
+    <row r="268" spans="1:4">
+      <c r="A268" s="2">
         <v>39142</v>
       </c>
-      <c r="B268" t="n">
+      <c r="B268">
         <v>462326000000</v>
       </c>
-      <c r="C268" t="n">
+      <c r="C268">
         <v>0.1196888090963495</v>
       </c>
-      <c r="D268" t="n">
+      <c r="D268">
         <v>55335248354.27888</v>
       </c>
     </row>
-    <row r="269">
-      <c r="A269" s="2" t="n">
+    <row r="269" spans="1:4">
+      <c r="A269" s="2">
         <v>39173</v>
       </c>
-      <c r="B269" t="n">
+      <c r="B269">
         <v>467714000000</v>
       </c>
-      <c r="C269" t="n">
+      <c r="C269">
         <v>0.1218397806883948</v>
       </c>
-      <c r="D269" t="n">
+      <c r="D269">
         <v>56986171184.89187</v>
       </c>
     </row>
-    <row r="270">
-      <c r="A270" s="2" t="n">
+    <row r="270" spans="1:4">
+      <c r="A270" s="2">
         <v>39203</v>
       </c>
-      <c r="B270" t="n">
+      <c r="B270">
         <v>472502000000</v>
       </c>
-      <c r="C270" t="n">
+      <c r="C270">
         <v>0.1204238921001927</v>
       </c>
-      <c r="D270" t="n">
+      <c r="D270">
         <v>56900529865.12524</v>
       </c>
     </row>
-    <row r="271">
-      <c r="A271" s="2" t="n">
+    <row r="271" spans="1:4">
+      <c r="A271" s="2">
         <v>39234</v>
       </c>
-      <c r="B271" t="n">
+      <c r="B271">
         <v>485628000000</v>
       </c>
-      <c r="C271" t="n">
+      <c r="C271">
         <v>0.121056581846355</v>
       </c>
-      <c r="D271" t="n">
+      <c r="D271">
         <v>58788465728.88168</v>
       </c>
     </row>
-    <row r="272">
-      <c r="A272" s="2" t="n">
+    <row r="272" spans="1:4">
+      <c r="A272" s="2">
         <v>39264</v>
       </c>
-      <c r="B272" t="n">
+      <c r="B272">
         <v>503370000000</v>
       </c>
-      <c r="C272" t="n">
+      <c r="C272">
         <v>0.1220837250186178</v>
       </c>
-      <c r="D272" t="n">
+      <c r="D272">
         <v>61453284662.62162</v>
       </c>
     </row>
-    <row r="273">
-      <c r="A273" s="2" t="n">
+    <row r="273" spans="1:4">
+      <c r="A273" s="2">
         <v>39295</v>
       </c>
-      <c r="B273" t="n">
+      <c r="B273">
         <v>502008000000</v>
       </c>
-      <c r="C273" t="n">
+      <c r="C273">
         <v>0.1217819129502886</v>
       </c>
-      <c r="D273" t="n">
+      <c r="D273">
         <v>61135494556.3485</v>
       </c>
     </row>
-    <row r="274">
-      <c r="A274" s="2" t="n">
+    <row r="274" spans="1:4">
+      <c r="A274" s="2">
         <v>39326</v>
       </c>
-      <c r="B274" t="n">
+      <c r="B274">
         <v>504108000000</v>
       </c>
-      <c r="C274" t="n">
+      <c r="C274">
         <v>0.1264782141276165</v>
       </c>
-      <c r="D274" t="n">
+      <c r="D274">
         <v>63758679567.4445</v>
       </c>
     </row>
-    <row r="275">
-      <c r="A275" s="2" t="n">
+    <row r="275" spans="1:4">
+      <c r="A275" s="2">
         <v>39356</v>
       </c>
-      <c r="B275" t="n">
+      <c r="B275">
         <v>508758000000</v>
       </c>
-      <c r="C275" t="n">
+      <c r="C275">
         <v>0.1280540900476361</v>
       </c>
-      <c r="D275" t="n">
+      <c r="D275">
         <v>65148542744.45526</v>
       </c>
     </row>
-    <row r="276">
-      <c r="A276" s="2" t="n">
+    <row r="276" spans="1:4">
+      <c r="A276" s="2">
         <v>39387</v>
       </c>
-      <c r="B276" t="n">
+      <c r="B276">
         <v>511404000000</v>
       </c>
-      <c r="C276" t="n">
+      <c r="C276">
         <v>0.1291489086917215</v>
       </c>
-      <c r="D276" t="n">
+      <c r="D276">
         <v>66047268500.58117</v>
       </c>
     </row>
-    <row r="277">
-      <c r="A277" s="2" t="n">
+    <row r="277" spans="1:4">
+      <c r="A277" s="2">
         <v>39417</v>
       </c>
-      <c r="B277" t="n">
+      <c r="B277">
         <v>529596000000</v>
       </c>
-      <c r="C277" t="n">
+      <c r="C277">
         <v>0.1288344348677515</v>
       </c>
-      <c r="D277" t="n">
+      <c r="D277">
         <v>68230201368.22169</v>
       </c>
     </row>
-    <row r="278">
-      <c r="A278" s="2" t="n">
+    <row r="278" spans="1:4">
+      <c r="A278" s="2">
         <v>39448</v>
       </c>
-      <c r="B278" t="n">
+      <c r="B278">
         <v>524683000000</v>
       </c>
-      <c r="C278" t="n">
+      <c r="C278">
         <v>0.1312732189506019</v>
       </c>
-      <c r="D278" t="n">
+      <c r="D278">
         <v>68876826338.65865</v>
       </c>
     </row>
-    <row r="279">
-      <c r="A279" s="2" t="n">
+    <row r="279" spans="1:4">
+      <c r="A279" s="2">
         <v>39479</v>
       </c>
-      <c r="B279" t="n">
+      <c r="B279">
         <v>524944000000</v>
       </c>
-      <c r="C279" t="n">
+      <c r="C279">
         <v>0.1332320769548477</v>
       </c>
-      <c r="D279" t="n">
+      <c r="D279">
         <v>69939379404.98555</v>
       </c>
     </row>
-    <row r="280">
-      <c r="A280" s="2" t="n">
+    <row r="280" spans="1:4">
+      <c r="A280" s="2">
         <v>39508</v>
       </c>
-      <c r="B280" t="n">
+      <c r="B280">
         <v>534960000000</v>
       </c>
-      <c r="C280" t="n">
+      <c r="C280">
         <v>0.1380071763731714</v>
       </c>
-      <c r="D280" t="n">
+      <c r="D280">
         <v>73828319072.59177</v>
       </c>
     </row>
-    <row r="281">
-      <c r="A281" s="2" t="n">
+    <row r="281" spans="1:4">
+      <c r="A281" s="2">
         <v>39539</v>
       </c>
-      <c r="B281" t="n">
+      <c r="B281">
         <v>532802000000</v>
       </c>
-      <c r="C281" t="n">
+      <c r="C281">
         <v>0.1363456635261716</v>
       </c>
-      <c r="D281" t="n">
+      <c r="D281">
         <v>72645242218.07126</v>
       </c>
     </row>
-    <row r="282">
-      <c r="A282" s="2" t="n">
+    <row r="282" spans="1:4">
+      <c r="A282" s="2">
         <v>39569</v>
       </c>
-      <c r="B282" t="n">
+      <c r="B282">
         <v>533524000000</v>
       </c>
-      <c r="C282" t="n">
+      <c r="C282">
         <v>0.1363586778662594</v>
       </c>
-      <c r="D282" t="n">
+      <c r="D282">
         <v>72750627249.91818</v>
       </c>
     </row>
-    <row r="283">
-      <c r="A283" s="2" t="n">
+    <row r="283" spans="1:4">
+      <c r="A283" s="2">
         <v>39600</v>
       </c>
-      <c r="B283" t="n">
+      <c r="B283">
         <v>549025000000</v>
       </c>
-      <c r="C283" t="n">
+      <c r="C283">
         <v>0.1379196204452045</v>
       </c>
-      <c r="D283" t="n">
+      <c r="D283">
         <v>75721319614.92842</v>
       </c>
     </row>
-    <row r="284">
-      <c r="A284" s="2" t="n">
+    <row r="284" spans="1:4">
+      <c r="A284" s="2">
         <v>39630</v>
       </c>
-      <c r="B284" t="n">
+      <c r="B284">
         <v>547682000000</v>
       </c>
-      <c r="C284" t="n">
+      <c r="C284">
         <v>0.1366867140513942</v>
       </c>
-      <c r="D284" t="n">
+      <c r="D284">
         <v>74860852925.09569</v>
       </c>
     </row>
-    <row r="285">
-      <c r="A285" s="2" t="n">
+    <row r="285" spans="1:4">
+      <c r="A285" s="2">
         <v>39661</v>
       </c>
-      <c r="B285" t="n">
+      <c r="B285">
         <v>551652000000</v>
       </c>
-      <c r="C285" t="n">
+      <c r="C285">
         <v>0.1294146575041089</v>
       </c>
-      <c r="D285" t="n">
+      <c r="D285">
         <v>71391854641.4567</v>
       </c>
     </row>
-    <row r="286">
-      <c r="A286" s="2" t="n">
+    <row r="286" spans="1:4">
+      <c r="A286" s="2">
         <v>39692</v>
       </c>
-      <c r="B286" t="n">
+      <c r="B286">
         <v>551004000000</v>
       </c>
-      <c r="C286" t="n">
+      <c r="C286">
         <v>0.1254075746175069</v>
       </c>
-      <c r="D286" t="n">
+      <c r="D286">
         <v>69100075244.54477</v>
       </c>
     </row>
-    <row r="287">
-      <c r="A287" s="2" t="n">
+    <row r="287" spans="1:4">
+      <c r="A287" s="2">
         <v>39722</v>
       </c>
-      <c r="B287" t="n">
+      <c r="B287">
         <v>549691000000</v>
       </c>
-      <c r="C287" t="n">
+      <c r="C287">
         <v>0.1151410477835348</v>
       </c>
-      <c r="D287" t="n">
+      <c r="D287">
         <v>63291997697.17904</v>
       </c>
     </row>
-    <row r="288">
-      <c r="A288" s="2" t="n">
+    <row r="288" spans="1:4">
+      <c r="A288" s="2">
         <v>39753</v>
       </c>
-      <c r="B288" t="n">
+      <c r="B288">
         <v>552926000000</v>
       </c>
-      <c r="C288" t="n">
+      <c r="C288">
         <v>0.1149055476398401</v>
       </c>
-      <c r="D288" t="n">
+      <c r="D288">
         <v>63534264834.3062</v>
       </c>
     </row>
-    <row r="289">
-      <c r="A289" s="2" t="n">
+    <row r="289" spans="1:4">
+      <c r="A289" s="2">
         <v>39783</v>
       </c>
-      <c r="B289" t="n">
+      <c r="B289">
         <v>568746000000</v>
       </c>
-      <c r="C289" t="n">
+      <c r="C289">
         <v>0.1243672814555947</v>
       </c>
-      <c r="D289" t="n">
+      <c r="D289">
         <v>70733393858.74365</v>
       </c>
     </row>
-    <row r="290">
-      <c r="A290" s="2" t="n">
+    <row r="290" spans="1:4">
+      <c r="A290" s="2">
         <v>39814</v>
       </c>
-      <c r="B290" t="n">
+      <c r="B290">
         <v>550255000000</v>
       </c>
-      <c r="C290" t="n">
+      <c r="C290">
         <v>0.1160065891742651</v>
       </c>
-      <c r="D290" t="n">
+      <c r="D290">
         <v>63833205726.08524</v>
       </c>
     </row>
-    <row r="291">
-      <c r="A291" s="2" t="n">
+    <row r="291" spans="1:4">
+      <c r="A291" s="2">
         <v>39845</v>
       </c>
-      <c r="B291" t="n">
+      <c r="B291">
         <v>555141000000</v>
       </c>
-      <c r="C291" t="n">
+      <c r="C291">
         <v>0.1150483202945237</v>
       </c>
-      <c r="D291" t="n">
+      <c r="D291">
         <v>63868039576.62218</v>
       </c>
     </row>
-    <row r="292">
-      <c r="A292" s="2" t="n">
+    <row r="292" spans="1:4">
+      <c r="A292" s="2">
         <v>39873</v>
       </c>
-      <c r="B292" t="n">
+      <c r="B292">
         <v>559134000000</v>
       </c>
-      <c r="C292" t="n">
+      <c r="C292">
         <v>0.1188452990741951</v>
       </c>
-      <c r="D292" t="n">
+      <c r="D292">
         <v>66450447452.55101</v>
       </c>
     </row>
-    <row r="293">
-      <c r="A293" s="2" t="n">
+    <row r="293" spans="1:4">
+      <c r="A293" s="2">
         <v>39904</v>
       </c>
-      <c r="B293" t="n">
+      <c r="B293">
         <v>555185000000</v>
       </c>
-      <c r="C293" t="n">
+      <c r="C293">
         <v>0.1191185229303157</v>
       </c>
-      <c r="D293" t="n">
+      <c r="D293">
         <v>66132817153.06731</v>
       </c>
     </row>
-    <row r="294">
-      <c r="A294" s="2" t="n">
+    <row r="294" spans="1:4">
+      <c r="A294" s="2">
         <v>39934</v>
       </c>
-      <c r="B294" t="n">
+      <c r="B294">
         <v>561892000000</v>
       </c>
-      <c r="C294" t="n">
+      <c r="C294">
         <v>0.1256612925520552</v>
       </c>
-      <c r="D294" t="n">
+      <c r="D294">
         <v>70608074994.65939</v>
       </c>
     </row>
-    <row r="295">
-      <c r="A295" s="2" t="n">
+    <row r="295" spans="1:4">
+      <c r="A295" s="2">
         <v>39965</v>
       </c>
-      <c r="B295" t="n">
+      <c r="B295">
         <v>572633000000</v>
       </c>
-      <c r="C295" t="n">
+      <c r="C295">
         <v>0.124470998257406</v>
       </c>
-      <c r="D295" t="n">
+      <c r="D295">
         <v>71276201145.13318</v>
       </c>
     </row>
-    <row r="296">
-      <c r="A296" s="2" t="n">
+    <row r="296" spans="1:4">
+      <c r="A296" s="2">
         <v>39995</v>
       </c>
-      <c r="B296" t="n">
+      <c r="B296">
         <v>581455000000</v>
       </c>
-      <c r="C296" t="n">
+      <c r="C296">
         <v>0.1265230208636461</v>
       </c>
-      <c r="D296" t="n">
+      <c r="D296">
         <v>73567443096.27136</v>
       </c>
     </row>
-    <row r="297">
-      <c r="A297" s="2" t="n">
+    <row r="297" spans="1:4">
+      <c r="A297" s="2">
         <v>40026</v>
       </c>
-      <c r="B297" t="n">
+      <c r="B297">
         <v>583646000000</v>
       </c>
-      <c r="C297" t="n">
+      <c r="C297">
         <v>0.127053502229789</v>
       </c>
-      <c r="D297" t="n">
+      <c r="D297">
         <v>74154268362.40739</v>
       </c>
     </row>
-    <row r="298">
-      <c r="A298" s="2" t="n">
+    <row r="298" spans="1:4">
+      <c r="A298" s="2">
         <v>40057</v>
       </c>
-      <c r="B298" t="n">
+      <c r="B298">
         <v>584132000000</v>
       </c>
-      <c r="C298" t="n">
+      <c r="C298">
         <v>0.129362759048925</v>
       </c>
-      <c r="D298" t="n">
+      <c r="D298">
         <v>75564927168.76666</v>
       </c>
     </row>
-    <row r="299">
-      <c r="A299" s="2" t="n">
+    <row r="299" spans="1:4">
+      <c r="A299" s="2">
         <v>40087</v>
       </c>
-      <c r="B299" t="n">
+      <c r="B299">
         <v>585355000000</v>
       </c>
-      <c r="C299" t="n">
+      <c r="C299">
         <v>0.1301151519094398</v>
       </c>
-      <c r="D299" t="n">
+      <c r="D299">
         <v>76163554745.95016</v>
       </c>
     </row>
-    <row r="300">
-      <c r="A300" s="2" t="n">
+    <row r="300" spans="1:4">
+      <c r="A300" s="2">
         <v>40118</v>
       </c>
-      <c r="B300" t="n">
+      <c r="B300">
         <v>594114000000</v>
       </c>
-      <c r="C300" t="n">
+      <c r="C300">
         <v>0.1318269902579854</v>
       </c>
-      <c r="D300" t="n">
+      <c r="D300">
         <v>78320260490.13275</v>
       </c>
     </row>
-    <row r="301">
-      <c r="A301" s="2" t="n">
+    <row r="301" spans="1:4">
+      <c r="A301" s="2">
         <v>40148</v>
       </c>
-      <c r="B301" t="n">
+      <c r="B301">
         <v>612715000000</v>
       </c>
-      <c r="C301" t="n">
+      <c r="C301">
         <v>0.1271100264388855</v>
       </c>
-      <c r="D301" t="n">
+      <c r="D301">
         <v>77882219849.50172</v>
       </c>
     </row>
-    <row r="302">
-      <c r="A302" s="2" t="n">
+    <row r="302" spans="1:4">
+      <c r="A302" s="2">
         <v>40179</v>
       </c>
-      <c r="B302" t="n">
+      <c r="B302">
         <v>610550000000</v>
       </c>
-      <c r="C302" t="n">
+      <c r="C302">
         <v>0.1233197681588359</v>
       </c>
-      <c r="D302" t="n">
+      <c r="D302">
         <v>75292884449.37723</v>
       </c>
     </row>
-    <row r="303">
-      <c r="A303" s="2" t="n">
+    <row r="303" spans="1:4">
+      <c r="A303" s="2">
         <v>40210</v>
       </c>
-      <c r="B303" t="n">
+      <c r="B303">
         <v>607246000000</v>
       </c>
-      <c r="C303" t="n">
+      <c r="C303">
         <v>0.1214432313615001</v>
       </c>
-      <c r="D303" t="n">
+      <c r="D303">
         <v>73745916471.34547</v>
       </c>
     </row>
-    <row r="304">
-      <c r="A304" s="2" t="n">
+    <row r="304" spans="1:4">
+      <c r="A304" s="2">
         <v>40238</v>
       </c>
-      <c r="B304" t="n">
+      <c r="B304">
         <v>608011000000</v>
       </c>
-      <c r="C304" t="n">
+      <c r="C304">
         <v>0.1212121212121212</v>
       </c>
-      <c r="D304" t="n">
+      <c r="D304">
         <v>73698303030.30304</v>
       </c>
     </row>
-    <row r="305">
-      <c r="A305" s="2" t="n">
+    <row r="305" spans="1:4">
+      <c r="A305" s="2">
         <v>40269</v>
       </c>
-      <c r="B305" t="n">
+      <c r="B305">
         <v>607105000000</v>
       </c>
-      <c r="C305" t="n">
+      <c r="C305">
         <v>0.1197604790419162</v>
       </c>
-      <c r="D305" t="n">
+      <c r="D305">
         <v>72707185628.74251</v>
       </c>
     </row>
-    <row r="306">
-      <c r="A306" s="2" t="n">
+    <row r="306" spans="1:4">
+      <c r="A306" s="2">
         <v>40299</v>
       </c>
-      <c r="B306" t="n">
+      <c r="B306">
         <v>613038000000</v>
       </c>
-      <c r="C306" t="n">
+      <c r="C306">
         <v>0.1123595505617977</v>
       </c>
-      <c r="D306" t="n">
+      <c r="D306">
         <v>68880674157.30338</v>
       </c>
     </row>
-    <row r="307">
-      <c r="A307" s="2" t="n">
+    <row r="307" spans="1:4">
+      <c r="A307" s="2">
         <v>40330</v>
       </c>
-      <c r="B307" t="n">
+      <c r="B307">
         <v>618568000000</v>
       </c>
-      <c r="C307" t="n">
+      <c r="C307">
         <v>0.1118568232662192</v>
       </c>
-      <c r="D307" t="n">
+      <c r="D307">
         <v>69191051454.1387</v>
       </c>
     </row>
-    <row r="308">
-      <c r="A308" s="2" t="n">
+    <row r="308" spans="1:4">
+      <c r="A308" s="2">
         <v>40360</v>
       </c>
-      <c r="B308" t="n">
+      <c r="B308">
         <v>621576000000</v>
       </c>
-      <c r="C308" t="n">
+      <c r="C308">
         <v>0.1173419697023034</v>
       </c>
-      <c r="D308" t="n">
+      <c r="D308">
         <v>72936952159.67896</v>
       </c>
     </row>
-    <row r="309">
-      <c r="A309" s="2" t="n">
+    <row r="309" spans="1:4">
+      <c r="A309" s="2">
         <v>40391</v>
       </c>
-      <c r="B309" t="n">
+      <c r="B309">
         <v>620613000000</v>
       </c>
-      <c r="C309" t="n">
+      <c r="C309">
         <v>0.1152073732718894</v>
       </c>
-      <c r="D309" t="n">
+      <c r="D309">
         <v>71499193548.3871</v>
       </c>
     </row>
-    <row r="310">
-      <c r="A310" s="2" t="n">
+    <row r="310" spans="1:4">
+      <c r="A310" s="2">
         <v>40422</v>
       </c>
-      <c r="B310" t="n">
+      <c r="B310">
         <v>624197000000</v>
       </c>
-      <c r="C310" t="n">
+      <c r="C310">
         <v>0.1221001221001221</v>
       </c>
-      <c r="D310" t="n">
+      <c r="D310">
         <v>76214529914.52992</v>
       </c>
     </row>
-    <row r="311">
-      <c r="A311" s="2" t="n">
+    <row r="311" spans="1:4">
+      <c r="A311" s="2">
         <v>40452</v>
       </c>
-      <c r="B311" t="n">
+      <c r="B311">
         <v>621983000000</v>
       </c>
-      <c r="C311" t="n">
+      <c r="C311">
         <v>0.1239095955590801</v>
       </c>
-      <c r="D311" t="n">
+      <c r="D311">
         <v>77069661974.62332</v>
       </c>
     </row>
-    <row r="312">
-      <c r="A312" s="2" t="n">
+    <row r="312" spans="1:4">
+      <c r="A312" s="2">
         <v>40483</v>
       </c>
-      <c r="B312" t="n">
+      <c r="B312">
         <v>629903000000</v>
       </c>
-      <c r="C312" t="n">
+      <c r="C312">
         <v>0.1172332942555686</v>
       </c>
-      <c r="D312" t="n">
+      <c r="D312">
         <v>73845603751.46542</v>
       </c>
     </row>
-    <row r="313">
-      <c r="A313" s="2" t="n">
+    <row r="313" spans="1:4">
+      <c r="A313" s="2">
         <v>40513</v>
       </c>
-      <c r="B313" t="n">
+      <c r="B313">
         <v>643504000000</v>
       </c>
-      <c r="C313" t="n">
+      <c r="C313">
         <v>0.1200393729143159</v>
       </c>
-      <c r="D313" t="n">
+      <c r="D313">
         <v>77245816627.85393</v>
       </c>
     </row>
-    <row r="314">
-      <c r="A314" s="2" t="n">
+    <row r="314" spans="1:4">
+      <c r="A314" s="2">
         <v>40544</v>
       </c>
-      <c r="B314" t="n">
+      <c r="B314">
         <v>637936000000</v>
       </c>
-      <c r="C314" t="n">
+      <c r="C314">
         <v>0.1221612773183156</v>
       </c>
-      <c r="D314" t="n">
+      <c r="D314">
         <v>77931076607.33701</v>
       </c>
     </row>
-    <row r="315">
-      <c r="A315" s="2" t="n">
+    <row r="315" spans="1:4">
+      <c r="A315" s="2">
         <v>40575</v>
       </c>
-      <c r="B315" t="n">
+      <c r="B315">
         <v>641132000000</v>
       </c>
-      <c r="C315" t="n">
+      <c r="C315">
         <v>0.1234567901234568</v>
       </c>
-      <c r="D315" t="n">
+      <c r="D315">
         <v>79152098765.4321</v>
       </c>
     </row>
-    <row r="316">
-      <c r="A316" s="2" t="n">
+    <row r="316" spans="1:4">
+      <c r="A316" s="2">
         <v>40603</v>
       </c>
-      <c r="B316" t="n">
+      <c r="B316">
         <v>644847000000</v>
       </c>
-      <c r="C316" t="n">
+      <c r="C316">
         <v>0.1256123602562492</v>
       </c>
-      <c r="D316" t="n">
+      <c r="D316">
         <v>81000753674.16154</v>
       </c>
     </row>
-    <row r="317">
-      <c r="A317" s="2" t="n">
+    <row r="317" spans="1:4">
+      <c r="A317" s="2">
         <v>40634</v>
       </c>
-      <c r="B317" t="n">
+      <c r="B317">
         <v>644505000000</v>
       </c>
-      <c r="C317" t="n">
+      <c r="C317">
         <v>0.1306165099268548</v>
       </c>
-      <c r="D317" t="n">
+      <c r="D317">
         <v>84182993730.40752</v>
       </c>
     </row>
-    <row r="318">
-      <c r="A318" s="2" t="n">
+    <row r="318" spans="1:4">
+      <c r="A318" s="2">
         <v>40664</v>
       </c>
-      <c r="B318" t="n">
+      <c r="B318">
         <v>643629000000</v>
       </c>
-      <c r="C318" t="n">
+      <c r="C318">
         <v>0.1272361757895005</v>
       </c>
-      <c r="D318" t="n">
+      <c r="D318">
         <v>81892892587.2204</v>
       </c>
     </row>
-    <row r="319">
-      <c r="A319" s="2" t="n">
+    <row r="319" spans="1:4">
+      <c r="A319" s="2">
         <v>40695</v>
       </c>
-      <c r="B319" t="n">
+      <c r="B319">
         <v>658158000000</v>
       </c>
-      <c r="C319" t="n">
+      <c r="C319">
         <v>0.1283367556468173</v>
       </c>
-      <c r="D319" t="n">
+      <c r="D319">
         <v>84465862422.99796</v>
       </c>
     </row>
-    <row r="320">
-      <c r="A320" s="2" t="n">
+    <row r="320" spans="1:4">
+      <c r="A320" s="2">
         <v>40725</v>
       </c>
-      <c r="B320" t="n">
+      <c r="B320">
         <v>661791000000</v>
       </c>
-      <c r="C320" t="n">
+      <c r="C320">
         <v>0.1275933345242045</v>
       </c>
-      <c r="D320" t="n">
+      <c r="D320">
         <v>84440120448.10779</v>
       </c>
     </row>
-    <row r="321">
-      <c r="A321" s="2" t="n">
+    <row r="321" spans="1:4">
+      <c r="A321" s="2">
         <v>40756</v>
       </c>
-      <c r="B321" t="n">
+      <c r="B321">
         <v>663601000000</v>
       </c>
-      <c r="C321" t="n">
+      <c r="C321">
         <v>0.1274713508139046</v>
       </c>
-      <c r="D321" t="n">
+      <c r="D321">
         <v>84590115871.45789</v>
       </c>
     </row>
-    <row r="322">
-      <c r="A322" s="2" t="n">
+    <row r="322" spans="1:4">
+      <c r="A322" s="2">
         <v>40787</v>
       </c>
-      <c r="B322" t="n">
+      <c r="B322">
         <v>665942000000</v>
       </c>
-      <c r="C322" t="n">
+      <c r="C322">
         <v>0.1201720864277646</v>
       </c>
-      <c r="D322" t="n">
+      <c r="D322">
         <v>80027639579.87839</v>
       </c>
     </row>
-    <row r="323">
-      <c r="A323" s="2" t="n">
+    <row r="323" spans="1:4">
+      <c r="A323" s="2">
         <v>40817</v>
       </c>
-      <c r="B323" t="n">
+      <c r="B323">
         <v>663555000000</v>
       </c>
-      <c r="C323" t="n">
+      <c r="C323">
         <v>0.1236674828720536</v>
       </c>
-      <c r="D323" t="n">
+      <c r="D323">
         <v>82060176597.16554</v>
       </c>
     </row>
-    <row r="324">
-      <c r="A324" s="2" t="n">
+    <row r="324" spans="1:4">
+      <c r="A324" s="2">
         <v>40848</v>
       </c>
-      <c r="B324" t="n">
+      <c r="B324">
         <v>669757000000</v>
       </c>
-      <c r="C324" t="n">
+      <c r="C324">
         <v>0.1207481555719236</v>
       </c>
-      <c r="D324" t="n">
+      <c r="D324">
         <v>80871922431.38486</v>
       </c>
     </row>
-    <row r="325">
-      <c r="A325" s="2" t="n">
+    <row r="325" spans="1:4">
+      <c r="A325" s="2">
         <v>40878</v>
       </c>
-      <c r="B325" t="n">
+      <c r="B325">
         <v>689692000000</v>
       </c>
-      <c r="C325" t="n">
+      <c r="C325">
         <v>0.1167651386002195</v>
       </c>
-      <c r="D325" t="n">
+      <c r="D325">
         <v>80531981971.4626</v>
       </c>
     </row>
-    <row r="326">
-      <c r="A326" s="2" t="n">
+    <row r="326" spans="1:4">
+      <c r="A326" s="2">
         <v>40909</v>
       </c>
-      <c r="B326" t="n">
+      <c r="B326">
         <v>681727000000</v>
       </c>
-      <c r="C326" t="n">
+      <c r="C326">
         <v>0.1179732200790421</v>
       </c>
-      <c r="D326" t="n">
+      <c r="D326">
         <v>80425529404.82512</v>
       </c>
     </row>
-    <row r="327">
-      <c r="A327" s="2" t="n">
+    <row r="327" spans="1:4">
+      <c r="A327" s="2">
         <v>40940</v>
       </c>
-      <c r="B327" t="n">
+      <c r="B327">
         <v>679804000000</v>
       </c>
-      <c r="C327" t="n">
+      <c r="C327">
         <v>0.1197662163456932</v>
       </c>
-      <c r="D327" t="n">
+      <c r="D327">
         <v>81417552936.66762</v>
       </c>
     </row>
-    <row r="328">
-      <c r="A328" s="2" t="n">
+    <row r="328" spans="1:4">
+      <c r="A328" s="2">
         <v>40969</v>
       </c>
-      <c r="B328" t="n">
+      <c r="B328">
         <v>687546000000</v>
       </c>
-      <c r="C328" t="n">
+      <c r="C328">
         <v>0.11999904000768</v>
       </c>
-      <c r="D328" t="n">
+      <c r="D328">
         <v>82504859961.12032</v>
       </c>
     </row>
-    <row r="329">
-      <c r="A329" s="2" t="n">
+    <row r="329" spans="1:4">
+      <c r="A329" s="2">
         <v>41000</v>
       </c>
-      <c r="B329" t="n">
+      <c r="B329">
         <v>679751000000</v>
       </c>
-      <c r="C329" t="n">
+      <c r="C329">
         <v>0.1192961526990755</v>
       </c>
-      <c r="D329" t="n">
+      <c r="D329">
         <v>81091679093.34924</v>
       </c>
     </row>
-    <row r="330">
-      <c r="A330" s="2" t="n">
+    <row r="330" spans="1:4">
+      <c r="A330" s="2">
         <v>41030</v>
       </c>
-      <c r="B330" t="n">
+      <c r="B330">
         <v>679502000000</v>
       </c>
-      <c r="C330" t="n">
+      <c r="C330">
         <v>0.1125923257070798</v>
       </c>
-      <c r="D330" t="n">
+      <c r="D330">
         <v>76506710502.61214</v>
       </c>
     </row>
-    <row r="331">
-      <c r="A331" s="2" t="n">
+    <row r="331" spans="1:4">
+      <c r="A331" s="2">
         <v>41061</v>
       </c>
-      <c r="B331" t="n">
+      <c r="B331">
         <v>696401000000</v>
       </c>
-      <c r="C331" t="n">
+      <c r="C331">
         <v>0.1144623132833515</v>
       </c>
-      <c r="D331" t="n">
+      <c r="D331">
         <v>79711669432.83925</v>
       </c>
     </row>
-    <row r="332">
-      <c r="A332" s="2" t="n">
+    <row r="332" spans="1:4">
+      <c r="A332" s="2">
         <v>41091</v>
       </c>
-      <c r="B332" t="n">
+      <c r="B332">
         <v>704008000000</v>
       </c>
-      <c r="C332" t="n">
+      <c r="C332">
         <v>0.1121554025257397</v>
       </c>
-      <c r="D332" t="n">
+      <c r="D332">
         <v>78958300621.34093</v>
       </c>
     </row>
-    <row r="333">
-      <c r="A333" s="2" t="n">
+    <row r="333" spans="1:4">
+      <c r="A333" s="2">
         <v>41122</v>
       </c>
-      <c r="B333" t="n">
+      <c r="B333">
         <v>701193000000</v>
       </c>
-      <c r="C333" t="n">
+      <c r="C333">
         <v>0.1137785868699511</v>
       </c>
-      <c r="D333" t="n">
+      <c r="D333">
         <v>79780748663.10161</v>
       </c>
     </row>
-    <row r="334">
-      <c r="A334" s="2" t="n">
+    <row r="334" spans="1:4">
+      <c r="A334" s="2">
         <v>41153</v>
       </c>
-      <c r="B334" t="n">
+      <c r="B334">
         <v>705217000000</v>
       </c>
-      <c r="C334" t="n">
+      <c r="C334">
         <v>0.1167201634082288</v>
       </c>
-      <c r="D334" t="n">
+      <c r="D334">
         <v>82313043478.26086</v>
       </c>
     </row>
-    <row r="335">
-      <c r="A335" s="2" t="n">
+    <row r="335" spans="1:4">
+      <c r="A335" s="2">
         <v>41183</v>
       </c>
-      <c r="B335" t="n">
+      <c r="B335">
         <v>697870000000</v>
       </c>
-      <c r="C335" t="n">
+      <c r="C335">
         <v>0.1170768258130986</v>
       </c>
-      <c r="D335" t="n">
+      <c r="D335">
         <v>81704404430.18709</v>
       </c>
     </row>
-    <row r="336">
-      <c r="A336" s="2" t="n">
+    <row r="336" spans="1:4">
+      <c r="A336" s="2">
         <v>41214</v>
       </c>
-      <c r="B336" t="n">
+      <c r="B336">
         <v>705249000000</v>
       </c>
-      <c r="C336" t="n">
+      <c r="C336">
         <v>0.1173708920187793</v>
       </c>
-      <c r="D336" t="n">
+      <c r="D336">
         <v>82775704225.35211</v>
       </c>
     </row>
-    <row r="337">
-      <c r="A337" s="2" t="n">
+    <row r="337" spans="1:4">
+      <c r="A337" s="2">
         <v>41244</v>
       </c>
-      <c r="B337" t="n">
+      <c r="B337">
         <v>723519000000</v>
       </c>
-      <c r="C337" t="n">
+      <c r="C337">
         <v>0.1187676666904202</v>
       </c>
-      <c r="D337" t="n">
+      <c r="D337">
         <v>85930663436.18613</v>
       </c>
     </row>
-    <row r="338">
-      <c r="A338" s="2" t="n">
+    <row r="338" spans="1:4">
+      <c r="A338" s="2">
         <v>41275</v>
       </c>
-      <c r="B338" t="n">
+      <c r="B338">
         <v>707561000000</v>
       </c>
-      <c r="C338" t="n">
+      <c r="C338">
         <v>0.1214181641573579</v>
       </c>
-      <c r="D338" t="n">
+      <c r="D338">
         <v>85910757649.34433</v>
       </c>
     </row>
-    <row r="339">
-      <c r="A339" s="2" t="n">
+    <row r="339" spans="1:4">
+      <c r="A339" s="2">
         <v>41306</v>
       </c>
-      <c r="B339" t="n">
+      <c r="B339">
         <v>709297000000</v>
       </c>
-      <c r="C339" t="n">
+      <c r="C339">
         <v>0.1179189660865054</v>
       </c>
-      <c r="D339" t="n">
+      <c r="D339">
         <v>83639568888.25999</v>
       </c>
     </row>
-    <row r="340">
-      <c r="A340" s="2" t="n">
+    <row r="340" spans="1:4">
+      <c r="A340" s="2">
         <v>41334</v>
       </c>
-      <c r="B340" t="n">
+      <c r="B340">
         <v>709542000000</v>
       </c>
-      <c r="C340" t="n">
+      <c r="C340">
         <v>0.1159124629080119</v>
       </c>
-      <c r="D340" t="n">
+      <c r="D340">
         <v>82244760756.67656</v>
       </c>
     </row>
-    <row r="341">
-      <c r="A341" s="2" t="n">
+    <row r="341" spans="1:4">
+      <c r="A341" s="2">
         <v>41365</v>
       </c>
-      <c r="B341" t="n">
+      <c r="B341">
         <v>710148000000</v>
       </c>
-      <c r="C341" t="n">
+      <c r="C341">
         <v>0.1184918359125056</v>
       </c>
-      <c r="D341" t="n">
+      <c r="D341">
         <v>84146740289.59406</v>
       </c>
     </row>
-    <row r="342">
-      <c r="A342" s="2" t="n">
+    <row r="342" spans="1:4">
+      <c r="A342" s="2">
         <v>41395</v>
       </c>
-      <c r="B342" t="n">
+      <c r="B342">
         <v>716030000000</v>
       </c>
-      <c r="C342" t="n">
+      <c r="C342">
         <v>0.1168224299065421</v>
       </c>
-      <c r="D342" t="n">
+      <c r="D342">
         <v>83648364485.98131</v>
       </c>
     </row>
-    <row r="343">
-      <c r="A343" s="2" t="n">
+    <row r="343" spans="1:4">
+      <c r="A343" s="2">
         <v>41426</v>
       </c>
-      <c r="B343" t="n">
+      <c r="B343">
         <v>737639000000</v>
       </c>
-      <c r="C343" t="n">
+      <c r="C343">
         <v>0.1177024482109228</v>
       </c>
-      <c r="D343" t="n">
+      <c r="D343">
         <v>86821916195.85687</v>
       </c>
     </row>
-    <row r="344">
-      <c r="A344" s="2" t="n">
+    <row r="344" spans="1:4">
+      <c r="A344" s="2">
         <v>41456</v>
       </c>
-      <c r="B344" t="n">
+      <c r="B344">
         <v>735688000000</v>
       </c>
-      <c r="C344" t="n">
+      <c r="C344">
         <v>0.1195128655599775</v>
       </c>
-      <c r="D344" t="n">
+      <c r="D344">
         <v>87924181038.08875</v>
       </c>
     </row>
-    <row r="345">
-      <c r="A345" s="2" t="n">
+    <row r="345" spans="1:4">
+      <c r="A345" s="2">
         <v>41487</v>
       </c>
-      <c r="B345" t="n">
+      <c r="B345">
         <v>743270000000</v>
       </c>
-      <c r="C345" t="n">
+      <c r="C345">
         <v>0.1185255422543558</v>
       </c>
-      <c r="D345" t="n">
+      <c r="D345">
         <v>88096479791.39505</v>
       </c>
     </row>
-    <row r="346">
-      <c r="A346" s="2" t="n">
+    <row r="346" spans="1:4">
+      <c r="A346" s="2">
         <v>41518</v>
       </c>
-      <c r="B346" t="n">
+      <c r="B346">
         <v>737832000000</v>
       </c>
-      <c r="C346" t="n">
+      <c r="C346">
         <v>0.1212018374198553</v>
       </c>
-      <c r="D346" t="n">
+      <c r="D346">
         <v>89426594107.16666</v>
       </c>
     </row>
-    <row r="347">
-      <c r="A347" s="2" t="n">
+    <row r="347" spans="1:4">
+      <c r="A347" s="2">
         <v>41548</v>
       </c>
-      <c r="B347" t="n">
+      <c r="B347">
         <v>737721000000</v>
       </c>
-      <c r="C347" t="n">
+      <c r="C347">
         <v>0.1216826273712902</v>
       </c>
-      <c r="D347" t="n">
+      <c r="D347">
         <v>89767829546.97559</v>
       </c>
     </row>
-    <row r="348">
-      <c r="A348" s="2" t="n">
+    <row r="348" spans="1:4">
+      <c r="A348" s="2">
         <v>41579</v>
       </c>
-      <c r="B348" t="n">
+      <c r="B348">
         <v>738523000000</v>
       </c>
-      <c r="C348" t="n">
+      <c r="C348">
         <v>0.1212782729973925</v>
       </c>
-      <c r="D348" t="n">
+      <c r="D348">
         <v>89566794008.85332</v>
       </c>
     </row>
-    <row r="349">
-      <c r="A349" s="2" t="n">
+    <row r="349" spans="1:4">
+      <c r="A349" s="2">
         <v>41609</v>
       </c>
-      <c r="B349" t="n">
+      <c r="B349">
         <v>749263000000</v>
       </c>
-      <c r="C349" t="n">
+      <c r="C349">
         <v>0.1225520233339052</v>
       </c>
-      <c r="D349" t="n">
+      <c r="D349">
         <v>91823696659.23184</v>
       </c>
     </row>
-    <row r="350">
-      <c r="A350" s="2" t="n">
+    <row r="350" spans="1:4">
+      <c r="A350" s="2">
         <v>41640</v>
       </c>
-      <c r="B350" t="n">
+      <c r="B350">
         <v>740107000000</v>
       </c>
-      <c r="C350" t="n">
+      <c r="C350">
         <v>0.1205545509342978</v>
       </c>
-      <c r="D350" t="n">
+      <c r="D350">
         <v>89223267028.33032</v>
       </c>
     </row>
-    <row r="351">
-      <c r="A351" s="2" t="n">
+    <row r="351" spans="1:4">
+      <c r="A351" s="2">
         <v>41671</v>
       </c>
-      <c r="B351" t="n">
+      <c r="B351">
         <v>741809000000</v>
       </c>
-      <c r="C351" t="n">
+      <c r="C351">
         <v>0.1233684522193984</v>
       </c>
-      <c r="D351" t="n">
+      <c r="D351">
         <v>91515828172.41974</v>
       </c>
     </row>
-    <row r="352">
-      <c r="A352" s="2" t="n">
+    <row r="352" spans="1:4">
+      <c r="A352" s="2">
         <v>41699</v>
       </c>
-      <c r="B352" t="n">
+      <c r="B352">
         <v>747655000000</v>
       </c>
-      <c r="C352" t="n">
+      <c r="C352">
         <v>0.1228818245493309</v>
       </c>
-      <c r="D352" t="n">
+      <c r="D352">
         <v>91873210533.42999</v>
       </c>
     </row>
-    <row r="353">
-      <c r="A353" s="2" t="n">
+    <row r="353" spans="1:4">
+      <c r="A353" s="2">
         <v>41730</v>
       </c>
-      <c r="B353" t="n">
+      <c r="B353">
         <v>756028000000</v>
       </c>
-      <c r="C353" t="n">
+      <c r="C353">
         <v>0.1235605199426679</v>
       </c>
-      <c r="D353" t="n">
+      <c r="D353">
         <v>93415212771.21535</v>
       </c>
     </row>
-    <row r="354">
-      <c r="A354" s="2" t="n">
+    <row r="354" spans="1:4">
+      <c r="A354" s="2">
         <v>41760</v>
       </c>
-      <c r="B354" t="n">
+      <c r="B354">
         <v>750398000000</v>
       </c>
-      <c r="C354" t="n">
+      <c r="C354">
         <v>0.1216989168796398</v>
       </c>
-      <c r="D354" t="n">
+      <c r="D354">
         <v>91322623828.64792</v>
       </c>
     </row>
-    <row r="355">
-      <c r="A355" s="2" t="n">
+    <row r="355" spans="1:4">
+      <c r="A355" s="2">
         <v>41791</v>
       </c>
-      <c r="B355" t="n">
+      <c r="B355">
         <v>762679000000</v>
       </c>
-      <c r="C355" t="n">
+      <c r="C355">
         <v>0.1222972311906858</v>
       </c>
-      <c r="D355" t="n">
+      <c r="D355">
         <v>93273529987.2811</v>
       </c>
     </row>
-    <row r="356">
-      <c r="A356" s="2" t="n">
+    <row r="356" spans="1:4">
+      <c r="A356" s="2">
         <v>41821</v>
       </c>
-      <c r="B356" t="n">
+      <c r="B356">
         <v>768127000000</v>
       </c>
-      <c r="C356" t="n">
+      <c r="C356">
         <v>0.1201143488601148</v>
       </c>
-      <c r="D356" t="n">
+      <c r="D356">
         <v>92263074446.87341</v>
       </c>
     </row>
-    <row r="357">
-      <c r="A357" s="2" t="n">
+    <row r="357" spans="1:4">
+      <c r="A357" s="2">
         <v>41852</v>
       </c>
-      <c r="B357" t="n">
+      <c r="B357">
         <v>768813000000</v>
       </c>
-      <c r="C357" t="n">
+      <c r="C357">
         <v>0.1182983958737519</v>
       </c>
-      <c r="D357" t="n">
+      <c r="D357">
         <v>90949344626.88686</v>
       </c>
     </row>
-    <row r="358">
-      <c r="A358" s="2" t="n">
+    <row r="358" spans="1:4">
+      <c r="A358" s="2">
         <v>41883</v>
       </c>
-      <c r="B358" t="n">
+      <c r="B358">
         <v>776823000000</v>
       </c>
-      <c r="C358" t="n">
+      <c r="C358">
         <v>0.1143131494415803</v>
       </c>
-      <c r="D358" t="n">
+      <c r="D358">
         <v>88801083688.65671</v>
       </c>
     </row>
-    <row r="359">
-      <c r="A359" s="2" t="n">
+    <row r="359" spans="1:4">
+      <c r="A359" s="2">
         <v>41913</v>
       </c>
-      <c r="B359" t="n">
+      <c r="B359">
         <v>778410000000</v>
       </c>
-      <c r="C359" t="n">
+      <c r="C359">
         <v>0.1137863547403395</v>
       </c>
-      <c r="D359" t="n">
+      <c r="D359">
         <v>88572436393.4277</v>
       </c>
     </row>
-    <row r="360">
-      <c r="A360" s="2" t="n">
+    <row r="360" spans="1:4">
+      <c r="A360" s="2">
         <v>41944</v>
       </c>
-      <c r="B360" t="n">
+      <c r="B360">
         <v>775757000000</v>
       </c>
-      <c r="C360" t="n">
+      <c r="C360">
         <v>0.1136880400181901</v>
       </c>
-      <c r="D360" t="n">
+      <c r="D360">
         <v>88194292860.3911</v>
       </c>
     </row>
-    <row r="361">
-      <c r="A361" s="2" t="n">
+    <row r="361" spans="1:4">
+      <c r="A361" s="2">
         <v>41974</v>
       </c>
-      <c r="B361" t="n">
+      <c r="B361">
         <v>790616000000</v>
       </c>
-      <c r="C361" t="n">
+      <c r="C361">
         <v>0.1105962242449043</v>
       </c>
-      <c r="D361" t="n">
+      <c r="D361">
         <v>87439144427.60925</v>
       </c>
     </row>
-    <row r="362">
-      <c r="A362" s="2" t="n">
+    <row r="362" spans="1:4">
+      <c r="A362" s="2">
         <v>42005</v>
       </c>
-      <c r="B362" t="n">
+      <c r="B362">
         <v>778544000000</v>
       </c>
-      <c r="C362" t="n">
+      <c r="C362">
         <v>0.1044932079414838</v>
       </c>
-      <c r="D362" t="n">
+      <c r="D362">
         <v>81352560083.59456</v>
       </c>
     </row>
-    <row r="363">
-      <c r="A363" s="2" t="n">
+    <row r="363" spans="1:4">
+      <c r="A363" s="2">
         <v>42036</v>
       </c>
-      <c r="B363" t="n">
+      <c r="B363">
         <v>777818000000</v>
       </c>
-      <c r="C363" t="n">
+      <c r="C363">
         <v>0.1039220169185043</v>
       </c>
-      <c r="D363" t="n">
+      <c r="D363">
         <v>80832415355.51721</v>
       </c>
     </row>
-    <row r="364">
-      <c r="A364" s="2" t="n">
+    <row r="364" spans="1:4">
+      <c r="A364" s="2">
         <v>42064</v>
       </c>
-      <c r="B364" t="n">
+      <c r="B364">
         <v>784583000000</v>
       </c>
-      <c r="C364" t="n">
+      <c r="C364">
         <v>0.100636019644151</v>
       </c>
-      <c r="D364" t="n">
+      <c r="D364">
         <v>78957310200.46695</v>
       </c>
     </row>
-    <row r="365">
-      <c r="A365" s="2" t="n">
+    <row r="365" spans="1:4">
+      <c r="A365" s="2">
         <v>42095</v>
       </c>
-      <c r="B365" t="n">
+      <c r="B365">
         <v>785446000000</v>
       </c>
-      <c r="C365" t="n">
+      <c r="C365">
         <v>0.1033015164662617</v>
       </c>
-      <c r="D365" t="n">
+      <c r="D365">
         <v>81137762902.35941</v>
       </c>
     </row>
-    <row r="366">
-      <c r="A366" s="2" t="n">
+    <row r="366" spans="1:4">
+      <c r="A366" s="2">
         <v>42125</v>
       </c>
-      <c r="B366" t="n">
+      <c r="B366">
         <v>792275000000</v>
       </c>
-      <c r="C366" t="n">
+      <c r="C366">
         <v>0.1019129052311894</v>
       </c>
-      <c r="D366" t="n">
+      <c r="D366">
         <v>80743046992.0406</v>
       </c>
     </row>
-    <row r="367">
-      <c r="A367" s="2" t="n">
+    <row r="367" spans="1:4">
+      <c r="A367" s="2">
         <v>42156</v>
       </c>
-      <c r="B367" t="n">
+      <c r="B367">
         <v>803355000000</v>
       </c>
-      <c r="C367" t="n">
+      <c r="C367">
         <v>0.1031672340864541</v>
       </c>
-      <c r="D367" t="n">
+      <c r="D367">
         <v>82879913339.52338</v>
       </c>
     </row>
-    <row r="368">
-      <c r="A368" s="2" t="n">
+    <row r="368" spans="1:4">
+      <c r="A368" s="2">
         <v>42186</v>
       </c>
-      <c r="B368" t="n">
+      <c r="B368">
         <v>811638000000</v>
       </c>
-      <c r="C368" t="n">
+      <c r="C368">
         <v>0.1022808632504858</v>
       </c>
-      <c r="D368" t="n">
+      <c r="D368">
         <v>83015035286.89783</v>
       </c>
     </row>
-    <row r="369">
-      <c r="A369" s="2" t="n">
+    <row r="369" spans="1:4">
+      <c r="A369" s="2">
         <v>42217</v>
       </c>
-      <c r="B369" t="n">
+      <c r="B369">
         <v>817163000000</v>
       </c>
-      <c r="C369" t="n">
+      <c r="C369">
         <v>0.1031757495718206</v>
       </c>
-      <c r="D369" t="n">
+      <c r="D369">
         <v>84311405047.35767</v>
       </c>
     </row>
-    <row r="370">
-      <c r="A370" s="2" t="n">
+    <row r="370" spans="1:4">
+      <c r="A370" s="2">
         <v>42248</v>
       </c>
-      <c r="B370" t="n">
+      <c r="B370">
         <v>821940000000</v>
       </c>
-      <c r="C370" t="n">
+      <c r="C370">
         <v>0.1029357269321036</v>
       </c>
-      <c r="D370" t="n">
+      <c r="D370">
         <v>84606991394.57323</v>
       </c>
     </row>
-    <row r="371">
-      <c r="A371" s="2" t="n">
+    <row r="371" spans="1:4">
+      <c r="A371" s="2">
         <v>42278</v>
       </c>
-      <c r="B371" t="n">
+      <c r="B371">
         <v>817277000000</v>
       </c>
-      <c r="C371" t="n">
+      <c r="C371">
         <v>0.102082482645978</v>
       </c>
-      <c r="D371" t="n">
+      <c r="D371">
         <v>83429665169.45692</v>
       </c>
     </row>
-    <row r="372">
-      <c r="A372" s="2" t="n">
+    <row r="372" spans="1:4">
+      <c r="A372" s="2">
         <v>42309</v>
       </c>
-      <c r="B372" t="n">
+      <c r="B372">
         <v>820168000000</v>
       </c>
-      <c r="C372" t="n">
+      <c r="C372">
         <v>0.09962143853357243</v>
       </c>
-      <c r="D372" t="n">
+      <c r="D372">
         <v>81706315999.20303</v>
       </c>
     </row>
-    <row r="373">
-      <c r="A373" s="2" t="n">
+    <row r="373" spans="1:4">
+      <c r="A373" s="2">
         <v>42339</v>
       </c>
-      <c r="B373" t="n">
+      <c r="B373">
         <v>845457000000</v>
       </c>
-      <c r="C373" t="n">
+      <c r="C373">
         <v>0.1010203050813214</v>
       </c>
-      <c r="D373" t="n">
+      <c r="D373">
         <v>85408324073.13872</v>
       </c>
     </row>
-    <row r="374">
-      <c r="A374" s="2" t="n">
+    <row r="374" spans="1:4">
+      <c r="A374" s="2">
         <v>42370</v>
       </c>
-      <c r="B374" t="n">
+      <c r="B374">
         <v>826865000000</v>
       </c>
-      <c r="C374" t="n">
+      <c r="C374">
         <v>0.1011275724326238</v>
       </c>
-      <c r="D374" t="n">
+      <c r="D374">
         <v>83618850179.50143</v>
       </c>
     </row>
-    <row r="375">
-      <c r="A375" s="2" t="n">
+    <row r="375" spans="1:4">
+      <c r="A375" s="2">
         <v>42401</v>
       </c>
-      <c r="B375" t="n">
+      <c r="B375">
         <v>838238000000</v>
       </c>
-      <c r="C375" t="n">
+      <c r="C375">
         <v>0.101098945537998</v>
       </c>
-      <c r="D375" t="n">
+      <c r="D375">
         <v>84744977909.8804</v>
       </c>
     </row>
-    <row r="376">
-      <c r="A376" s="2" t="n">
+    <row r="376" spans="1:4">
+      <c r="A376" s="2">
         <v>42430</v>
       </c>
-      <c r="B376" t="n">
+      <c r="B376">
         <v>843272000000</v>
       </c>
-      <c r="C376" t="n">
+      <c r="C376">
         <v>0.1040691018836507</v>
       </c>
-      <c r="D376" t="n">
+      <c r="D376">
         <v>87758559683.62993</v>
       </c>
     </row>
-    <row r="377">
-      <c r="A377" s="2" t="n">
+    <row r="377" spans="1:4">
+      <c r="A377" s="2">
         <v>42461</v>
       </c>
-      <c r="B377" t="n">
+      <c r="B377">
         <v>844280000000</v>
       </c>
-      <c r="C377" t="n">
+      <c r="C377">
         <v>0.1043863128666569</v>
       </c>
-      <c r="D377" t="n">
+      <c r="D377">
         <v>88131276227.06111</v>
       </c>
     </row>
-    <row r="378">
-      <c r="A378" s="2" t="n">
+    <row r="378" spans="1:4">
+      <c r="A378" s="2">
         <v>42491</v>
       </c>
-      <c r="B378" t="n">
+      <c r="B378">
         <v>845537000000</v>
       </c>
-      <c r="C378" t="n">
+      <c r="C378">
         <v>0.1025378108177391</v>
       </c>
-      <c r="D378" t="n">
+      <c r="D378">
         <v>86699512945.39862</v>
       </c>
     </row>
-    <row r="379">
-      <c r="A379" s="2" t="n">
+    <row r="379" spans="1:4">
+      <c r="A379" s="2">
         <v>42522</v>
       </c>
-      <c r="B379" t="n">
+      <c r="B379">
         <v>866103000000</v>
       </c>
-      <c r="C379" t="n">
+      <c r="C379">
         <v>0.1024086514828773</v>
       </c>
-      <c r="D379" t="n">
+      <c r="D379">
         <v>88696440275.27446</v>
       </c>
     </row>
-    <row r="380">
-      <c r="A380" s="2" t="n">
+    <row r="380" spans="1:4">
+      <c r="A380" s="2">
         <v>42552</v>
       </c>
-      <c r="B380" t="n">
+      <c r="B380">
         <v>867428000000</v>
       </c>
-      <c r="C380" t="n">
+      <c r="C380">
         <v>0.1027295234377408</v>
       </c>
-      <c r="D380" t="n">
+      <c r="D380">
         <v>89110465056.55261</v>
       </c>
     </row>
-    <row r="381">
-      <c r="A381" s="2" t="n">
+    <row r="381" spans="1:4">
+      <c r="A381" s="2">
         <v>42583</v>
       </c>
-      <c r="B381" t="n">
+      <c r="B381">
         <v>868167000000</v>
       </c>
-      <c r="C381" t="n">
+      <c r="C381">
         <v>0.102717916058919</v>
       </c>
-      <c r="D381" t="n">
+      <c r="D381">
         <v>89176305031.12352</v>
       </c>
     </row>
-    <row r="382">
-      <c r="A382" s="2" t="n">
+    <row r="382" spans="1:4">
+      <c r="A382" s="2">
         <v>42614</v>
       </c>
-      <c r="B382" t="n">
+      <c r="B382">
         <v>875346000000</v>
       </c>
-      <c r="C382" t="n">
+      <c r="C382">
         <v>0.1032311345101683</v>
       </c>
-      <c r="D382" t="n">
+      <c r="D382">
         <v>90362960668.93776</v>
       </c>
     </row>
-    <row r="383">
-      <c r="A383" s="2" t="n">
+    <row r="383" spans="1:4">
+      <c r="A383" s="2">
         <v>42644</v>
       </c>
-      <c r="B383" t="n">
+      <c r="B383">
         <v>874717000000</v>
       </c>
-      <c r="C383" t="n">
+      <c r="C383">
         <v>0.1014806019829309</v>
       </c>
-      <c r="D383" t="n">
+      <c r="D383">
         <v>88766807724.70341</v>
       </c>
     </row>
-    <row r="384">
-      <c r="A384" s="2" t="n">
+    <row r="384" spans="1:4">
+      <c r="A384" s="2">
         <v>42675</v>
       </c>
-      <c r="B384" t="n">
+      <c r="B384">
         <v>875733000000</v>
       </c>
-      <c r="C384" t="n">
+      <c r="C384">
         <v>0.09934432743890323</v>
       </c>
-      <c r="D384" t="n">
+      <c r="D384">
         <v>86999105901.05304</v>
       </c>
     </row>
-    <row r="385">
-      <c r="A385" s="2" t="n">
+    <row r="385" spans="1:4">
+      <c r="A385" s="2">
         <v>42705</v>
       </c>
-      <c r="B385" t="n">
+      <c r="B385">
         <v>898088000000</v>
       </c>
-      <c r="C385" t="n">
+      <c r="C385">
         <v>0.09886307464162135</v>
       </c>
-      <c r="D385" t="n">
+      <c r="D385">
         <v>88787740978.74443</v>
       </c>
     </row>
-    <row r="386">
-      <c r="A386" s="2" t="n">
+    <row r="386" spans="1:4">
+      <c r="A386" s="2">
         <v>42736</v>
       </c>
-      <c r="B386" t="n">
+      <c r="B386">
         <v>891694000000</v>
       </c>
-      <c r="C386" t="n">
+      <c r="C386">
         <v>0.1003280727980496</v>
       </c>
-      <c r="D386" t="n">
+      <c r="D386">
         <v>89461940545.58406</v>
       </c>
     </row>
-    <row r="387">
-      <c r="A387" s="2" t="n">
+    <row r="387" spans="1:4">
+      <c r="A387" s="2">
         <v>42767</v>
       </c>
-      <c r="B387" t="n">
+      <c r="B387">
         <v>893577000000</v>
       </c>
-      <c r="C387" t="n">
+      <c r="C387">
         <v>0.09908838684106222</v>
       </c>
-      <c r="D387" t="n">
+      <c r="D387">
         <v>88543103448.27585</v>
       </c>
     </row>
-    <row r="388">
-      <c r="A388" s="2" t="n">
+    <row r="388" spans="1:4">
+      <c r="A388" s="2">
         <v>42795</v>
       </c>
-      <c r="B388" t="n">
+      <c r="B388">
         <v>900868000000</v>
       </c>
-      <c r="C388" t="n">
+      <c r="C388">
         <v>0.09952229299363058</v>
       </c>
-      <c r="D388" t="n">
+      <c r="D388">
         <v>89656449044.586</v>
       </c>
     </row>
-    <row r="389">
-      <c r="A389" s="2" t="n">
+    <row r="389" spans="1:4">
+      <c r="A389" s="2">
         <v>42826</v>
       </c>
-      <c r="B389" t="n">
+      <c r="B389">
         <v>902483000000</v>
       </c>
-      <c r="C389" t="n">
+      <c r="C389">
         <v>0.1011081452721831</v>
       </c>
-      <c r="D389" t="n">
+      <c r="D389">
         <v>91248382269.67564</v>
       </c>
     </row>
-    <row r="390">
-      <c r="A390" s="2" t="n">
+    <row r="390" spans="1:4">
+      <c r="A390" s="2">
         <v>42856</v>
       </c>
-      <c r="B390" t="n">
+      <c r="B390">
         <v>899447000000</v>
       </c>
-      <c r="C390" t="n">
+      <c r="C390">
         <v>0.1027696418477982</v>
       </c>
-      <c r="D390" t="n">
+      <c r="D390">
         <v>92435846051.07652</v>
       </c>
     </row>
-    <row r="391">
-      <c r="A391" s="2" t="n">
+    <row r="391" spans="1:4">
+      <c r="A391" s="2">
         <v>42887</v>
       </c>
-      <c r="B391" t="n">
+      <c r="B391">
         <v>918650000000</v>
       </c>
-      <c r="C391" t="n">
+      <c r="C391">
         <v>0.1037721164323146</v>
       </c>
-      <c r="D391" t="n">
+      <c r="D391">
         <v>95330254760.54584</v>
       </c>
     </row>
-    <row r="392">
-      <c r="A392" s="2" t="n">
+    <row r="392" spans="1:4">
+      <c r="A392" s="2">
         <v>42917</v>
       </c>
-      <c r="B392" t="n">
+      <c r="B392">
         <v>918924000000</v>
       </c>
-      <c r="C392" t="n">
+      <c r="C392">
         <v>0.1061064247440183</v>
       </c>
-      <c r="D392" t="n">
+      <c r="D392">
         <v>97503740251.47223</v>
       </c>
     </row>
-    <row r="393">
-      <c r="A393" s="2" t="n">
+    <row r="393" spans="1:4">
+      <c r="A393" s="2">
         <v>42948</v>
       </c>
-      <c r="B393" t="n">
+      <c r="B393">
         <v>931990000000</v>
       </c>
-      <c r="C393" t="n">
+      <c r="C393">
         <v>0.106951871657754</v>
       </c>
-      <c r="D393" t="n">
+      <c r="D393">
         <v>99678074866.31017</v>
       </c>
     </row>
-    <row r="394">
-      <c r="A394" s="2" t="n">
+    <row r="394" spans="1:4">
+      <c r="A394" s="2">
         <v>42979</v>
       </c>
-      <c r="B394" t="n">
+      <c r="B394">
         <v>942828000000</v>
       </c>
-      <c r="C394" t="n">
+      <c r="C394">
         <v>0.1062902574350035</v>
       </c>
-      <c r="D394" t="n">
+      <c r="D394">
         <v>100213430836.9295</v>
       </c>
     </row>
-    <row r="395">
-      <c r="A395" s="2" t="n">
+    <row r="395" spans="1:4">
+      <c r="A395" s="2">
         <v>43009</v>
       </c>
-      <c r="B395" t="n">
+      <c r="B395">
         <v>934594000000</v>
       </c>
-      <c r="C395" t="n">
+      <c r="C395">
         <v>0.1053574250645314</v>
       </c>
-      <c r="D395" t="n">
+      <c r="D395">
         <v>98466417320.76068</v>
       </c>
     </row>
-    <row r="396">
-      <c r="A396" s="2" t="n">
+    <row r="396" spans="1:4">
+      <c r="A396" s="2">
         <v>43040</v>
       </c>
-      <c r="B396" t="n">
+      <c r="B396">
         <v>938893000000</v>
       </c>
-      <c r="C396" t="n">
+      <c r="C396">
         <v>0.1065416577881952</v>
       </c>
-      <c r="D396" t="n">
+      <c r="D396">
         <v>100031216705.7319</v>
       </c>
     </row>
-    <row r="397">
-      <c r="A397" s="2" t="n">
+    <row r="397" spans="1:4">
+      <c r="A397" s="2">
         <v>43070</v>
       </c>
-      <c r="B397" t="n">
+      <c r="B397">
         <v>964904000000</v>
       </c>
-      <c r="C397" t="n">
+      <c r="C397">
         <v>0.1070778455937467</v>
       </c>
-      <c r="D397" t="n">
+      <c r="D397">
         <v>103319841524.7885</v>
       </c>
     </row>
-    <row r="398">
-      <c r="A398" s="2" t="n">
+    <row r="398" spans="1:4">
+      <c r="A398" s="2">
         <v>43101</v>
       </c>
-      <c r="B398" t="n">
+      <c r="B398">
         <v>951872000000</v>
       </c>
-      <c r="C398" t="n">
+      <c r="C398">
         <v>0.1093852548676438</v>
       </c>
-      <c r="D398" t="n">
+      <c r="D398">
         <v>104120761321.3739</v>
       </c>
     </row>
-    <row r="399">
-      <c r="A399" s="2" t="n">
+    <row r="399" spans="1:4">
+      <c r="A399" s="2">
         <v>43132</v>
       </c>
-      <c r="B399" t="n">
+      <c r="B399">
         <v>954807000000</v>
       </c>
-      <c r="C399" t="n">
+      <c r="C399">
         <v>0.1080543729604737</v>
       </c>
-      <c r="D399" t="n">
+      <c r="D399">
         <v>103171071683.271</v>
       </c>
     </row>
-    <row r="400">
-      <c r="A400" s="2" t="n">
+    <row r="400" spans="1:4">
+      <c r="A400" s="2">
         <v>43160</v>
       </c>
-      <c r="B400" t="n">
+      <c r="B400">
         <v>966999000000</v>
       </c>
-      <c r="C400" t="n">
+      <c r="C400">
         <v>0.1088198487404102</v>
       </c>
-      <c r="D400" t="n">
+      <c r="D400">
         <v>105228684912.128</v>
       </c>
     </row>
-    <row r="401">
-      <c r="A401" s="2" t="n">
+    <row r="401" spans="1:4">
+      <c r="A401" s="2">
         <v>43191</v>
       </c>
-      <c r="B401" t="n">
+      <c r="B401">
         <v>963385000000</v>
       </c>
-      <c r="C401" t="n">
+      <c r="C401">
         <v>0.107653055731987</v>
       </c>
-      <c r="D401" t="n">
+      <c r="D401">
         <v>103711339096.3602</v>
       </c>
     </row>
-    <row r="402">
-      <c r="A402" s="2" t="n">
+    <row r="402" spans="1:4">
+      <c r="A402" s="2">
         <v>43221</v>
       </c>
-      <c r="B402" t="n">
+      <c r="B402">
         <v>966476000000</v>
       </c>
-      <c r="C402" t="n">
+      <c r="C402">
         <v>0.1054818940328893</v>
       </c>
-      <c r="D402" t="n">
+      <c r="D402">
         <v>101945719017.3307</v>
       </c>
     </row>
-    <row r="403">
-      <c r="A403" s="2" t="n">
+    <row r="403" spans="1:4">
+      <c r="A403" s="2">
         <v>43252</v>
       </c>
-      <c r="B403" t="n">
+      <c r="B403">
         <v>986336000000</v>
       </c>
-      <c r="C403" t="n">
+      <c r="C403">
         <v>0.1055019254101387</v>
       </c>
-      <c r="D403" t="n">
+      <c r="D403">
         <v>104060347101.3346</v>
       </c>
     </row>
-    <row r="404">
-      <c r="A404" s="2" t="n">
+    <row r="404" spans="1:4">
+      <c r="A404" s="2">
         <v>43282</v>
       </c>
-      <c r="B404" t="n">
+      <c r="B404">
         <v>983475000000</v>
       </c>
-      <c r="C404" t="n">
+      <c r="C404">
         <v>0.1059254708387179</v>
       </c>
-      <c r="D404" t="n">
+      <c r="D404">
         <v>104175052433.1081</v>
       </c>
     </row>
-    <row r="405">
-      <c r="A405" s="2" t="n">
+    <row r="405" spans="1:4">
+      <c r="A405" s="2">
         <v>43313</v>
       </c>
-      <c r="B405" t="n">
+      <c r="B405">
         <v>992377000000</v>
       </c>
-      <c r="C405" t="n">
+      <c r="C405">
         <v>0.1061098024235479</v>
       </c>
-      <c r="D405" t="n">
+      <c r="D405">
         <v>105300927399.6732</v>
       </c>
     </row>
-    <row r="406">
-      <c r="A406" s="2" t="n">
+    <row r="406" spans="1:4">
+      <c r="A406" s="2">
         <v>43344</v>
       </c>
-      <c r="B406" t="n">
+      <c r="B406">
         <v>996911000000</v>
       </c>
-      <c r="C406" t="n">
+      <c r="C406">
         <v>0.1062416998671979</v>
       </c>
-      <c r="D406" t="n">
+      <c r="D406">
         <v>105913519256.3081</v>
       </c>
     </row>
-    <row r="407">
-      <c r="A407" s="2" t="n">
+    <row r="407" spans="1:4">
+      <c r="A407" s="2">
         <v>43374</v>
       </c>
-      <c r="B407" t="n">
+      <c r="B407">
         <v>986440000000</v>
       </c>
-      <c r="C407" t="n">
+      <c r="C407">
         <v>0.1045806316670153</v>
       </c>
-      <c r="D407" t="n">
+      <c r="D407">
         <v>103162518301.6105</v>
       </c>
     </row>
-    <row r="408">
-      <c r="A408" s="2" t="n">
+    <row r="408" spans="1:4">
+      <c r="A408" s="2">
         <v>43405</v>
       </c>
-      <c r="B408" t="n">
+      <c r="B408">
         <v>993709000000</v>
       </c>
-      <c r="C408" t="n">
+      <c r="C408">
         <v>0.105113785672991</v>
       </c>
-      <c r="D408" t="n">
+      <c r="D408">
         <v>104452514847.3222</v>
       </c>
     </row>
-    <row r="409">
-      <c r="A409" s="2" t="n">
+    <row r="409" spans="1:4">
+      <c r="A409" s="2">
         <v>43435</v>
       </c>
-      <c r="B409" t="n">
+      <c r="B409">
         <v>1017888000000</v>
       </c>
-      <c r="C409" t="n">
+      <c r="C409">
         <v>0.1047032709301838</v>
       </c>
-      <c r="D409" t="n">
+      <c r="D409">
         <v>106576203040.583</v>
       </c>
     </row>
-    <row r="410">
-      <c r="A410" s="2" t="n">
+    <row r="410" spans="1:4">
+      <c r="A410" s="2">
         <v>43466</v>
       </c>
-      <c r="B410" t="n">
+      <c r="B410">
         <v>998128000000</v>
       </c>
-      <c r="C410" t="n">
+      <c r="C410">
         <v>0.1050045151941533</v>
       </c>
-      <c r="D410" t="n">
+      <c r="D410">
         <v>104807946741.7099</v>
       </c>
     </row>
-    <row r="411">
-      <c r="A411" s="2" t="n">
+    <row r="411" spans="1:4">
+      <c r="A411" s="2">
         <v>43497</v>
       </c>
-      <c r="B411" t="n">
+      <c r="B411">
         <v>999715000000</v>
       </c>
-      <c r="C411" t="n">
+      <c r="C411">
         <v>0.1047087526046302</v>
       </c>
-      <c r="D411" t="n">
+      <c r="D411">
         <v>104678910610.1379</v>
       </c>
     </row>
-    <row r="412">
-      <c r="A412" s="2" t="n">
+    <row r="412" spans="1:4">
+      <c r="A412" s="2">
         <v>43525</v>
       </c>
-      <c r="B412" t="n">
+      <c r="B412">
         <v>1010491000000</v>
       </c>
-      <c r="C412" t="n">
+      <c r="C412">
         <v>0.1036215740117093</v>
       </c>
-      <c r="D412" t="n">
+      <c r="D412">
         <v>104708667944.6661</v>
       </c>
     </row>
-    <row r="413">
-      <c r="A413" s="2" t="n">
+    <row r="413" spans="1:4">
+      <c r="A413" s="2">
         <v>43556</v>
       </c>
-      <c r="B413" t="n">
+      <c r="B413">
         <v>1006665000000</v>
       </c>
-      <c r="C413" t="n">
+      <c r="C413">
         <v>0.1037096958194622</v>
       </c>
-      <c r="D413" t="n">
+      <c r="D413">
         <v>104400920942.0989</v>
       </c>
     </row>
-    <row r="414">
-      <c r="A414" s="2" t="n">
+    <row r="414" spans="1:4">
+      <c r="A414" s="2">
         <v>43586</v>
       </c>
-      <c r="B414" t="n">
+      <c r="B414">
         <v>1013474000000</v>
       </c>
-      <c r="C414" t="n">
+      <c r="C414">
         <v>0.1031661697496157</v>
       </c>
-      <c r="D414" t="n">
+      <c r="D414">
         <v>104556230720.822</v>
       </c>
     </row>
-    <row r="415">
-      <c r="A415" s="2" t="n">
+    <row r="415" spans="1:4">
+      <c r="A415" s="2">
         <v>43617</v>
       </c>
-      <c r="B415" t="n">
+      <c r="B415">
         <v>1030056000000</v>
       </c>
-      <c r="C415" t="n">
+      <c r="C415">
         <v>0.1044822902518023</v>
       </c>
-      <c r="D415" t="n">
+      <c r="D415">
         <v>107622609967.6105</v>
       </c>
     </row>
-    <row r="416">
-      <c r="A416" s="2" t="n">
+    <row r="416" spans="1:4">
+      <c r="A416" s="2">
         <v>43647</v>
       </c>
-      <c r="B416" t="n">
+      <c r="B416">
         <v>1030860000000</v>
       </c>
-      <c r="C416" t="n">
+      <c r="C416">
         <v>0.1036806635562468</v>
       </c>
-      <c r="D416" t="n">
+      <c r="D416">
         <v>106880248833.5925</v>
       </c>
     </row>
-    <row r="417">
-      <c r="A417" s="2" t="n">
+    <row r="417" spans="1:4">
+      <c r="A417" s="2">
         <v>43678</v>
       </c>
-      <c r="B417" t="n">
+      <c r="B417">
         <v>1043542000000</v>
       </c>
-      <c r="C417" t="n">
+      <c r="C417">
         <v>0.1036699149906697</v>
       </c>
-      <c r="D417" t="n">
+      <c r="D417">
         <v>108183910429.1934</v>
       </c>
     </row>
-    <row r="418">
-      <c r="A418" s="2" t="n">
+    <row r="418" spans="1:4">
+      <c r="A418" s="2">
         <v>43709</v>
       </c>
-      <c r="B418" t="n">
+      <c r="B418">
         <v>1044136000000</v>
       </c>
-      <c r="C418" t="n">
+      <c r="C418">
         <v>0.1026694045174538</v>
       </c>
-      <c r="D418" t="n">
+      <c r="D418">
         <v>107200821355.2361</v>
       </c>
     </row>
-    <row r="419">
-      <c r="A419" s="2" t="n">
+    <row r="419" spans="1:4">
+      <c r="A419" s="2">
         <v>43739</v>
       </c>
-      <c r="B419" t="n">
+      <c r="B419">
         <v>1043064000000</v>
       </c>
-      <c r="C419" t="n">
+      <c r="C419">
         <v>0.1040691018836507</v>
       </c>
-      <c r="D419" t="n">
+      <c r="D419">
         <v>108550733687.1683</v>
       </c>
     </row>
-    <row r="420">
-      <c r="A420" s="2" t="n">
+    <row r="420" spans="1:4">
+      <c r="A420" s="2">
         <v>43770</v>
       </c>
-      <c r="B420" t="n">
+      <c r="B420">
         <v>1046410000000</v>
       </c>
-      <c r="C420" t="n">
+      <c r="C420">
         <v>0.1036376826614157</v>
       </c>
-      <c r="D420" t="n">
+      <c r="D420">
         <v>108447507513.732</v>
       </c>
     </row>
-    <row r="421">
-      <c r="A421" s="2" t="n">
+    <row r="421" spans="1:4">
+      <c r="A421" s="2">
         <v>43800</v>
       </c>
-      <c r="B421" t="n">
+      <c r="B421">
         <v>1078347000000</v>
       </c>
-      <c r="C421" t="n">
+      <c r="C421">
         <v>0.104602510460251</v>
       </c>
-      <c r="D421" t="n">
+      <c r="D421">
         <v>112797803347.2803</v>
       </c>
     </row>
-    <row r="422">
-      <c r="A422" s="2" t="n">
+    <row r="422" spans="1:4">
+      <c r="A422" s="2">
         <v>43831</v>
       </c>
-      <c r="B422" t="n">
+      <c r="B422">
         <v>1069640000000</v>
       </c>
-      <c r="C422" t="n">
+      <c r="C422">
         <v>0.1043187982474442</v>
       </c>
-      <c r="D422" t="n">
+      <c r="D422">
         <v>111583559357.3962</v>
       </c>
     </row>
-    <row r="423">
-      <c r="A423" s="2" t="n">
+    <row r="423" spans="1:4">
+      <c r="A423" s="2">
         <v>43862</v>
       </c>
-      <c r="B423" t="n">
+      <c r="B423">
         <v>1068605000000</v>
       </c>
-      <c r="C423" t="n">
+      <c r="C423">
         <v>0.1042600663094022</v>
       </c>
-      <c r="D423" t="n">
+      <c r="D423">
         <v>111412828158.5587</v>
       </c>
     </row>
-    <row r="424">
-      <c r="A424" s="2" t="n">
+    <row r="424" spans="1:4">
+      <c r="A424" s="2">
         <v>43891</v>
       </c>
-      <c r="B424" t="n">
+      <c r="B424">
         <v>1093610000000</v>
       </c>
-      <c r="C424" t="n">
+      <c r="C424">
         <v>0.09909722428674772</v>
       </c>
-      <c r="D424" t="n">
+      <c r="D424">
         <v>108373715452.2302</v>
       </c>
     </row>
-    <row r="425">
-      <c r="A425" s="2" t="n">
+    <row r="425" spans="1:4">
+      <c r="A425" s="2">
         <v>43922</v>
       </c>
-      <c r="B425" t="n">
+      <c r="B425">
         <v>1097707000000</v>
       </c>
-      <c r="C425" t="n">
+      <c r="C425">
         <v>0.1016053647632595</v>
       </c>
-      <c r="D425" t="n">
+      <c r="D425">
         <v>111532920138.1833</v>
       </c>
     </row>
-    <row r="426">
-      <c r="A426" s="2" t="n">
+    <row r="426" spans="1:4">
+      <c r="A426" s="2">
         <v>43952</v>
       </c>
-      <c r="B426" t="n">
+      <c r="B426">
         <v>1118736000000</v>
       </c>
-      <c r="C426" t="n">
+      <c r="C426">
         <v>0.1021951518619957</v>
       </c>
-      <c r="D426" t="n">
+      <c r="D426">
         <v>114329395413.4816</v>
       </c>
     </row>
-    <row r="427">
-      <c r="A427" s="2" t="n">
+    <row r="427" spans="1:4">
+      <c r="A427" s="2">
         <v>43983</v>
       </c>
-      <c r="B427" t="n">
+      <c r="B427">
         <v>1144358000000</v>
       </c>
-      <c r="C427" t="n">
+      <c r="C427">
         <v>0.1030874697180558</v>
       </c>
-      <c r="D427" t="n">
+      <c r="D427">
         <v>117968970671.6149</v>
       </c>
     </row>
-    <row r="428">
-      <c r="A428" s="2" t="n">
+    <row r="428" spans="1:4">
+      <c r="A428" s="2">
         <v>44013</v>
       </c>
-      <c r="B428" t="n">
+      <c r="B428">
         <v>1155666000000</v>
       </c>
-      <c r="C428" t="n">
+      <c r="C428">
         <v>0.1072340060479979</v>
       </c>
-      <c r="D428" t="n">
+      <c r="D428">
         <v>123926694833.4656</v>
       </c>
     </row>
-    <row r="429">
-      <c r="A429" s="2" t="n">
+    <row r="429" spans="1:4">
+      <c r="A429" s="2">
         <v>44044</v>
       </c>
-      <c r="B429" t="n">
+      <c r="B429">
         <v>1149273000000</v>
       </c>
-      <c r="C429" t="n">
+      <c r="C429">
         <v>0.1095098339830917</v>
       </c>
-      <c r="D429" t="n">
+      <c r="D429">
         <v>125856695431.2497</v>
       </c>
     </row>
-    <row r="430">
-      <c r="A430" s="2" t="n">
+    <row r="430" spans="1:4">
+      <c r="A430" s="2">
         <v>44075</v>
       </c>
-      <c r="B430" t="n">
+      <c r="B430">
         <v>1160903000000</v>
       </c>
-      <c r="C430" t="n">
+      <c r="C430">
         <v>0.1082368221669012</v>
       </c>
-      <c r="D430" t="n">
+      <c r="D430">
         <v>125652451564.0221</v>
       </c>
     </row>
-    <row r="431">
-      <c r="A431" s="2" t="n">
+    <row r="431" spans="1:4">
+      <c r="A431" s="2">
         <v>44105</v>
       </c>
-      <c r="B431" t="n">
+      <c r="B431">
         <v>1159159000000</v>
       </c>
-      <c r="C431" t="n">
+      <c r="C431">
         <v>0.1083658430862592</v>
       </c>
-      <c r="D431" t="n">
+      <c r="D431">
         <v>125613242306.0251</v>
       </c>
     </row>
-    <row r="432">
-      <c r="A432" s="2" t="n">
+    <row r="432" spans="1:4">
+      <c r="A432" s="2">
         <v>44136</v>
       </c>
-      <c r="B432" t="n">
+      <c r="B432">
         <v>1164080000000</v>
       </c>
-      <c r="C432" t="n">
+      <c r="C432">
         <v>0.1098961481400077</v>
       </c>
-      <c r="D432" t="n">
+      <c r="D432">
         <v>127927908126.8201</v>
       </c>
     </row>
-    <row r="433">
-      <c r="A433" s="2" t="n">
+    <row r="433" spans="1:4">
+      <c r="A433" s="2">
         <v>44166</v>
       </c>
-      <c r="B433" t="n">
+      <c r="B433">
         <v>1188755000000</v>
       </c>
-      <c r="C433" t="n">
+      <c r="C433">
         <v>0.1123355688111527</v>
       </c>
-      <c r="D433" t="n">
+      <c r="D433">
         <v>133539469102.1018</v>
       </c>
     </row>
-    <row r="434">
-      <c r="A434" s="2" t="n">
+    <row r="434" spans="1:4">
+      <c r="A434" s="2">
         <v>44197</v>
       </c>
-      <c r="B434" t="n">
+      <c r="B434">
         <v>1182578000000</v>
       </c>
-      <c r="C434" t="n">
+      <c r="C434">
         <v>0.1118968758392266</v>
       </c>
-      <c r="D434" t="n">
+      <c r="D434">
         <v>132326783636.2009</v>
       </c>
     </row>
-    <row r="435">
-      <c r="A435" s="2" t="n">
+    <row r="435" spans="1:4">
+      <c r="A435" s="2">
         <v>44228</v>
       </c>
-      <c r="B435" t="n">
+      <c r="B435">
         <v>1180145000000</v>
       </c>
-      <c r="C435" t="n">
+      <c r="C435">
         <v>0.112020970325645</v>
       </c>
-      <c r="D435" t="n">
+      <c r="D435">
         <v>132200988024.9583</v>
       </c>
     </row>
-    <row r="436">
-      <c r="A436" s="2" t="n">
+    <row r="436" spans="1:4">
+      <c r="A436" s="2">
         <v>44256</v>
       </c>
-      <c r="B436" t="n">
+      <c r="B436">
         <v>1187894000000</v>
       </c>
-      <c r="C436" t="n">
+      <c r="C436">
         <v>0.1103436100015448</v>
       </c>
-      <c r="D436" t="n">
+      <c r="D436">
         <v>131076512259.1751</v>
       </c>
     </row>
-    <row r="437">
-      <c r="A437" s="2" t="n">
+    <row r="437" spans="1:4">
+      <c r="A437" s="2">
         <v>44287</v>
       </c>
-      <c r="B437" t="n">
+      <c r="B437">
         <v>1188514000000</v>
       </c>
-      <c r="C437" t="n">
+      <c r="C437">
         <v>0.1119808288820954</v>
       </c>
-      <c r="D437" t="n">
+      <c r="D437">
         <v>133090782857.9747</v>
       </c>
     </row>
-    <row r="438">
-      <c r="A438" s="2" t="n">
+    <row r="438" spans="1:4">
+      <c r="A438" s="2">
         <v>44317</v>
       </c>
-      <c r="B438" t="n">
+      <c r="B438">
         <v>1196472000000</v>
       </c>
-      <c r="C438" t="n">
+      <c r="C438">
         <v>0.1133093117592404</v>
       </c>
-      <c r="D438" t="n">
+      <c r="D438">
         <v>135571418859.2018</v>
       </c>
     </row>
-    <row r="439">
-      <c r="A439" s="2" t="n">
+    <row r="439" spans="1:4">
+      <c r="A439" s="2">
         <v>44348</v>
       </c>
-      <c r="B439" t="n">
+      <c r="B439">
         <v>1214727000000</v>
       </c>
-      <c r="C439" t="n">
+      <c r="C439">
         <v>0.1120197154699227</v>
       </c>
-      <c r="D439" t="n">
+      <c r="D439">
         <v>136073372913.6328</v>
       </c>
     </row>
-    <row r="440">
-      <c r="A440" s="2" t="n">
+    <row r="440" spans="1:4">
+      <c r="A440" s="2">
         <v>44378</v>
       </c>
-      <c r="B440" t="n">
+      <c r="B440">
         <v>1222002000000</v>
       </c>
-      <c r="C440" t="n">
+      <c r="C440">
         <v>0.1131234516227559</v>
       </c>
-      <c r="D440" t="n">
+      <c r="D440">
         <v>138237084129.911</v>
       </c>
     </row>
-    <row r="441">
-      <c r="A441" s="2" t="n">
+    <row r="441" spans="1:4">
+      <c r="A441" s="2">
         <v>44409</v>
       </c>
-      <c r="B441" t="n">
+      <c r="B441">
         <v>1225272000000</v>
       </c>
-      <c r="C441" t="n">
+      <c r="C441">
         <v>0.1117480751394057</v>
       </c>
-      <c r="D441" t="n">
+      <c r="D441">
         <v>136921787522.2099</v>
       </c>
     </row>
-    <row r="442">
-      <c r="A442" s="2" t="n">
+    <row r="442" spans="1:4">
+      <c r="A442" s="2">
         <v>44440</v>
       </c>
-      <c r="B442" t="n">
+      <c r="B442">
         <v>1231818000000</v>
       </c>
-      <c r="C442" t="n">
+      <c r="C442">
         <v>0.1102535832414553</v>
       </c>
-      <c r="D442" t="n">
+      <c r="D442">
         <v>135812348401.323</v>
       </c>
     </row>
-    <row r="443">
-      <c r="A443" s="2" t="n">
+    <row r="443" spans="1:4">
+      <c r="A443" s="2">
         <v>44470</v>
       </c>
-      <c r="B443" t="n">
+      <c r="B443">
         <v>1226937000000</v>
       </c>
-      <c r="C443" t="n">
+      <c r="C443">
         <v>0.1100594320933304</v>
       </c>
-      <c r="D443" t="n">
+      <c r="D443">
         <v>135035989434.2945</v>
       </c>
     </row>
-    <row r="444">
-      <c r="A444" s="2" t="n">
+    <row r="444" spans="1:4">
+      <c r="A444" s="2">
         <v>44501</v>
       </c>
-      <c r="B444" t="n">
+      <c r="B444">
         <v>1230482000000</v>
       </c>
-      <c r="C444" t="n">
+      <c r="C444">
         <v>0.1082239369703791</v>
       </c>
-      <c r="D444" t="n">
+      <c r="D444">
         <v>133167606411.186</v>
       </c>
     </row>
-    <row r="445">
-      <c r="A445" s="2" t="n">
+    <row r="445" spans="1:4">
+      <c r="A445" s="2">
         <v>44531</v>
       </c>
-      <c r="B445" t="n">
+      <c r="B445">
         <v>1260988000000</v>
       </c>
-      <c r="C445" t="n">
+      <c r="C445">
         <v>0.1081291494561104</v>
       </c>
-      <c r="D445" t="n">
+      <c r="D445">
         <v>136349559914.3617</v>
       </c>
     </row>
-    <row r="446">
-      <c r="A446" s="2" t="n">
+    <row r="446" spans="1:4">
+      <c r="A446" s="2">
         <v>44562</v>
       </c>
-      <c r="B446" t="n">
+      <c r="B446">
         <v>1250996000000</v>
       </c>
-      <c r="C446" t="n">
+      <c r="C446">
         <v>0.1062767020213829</v>
       </c>
-      <c r="D446" t="n">
+      <c r="D446">
         <v>132951729121.9419</v>
       </c>
     </row>
-    <row r="447">
-      <c r="A447" s="2" t="n">
+    <row r="447" spans="1:4">
+      <c r="A447" s="2">
         <v>44593</v>
       </c>
-      <c r="B447" t="n">
+      <c r="B447">
         <v>1246378000000</v>
       </c>
-      <c r="C447" t="n">
+      <c r="C447">
         <v>0.1047625034047814</v>
       </c>
-      <c r="D447" t="n">
+      <c r="D447">
         <v>130573679468.6446</v>
       </c>
     </row>
-    <row r="448">
-      <c r="A448" s="2" t="n">
+    <row r="448" spans="1:4">
+      <c r="A448" s="2">
         <v>44621</v>
       </c>
-      <c r="B448" t="n">
+      <c r="B448">
         <v>1269224000000</v>
       </c>
-      <c r="C448" t="n">
+      <c r="C448">
         <v>0.1031746850592739</v>
       </c>
-      <c r="D448" t="n">
+      <c r="D448">
         <v>130951786469.6718</v>
       </c>
     </row>
-    <row r="449">
-      <c r="A449" s="2" t="n">
+    <row r="449" spans="1:4">
+      <c r="A449" s="2">
         <v>44652</v>
       </c>
-      <c r="B449" t="n">
+      <c r="B449">
         <v>1270570000000</v>
       </c>
-      <c r="C449" t="n">
+      <c r="C449">
         <v>0.1001371879474881</v>
       </c>
-      <c r="D449" t="n">
+      <c r="D449">
         <v>127231306890.4399</v>
       </c>
     </row>
-    <row r="450">
-      <c r="A450" s="2" t="n">
+    <row r="450" spans="1:4">
+      <c r="A450" s="2">
         <v>44682</v>
       </c>
-      <c r="B450" t="n">
+      <c r="B450">
         <v>1277411000000</v>
       </c>
-      <c r="C450" t="n">
+      <c r="C450">
         <v>0.1014301653311695</v>
       </c>
-      <c r="D450" t="n">
+      <c r="D450">
         <v>129568008925.8545</v>
       </c>
     </row>
-    <row r="451">
-      <c r="A451" s="2" t="n">
+    <row r="451" spans="1:4">
+      <c r="A451" s="2">
         <v>44713</v>
       </c>
-      <c r="B451" t="n">
+      <c r="B451">
         <v>1297962000000</v>
       </c>
-      <c r="C451" t="n">
+      <c r="C451">
         <v>0.09957184108334163</v>
       </c>
-      <c r="D451" t="n">
+      <c r="D451">
         <v>129240465996.2163</v>
       </c>
     </row>
-    <row r="452">
-      <c r="A452" s="2" t="n">
+    <row r="452" spans="1:4">
+      <c r="A452" s="2">
         <v>44743</v>
       </c>
-      <c r="B452" t="n">
+      <c r="B452">
         <v>1304702000000</v>
       </c>
-      <c r="C452" t="n">
+      <c r="C452">
         <v>0.09717700791992614</v>
       </c>
-      <c r="D452" t="n">
+      <c r="D452">
         <v>126787036587.1435</v>
       </c>
     </row>
-    <row r="453">
-      <c r="A453" s="2" t="n">
+    <row r="453" spans="1:4">
+      <c r="A453" s="2">
         <v>44774</v>
       </c>
-      <c r="B453" t="n">
+      <c r="B453">
         <v>1305964000000</v>
       </c>
-      <c r="C453" t="n">
+      <c r="C453">
         <v>0.09471311397776137</v>
       </c>
-      <c r="D453" t="n">
+      <c r="D453">
         <v>123691917182.8531</v>
       </c>
     </row>
-    <row r="454">
-      <c r="A454" s="2" t="n">
+    <row r="454" spans="1:4">
+      <c r="A454" s="2">
         <v>44805</v>
       </c>
-      <c r="B454" t="n">
+      <c r="B454">
         <v>1315853000000</v>
       </c>
-      <c r="C454" t="n">
+      <c r="C454">
         <v>0.09132169894888724</v>
       </c>
-      <c r="D454" t="n">
+      <c r="D454">
         <v>120165931526.9901</v>
       </c>
     </row>
-    <row r="455">
-      <c r="A455" s="2" t="n">
+    <row r="455" spans="1:4">
+      <c r="A455" s="2">
         <v>44835</v>
       </c>
-      <c r="B455" t="n">
+      <c r="B455">
         <v>1318682000000</v>
       </c>
-      <c r="C455" t="n">
+      <c r="C455">
         <v>0.09129835389067936</v>
       </c>
-      <c r="D455" t="n">
+      <c r="D455">
         <v>120393495905.2688</v>
       </c>
     </row>
-    <row r="456">
-      <c r="A456" s="2" t="n">
+    <row r="456" spans="1:4">
+      <c r="A456" s="2">
         <v>44866</v>
       </c>
-      <c r="B456" t="n">
+      <c r="B456">
         <v>1329615000000</v>
       </c>
-      <c r="C456" t="n">
+      <c r="C456">
         <v>0.09372334742307656</v>
       </c>
-      <c r="D456" t="n">
+      <c r="D456">
         <v>124615968583.9339</v>
       </c>
     </row>
-    <row r="457">
-      <c r="A457" s="2" t="n">
+    <row r="457" spans="1:4">
+      <c r="A457" s="2">
         <v>44896</v>
       </c>
-      <c r="B457" t="n">
+      <c r="B457">
         <v>1375618000000</v>
       </c>
-      <c r="C457" t="n">
+      <c r="C457">
         <v>0.09604763962925611</v>
       </c>
-      <c r="D457" t="n">
+      <c r="D457">
         <v>132124861931.518</v>
       </c>
     </row>
-    <row r="458">
-      <c r="A458" s="2" t="n">
+    <row r="458" spans="1:4">
+      <c r="A458" s="2">
         <v>44927</v>
       </c>
-      <c r="B458" t="n">
+      <c r="B458">
         <v>1365405000000</v>
       </c>
-      <c r="C458" t="n">
+      <c r="C458">
         <v>0.09818456734970396</v>
       </c>
-      <c r="D458" t="n">
+      <c r="D458">
         <v>134061699182.1225</v>
       </c>
     </row>
-    <row r="459">
-      <c r="A459" s="2" t="n">
+    <row r="459" spans="1:4">
+      <c r="A459" s="2">
         <v>44958</v>
       </c>
-      <c r="B459" t="n">
+      <c r="B459">
         <v>1371522000000</v>
       </c>
-      <c r="C459" t="n">
+      <c r="C459">
         <v>0.09607347699520594</v>
       </c>
-      <c r="D459" t="n">
+      <c r="D459">
         <v>131766887315.4188</v>
       </c>
     </row>
-    <row r="460">
-      <c r="A460" s="2" t="n">
+    <row r="460" spans="1:4">
+      <c r="A460" s="2">
         <v>44986</v>
       </c>
-      <c r="B460" t="n">
+      <c r="B460">
         <v>1393850000000</v>
       </c>
-      <c r="C460" t="n">
+      <c r="C460">
         <v>0.09767818943708059</v>
       </c>
-      <c r="D460" t="n">
+      <c r="D460">
         <v>136148744346.8748</v>
       </c>
     </row>
-    <row r="461">
-      <c r="A461" s="2" t="n">
+    <row r="461" spans="1:4">
+      <c r="A461" s="2">
         <v>45017</v>
       </c>
-      <c r="B461" t="n">
+      <c r="B461">
         <v>1391394000000</v>
       </c>
-      <c r="C461" t="n">
+      <c r="C461">
         <v>0.09943323058566172</v>
       </c>
-      <c r="D461" t="n">
+      <c r="D461">
         <v>138350800437.5062</v>
       </c>
     </row>
-    <row r="462">
-      <c r="A462" s="2" t="n">
+    <row r="462" spans="1:4">
+      <c r="A462" s="2">
         <v>45047</v>
       </c>
-      <c r="B462" t="n">
+      <c r="B462">
         <v>1394414000000</v>
       </c>
-      <c r="C462" t="n">
+      <c r="C462">
         <v>0.09827237170541873</v>
       </c>
-      <c r="D462" t="n">
+      <c r="D462">
         <v>137032370919.2398</v>
       </c>
     </row>
-    <row r="463">
-      <c r="A463" s="2" t="n">
+    <row r="463" spans="1:4">
+      <c r="A463" s="2">
         <v>45078</v>
       </c>
-      <c r="B463" t="n">
+      <c r="B463">
         <v>1430306000000</v>
       </c>
-      <c r="C463" t="n">
+      <c r="C463">
         <v>0.1012115016750504</v>
       </c>
-      <c r="D463" t="n">
+      <c r="D463">
         <v>144763418114.8346</v>
       </c>
     </row>
-    <row r="464">
-      <c r="A464" s="2" t="n">
+    <row r="464" spans="1:4">
+      <c r="A464" s="2">
         <v>45108</v>
       </c>
-      <c r="B464" t="n">
+      <c r="B464">
         <v>1417792000000</v>
       </c>
-      <c r="C464" t="n">
+      <c r="C464">
         <v>0.1015383053256841</v>
       </c>
-      <c r="D464" t="n">
+      <c r="D464">
         <v>143960196984.3123</v>
       </c>
     </row>
-    <row r="465">
-      <c r="A465" s="2" t="n">
+    <row r="465" spans="1:4">
+      <c r="A465" s="2">
         <v>45139</v>
       </c>
-      <c r="B465" t="n">
+      <c r="B465">
         <v>1419788000000</v>
       </c>
-      <c r="C465" t="n">
+      <c r="C465">
         <v>0.09842132199519704</v>
       </c>
-      <c r="D465" t="n">
+      <c r="D465">
         <v>139737411912.9168</v>
       </c>
     </row>
-    <row r="466">
-      <c r="A466" s="2" t="n">
+    <row r="466" spans="1:4">
+      <c r="A466" s="2">
         <v>45170</v>
       </c>
-      <c r="B466" t="n">
+      <c r="B466">
         <v>1430691000000</v>
       </c>
-      <c r="C466" t="n">
+      <c r="C466">
         <v>0.09724504779594098</v>
       </c>
-      <c r="D466" t="n">
+      <c r="D466">
         <v>139127614676.2226</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Global_M2/TVDataFeed/FinalData/Morocco.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/Morocco.xlsx
@@ -386,7 +386,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D466"/>
+  <dimension ref="A1:D467"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5998,13 +5998,27 @@
         <v>45170</v>
       </c>
       <c r="B466">
-        <v>1430691000000</v>
+        <v>1430700000000</v>
       </c>
       <c r="C466">
         <v>0.09724504779594098</v>
       </c>
       <c r="D466">
-        <v>139127614676.2226</v>
+        <v>139128489881.6528</v>
+      </c>
+    </row>
+    <row r="467" spans="1:4">
+      <c r="A467" s="2">
+        <v>45200</v>
+      </c>
+      <c r="B467">
+        <v>1427951000000</v>
+      </c>
+      <c r="C467">
+        <v>0.09711094925952901</v>
+      </c>
+      <c r="D467">
+        <v>138669677106.0937</v>
       </c>
     </row>
   </sheetData>

--- a/Global_M2/TVDataFeed/FinalData/Morocco.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/Morocco.xlsx
@@ -1,57 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
-  <si>
-    <t>Morocco_M2 (MAD)</t>
-  </si>
-  <si>
-    <t>Morocco_FX (USD)</t>
-  </si>
-  <si>
-    <t>Morocco_M2 (USD)</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
   <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -66,38 +49,96 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -385,5643 +426,5971 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D467"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D468"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="2">
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Morocco_M2 (MAD)</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Morocco_FX (USD)</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Morocco_M2 (USD)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
         <v>31048</v>
       </c>
-      <c r="B2">
+      <c r="B2" t="n">
         <v>38311000000</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="2">
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
         <v>31079</v>
       </c>
-      <c r="B3">
+      <c r="B3" t="n">
         <v>39529000000</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="2">
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
         <v>31107</v>
       </c>
-      <c r="B4">
+      <c r="B4" t="n">
         <v>39712000000</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="2">
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
         <v>31138</v>
       </c>
-      <c r="B5">
+      <c r="B5" t="n">
         <v>40425000000</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="2">
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
         <v>31168</v>
       </c>
-      <c r="B6">
+      <c r="B6" t="n">
         <v>40941000000</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="2">
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
         <v>31199</v>
       </c>
-      <c r="B7">
+      <c r="B7" t="n">
         <v>42409000000</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="2">
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
         <v>31229</v>
       </c>
-      <c r="B8">
+      <c r="B8" t="n">
         <v>42939000000</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="2">
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
         <v>31260</v>
       </c>
-      <c r="B9">
+      <c r="B9" t="n">
         <v>43443000000</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="2">
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
         <v>31291</v>
       </c>
-      <c r="B10">
+      <c r="B10" t="n">
         <v>42620000000</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="2">
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
         <v>31321</v>
       </c>
-      <c r="B11">
+      <c r="B11" t="n">
         <v>42861000000</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="2">
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
         <v>31352</v>
       </c>
-      <c r="B12">
+      <c r="B12" t="n">
         <v>42957000000</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="2">
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
         <v>31382</v>
       </c>
-      <c r="B13">
+      <c r="B13" t="n">
         <v>44211000000</v>
       </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="2">
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
         <v>31413</v>
       </c>
-      <c r="B14">
+      <c r="B14" t="n">
         <v>44318000000</v>
       </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="2">
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
         <v>31444</v>
       </c>
-      <c r="B15">
+      <c r="B15" t="n">
         <v>45628000000</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="2">
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
         <v>31472</v>
       </c>
-      <c r="B16">
+      <c r="B16" t="n">
         <v>45865000000</v>
       </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="2">
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
         <v>31503</v>
       </c>
-      <c r="B17">
+      <c r="B17" t="n">
         <v>47578000000</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="2">
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
         <v>31533</v>
       </c>
-      <c r="B18">
+      <c r="B18" t="n">
         <v>48184000000</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="2">
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
         <v>31564</v>
       </c>
-      <c r="B19">
+      <c r="B19" t="n">
         <v>50292000000</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="2">
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
         <v>31594</v>
       </c>
-      <c r="B20">
+      <c r="B20" t="n">
         <v>52728000000</v>
       </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="2">
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
         <v>31625</v>
       </c>
-      <c r="B21">
+      <c r="B21" t="n">
         <v>52765000000</v>
       </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="2">
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
         <v>31656</v>
       </c>
-      <c r="B22">
+      <c r="B22" t="n">
         <v>51837000000</v>
       </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" s="2">
+      <c r="C22" t="inlineStr"/>
+      <c r="D22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
         <v>31686</v>
       </c>
-      <c r="B23">
+      <c r="B23" t="n">
         <v>55536000000</v>
       </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" s="2">
+      <c r="C23" t="inlineStr"/>
+      <c r="D23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
         <v>31717</v>
       </c>
-      <c r="B24">
+      <c r="B24" t="n">
         <v>55658000000</v>
       </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" s="2">
+      <c r="C24" t="inlineStr"/>
+      <c r="D24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
         <v>31747</v>
       </c>
-      <c r="B25">
+      <c r="B25" t="n">
         <v>52924000000</v>
       </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" s="2">
+      <c r="C25" t="inlineStr"/>
+      <c r="D25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
         <v>31778</v>
       </c>
-      <c r="B26">
+      <c r="B26" t="n">
         <v>53892000000</v>
       </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27" s="2">
+      <c r="C26" t="inlineStr"/>
+      <c r="D26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
         <v>31809</v>
       </c>
-      <c r="B27">
+      <c r="B27" t="n">
         <v>58360000000</v>
       </c>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28" s="2">
+      <c r="C27" t="inlineStr"/>
+      <c r="D27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
         <v>31837</v>
       </c>
-      <c r="B28">
+      <c r="B28" t="n">
         <v>54499000000</v>
       </c>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29" s="2">
+      <c r="C28" t="inlineStr"/>
+      <c r="D28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
         <v>31868</v>
       </c>
-      <c r="B29">
+      <c r="B29" t="n">
         <v>55554000000</v>
       </c>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30" s="2">
+      <c r="C29" t="inlineStr"/>
+      <c r="D29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
         <v>31898</v>
       </c>
-      <c r="B30">
+      <c r="B30" t="n">
         <v>56755000000</v>
       </c>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31" s="2">
+      <c r="C30" t="inlineStr"/>
+      <c r="D30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
         <v>31929</v>
       </c>
-      <c r="B31">
+      <c r="B31" t="n">
         <v>56685000000</v>
       </c>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="A32" s="2">
+      <c r="C31" t="inlineStr"/>
+      <c r="D31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
         <v>31959</v>
       </c>
-      <c r="B32">
+      <c r="B32" t="n">
         <v>58381000000</v>
       </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" s="2">
+      <c r="C32" t="inlineStr"/>
+      <c r="D32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
         <v>31990</v>
       </c>
-      <c r="B33">
+      <c r="B33" t="n">
         <v>59170000000</v>
       </c>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="A34" s="2">
+      <c r="C33" t="inlineStr"/>
+      <c r="D33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
         <v>32021</v>
       </c>
-      <c r="B34">
+      <c r="B34" t="n">
         <v>57957000000</v>
       </c>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="A35" s="2">
+      <c r="C34" t="inlineStr"/>
+      <c r="D34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
         <v>32051</v>
       </c>
-      <c r="B35">
+      <c r="B35" t="n">
         <v>57606000000</v>
       </c>
-    </row>
-    <row r="36" spans="1:2">
-      <c r="A36" s="2">
+      <c r="C35" t="inlineStr"/>
+      <c r="D35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
         <v>32082</v>
       </c>
-      <c r="B36">
+      <c r="B36" t="n">
         <v>57515000000</v>
       </c>
-    </row>
-    <row r="37" spans="1:2">
-      <c r="A37" s="2">
+      <c r="C36" t="inlineStr"/>
+      <c r="D36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
         <v>32112</v>
       </c>
-      <c r="B37">
+      <c r="B37" t="n">
         <v>59123000000</v>
       </c>
-    </row>
-    <row r="38" spans="1:2">
-      <c r="A38" s="2">
+      <c r="C37" t="inlineStr"/>
+      <c r="D37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
         <v>32143</v>
       </c>
-      <c r="B38">
+      <c r="B38" t="n">
         <v>62343000000</v>
       </c>
-    </row>
-    <row r="39" spans="1:2">
-      <c r="A39" s="2">
+      <c r="C38" t="inlineStr"/>
+      <c r="D38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
         <v>32174</v>
       </c>
-      <c r="B39">
+      <c r="B39" t="n">
         <v>63042000000</v>
       </c>
-    </row>
-    <row r="40" spans="1:2">
-      <c r="A40" s="2">
+      <c r="C39" t="inlineStr"/>
+      <c r="D39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
         <v>32203</v>
       </c>
-      <c r="B40">
+      <c r="B40" t="n">
         <v>64202000000</v>
       </c>
-    </row>
-    <row r="41" spans="1:2">
-      <c r="A41" s="2">
+      <c r="C40" t="inlineStr"/>
+      <c r="D40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
         <v>32234</v>
       </c>
-      <c r="B41">
+      <c r="B41" t="n">
         <v>65385000000</v>
       </c>
-    </row>
-    <row r="42" spans="1:2">
-      <c r="A42" s="2">
+      <c r="C41" t="inlineStr"/>
+      <c r="D41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
         <v>32264</v>
       </c>
-      <c r="B42">
+      <c r="B42" t="n">
         <v>65658000000</v>
       </c>
-    </row>
-    <row r="43" spans="1:2">
-      <c r="A43" s="2">
+      <c r="C42" t="inlineStr"/>
+      <c r="D42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
         <v>32295</v>
       </c>
-      <c r="B43">
+      <c r="B43" t="n">
         <v>72591000000</v>
       </c>
-    </row>
-    <row r="44" spans="1:2">
-      <c r="A44" s="2">
+      <c r="C43" t="inlineStr"/>
+      <c r="D43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
         <v>32325</v>
       </c>
-      <c r="B44">
+      <c r="B44" t="n">
         <v>68609000000</v>
       </c>
-    </row>
-    <row r="45" spans="1:2">
-      <c r="A45" s="2">
+      <c r="C44" t="inlineStr"/>
+      <c r="D44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
         <v>32356</v>
       </c>
-      <c r="B45">
+      <c r="B45" t="n">
         <v>68417000000</v>
       </c>
-    </row>
-    <row r="46" spans="1:2">
-      <c r="A46" s="2">
+      <c r="C45" t="inlineStr"/>
+      <c r="D45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
         <v>32387</v>
       </c>
-      <c r="B46">
+      <c r="B46" t="n">
         <v>69770000000</v>
       </c>
-    </row>
-    <row r="47" spans="1:2">
-      <c r="A47" s="2">
+      <c r="C46" t="inlineStr"/>
+      <c r="D46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
         <v>32417</v>
       </c>
-      <c r="B47">
+      <c r="B47" t="n">
         <v>70447000000</v>
       </c>
-    </row>
-    <row r="48" spans="1:2">
-      <c r="A48" s="2">
+      <c r="C47" t="inlineStr"/>
+      <c r="D47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
         <v>32448</v>
       </c>
-      <c r="B48">
+      <c r="B48" t="n">
         <v>69919000000</v>
       </c>
-    </row>
-    <row r="49" spans="1:2">
-      <c r="A49" s="2">
+      <c r="C48" t="inlineStr"/>
+      <c r="D48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
         <v>32478</v>
       </c>
-      <c r="B49">
+      <c r="B49" t="n">
         <v>71375000000</v>
       </c>
-    </row>
-    <row r="50" spans="1:2">
-      <c r="A50" s="2">
+      <c r="C49" t="inlineStr"/>
+      <c r="D49" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
         <v>32509</v>
       </c>
-      <c r="B50">
+      <c r="B50" t="n">
         <v>69215000000</v>
       </c>
-    </row>
-    <row r="51" spans="1:2">
-      <c r="A51" s="2">
+      <c r="C50" t="inlineStr"/>
+      <c r="D50" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
         <v>32540</v>
       </c>
-      <c r="B51">
+      <c r="B51" t="n">
         <v>69532000000</v>
       </c>
-    </row>
-    <row r="52" spans="1:2">
-      <c r="A52" s="2">
+      <c r="C51" t="inlineStr"/>
+      <c r="D51" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
         <v>32568</v>
       </c>
-      <c r="B52">
+      <c r="B52" t="n">
         <v>70476000000</v>
       </c>
-    </row>
-    <row r="53" spans="1:2">
-      <c r="A53" s="2">
+      <c r="C52" t="inlineStr"/>
+      <c r="D52" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
         <v>32599</v>
       </c>
-      <c r="B53">
+      <c r="B53" t="n">
         <v>70341000000</v>
       </c>
-    </row>
-    <row r="54" spans="1:2">
-      <c r="A54" s="2">
+      <c r="C53" t="inlineStr"/>
+      <c r="D53" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
         <v>32629</v>
       </c>
-      <c r="B54">
+      <c r="B54" t="n">
         <v>71622000000</v>
       </c>
-    </row>
-    <row r="55" spans="1:2">
-      <c r="A55" s="2">
+      <c r="C54" t="inlineStr"/>
+      <c r="D54" t="inlineStr"/>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
         <v>32660</v>
       </c>
-      <c r="B55">
+      <c r="B55" t="n">
         <v>72300000000</v>
       </c>
-    </row>
-    <row r="56" spans="1:2">
-      <c r="A56" s="2">
+      <c r="C55" t="inlineStr"/>
+      <c r="D55" t="inlineStr"/>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
         <v>32690</v>
       </c>
-      <c r="B56">
+      <c r="B56" t="n">
         <v>75417000000</v>
       </c>
-    </row>
-    <row r="57" spans="1:2">
-      <c r="A57" s="2">
+      <c r="C56" t="inlineStr"/>
+      <c r="D56" t="inlineStr"/>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
         <v>32721</v>
       </c>
-      <c r="B57">
+      <c r="B57" t="n">
         <v>75390000000</v>
       </c>
-    </row>
-    <row r="58" spans="1:2">
-      <c r="A58" s="2">
+      <c r="C57" t="inlineStr"/>
+      <c r="D57" t="inlineStr"/>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
         <v>32752</v>
       </c>
-      <c r="B58">
+      <c r="B58" t="n">
         <v>74120000000</v>
       </c>
-    </row>
-    <row r="59" spans="1:2">
-      <c r="A59" s="2">
+      <c r="C58" t="inlineStr"/>
+      <c r="D58" t="inlineStr"/>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
         <v>32782</v>
       </c>
-      <c r="B59">
+      <c r="B59" t="n">
         <v>74488000000</v>
       </c>
-    </row>
-    <row r="60" spans="1:2">
-      <c r="A60" s="2">
+      <c r="C59" t="inlineStr"/>
+      <c r="D59" t="inlineStr"/>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
         <v>32813</v>
       </c>
-      <c r="B60">
+      <c r="B60" t="n">
         <v>75402000000</v>
       </c>
-    </row>
-    <row r="61" spans="1:2">
-      <c r="A61" s="2">
+      <c r="C60" t="inlineStr"/>
+      <c r="D60" t="inlineStr"/>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
         <v>32843</v>
       </c>
-      <c r="B61">
+      <c r="B61" t="n">
         <v>76884000000</v>
       </c>
-    </row>
-    <row r="62" spans="1:2">
-      <c r="A62" s="2">
+      <c r="C61" t="inlineStr"/>
+      <c r="D61" t="inlineStr"/>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
         <v>32874</v>
       </c>
-      <c r="B62">
+      <c r="B62" t="n">
         <v>83697000000</v>
       </c>
-    </row>
-    <row r="63" spans="1:2">
-      <c r="A63" s="2">
+      <c r="C62" t="inlineStr"/>
+      <c r="D62" t="inlineStr"/>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
         <v>32905</v>
       </c>
-      <c r="B63">
+      <c r="B63" t="n">
         <v>84613000000</v>
       </c>
-    </row>
-    <row r="64" spans="1:2">
-      <c r="A64" s="2">
+      <c r="C63" t="inlineStr"/>
+      <c r="D63" t="inlineStr"/>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
         <v>32933</v>
       </c>
-      <c r="B64">
+      <c r="B64" t="n">
         <v>85038000000</v>
       </c>
-    </row>
-    <row r="65" spans="1:2">
-      <c r="A65" s="2">
+      <c r="C64" t="inlineStr"/>
+      <c r="D64" t="inlineStr"/>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
         <v>32964</v>
       </c>
-      <c r="B65">
+      <c r="B65" t="n">
         <v>86334000000</v>
       </c>
-    </row>
-    <row r="66" spans="1:2">
-      <c r="A66" s="2">
+      <c r="C65" t="inlineStr"/>
+      <c r="D65" t="inlineStr"/>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
         <v>32994</v>
       </c>
-      <c r="B66">
+      <c r="B66" t="n">
         <v>88489000000</v>
       </c>
-    </row>
-    <row r="67" spans="1:2">
-      <c r="A67" s="2">
+      <c r="C66" t="inlineStr"/>
+      <c r="D66" t="inlineStr"/>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
         <v>33025</v>
       </c>
-      <c r="B67">
+      <c r="B67" t="n">
         <v>90310000000</v>
       </c>
-    </row>
-    <row r="68" spans="1:2">
-      <c r="A68" s="2">
+      <c r="C67" t="inlineStr"/>
+      <c r="D67" t="inlineStr"/>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
         <v>33055</v>
       </c>
-      <c r="B68">
+      <c r="B68" t="n">
         <v>92844000000</v>
       </c>
-    </row>
-    <row r="69" spans="1:2">
-      <c r="A69" s="2">
+      <c r="C68" t="inlineStr"/>
+      <c r="D68" t="inlineStr"/>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
         <v>33086</v>
       </c>
-      <c r="B69">
+      <c r="B69" t="n">
         <v>95016000000</v>
       </c>
-    </row>
-    <row r="70" spans="1:2">
-      <c r="A70" s="2">
+      <c r="C69" t="inlineStr"/>
+      <c r="D69" t="inlineStr"/>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
         <v>33117</v>
       </c>
-      <c r="B70">
+      <c r="B70" t="n">
         <v>95372000000</v>
       </c>
-    </row>
-    <row r="71" spans="1:2">
-      <c r="A71" s="2">
+      <c r="C70" t="inlineStr"/>
+      <c r="D70" t="inlineStr"/>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
         <v>33147</v>
       </c>
-      <c r="B71">
+      <c r="B71" t="n">
         <v>96957000000</v>
       </c>
-    </row>
-    <row r="72" spans="1:2">
-      <c r="A72" s="2">
+      <c r="C71" t="inlineStr"/>
+      <c r="D71" t="inlineStr"/>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
         <v>33178</v>
       </c>
-      <c r="B72">
+      <c r="B72" t="n">
         <v>98356000000</v>
       </c>
-    </row>
-    <row r="73" spans="1:2">
-      <c r="A73" s="2">
+      <c r="C72" t="inlineStr"/>
+      <c r="D72" t="inlineStr"/>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
         <v>33208</v>
       </c>
-      <c r="B73">
+      <c r="B73" t="n">
         <v>101547000000</v>
       </c>
-    </row>
-    <row r="74" spans="1:2">
-      <c r="A74" s="2">
+      <c r="C73" t="inlineStr"/>
+      <c r="D73" t="inlineStr"/>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
         <v>33239</v>
       </c>
-      <c r="B74">
+      <c r="B74" t="n">
         <v>102802000000</v>
       </c>
-    </row>
-    <row r="75" spans="1:2">
-      <c r="A75" s="2">
+      <c r="C74" t="inlineStr"/>
+      <c r="D74" t="inlineStr"/>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
         <v>33270</v>
       </c>
-      <c r="B75">
+      <c r="B75" t="n">
         <v>94779000000</v>
       </c>
-    </row>
-    <row r="76" spans="1:2">
-      <c r="A76" s="2">
+      <c r="C75" t="inlineStr"/>
+      <c r="D75" t="inlineStr"/>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
         <v>33298</v>
       </c>
-      <c r="B76">
+      <c r="B76" t="n">
         <v>96186000000</v>
       </c>
-    </row>
-    <row r="77" spans="1:2">
-      <c r="A77" s="2">
+      <c r="C76" t="inlineStr"/>
+      <c r="D76" t="inlineStr"/>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
         <v>33329</v>
       </c>
-      <c r="B77">
+      <c r="B77" t="n">
         <v>96655000000</v>
       </c>
-    </row>
-    <row r="78" spans="1:2">
-      <c r="A78" s="2">
+      <c r="C77" t="inlineStr"/>
+      <c r="D77" t="inlineStr"/>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
         <v>33359</v>
       </c>
-      <c r="B78">
+      <c r="B78" t="n">
         <v>97183000000</v>
       </c>
-    </row>
-    <row r="79" spans="1:2">
-      <c r="A79" s="2">
+      <c r="C78" t="inlineStr"/>
+      <c r="D78" t="inlineStr"/>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
         <v>33390</v>
       </c>
-      <c r="B79">
+      <c r="B79" t="n">
         <v>100525000000</v>
       </c>
-    </row>
-    <row r="80" spans="1:2">
-      <c r="A80" s="2">
+      <c r="C79" t="inlineStr"/>
+      <c r="D79" t="inlineStr"/>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
         <v>33420</v>
       </c>
-      <c r="B80">
+      <c r="B80" t="n">
         <v>103374000000</v>
       </c>
-    </row>
-    <row r="81" spans="1:2">
-      <c r="A81" s="2">
+      <c r="C80" t="inlineStr"/>
+      <c r="D80" t="inlineStr"/>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
         <v>33451</v>
       </c>
-      <c r="B81">
+      <c r="B81" t="n">
         <v>103987000000</v>
       </c>
-    </row>
-    <row r="82" spans="1:2">
-      <c r="A82" s="2">
+      <c r="C81" t="inlineStr"/>
+      <c r="D81" t="inlineStr"/>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
         <v>33482</v>
       </c>
-      <c r="B82">
+      <c r="B82" t="n">
         <v>103398000000</v>
       </c>
-    </row>
-    <row r="83" spans="1:2">
-      <c r="A83" s="2">
+      <c r="C82" t="inlineStr"/>
+      <c r="D82" t="inlineStr"/>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
         <v>33512</v>
       </c>
-      <c r="B83">
+      <c r="B83" t="n">
         <v>103038000000</v>
       </c>
-    </row>
-    <row r="84" spans="1:2">
-      <c r="A84" s="2">
+      <c r="C83" t="inlineStr"/>
+      <c r="D83" t="inlineStr"/>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
         <v>33543</v>
       </c>
-      <c r="B84">
+      <c r="B84" t="n">
         <v>103643000000</v>
       </c>
-    </row>
-    <row r="85" spans="1:2">
-      <c r="A85" s="2">
+      <c r="C84" t="inlineStr"/>
+      <c r="D84" t="inlineStr"/>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
         <v>33573</v>
       </c>
-      <c r="B85">
+      <c r="B85" t="n">
         <v>106820000000</v>
       </c>
-    </row>
-    <row r="86" spans="1:2">
-      <c r="A86" s="2">
+      <c r="C85" t="inlineStr"/>
+      <c r="D85" t="inlineStr"/>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
         <v>33604</v>
       </c>
-      <c r="B86">
+      <c r="B86" t="n">
         <v>106314000000</v>
       </c>
-    </row>
-    <row r="87" spans="1:2">
-      <c r="A87" s="2">
+      <c r="C86" t="inlineStr"/>
+      <c r="D86" t="inlineStr"/>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
         <v>33635</v>
       </c>
-      <c r="B87">
+      <c r="B87" t="n">
         <v>107196000000</v>
       </c>
-    </row>
-    <row r="88" spans="1:2">
-      <c r="A88" s="2">
+      <c r="C87" t="inlineStr"/>
+      <c r="D87" t="inlineStr"/>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
         <v>33664</v>
       </c>
-      <c r="B88">
+      <c r="B88" t="n">
         <v>108342000000</v>
       </c>
-    </row>
-    <row r="89" spans="1:2">
-      <c r="A89" s="2">
+      <c r="C88" t="inlineStr"/>
+      <c r="D88" t="inlineStr"/>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
         <v>33695</v>
       </c>
-      <c r="B89">
+      <c r="B89" t="n">
         <v>108991000000</v>
       </c>
-    </row>
-    <row r="90" spans="1:2">
-      <c r="A90" s="2">
+      <c r="C89" t="inlineStr"/>
+      <c r="D89" t="inlineStr"/>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
         <v>33725</v>
       </c>
-      <c r="B90">
+      <c r="B90" t="n">
         <v>108712000000</v>
       </c>
-    </row>
-    <row r="91" spans="1:2">
-      <c r="A91" s="2">
+      <c r="C90" t="inlineStr"/>
+      <c r="D90" t="inlineStr"/>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
         <v>33756</v>
       </c>
-      <c r="B91">
+      <c r="B91" t="n">
         <v>108797000000</v>
       </c>
-    </row>
-    <row r="92" spans="1:2">
-      <c r="A92" s="2">
+      <c r="C91" t="inlineStr"/>
+      <c r="D91" t="inlineStr"/>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
         <v>33786</v>
       </c>
-      <c r="B92">
+      <c r="B92" t="n">
         <v>112673000000</v>
       </c>
-    </row>
-    <row r="93" spans="1:2">
-      <c r="A93" s="2">
+      <c r="C92" t="inlineStr"/>
+      <c r="D92" t="inlineStr"/>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
         <v>33817</v>
       </c>
-      <c r="B93">
+      <c r="B93" t="n">
         <v>113625000000</v>
       </c>
-    </row>
-    <row r="94" spans="1:2">
-      <c r="A94" s="2">
+      <c r="C93" t="inlineStr"/>
+      <c r="D93" t="inlineStr"/>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
         <v>33848</v>
       </c>
-      <c r="B94">
+      <c r="B94" t="n">
         <v>112708000000</v>
       </c>
-    </row>
-    <row r="95" spans="1:2">
-      <c r="A95" s="2">
+      <c r="C94" t="inlineStr"/>
+      <c r="D94" t="inlineStr"/>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
         <v>33878</v>
       </c>
-      <c r="B95">
+      <c r="B95" t="n">
         <v>112263000000</v>
       </c>
-    </row>
-    <row r="96" spans="1:2">
-      <c r="A96" s="2">
+      <c r="C95" t="inlineStr"/>
+      <c r="D95" t="inlineStr"/>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
         <v>33909</v>
       </c>
-      <c r="B96">
+      <c r="B96" t="n">
         <v>111018000000</v>
       </c>
-    </row>
-    <row r="97" spans="1:2">
-      <c r="A97" s="2">
+      <c r="C96" t="inlineStr"/>
+      <c r="D96" t="inlineStr"/>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
         <v>33939</v>
       </c>
-      <c r="B97">
+      <c r="B97" t="n">
         <v>113885000000</v>
       </c>
-    </row>
-    <row r="98" spans="1:2">
-      <c r="A98" s="2">
+      <c r="C97" t="inlineStr"/>
+      <c r="D97" t="inlineStr"/>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
         <v>33970</v>
       </c>
-      <c r="B98">
+      <c r="B98" t="n">
         <v>111458000000</v>
       </c>
-    </row>
-    <row r="99" spans="1:2">
-      <c r="A99" s="2">
+      <c r="C98" t="inlineStr"/>
+      <c r="D98" t="inlineStr"/>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
         <v>34001</v>
       </c>
-      <c r="B99">
+      <c r="B99" t="n">
         <v>111633000000</v>
       </c>
-    </row>
-    <row r="100" spans="1:2">
-      <c r="A100" s="2">
+      <c r="C99" t="inlineStr"/>
+      <c r="D99" t="inlineStr"/>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
         <v>34029</v>
       </c>
-      <c r="B100">
+      <c r="B100" t="n">
         <v>113221000000</v>
       </c>
-    </row>
-    <row r="101" spans="1:2">
-      <c r="A101" s="2">
+      <c r="C100" t="inlineStr"/>
+      <c r="D100" t="inlineStr"/>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
         <v>34060</v>
       </c>
-      <c r="B101">
+      <c r="B101" t="n">
         <v>112189000000</v>
       </c>
-    </row>
-    <row r="102" spans="1:2">
-      <c r="A102" s="2">
+      <c r="C101" t="inlineStr"/>
+      <c r="D101" t="inlineStr"/>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
         <v>34090</v>
       </c>
-      <c r="B102">
+      <c r="B102" t="n">
         <v>114242000000</v>
       </c>
-    </row>
-    <row r="103" spans="1:2">
-      <c r="A103" s="2">
+      <c r="C102" t="inlineStr"/>
+      <c r="D102" t="inlineStr"/>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
         <v>34121</v>
       </c>
-      <c r="B103">
+      <c r="B103" t="n">
         <v>114471000000</v>
       </c>
-    </row>
-    <row r="104" spans="1:2">
-      <c r="A104" s="2">
+      <c r="C103" t="inlineStr"/>
+      <c r="D103" t="inlineStr"/>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
         <v>34151</v>
       </c>
-      <c r="B104">
+      <c r="B104" t="n">
         <v>118049000000</v>
       </c>
-    </row>
-    <row r="105" spans="1:2">
-      <c r="A105" s="2">
+      <c r="C104" t="inlineStr"/>
+      <c r="D104" t="inlineStr"/>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
         <v>34182</v>
       </c>
-      <c r="B105">
+      <c r="B105" t="n">
         <v>118530000000</v>
       </c>
-    </row>
-    <row r="106" spans="1:2">
-      <c r="A106" s="2">
+      <c r="C105" t="inlineStr"/>
+      <c r="D105" t="inlineStr"/>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
         <v>34213</v>
       </c>
-      <c r="B106">
+      <c r="B106" t="n">
         <v>116190000000</v>
       </c>
-    </row>
-    <row r="107" spans="1:2">
-      <c r="A107" s="2">
+      <c r="C106" t="inlineStr"/>
+      <c r="D106" t="inlineStr"/>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
         <v>34243</v>
       </c>
-      <c r="B107">
+      <c r="B107" t="n">
         <v>117012000000</v>
       </c>
-    </row>
-    <row r="108" spans="1:2">
-      <c r="A108" s="2">
+      <c r="C107" t="inlineStr"/>
+      <c r="D107" t="inlineStr"/>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
         <v>34274</v>
       </c>
-      <c r="B108">
+      <c r="B108" t="n">
         <v>116249000000</v>
       </c>
-    </row>
-    <row r="109" spans="1:2">
-      <c r="A109" s="2">
+      <c r="C108" t="inlineStr"/>
+      <c r="D108" t="inlineStr"/>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
         <v>34304</v>
       </c>
-      <c r="B109">
+      <c r="B109" t="n">
         <v>119601000000</v>
       </c>
-    </row>
-    <row r="110" spans="1:2">
-      <c r="A110" s="2">
+      <c r="C109" t="inlineStr"/>
+      <c r="D109" t="inlineStr"/>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
         <v>34335</v>
       </c>
-      <c r="B110">
+      <c r="B110" t="n">
         <v>117951000000</v>
       </c>
-    </row>
-    <row r="111" spans="1:2">
-      <c r="A111" s="2">
+      <c r="C110" t="inlineStr"/>
+      <c r="D110" t="inlineStr"/>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
         <v>34366</v>
       </c>
-      <c r="B111">
+      <c r="B111" t="n">
         <v>120500000000</v>
       </c>
-    </row>
-    <row r="112" spans="1:2">
-      <c r="A112" s="2">
+      <c r="C111" t="inlineStr"/>
+      <c r="D111" t="inlineStr"/>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
         <v>34394</v>
       </c>
-      <c r="B112">
+      <c r="B112" t="n">
         <v>121431000000</v>
       </c>
-    </row>
-    <row r="113" spans="1:2">
-      <c r="A113" s="2">
+      <c r="C112" t="inlineStr"/>
+      <c r="D112" t="inlineStr"/>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
         <v>34425</v>
       </c>
-      <c r="B113">
+      <c r="B113" t="n">
         <v>122436000000</v>
       </c>
-    </row>
-    <row r="114" spans="1:2">
-      <c r="A114" s="2">
+      <c r="C113" t="inlineStr"/>
+      <c r="D113" t="inlineStr"/>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
         <v>34455</v>
       </c>
-      <c r="B114">
+      <c r="B114" t="n">
         <v>124481000000</v>
       </c>
-    </row>
-    <row r="115" spans="1:2">
-      <c r="A115" s="2">
+      <c r="C114" t="inlineStr"/>
+      <c r="D114" t="inlineStr"/>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
         <v>34486</v>
       </c>
-      <c r="B115">
+      <c r="B115" t="n">
         <v>126540000000</v>
       </c>
-    </row>
-    <row r="116" spans="1:2">
-      <c r="A116" s="2">
+      <c r="C115" t="inlineStr"/>
+      <c r="D115" t="inlineStr"/>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
         <v>34516</v>
       </c>
-      <c r="B116">
+      <c r="B116" t="n">
         <v>131619000000</v>
       </c>
-    </row>
-    <row r="117" spans="1:2">
-      <c r="A117" s="2">
+      <c r="C116" t="inlineStr"/>
+      <c r="D116" t="inlineStr"/>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
         <v>34547</v>
       </c>
-      <c r="B117">
+      <c r="B117" t="n">
         <v>132919000000</v>
       </c>
-    </row>
-    <row r="118" spans="1:2">
-      <c r="A118" s="2">
+      <c r="C117" t="inlineStr"/>
+      <c r="D117" t="inlineStr"/>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
         <v>34578</v>
       </c>
-      <c r="B118">
+      <c r="B118" t="n">
         <v>130711000000</v>
       </c>
-    </row>
-    <row r="119" spans="1:2">
-      <c r="A119" s="2">
+      <c r="C118" t="inlineStr"/>
+      <c r="D118" t="inlineStr"/>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
         <v>34608</v>
       </c>
-      <c r="B119">
+      <c r="B119" t="n">
         <v>130777000000</v>
       </c>
-    </row>
-    <row r="120" spans="1:2">
-      <c r="A120" s="2">
+      <c r="C119" t="inlineStr"/>
+      <c r="D119" t="inlineStr"/>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
         <v>34639</v>
       </c>
-      <c r="B120">
+      <c r="B120" t="n">
         <v>131221000000</v>
       </c>
-    </row>
-    <row r="121" spans="1:2">
-      <c r="A121" s="2">
+      <c r="C120" t="inlineStr"/>
+      <c r="D120" t="inlineStr"/>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
         <v>34669</v>
       </c>
-      <c r="B121">
+      <c r="B121" t="n">
         <v>133806000000</v>
       </c>
-    </row>
-    <row r="122" spans="1:2">
-      <c r="A122" s="2">
+      <c r="C121" t="inlineStr"/>
+      <c r="D121" t="inlineStr"/>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
         <v>34700</v>
       </c>
-      <c r="B122">
+      <c r="B122" t="n">
         <v>134146000000</v>
       </c>
-    </row>
-    <row r="123" spans="1:2">
-      <c r="A123" s="2">
+      <c r="C122" t="inlineStr"/>
+      <c r="D122" t="inlineStr"/>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
         <v>34731</v>
       </c>
-      <c r="B123">
+      <c r="B123" t="n">
         <v>135906000000</v>
       </c>
-    </row>
-    <row r="124" spans="1:2">
-      <c r="A124" s="2">
+      <c r="C123" t="inlineStr"/>
+      <c r="D123" t="inlineStr"/>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
         <v>34759</v>
       </c>
-      <c r="B124">
+      <c r="B124" t="n">
         <v>134738000000</v>
       </c>
-    </row>
-    <row r="125" spans="1:2">
-      <c r="A125" s="2">
+      <c r="C124" t="inlineStr"/>
+      <c r="D124" t="inlineStr"/>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
         <v>34790</v>
       </c>
-      <c r="B125">
+      <c r="B125" t="n">
         <v>135225000000</v>
       </c>
-    </row>
-    <row r="126" spans="1:2">
-      <c r="A126" s="2">
+      <c r="C125" t="inlineStr"/>
+      <c r="D125" t="inlineStr"/>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
         <v>34820</v>
       </c>
-      <c r="B126">
+      <c r="B126" t="n">
         <v>136898000000</v>
       </c>
-    </row>
-    <row r="127" spans="1:2">
-      <c r="A127" s="2">
+      <c r="C126" t="inlineStr"/>
+      <c r="D126" t="inlineStr"/>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
         <v>34851</v>
       </c>
-      <c r="B127">
+      <c r="B127" t="n">
         <v>136616000000</v>
       </c>
-    </row>
-    <row r="128" spans="1:2">
-      <c r="A128" s="2">
+      <c r="C127" t="inlineStr"/>
+      <c r="D127" t="inlineStr"/>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
         <v>34881</v>
       </c>
-      <c r="B128">
+      <c r="B128" t="n">
         <v>139809000000</v>
       </c>
-    </row>
-    <row r="129" spans="1:2">
-      <c r="A129" s="2">
+      <c r="C128" t="inlineStr"/>
+      <c r="D128" t="inlineStr"/>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
         <v>34912</v>
       </c>
-      <c r="B129">
+      <c r="B129" t="n">
         <v>141583000000</v>
       </c>
-    </row>
-    <row r="130" spans="1:2">
-      <c r="A130" s="2">
+      <c r="C129" t="inlineStr"/>
+      <c r="D129" t="inlineStr"/>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
         <v>34943</v>
       </c>
-      <c r="B130">
+      <c r="B130" t="n">
         <v>140924000000</v>
       </c>
-    </row>
-    <row r="131" spans="1:2">
-      <c r="A131" s="2">
+      <c r="C130" t="inlineStr"/>
+      <c r="D130" t="inlineStr"/>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
         <v>34973</v>
       </c>
-      <c r="B131">
+      <c r="B131" t="n">
         <v>139999000000</v>
       </c>
-    </row>
-    <row r="132" spans="1:2">
-      <c r="A132" s="2">
+      <c r="C131" t="inlineStr"/>
+      <c r="D131" t="inlineStr"/>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="n">
         <v>35004</v>
       </c>
-      <c r="B132">
+      <c r="B132" t="n">
         <v>139645000000</v>
       </c>
-    </row>
-    <row r="133" spans="1:2">
-      <c r="A133" s="2">
+      <c r="C132" t="inlineStr"/>
+      <c r="D132" t="inlineStr"/>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="n">
         <v>35034</v>
       </c>
-      <c r="B133">
+      <c r="B133" t="n">
         <v>142391000000</v>
       </c>
-    </row>
-    <row r="134" spans="1:2">
-      <c r="A134" s="2">
+      <c r="C133" t="inlineStr"/>
+      <c r="D133" t="inlineStr"/>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="n">
         <v>35065</v>
       </c>
-      <c r="B134">
+      <c r="B134" t="n">
         <v>141539000000</v>
       </c>
-    </row>
-    <row r="135" spans="1:2">
-      <c r="A135" s="2">
+      <c r="C134" t="inlineStr"/>
+      <c r="D134" t="inlineStr"/>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="n">
         <v>35096</v>
       </c>
-      <c r="B135">
+      <c r="B135" t="n">
         <v>141952000000</v>
       </c>
-    </row>
-    <row r="136" spans="1:2">
-      <c r="A136" s="2">
+      <c r="C135" t="inlineStr"/>
+      <c r="D135" t="inlineStr"/>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="n">
         <v>35125</v>
       </c>
-      <c r="B136">
+      <c r="B136" t="n">
         <v>141801000000</v>
       </c>
-    </row>
-    <row r="137" spans="1:2">
-      <c r="A137" s="2">
+      <c r="C136" t="inlineStr"/>
+      <c r="D136" t="inlineStr"/>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="n">
         <v>35156</v>
       </c>
-      <c r="B137">
+      <c r="B137" t="n">
         <v>143139000000</v>
       </c>
-    </row>
-    <row r="138" spans="1:2">
-      <c r="A138" s="2">
+      <c r="C137" t="inlineStr"/>
+      <c r="D137" t="inlineStr"/>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="n">
         <v>35186</v>
       </c>
-      <c r="B138">
+      <c r="B138" t="n">
         <v>142762000000</v>
       </c>
-    </row>
-    <row r="139" spans="1:2">
-      <c r="A139" s="2">
+      <c r="C138" t="inlineStr"/>
+      <c r="D138" t="inlineStr"/>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="n">
         <v>35217</v>
       </c>
-      <c r="B139">
+      <c r="B139" t="n">
         <v>145319000000</v>
       </c>
-    </row>
-    <row r="140" spans="1:2">
-      <c r="A140" s="2">
+      <c r="C139" t="inlineStr"/>
+      <c r="D139" t="inlineStr"/>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="n">
         <v>35247</v>
       </c>
-      <c r="B140">
+      <c r="B140" t="n">
         <v>148897000000</v>
       </c>
-    </row>
-    <row r="141" spans="1:2">
-      <c r="A141" s="2">
+      <c r="C140" t="inlineStr"/>
+      <c r="D140" t="inlineStr"/>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="n">
         <v>35278</v>
       </c>
-      <c r="B141">
+      <c r="B141" t="n">
         <v>149813000000</v>
       </c>
-    </row>
-    <row r="142" spans="1:2">
-      <c r="A142" s="2">
+      <c r="C141" t="inlineStr"/>
+      <c r="D141" t="inlineStr"/>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="n">
         <v>35309</v>
       </c>
-      <c r="B142">
+      <c r="B142" t="n">
         <v>149470000000</v>
       </c>
-    </row>
-    <row r="143" spans="1:2">
-      <c r="A143" s="2">
+      <c r="C142" t="inlineStr"/>
+      <c r="D142" t="inlineStr"/>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="n">
         <v>35339</v>
       </c>
-      <c r="B143">
+      <c r="B143" t="n">
         <v>148428000000</v>
       </c>
-    </row>
-    <row r="144" spans="1:2">
-      <c r="A144" s="2">
+      <c r="C143" t="inlineStr"/>
+      <c r="D143" t="inlineStr"/>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="n">
         <v>35370</v>
       </c>
-      <c r="B144">
+      <c r="B144" t="n">
         <v>149603000000</v>
       </c>
-    </row>
-    <row r="145" spans="1:4">
-      <c r="A145" s="2">
+      <c r="C144" t="inlineStr"/>
+      <c r="D144" t="inlineStr"/>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="n">
         <v>35400</v>
       </c>
-      <c r="B145">
+      <c r="B145" t="n">
         <v>151448000000</v>
       </c>
-    </row>
-    <row r="146" spans="1:4">
-      <c r="A146" s="2">
+      <c r="C145" t="inlineStr"/>
+      <c r="D145" t="inlineStr"/>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="n">
         <v>35431</v>
       </c>
-      <c r="B146">
+      <c r="B146" t="n">
         <v>151822000000</v>
       </c>
-    </row>
-    <row r="147" spans="1:4">
-      <c r="A147" s="2">
+      <c r="C146" t="inlineStr"/>
+      <c r="D146" t="inlineStr"/>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="n">
         <v>35462</v>
       </c>
-      <c r="B147">
+      <c r="B147" t="n">
         <v>152459000000</v>
       </c>
-    </row>
-    <row r="148" spans="1:4">
-      <c r="A148" s="2">
+      <c r="C147" t="inlineStr"/>
+      <c r="D147" t="inlineStr"/>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="n">
         <v>35490</v>
       </c>
-      <c r="B148">
+      <c r="B148" t="n">
         <v>152805000000</v>
       </c>
-    </row>
-    <row r="149" spans="1:4">
-      <c r="A149" s="2">
+      <c r="C148" t="inlineStr"/>
+      <c r="D148" t="inlineStr"/>
+    </row>
+    <row r="149">
+      <c r="A149" s="2" t="n">
         <v>35521</v>
       </c>
-      <c r="B149">
+      <c r="B149" t="n">
         <v>154234000000</v>
       </c>
-    </row>
-    <row r="150" spans="1:4">
-      <c r="A150" s="2">
+      <c r="C149" t="inlineStr"/>
+      <c r="D149" t="inlineStr"/>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="n">
         <v>35551</v>
       </c>
-      <c r="B150">
+      <c r="B150" t="n">
         <v>152647000000</v>
       </c>
-    </row>
-    <row r="151" spans="1:4">
-      <c r="A151" s="2">
+      <c r="C150" t="inlineStr"/>
+      <c r="D150" t="inlineStr"/>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="n">
         <v>35582</v>
       </c>
-      <c r="B151">
+      <c r="B151" t="n">
         <v>159095000000</v>
       </c>
-    </row>
-    <row r="152" spans="1:4">
-      <c r="A152" s="2">
+      <c r="C151" t="inlineStr"/>
+      <c r="D151" t="inlineStr"/>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="n">
         <v>35612</v>
       </c>
-      <c r="B152">
+      <c r="B152" t="n">
         <v>159166000000</v>
       </c>
-    </row>
-    <row r="153" spans="1:4">
-      <c r="A153" s="2">
+      <c r="C152" t="inlineStr"/>
+      <c r="D152" t="inlineStr"/>
+    </row>
+    <row r="153">
+      <c r="A153" s="2" t="n">
         <v>35643</v>
       </c>
-      <c r="B153">
+      <c r="B153" t="n">
         <v>160199000000</v>
       </c>
-      <c r="C153">
+      <c r="C153" t="n">
         <v>0.1029866117404737</v>
       </c>
-      <c r="D153">
+      <c r="D153" t="n">
         <v>16498352214.21215</v>
       </c>
     </row>
-    <row r="154" spans="1:4">
-      <c r="A154" s="2">
+    <row r="154">
+      <c r="A154" s="2" t="n">
         <v>35674</v>
       </c>
-      <c r="B154">
+      <c r="B154" t="n">
         <v>159313000000</v>
       </c>
-      <c r="C154">
+      <c r="C154" t="n">
         <v>0.1038745195803469</v>
       </c>
-      <c r="D154">
+      <c r="D154" t="n">
         <v>16548561337.90381</v>
       </c>
     </row>
-    <row r="155" spans="1:4">
-      <c r="A155" s="2">
+    <row r="155">
+      <c r="A155" s="2" t="n">
         <v>35704</v>
       </c>
-      <c r="B155">
+      <c r="B155" t="n">
         <v>160113000000</v>
       </c>
-      <c r="C155">
+      <c r="C155" t="n">
         <v>0.1059973288673125</v>
       </c>
-      <c r="D155">
+      <c r="D155" t="n">
         <v>16971550316.93201</v>
       </c>
     </row>
-    <row r="156" spans="1:4">
-      <c r="A156" s="2">
+    <row r="156">
+      <c r="A156" s="2" t="n">
         <v>35735</v>
       </c>
-      <c r="B156">
+      <c r="B156" t="n">
         <v>160228000000</v>
       </c>
-      <c r="C156">
+      <c r="C156" t="n">
         <v>0.1044713748432929</v>
       </c>
-      <c r="D156">
+      <c r="D156" t="n">
         <v>16739239448.39114</v>
       </c>
     </row>
-    <row r="157" spans="1:4">
-      <c r="A157" s="2">
+    <row r="157">
+      <c r="A157" s="2" t="n">
         <v>35765</v>
       </c>
-      <c r="B157">
+      <c r="B157" t="n">
         <v>163184000000</v>
       </c>
-      <c r="C157">
+      <c r="C157" t="n">
         <v>0.1032204789430223</v>
       </c>
-      <c r="D157">
+      <c r="D157" t="n">
         <v>16843930635.83815</v>
       </c>
     </row>
-    <row r="158" spans="1:4">
-      <c r="A158" s="2">
+    <row r="158">
+      <c r="A158" s="2" t="n">
         <v>35796</v>
       </c>
-      <c r="B158">
+      <c r="B158" t="n">
         <v>161461000000</v>
       </c>
-      <c r="C158">
+      <c r="C158" t="n">
         <v>0.1017293997965412</v>
       </c>
-      <c r="D158">
+      <c r="D158" t="n">
         <v>16425330620.54934</v>
       </c>
     </row>
-    <row r="159" spans="1:4">
-      <c r="A159" s="2">
+    <row r="159">
+      <c r="A159" s="2" t="n">
         <v>35827</v>
       </c>
-      <c r="B159">
+      <c r="B159" t="n">
         <v>161374000000</v>
       </c>
-      <c r="C159">
+      <c r="C159" t="n">
         <v>0.1022306732912143</v>
       </c>
-      <c r="D159">
+      <c r="D159" t="n">
         <v>16497372671.69642</v>
       </c>
     </row>
-    <row r="160" spans="1:4">
-      <c r="A160" s="2">
+    <row r="160">
+      <c r="A160" s="2" t="n">
         <v>35855</v>
       </c>
-      <c r="B160">
+      <c r="B160" t="n">
         <v>162918000000</v>
       </c>
-      <c r="C160">
+      <c r="C160" t="n">
         <v>0.1011695196471207</v>
       </c>
-      <c r="D160">
+      <c r="D160" t="n">
         <v>16482335801.86961</v>
       </c>
     </row>
-    <row r="161" spans="1:4">
-      <c r="A161" s="2">
+    <row r="161">
+      <c r="A161" s="2" t="n">
         <v>35886</v>
       </c>
-      <c r="B161">
+      <c r="B161" t="n">
         <v>163812000000</v>
       </c>
-      <c r="C161">
+      <c r="C161" t="n">
         <v>0.1028912439551394</v>
       </c>
-      <c r="D161">
+      <c r="D161" t="n">
         <v>16854820454.7793</v>
       </c>
     </row>
-    <row r="162" spans="1:4">
-      <c r="A162" s="2">
+    <row r="162">
+      <c r="A162" s="2" t="n">
         <v>35916</v>
       </c>
-      <c r="B162">
+      <c r="B162" t="n">
         <v>164643000000</v>
       </c>
-      <c r="C162">
+      <c r="C162" t="n">
         <v>0.1030609089972174</v>
       </c>
-      <c r="D162">
+      <c r="D162" t="n">
         <v>16968257240.02886</v>
       </c>
     </row>
-    <row r="163" spans="1:4">
-      <c r="A163" s="2">
+    <row r="163">
+      <c r="A163" s="2" t="n">
         <v>35947</v>
       </c>
-      <c r="B163">
+      <c r="B163" t="n">
         <v>168271000000</v>
       </c>
-      <c r="C163">
+      <c r="C163" t="n">
         <v>0.1025209911729427</v>
       </c>
-      <c r="D163">
+      <c r="D163" t="n">
         <v>17251309705.66224</v>
       </c>
     </row>
-    <row r="164" spans="1:4">
-      <c r="A164" s="2">
+    <row r="164">
+      <c r="A164" s="2" t="n">
         <v>35977</v>
       </c>
-      <c r="B164">
+      <c r="B164" t="n">
         <v>173811000000</v>
       </c>
-      <c r="C164">
+      <c r="C164" t="n">
         <v>0.1033837501421526</v>
       </c>
-      <c r="D164">
+      <c r="D164" t="n">
         <v>17969232995.9577</v>
       </c>
     </row>
-    <row r="165" spans="1:4">
-      <c r="A165" s="2">
+    <row r="165">
+      <c r="A165" s="2" t="n">
         <v>36008</v>
       </c>
-      <c r="B165">
+      <c r="B165" t="n">
         <v>174922000000</v>
       </c>
-      <c r="C165">
+      <c r="C165" t="n">
         <v>0.1039447014188452</v>
       </c>
-      <c r="D165">
+      <c r="D165" t="n">
         <v>18182215061.58724</v>
       </c>
     </row>
-    <row r="166" spans="1:4">
-      <c r="A166" s="2">
+    <row r="166">
+      <c r="A166" s="2" t="n">
         <v>36039</v>
       </c>
-      <c r="B166">
+      <c r="B166" t="n">
         <v>176781000000</v>
       </c>
-      <c r="C166">
+      <c r="C166" t="n">
         <v>0.1081993464759473</v>
       </c>
-      <c r="D166">
+      <c r="D166" t="n">
         <v>19127588669.36444</v>
       </c>
     </row>
-    <row r="167" spans="1:4">
-      <c r="A167" s="2">
+    <row r="167">
+      <c r="A167" s="2" t="n">
         <v>36069</v>
       </c>
-      <c r="B167">
+      <c r="B167" t="n">
         <v>174993000000</v>
       </c>
-      <c r="C167">
+      <c r="C167" t="n">
         <v>0.1090857523098908</v>
       </c>
-      <c r="D167">
+      <c r="D167" t="n">
         <v>19089243053.96472</v>
       </c>
     </row>
-    <row r="168" spans="1:4">
-      <c r="A168" s="2">
+    <row r="168">
+      <c r="A168" s="2" t="n">
         <v>36100</v>
       </c>
-      <c r="B168">
+      <c r="B168" t="n">
         <v>174225000000</v>
       </c>
-      <c r="C168">
+      <c r="C168" t="n">
         <v>0.1063377286261166</v>
       </c>
-      <c r="D168">
+      <c r="D168" t="n">
         <v>18526690769.88515</v>
       </c>
     </row>
-    <row r="169" spans="1:4">
-      <c r="A169" s="2">
+    <row r="169">
+      <c r="A169" s="2" t="n">
         <v>36130</v>
       </c>
-      <c r="B169">
+      <c r="B169" t="n">
         <v>175995000000</v>
       </c>
-      <c r="C169">
+      <c r="C169" t="n">
         <v>0.1077354018530489</v>
       </c>
-      <c r="D169">
+      <c r="D169" t="n">
         <v>18960892049.12735</v>
       </c>
     </row>
-    <row r="170" spans="1:4">
-      <c r="A170" s="2">
+    <row r="170">
+      <c r="A170" s="2" t="n">
         <v>36161</v>
       </c>
-      <c r="B170">
+      <c r="B170" t="n">
         <v>178892000000</v>
       </c>
-      <c r="C170">
+      <c r="C170" t="n">
         <v>0.106951871657754</v>
       </c>
-      <c r="D170">
+      <c r="D170" t="n">
         <v>19132834224.59893</v>
       </c>
     </row>
-    <row r="171" spans="1:4">
-      <c r="A171" s="2">
+    <row r="171">
+      <c r="A171" s="2" t="n">
         <v>36192</v>
       </c>
-      <c r="B171">
+      <c r="B171" t="n">
         <v>178083000000</v>
       </c>
-      <c r="C171">
+      <c r="C171" t="n">
         <v>0.1034757504578802</v>
       </c>
-      <c r="D171">
+      <c r="D171" t="n">
         <v>18427272068.79068</v>
       </c>
     </row>
-    <row r="172" spans="1:4">
-      <c r="A172" s="2">
+    <row r="172">
+      <c r="A172" s="2" t="n">
         <v>36220</v>
       </c>
-      <c r="B172">
+      <c r="B172" t="n">
         <v>181361000000</v>
       </c>
-      <c r="C172">
+      <c r="C172" t="n">
         <v>0.1030715316429602</v>
       </c>
-      <c r="D172">
+      <c r="D172" t="n">
         <v>18693156050.29891</v>
       </c>
     </row>
-    <row r="173" spans="1:4">
-      <c r="A173" s="2">
+    <row r="173">
+      <c r="A173" s="2" t="n">
         <v>36251</v>
       </c>
-      <c r="B173">
+      <c r="B173" t="n">
         <v>179073000000</v>
       </c>
-      <c r="C173">
+      <c r="C173" t="n">
         <v>0.1022285831118381</v>
       </c>
-      <c r="D173">
+      <c r="D173" t="n">
         <v>18306379063.58618</v>
       </c>
     </row>
-    <row r="174" spans="1:4">
-      <c r="A174" s="2">
+    <row r="174">
+      <c r="A174" s="2" t="n">
         <v>36281</v>
       </c>
-      <c r="B174">
+      <c r="B174" t="n">
         <v>180201000000</v>
       </c>
-      <c r="C174">
+      <c r="C174" t="n">
         <v>0.1015331505736623</v>
       </c>
-      <c r="D174">
+      <c r="D174" t="n">
         <v>18296375266.52452</v>
       </c>
     </row>
-    <row r="175" spans="1:4">
-      <c r="A175" s="2">
+    <row r="175">
+      <c r="A175" s="2" t="n">
         <v>36312</v>
       </c>
-      <c r="B175">
+      <c r="B175" t="n">
         <v>184525000000</v>
       </c>
-      <c r="C175">
+      <c r="C175" t="n">
         <v>0.09998000399920015</v>
       </c>
-      <c r="D175">
+      <c r="D175" t="n">
         <v>18448810237.95241</v>
       </c>
     </row>
-    <row r="176" spans="1:4">
-      <c r="A176" s="2">
+    <row r="176">
+      <c r="A176" s="2" t="n">
         <v>36342</v>
       </c>
-      <c r="B176">
+      <c r="B176" t="n">
         <v>192468000000</v>
       </c>
-      <c r="C176">
+      <c r="C176" t="n">
         <v>0.102997219075085</v>
       </c>
-      <c r="D176">
+      <c r="D176" t="n">
         <v>19823668760.94345</v>
       </c>
     </row>
-    <row r="177" spans="1:4">
-      <c r="A177" s="2">
+    <row r="177">
+      <c r="A177" s="2" t="n">
         <v>36373</v>
       </c>
-      <c r="B177">
+      <c r="B177" t="n">
         <v>190370000000</v>
       </c>
-      <c r="C177">
+      <c r="C177" t="n">
         <v>0.1026167265264238</v>
       </c>
-      <c r="D177">
+      <c r="D177" t="n">
         <v>19535146228.8353</v>
       </c>
     </row>
-    <row r="178" spans="1:4">
-      <c r="A178" s="2">
+    <row r="178">
+      <c r="A178" s="2" t="n">
         <v>36404</v>
       </c>
-      <c r="B178">
+      <c r="B178" t="n">
         <v>189087000000</v>
       </c>
-      <c r="C178">
+      <c r="C178" t="n">
         <v>0.1028425685959933</v>
       </c>
-      <c r="D178">
+      <c r="D178" t="n">
         <v>19446192768.11058</v>
       </c>
     </row>
-    <row r="179" spans="1:4">
-      <c r="A179" s="2">
+    <row r="179">
+      <c r="A179" s="2" t="n">
         <v>36434</v>
       </c>
-      <c r="B179">
+      <c r="B179" t="n">
         <v>189042000000</v>
       </c>
-      <c r="C179">
+      <c r="C179" t="n">
         <v>0.101633246267519</v>
       </c>
-      <c r="D179">
+      <c r="D179" t="n">
         <v>19212952140.90433</v>
       </c>
     </row>
-    <row r="180" spans="1:4">
-      <c r="A180" s="2">
+    <row r="180">
+      <c r="A180" s="2" t="n">
         <v>36465</v>
       </c>
-      <c r="B180">
+      <c r="B180" t="n">
         <v>189123000000</v>
       </c>
-      <c r="C180">
+      <c r="C180" t="n">
         <v>0.09959167413604222</v>
       </c>
-      <c r="D180">
+      <c r="D180" t="n">
         <v>18835076187.63071</v>
       </c>
     </row>
-    <row r="181" spans="1:4">
-      <c r="A181" s="2">
+    <row r="181">
+      <c r="A181" s="2" t="n">
         <v>36495</v>
       </c>
-      <c r="B181">
+      <c r="B181" t="n">
         <v>195067000000</v>
       </c>
-      <c r="C181">
+      <c r="C181" t="n">
         <v>0.09943323058566172</v>
       </c>
-      <c r="D181">
+      <c r="D181" t="n">
         <v>19396141990.65327</v>
       </c>
     </row>
-    <row r="182" spans="1:4">
-      <c r="A182" s="2">
+    <row r="182">
+      <c r="A182" s="2" t="n">
         <v>36526</v>
       </c>
-      <c r="B182">
+      <c r="B182" t="n">
         <v>192396000000</v>
       </c>
-      <c r="C182">
+      <c r="C182" t="n">
         <v>0.09800078400627205</v>
       </c>
-      <c r="D182">
+      <c r="D182" t="n">
         <v>18854958839.67072</v>
       </c>
     </row>
-    <row r="183" spans="1:4">
-      <c r="A183" s="2">
+    <row r="183">
+      <c r="A183" s="2" t="n">
         <v>36557</v>
       </c>
-      <c r="B183">
+      <c r="B183" t="n">
         <v>194116000000</v>
       </c>
-      <c r="C183">
+      <c r="C183" t="n">
         <v>0.09722897423432182</v>
       </c>
-      <c r="D183">
+      <c r="D183" t="n">
         <v>18873699562.46962</v>
       </c>
     </row>
-    <row r="184" spans="1:4">
-      <c r="A184" s="2">
+    <row r="184">
+      <c r="A184" s="2" t="n">
         <v>36586</v>
       </c>
-      <c r="B184">
+      <c r="B184" t="n">
         <v>195625000000</v>
       </c>
-      <c r="C184">
+      <c r="C184" t="n">
         <v>0.09664637092877162</v>
       </c>
-      <c r="D184">
+      <c r="D184" t="n">
         <v>18906446312.94095</v>
       </c>
     </row>
-    <row r="185" spans="1:4">
-      <c r="A185" s="2">
+    <row r="185">
+      <c r="A185" s="2" t="n">
         <v>36617</v>
       </c>
-      <c r="B185">
+      <c r="B185" t="n">
         <v>195469000000</v>
       </c>
-      <c r="C185">
+      <c r="C185" t="n">
         <v>0.09417082587814295</v>
       </c>
-      <c r="D185">
+      <c r="D185" t="n">
         <v>18407477163.57472</v>
       </c>
     </row>
-    <row r="186" spans="1:4">
-      <c r="A186" s="2">
+    <row r="186">
+      <c r="A186" s="2" t="n">
         <v>36647</v>
       </c>
-      <c r="B186">
+      <c r="B186" t="n">
         <v>195335000000</v>
       </c>
-      <c r="C186">
+      <c r="C186" t="n">
         <v>0.09479571523367145</v>
       </c>
-      <c r="D186">
+      <c r="D186" t="n">
         <v>18516921035.16921</v>
       </c>
     </row>
-    <row r="187" spans="1:4">
-      <c r="A187" s="2">
+    <row r="187">
+      <c r="A187" s="2" t="n">
         <v>36678</v>
       </c>
-      <c r="B187">
+      <c r="B187" t="n">
         <v>200209000000</v>
       </c>
-      <c r="C187">
+      <c r="C187" t="n">
         <v>0.09640412609659695</v>
       </c>
-      <c r="D187">
+      <c r="D187" t="n">
         <v>19300973681.67358</v>
       </c>
     </row>
-    <row r="188" spans="1:4">
-      <c r="A188" s="2">
+    <row r="188">
+      <c r="A188" s="2" t="n">
         <v>36708</v>
       </c>
-      <c r="B188">
+      <c r="B188" t="n">
         <v>202612000000</v>
       </c>
-      <c r="C188">
+      <c r="C188" t="n">
         <v>0.09416195856873824</v>
       </c>
-      <c r="D188">
+      <c r="D188" t="n">
         <v>19078342749.52919</v>
       </c>
     </row>
-    <row r="189" spans="1:4">
-      <c r="A189" s="2">
+    <row r="189">
+      <c r="A189" s="2" t="n">
         <v>36739</v>
       </c>
-      <c r="B189">
+      <c r="B189" t="n">
         <v>205152000000</v>
       </c>
-      <c r="C189">
+      <c r="C189" t="n">
         <v>0.0927643784786642</v>
       </c>
-      <c r="D189">
+      <c r="D189" t="n">
         <v>19030797773.65492</v>
       </c>
     </row>
-    <row r="190" spans="1:4">
-      <c r="A190" s="2">
+    <row r="190">
+      <c r="A190" s="2" t="n">
         <v>36770</v>
       </c>
-      <c r="B190">
+      <c r="B190" t="n">
         <v>206559000000</v>
       </c>
-      <c r="C190">
+      <c r="C190" t="n">
         <v>0.09230201218386561</v>
       </c>
-      <c r="D190">
+      <c r="D190" t="n">
         <v>19065811334.6871</v>
       </c>
     </row>
-    <row r="191" spans="1:4">
-      <c r="A191" s="2">
+    <row r="191">
+      <c r="A191" s="2" t="n">
         <v>36800</v>
       </c>
-      <c r="B191">
+      <c r="B191" t="n">
         <v>203731000000</v>
       </c>
-      <c r="C191">
+      <c r="C191" t="n">
         <v>0.08980691513246521</v>
       </c>
-      <c r="D191">
+      <c r="D191" t="n">
         <v>18296452626.85227</v>
       </c>
     </row>
-    <row r="192" spans="1:4">
-      <c r="A192" s="2">
+    <row r="192">
+      <c r="A192" s="2" t="n">
         <v>36831</v>
       </c>
-      <c r="B192">
+      <c r="B192" t="n">
         <v>202437000000</v>
       </c>
-      <c r="C192">
+      <c r="C192" t="n">
         <v>0.09110787172011661</v>
       </c>
-      <c r="D192">
+      <c r="D192" t="n">
         <v>18443604227.40525</v>
       </c>
     </row>
-    <row r="193" spans="1:4">
-      <c r="A193" s="2">
+    <row r="193">
+      <c r="A193" s="2" t="n">
         <v>36861</v>
       </c>
-      <c r="B193">
+      <c r="B193" t="n">
         <v>208951000000</v>
       </c>
-      <c r="C193">
+      <c r="C193" t="n">
         <v>0.09456264775413713</v>
       </c>
-      <c r="D193">
+      <c r="D193" t="n">
         <v>19758959810.87471</v>
       </c>
     </row>
-    <row r="194" spans="1:4">
-      <c r="A194" s="2">
+    <row r="194">
+      <c r="A194" s="2" t="n">
         <v>36892</v>
       </c>
-      <c r="B194">
+      <c r="B194" t="n">
         <v>205278000000</v>
       </c>
-      <c r="C194">
+      <c r="C194" t="n">
         <v>0.09404683532399136</v>
       </c>
-      <c r="D194">
+      <c r="D194" t="n">
         <v>19305746261.6383</v>
       </c>
     </row>
-    <row r="195" spans="1:4">
-      <c r="A195" s="2">
+    <row r="195">
+      <c r="A195" s="2" t="n">
         <v>36923</v>
       </c>
-      <c r="B195">
+      <c r="B195" t="n">
         <v>210265000000</v>
       </c>
-      <c r="C195">
+      <c r="C195" t="n">
         <v>0.09373388948774429</v>
       </c>
-      <c r="D195">
+      <c r="D195" t="n">
         <v>19708956273.14055</v>
       </c>
     </row>
-    <row r="196" spans="1:4">
-      <c r="A196" s="2">
+    <row r="196">
+      <c r="A196" s="2" t="n">
         <v>36951</v>
       </c>
-      <c r="B196">
+      <c r="B196" t="n">
         <v>213236000000</v>
       </c>
-      <c r="C196">
+      <c r="C196" t="n">
         <v>0.09101168590046961</v>
       </c>
-      <c r="D196">
+      <c r="D196" t="n">
         <v>19406967854.67254</v>
       </c>
     </row>
-    <row r="197" spans="1:4">
-      <c r="A197" s="2">
+    <row r="197">
+      <c r="A197" s="2" t="n">
         <v>36982</v>
       </c>
-      <c r="B197">
+      <c r="B197" t="n">
         <v>212781000000</v>
       </c>
-      <c r="C197">
+      <c r="C197" t="n">
         <v>0.08680555555555555</v>
       </c>
-      <c r="D197">
+      <c r="D197" t="n">
         <v>18470572916.66666</v>
       </c>
     </row>
-    <row r="198" spans="1:4">
-      <c r="A198" s="2">
+    <row r="198">
+      <c r="A198" s="2" t="n">
         <v>37012</v>
       </c>
-      <c r="B198">
+      <c r="B198" t="n">
         <v>216013000000</v>
       </c>
-      <c r="C198">
+      <c r="C198" t="n">
         <v>0.08399126490844952</v>
       </c>
-      <c r="D198">
+      <c r="D198" t="n">
         <v>18143205106.66891</v>
       </c>
     </row>
-    <row r="199" spans="1:4">
-      <c r="A199" s="2">
+    <row r="199">
+      <c r="A199" s="2" t="n">
         <v>37043</v>
       </c>
-      <c r="B199">
+      <c r="B199" t="n">
         <v>221194000000</v>
       </c>
-      <c r="C199">
+      <c r="C199" t="n">
         <v>0.08408943752575239</v>
       </c>
-      <c r="D199">
+      <c r="D199" t="n">
         <v>18600079044.07127</v>
       </c>
     </row>
-    <row r="200" spans="1:4">
-      <c r="A200" s="2">
+    <row r="200">
+      <c r="A200" s="2" t="n">
         <v>37073</v>
       </c>
-      <c r="B200">
+      <c r="B200" t="n">
         <v>227160000000</v>
       </c>
-      <c r="C200">
+      <c r="C200" t="n">
         <v>0.08599487470546754</v>
       </c>
-      <c r="D200">
+      <c r="D200" t="n">
         <v>19534595738.09401</v>
       </c>
     </row>
-    <row r="201" spans="1:4">
-      <c r="A201" s="2">
+    <row r="201">
+      <c r="A201" s="2" t="n">
         <v>37104</v>
       </c>
-      <c r="B201">
+      <c r="B201" t="n">
         <v>230304000000</v>
       </c>
-      <c r="C201">
+      <c r="C201" t="n">
         <v>0.08854258898530193</v>
       </c>
-      <c r="D201">
+      <c r="D201" t="n">
         <v>20391712413.67097</v>
       </c>
     </row>
-    <row r="202" spans="1:4">
-      <c r="A202" s="2">
+    <row r="202">
+      <c r="A202" s="2" t="n">
         <v>37135</v>
       </c>
-      <c r="B202">
+      <c r="B202" t="n">
         <v>230508000000</v>
       </c>
-      <c r="C202">
+      <c r="C202" t="n">
         <v>0.08866427273130292</v>
       </c>
-      <c r="D202">
+      <c r="D202" t="n">
         <v>20437824178.74717</v>
       </c>
     </row>
-    <row r="203" spans="1:4">
-      <c r="A203" s="2">
+    <row r="203">
+      <c r="A203" s="2" t="n">
         <v>37165</v>
       </c>
-      <c r="B203">
+      <c r="B203" t="n">
         <v>231543000000</v>
       </c>
-      <c r="C203">
+      <c r="C203" t="n">
         <v>0.08795848359574281</v>
       </c>
-      <c r="D203">
+      <c r="D203" t="n">
         <v>20366171167.20908</v>
       </c>
     </row>
-    <row r="204" spans="1:4">
-      <c r="A204" s="2">
+    <row r="204">
+      <c r="A204" s="2" t="n">
         <v>37196</v>
       </c>
-      <c r="B204">
+      <c r="B204" t="n">
         <v>233523000000</v>
       </c>
-      <c r="C204">
+      <c r="C204" t="n">
         <v>0.08733624454148473</v>
       </c>
-      <c r="D204">
+      <c r="D204" t="n">
         <v>20395021834.06114</v>
       </c>
     </row>
-    <row r="205" spans="1:4">
-      <c r="A205" s="2">
+    <row r="205">
+      <c r="A205" s="2" t="n">
         <v>37226</v>
       </c>
-      <c r="B205">
+      <c r="B205" t="n">
         <v>255903000000</v>
       </c>
-      <c r="C205">
+      <c r="C205" t="n">
         <v>0.0862738331464067</v>
       </c>
-      <c r="D205">
+      <c r="D205" t="n">
         <v>22077732723.66491</v>
       </c>
     </row>
-    <row r="206" spans="1:4">
-      <c r="A206" s="2">
+    <row r="206">
+      <c r="A206" s="2" t="n">
         <v>37257</v>
       </c>
-      <c r="B206">
+      <c r="B206" t="n">
         <v>251220000000</v>
       </c>
-      <c r="C206">
+      <c r="C206" t="n">
         <v>0.08488243782361429</v>
       </c>
-      <c r="D206">
+      <c r="D206" t="n">
         <v>21324166030.04838</v>
       </c>
     </row>
-    <row r="207" spans="1:4">
-      <c r="A207" s="2">
+    <row r="207">
+      <c r="A207" s="2" t="n">
         <v>37288</v>
       </c>
-      <c r="B207">
+      <c r="B207" t="n">
         <v>254503000000</v>
       </c>
-      <c r="C207">
+      <c r="C207" t="n">
         <v>0.08538324268479068</v>
       </c>
-      <c r="D207">
+      <c r="D207" t="n">
         <v>21730291413.00728</v>
       </c>
     </row>
-    <row r="208" spans="1:4">
-      <c r="A208" s="2">
+    <row r="208">
+      <c r="A208" s="2" t="n">
         <v>37316</v>
       </c>
-      <c r="B208">
+      <c r="B208" t="n">
         <v>255041000000</v>
       </c>
-      <c r="C208">
+      <c r="C208" t="n">
         <v>0.08558786021790669</v>
       </c>
-      <c r="D208">
+      <c r="D208" t="n">
         <v>21828413457.83514</v>
       </c>
     </row>
-    <row r="209" spans="1:4">
-      <c r="A209" s="2">
+    <row r="209">
+      <c r="A209" s="2" t="n">
         <v>37347</v>
       </c>
-      <c r="B209">
+      <c r="B209" t="n">
         <v>255563000000</v>
       </c>
-      <c r="C209">
+      <c r="C209" t="n">
         <v>0.08778706369829342</v>
       </c>
-      <c r="D209">
+      <c r="D209" t="n">
         <v>22435125359.92696</v>
       </c>
     </row>
-    <row r="210" spans="1:4">
-      <c r="A210" s="2">
+    <row r="210">
+      <c r="A210" s="2" t="n">
         <v>37377</v>
       </c>
-      <c r="B210">
+      <c r="B210" t="n">
         <v>256609000000</v>
       </c>
-      <c r="C210">
+      <c r="C210" t="n">
         <v>0.09016238245079387</v>
       </c>
-      <c r="D210">
+      <c r="D210" t="n">
         <v>23136478798.31577</v>
       </c>
     </row>
-    <row r="211" spans="1:4">
-      <c r="A211" s="2">
+    <row r="211">
+      <c r="A211" s="2" t="n">
         <v>37408</v>
       </c>
-      <c r="B211">
+      <c r="B211" t="n">
         <v>263546000000</v>
       </c>
-      <c r="C211">
+      <c r="C211" t="n">
         <v>0.09433428296511519</v>
       </c>
-      <c r="D211">
+      <c r="D211" t="n">
         <v>24861422938.32425</v>
       </c>
     </row>
-    <row r="212" spans="1:4">
-      <c r="A212" s="2">
+    <row r="212">
+      <c r="A212" s="2" t="n">
         <v>37438</v>
       </c>
-      <c r="B212">
+      <c r="B212" t="n">
         <v>268198000000</v>
       </c>
-      <c r="C212">
+      <c r="C212" t="n">
         <v>0.09338463262485526</v>
       </c>
-      <c r="D212">
+      <c r="D212" t="n">
         <v>25045571700.72093</v>
       </c>
     </row>
-    <row r="213" spans="1:4">
-      <c r="A213" s="2">
+    <row r="213">
+      <c r="A213" s="2" t="n">
         <v>37469</v>
       </c>
-      <c r="B213">
+      <c r="B213" t="n">
         <v>272019000000</v>
       </c>
-      <c r="C213">
+      <c r="C213" t="n">
         <v>0.09373125374925016</v>
       </c>
-      <c r="D213">
+      <c r="D213" t="n">
         <v>25496681913.61728</v>
       </c>
     </row>
-    <row r="214" spans="1:4">
-      <c r="A214" s="2">
+    <row r="214">
+      <c r="A214" s="2" t="n">
         <v>37500</v>
       </c>
-      <c r="B214">
+      <c r="B214" t="n">
         <v>272225000000</v>
       </c>
-      <c r="C214">
+      <c r="C214" t="n">
         <v>0.09407514722760542</v>
       </c>
-      <c r="D214">
+      <c r="D214" t="n">
         <v>25609606954.03489</v>
       </c>
     </row>
-    <row r="215" spans="1:4">
-      <c r="A215" s="2">
+    <row r="215">
+      <c r="A215" s="2" t="n">
         <v>37530</v>
       </c>
-      <c r="B215">
+      <c r="B215" t="n">
         <v>271258000000</v>
       </c>
-      <c r="C215">
+      <c r="C215" t="n">
         <v>0.09445189564954568</v>
       </c>
-      <c r="D215">
+      <c r="D215" t="n">
         <v>25620832310.10446</v>
       </c>
     </row>
-    <row r="216" spans="1:4">
-      <c r="A216" s="2">
+    <row r="216">
+      <c r="A216" s="2" t="n">
         <v>37561</v>
       </c>
-      <c r="B216">
+      <c r="B216" t="n">
         <v>275508000000</v>
       </c>
-      <c r="C216">
+      <c r="C216" t="n">
         <v>0.09461991181424219</v>
       </c>
-      <c r="D216">
+      <c r="D216" t="n">
         <v>26068542664.11824</v>
       </c>
     </row>
-    <row r="217" spans="1:4">
-      <c r="A217" s="2">
+    <row r="217">
+      <c r="A217" s="2" t="n">
         <v>37591</v>
       </c>
-      <c r="B217">
+      <c r="B217" t="n">
         <v>287109000000</v>
       </c>
-      <c r="C217">
+      <c r="C217" t="n">
         <v>0.09866019455790367</v>
       </c>
-      <c r="D217">
+      <c r="D217" t="n">
         <v>28326229799.32516</v>
       </c>
     </row>
-    <row r="218" spans="1:4">
-      <c r="A218" s="2">
+    <row r="218">
+      <c r="A218" s="2" t="n">
         <v>37622</v>
       </c>
-      <c r="B218">
+      <c r="B218" t="n">
         <v>286480000000</v>
       </c>
-      <c r="C218">
+      <c r="C218" t="n">
         <v>0.1003623079316332</v>
       </c>
-      <c r="D218">
+      <c r="D218" t="n">
         <v>28751793976.25428</v>
       </c>
     </row>
-    <row r="219" spans="1:4">
-      <c r="A219" s="2">
+    <row r="219">
+      <c r="A219" s="2" t="n">
         <v>37653</v>
       </c>
-      <c r="B219">
+      <c r="B219" t="n">
         <v>291159000000</v>
       </c>
-      <c r="C219">
+      <c r="C219" t="n">
         <v>0.1007556675062972</v>
       </c>
-      <c r="D219">
+      <c r="D219" t="n">
         <v>29335919395.46599</v>
       </c>
     </row>
-    <row r="220" spans="1:4">
-      <c r="A220" s="2">
+    <row r="220">
+      <c r="A220" s="2" t="n">
         <v>37681</v>
       </c>
-      <c r="B220">
+      <c r="B220" t="n">
         <v>289957000000</v>
       </c>
-      <c r="C220">
+      <c r="C220" t="n">
         <v>0.1015135672882681</v>
       </c>
-      <c r="D220">
+      <c r="D220" t="n">
         <v>29434569430.20435</v>
       </c>
     </row>
-    <row r="221" spans="1:4">
-      <c r="A221" s="2">
+    <row r="221">
+      <c r="A221" s="2" t="n">
         <v>37712</v>
       </c>
-      <c r="B221">
+      <c r="B221" t="n">
         <v>287788000000</v>
       </c>
-      <c r="C221">
+      <c r="C221" t="n">
         <v>0.1041449697979588</v>
       </c>
-      <c r="D221">
+      <c r="D221" t="n">
         <v>29971672568.21495</v>
       </c>
     </row>
-    <row r="222" spans="1:4">
-      <c r="A222" s="2">
+    <row r="222">
+      <c r="A222" s="2" t="n">
         <v>37742</v>
       </c>
-      <c r="B222">
+      <c r="B222" t="n">
         <v>285983000000</v>
       </c>
-      <c r="C222">
+      <c r="C222" t="n">
         <v>0.1079097874177188</v>
       </c>
-      <c r="D222">
+      <c r="D222" t="n">
         <v>30860364735.08147</v>
       </c>
     </row>
-    <row r="223" spans="1:4">
-      <c r="A223" s="2">
+    <row r="223">
+      <c r="A223" s="2" t="n">
         <v>37773</v>
       </c>
-      <c r="B223">
+      <c r="B223" t="n">
         <v>291372000000</v>
       </c>
-      <c r="C223">
+      <c r="C223" t="n">
         <v>0.1065416577881952</v>
       </c>
-      <c r="D223">
+      <c r="D223" t="n">
         <v>31043255913.06201</v>
       </c>
     </row>
-    <row r="224" spans="1:4">
-      <c r="A224" s="2">
+    <row r="224">
+      <c r="A224" s="2" t="n">
         <v>37803</v>
       </c>
-      <c r="B224">
+      <c r="B224" t="n">
         <v>301023000000</v>
       </c>
-      <c r="C224">
+      <c r="C224" t="n">
         <v>0.1039371388184426</v>
       </c>
-      <c r="D224">
+      <c r="D224" t="n">
         <v>31287469338.54405</v>
       </c>
     </row>
-    <row r="225" spans="1:4">
-      <c r="A225" s="2">
+    <row r="225">
+      <c r="A225" s="2" t="n">
         <v>37834</v>
       </c>
-      <c r="B225">
+      <c r="B225" t="n">
         <v>303815000000</v>
       </c>
-      <c r="C225">
+      <c r="C225" t="n">
         <v>0.1021909744931328</v>
       </c>
-      <c r="D225">
+      <c r="D225" t="n">
         <v>31047150915.63113</v>
       </c>
     </row>
-    <row r="226" spans="1:4">
-      <c r="A226" s="2">
+    <row r="226">
+      <c r="A226" s="2" t="n">
         <v>37865</v>
       </c>
-      <c r="B226">
+      <c r="B226" t="n">
         <v>303847000000</v>
       </c>
-      <c r="C226">
+      <c r="C226" t="n">
         <v>0.107654214662504</v>
       </c>
-      <c r="D226">
+      <c r="D226" t="n">
         <v>32710410162.55787</v>
       </c>
     </row>
-    <row r="227" spans="1:4">
-      <c r="A227" s="2">
+    <row r="227">
+      <c r="A227" s="2" t="n">
         <v>37895</v>
       </c>
-      <c r="B227">
+      <c r="B227" t="n">
         <v>306349000000</v>
       </c>
-      <c r="C227">
+      <c r="C227" t="n">
         <v>0.1065371175317481</v>
       </c>
-      <c r="D227">
+      <c r="D227" t="n">
         <v>32637539418.73349</v>
       </c>
     </row>
-    <row r="228" spans="1:4">
-      <c r="A228" s="2">
+    <row r="228">
+      <c r="A228" s="2" t="n">
         <v>37926</v>
       </c>
-      <c r="B228">
+      <c r="B228" t="n">
         <v>306538000000</v>
       </c>
-      <c r="C228">
+      <c r="C228" t="n">
         <v>0.1095326242921454</v>
       </c>
-      <c r="D228">
+      <c r="D228" t="n">
         <v>33575911585.26567</v>
       </c>
     </row>
-    <row r="229" spans="1:4">
-      <c r="A229" s="2">
+    <row r="229">
+      <c r="A229" s="2" t="n">
         <v>37956</v>
       </c>
-      <c r="B229">
+      <c r="B229" t="n">
         <v>316143000000</v>
       </c>
-      <c r="C229">
+      <c r="C229" t="n">
         <v>0.1138096647167278</v>
       </c>
-      <c r="D229">
+      <c r="D229" t="n">
         <v>35980128832.54046</v>
       </c>
     </row>
-    <row r="230" spans="1:4">
-      <c r="A230" s="2">
+    <row r="230">
+      <c r="A230" s="2" t="n">
         <v>37987</v>
       </c>
-      <c r="B230">
+      <c r="B230" t="n">
         <v>317571000000</v>
       </c>
-      <c r="C230">
+      <c r="C230" t="n">
         <v>0.113245153107447</v>
       </c>
-      <c r="D230">
+      <c r="D230" t="n">
         <v>35963376517.48505</v>
       </c>
     </row>
-    <row r="231" spans="1:4">
-      <c r="A231" s="2">
+    <row r="231">
+      <c r="A231" s="2" t="n">
         <v>38018</v>
       </c>
-      <c r="B231">
+      <c r="B231" t="n">
         <v>319168000000</v>
       </c>
-      <c r="C231">
+      <c r="C231" t="n">
         <v>0.112555574314818</v>
       </c>
-      <c r="D231">
+      <c r="D231" t="n">
         <v>35924137542.91182</v>
       </c>
     </row>
-    <row r="232" spans="1:4">
-      <c r="A232" s="2">
+    <row r="232">
+      <c r="A232" s="2" t="n">
         <v>38047</v>
       </c>
-      <c r="B232">
+      <c r="B232" t="n">
         <v>320816000000</v>
       </c>
-      <c r="C232">
+      <c r="C232" t="n">
         <v>0.1120448179271709</v>
       </c>
-      <c r="D232">
+      <c r="D232" t="n">
         <v>35945770308.12325</v>
       </c>
     </row>
-    <row r="233" spans="1:4">
-      <c r="A233" s="2">
+    <row r="233">
+      <c r="A233" s="2" t="n">
         <v>38078</v>
       </c>
-      <c r="B233">
+      <c r="B233" t="n">
         <v>321936000000</v>
       </c>
-      <c r="C233">
+      <c r="C233" t="n">
         <v>0.109379272627837</v>
       </c>
-      <c r="D233">
+      <c r="D233" t="n">
         <v>35213125512.71534</v>
       </c>
     </row>
-    <row r="234" spans="1:4">
-      <c r="A234" s="2">
+    <row r="234">
+      <c r="A234" s="2" t="n">
         <v>38108</v>
       </c>
-      <c r="B234">
+      <c r="B234" t="n">
         <v>323096000000</v>
       </c>
-      <c r="C234">
+      <c r="C234" t="n">
         <v>0.1110494169905608</v>
       </c>
-      <c r="D234">
+      <c r="D234" t="n">
         <v>35879622431.98222</v>
       </c>
     </row>
-    <row r="235" spans="1:4">
-      <c r="A235" s="2">
+    <row r="235">
+      <c r="A235" s="2" t="n">
         <v>38139</v>
       </c>
-      <c r="B235">
+      <c r="B235" t="n">
         <v>328793000000</v>
       </c>
-      <c r="C235">
+      <c r="C235" t="n">
         <v>0.1110432513463994</v>
       </c>
-      <c r="D235">
+      <c r="D235" t="n">
         <v>36510243739.93671</v>
       </c>
     </row>
-    <row r="236" spans="1:4">
-      <c r="A236" s="2">
+    <row r="236">
+      <c r="A236" s="2" t="n">
         <v>38169</v>
       </c>
-      <c r="B236">
+      <c r="B236" t="n">
         <v>336435000000</v>
       </c>
-      <c r="C236">
+      <c r="C236" t="n">
         <v>0.1099565671559734</v>
       </c>
-      <c r="D236">
+      <c r="D236" t="n">
         <v>36993237671.11991</v>
       </c>
     </row>
-    <row r="237" spans="1:4">
-      <c r="A237" s="2">
+    <row r="237">
+      <c r="A237" s="2" t="n">
         <v>38200</v>
       </c>
-      <c r="B237">
+      <c r="B237" t="n">
         <v>336331000000</v>
       </c>
-      <c r="C237">
+      <c r="C237" t="n">
         <v>0.1108057796294655</v>
       </c>
-      <c r="D237">
+      <c r="D237" t="n">
         <v>37267418668.55775</v>
       </c>
     </row>
-    <row r="238" spans="1:4">
-      <c r="A238" s="2">
+    <row r="238">
+      <c r="A238" s="2" t="n">
         <v>38231</v>
       </c>
-      <c r="B238">
+      <c r="B238" t="n">
         <v>336466000000</v>
       </c>
-      <c r="C238">
+      <c r="C238" t="n">
         <v>0.1128095211235828</v>
       </c>
-      <c r="D238">
+      <c r="D238" t="n">
         <v>37956568334.36742</v>
       </c>
     </row>
-    <row r="239" spans="1:4">
-      <c r="A239" s="2">
+    <row r="239">
+      <c r="A239" s="2" t="n">
         <v>38261</v>
       </c>
-      <c r="B239">
+      <c r="B239" t="n">
         <v>336958000000</v>
       </c>
-      <c r="C239">
+      <c r="C239" t="n">
         <v>0.1150020125352194</v>
       </c>
-      <c r="D239">
+      <c r="D239" t="n">
         <v>38750848139.84245</v>
       </c>
     </row>
-    <row r="240" spans="1:4">
-      <c r="A240" s="2">
+    <row r="240">
+      <c r="A240" s="2" t="n">
         <v>38292</v>
       </c>
-      <c r="B240">
+      <c r="B240" t="n">
         <v>337951000000</v>
       </c>
-      <c r="C240">
+      <c r="C240" t="n">
         <v>0.1191440690082448</v>
       </c>
-      <c r="D240">
+      <c r="D240" t="n">
         <v>40264857265.40533</v>
       </c>
     </row>
-    <row r="241" spans="1:4">
-      <c r="A241" s="2">
+    <row r="241">
+      <c r="A241" s="2" t="n">
         <v>38322</v>
       </c>
-      <c r="B241">
+      <c r="B241" t="n">
         <v>345506000000</v>
       </c>
-      <c r="C241">
+      <c r="C241" t="n">
         <v>0.1214919207872676</v>
       </c>
-      <c r="D241">
+      <c r="D241" t="n">
         <v>41976187583.5257</v>
       </c>
     </row>
-    <row r="242" spans="1:4">
-      <c r="A242" s="2">
+    <row r="242">
+      <c r="A242" s="2" t="n">
         <v>38353</v>
       </c>
-      <c r="B242">
+      <c r="B242" t="n">
         <v>347156000000</v>
       </c>
-      <c r="C242">
+      <c r="C242" t="n">
         <v>0.1177273904546632</v>
       </c>
-      <c r="D242">
+      <c r="D242" t="n">
         <v>40869769960.67905</v>
       </c>
     </row>
-    <row r="243" spans="1:4">
-      <c r="A243" s="2">
+    <row r="243">
+      <c r="A243" s="2" t="n">
         <v>38384</v>
       </c>
-      <c r="B243">
+      <c r="B243" t="n">
         <v>346557000000</v>
       </c>
-      <c r="C243">
+      <c r="C243" t="n">
         <v>0.11718795776546</v>
       </c>
-      <c r="D243">
+      <c r="D243" t="n">
         <v>40612307079.32452</v>
       </c>
     </row>
-    <row r="244" spans="1:4">
-      <c r="A244" s="2">
+    <row r="244">
+      <c r="A244" s="2" t="n">
         <v>38412</v>
       </c>
-      <c r="B244">
+      <c r="B244" t="n">
         <v>353457000000</v>
       </c>
-      <c r="C244">
+      <c r="C244" t="n">
         <v>0.1170275014628438</v>
       </c>
-      <c r="D244">
+      <c r="D244" t="n">
         <v>41364189584.55237</v>
       </c>
     </row>
-    <row r="245" spans="1:4">
-      <c r="A245" s="2">
+    <row r="245">
+      <c r="A245" s="2" t="n">
         <v>38443</v>
       </c>
-      <c r="B245">
+      <c r="B245" t="n">
         <v>352484000000</v>
       </c>
-      <c r="C245">
+      <c r="C245" t="n">
         <v>0.1160631383472609</v>
       </c>
-      <c r="D245">
+      <c r="D245" t="n">
         <v>40910399257.19592</v>
       </c>
     </row>
-    <row r="246" spans="1:4">
-      <c r="A246" s="2">
+    <row r="246">
+      <c r="A246" s="2" t="n">
         <v>38473</v>
       </c>
-      <c r="B246">
+      <c r="B246" t="n">
         <v>349974000000</v>
       </c>
-      <c r="C246">
+      <c r="C246" t="n">
         <v>0.1118630795905811</v>
       </c>
-      <c r="D246">
+      <c r="D246" t="n">
         <v>39149169416.63403</v>
       </c>
     </row>
-    <row r="247" spans="1:4">
-      <c r="A247" s="2">
+    <row r="247">
+      <c r="A247" s="2" t="n">
         <v>38504</v>
       </c>
-      <c r="B247">
+      <c r="B247" t="n">
         <v>358579000000</v>
       </c>
-      <c r="C247">
+      <c r="C247" t="n">
         <v>0.1105583195135434</v>
       </c>
-      <c r="D247">
+      <c r="D247" t="n">
         <v>39643891652.84688</v>
       </c>
     </row>
-    <row r="248" spans="1:4">
-      <c r="A248" s="2">
+    <row r="248">
+      <c r="A248" s="2" t="n">
         <v>38534</v>
       </c>
-      <c r="B248">
+      <c r="B248" t="n">
         <v>366714000000</v>
       </c>
-      <c r="C248">
+      <c r="C248" t="n">
         <v>0.1106427235812837</v>
       </c>
-      <c r="D248">
+      <c r="D248" t="n">
         <v>40574235735.38686</v>
       </c>
     </row>
-    <row r="249" spans="1:4">
-      <c r="A249" s="2">
+    <row r="249">
+      <c r="A249" s="2" t="n">
         <v>38565</v>
       </c>
-      <c r="B249">
+      <c r="B249" t="n">
         <v>371935000000</v>
       </c>
-      <c r="C249">
+      <c r="C249" t="n">
         <v>0.112113907730254</v>
       </c>
-      <c r="D249">
+      <c r="D249" t="n">
         <v>41699086271.652</v>
       </c>
     </row>
-    <row r="250" spans="1:4">
-      <c r="A250" s="2">
+    <row r="250">
+      <c r="A250" s="2" t="n">
         <v>38596</v>
       </c>
-      <c r="B250">
+      <c r="B250" t="n">
         <v>377129000000</v>
       </c>
-      <c r="C250">
+      <c r="C250" t="n">
         <v>0.1099106426475276</v>
       </c>
-      <c r="D250">
+      <c r="D250" t="n">
         <v>41450490751.01942</v>
       </c>
     </row>
-    <row r="251" spans="1:4">
-      <c r="A251" s="2">
+    <row r="251">
+      <c r="A251" s="2" t="n">
         <v>38626</v>
       </c>
-      <c r="B251">
+      <c r="B251" t="n">
         <v>375296000000</v>
       </c>
-      <c r="C251">
+      <c r="C251" t="n">
         <v>0.1098357954857488</v>
       </c>
-      <c r="D251">
+      <c r="D251" t="n">
         <v>41220934702.61958</v>
       </c>
     </row>
-    <row r="252" spans="1:4">
-      <c r="A252" s="2">
+    <row r="252">
+      <c r="A252" s="2" t="n">
         <v>38657</v>
       </c>
-      <c r="B252">
+      <c r="B252" t="n">
         <v>377488000000</v>
       </c>
-      <c r="C252">
+      <c r="C252" t="n">
         <v>0.1080905799059612</v>
       </c>
-      <c r="D252">
+      <c r="D252" t="n">
         <v>40802896827.54148</v>
       </c>
     </row>
-    <row r="253" spans="1:4">
-      <c r="A253" s="2">
+    <row r="253">
+      <c r="A253" s="2" t="n">
         <v>38687</v>
       </c>
-      <c r="B253">
+      <c r="B253" t="n">
         <v>388329000000</v>
       </c>
-      <c r="C253">
+      <c r="C253" t="n">
         <v>0.1086130118388183</v>
       </c>
-      <c r="D253">
+      <c r="D253" t="n">
         <v>42177582274.35647</v>
       </c>
     </row>
-    <row r="254" spans="1:4">
-      <c r="A254" s="2">
+    <row r="254">
+      <c r="A254" s="2" t="n">
         <v>38718</v>
       </c>
-      <c r="B254">
+      <c r="B254" t="n">
         <v>388759000000</v>
       </c>
-      <c r="C254">
+      <c r="C254" t="n">
         <v>0.1111111111111111</v>
       </c>
-      <c r="D254">
+      <c r="D254" t="n">
         <v>43195444444.44444</v>
       </c>
     </row>
-    <row r="255" spans="1:4">
-      <c r="A255" s="2">
+    <row r="255">
+      <c r="A255" s="2" t="n">
         <v>38749</v>
       </c>
-      <c r="B255">
+      <c r="B255" t="n">
         <v>392863000000</v>
       </c>
-      <c r="C255">
+      <c r="C255" t="n">
         <v>0.1091881858382923</v>
       </c>
-      <c r="D255">
+      <c r="D255" t="n">
         <v>42895998252.98902</v>
       </c>
     </row>
-    <row r="256" spans="1:4">
-      <c r="A256" s="2">
+    <row r="256">
+      <c r="A256" s="2" t="n">
         <v>38777</v>
       </c>
-      <c r="B256">
+      <c r="B256" t="n">
         <v>398623000000</v>
       </c>
-      <c r="C256">
+      <c r="C256" t="n">
         <v>0.1106011170712824</v>
       </c>
-      <c r="D256">
+      <c r="D256" t="n">
         <v>44088149090.30582</v>
       </c>
     </row>
-    <row r="257" spans="1:4">
-      <c r="A257" s="2">
+    <row r="257">
+      <c r="A257" s="2" t="n">
         <v>38808</v>
       </c>
-      <c r="B257">
+      <c r="B257" t="n">
         <v>400533000000</v>
       </c>
-      <c r="C257">
+      <c r="C257" t="n">
         <v>0.1143445200388771</v>
       </c>
-      <c r="D257">
+      <c r="D257" t="n">
         <v>45798753644.73158</v>
       </c>
     </row>
-    <row r="258" spans="1:4">
-      <c r="A258" s="2">
+    <row r="258">
+      <c r="A258" s="2" t="n">
         <v>38838</v>
       </c>
-      <c r="B258">
+      <c r="B258" t="n">
         <v>402245000000</v>
       </c>
-      <c r="C258">
+      <c r="C258" t="n">
         <v>0.1163399453202257</v>
       </c>
-      <c r="D258">
+      <c r="D258" t="n">
         <v>46797161305.33419</v>
       </c>
     </row>
-    <row r="259" spans="1:4">
-      <c r="A259" s="2">
+    <row r="259">
+      <c r="A259" s="2" t="n">
         <v>38869</v>
       </c>
-      <c r="B259">
+      <c r="B259" t="n">
         <v>410419000000</v>
       </c>
-      <c r="C259">
+      <c r="C259" t="n">
         <v>0.1152538465971302</v>
       </c>
-      <c r="D259">
+      <c r="D259" t="n">
         <v>47302368466.54757</v>
       </c>
     </row>
-    <row r="260" spans="1:4">
-      <c r="A260" s="2">
+    <row r="260">
+      <c r="A260" s="2" t="n">
         <v>38899</v>
       </c>
-      <c r="B260">
+      <c r="B260" t="n">
         <v>420174000000</v>
       </c>
-      <c r="C260">
+      <c r="C260" t="n">
         <v>0.1152379086624336</v>
       </c>
-      <c r="D260">
+      <c r="D260" t="n">
         <v>48419973034.32938</v>
       </c>
     </row>
-    <row r="261" spans="1:4">
-      <c r="A261" s="2">
+    <row r="261">
+      <c r="A261" s="2" t="n">
         <v>38930</v>
       </c>
-      <c r="B261">
+      <c r="B261" t="n">
         <v>426131000000</v>
       </c>
-      <c r="C261">
+      <c r="C261" t="n">
         <v>0.1157742402315485</v>
       </c>
-      <c r="D261">
+      <c r="D261" t="n">
         <v>49334992764.10999</v>
       </c>
     </row>
-    <row r="262" spans="1:4">
-      <c r="A262" s="2">
+    <row r="262">
+      <c r="A262" s="2" t="n">
         <v>38961</v>
       </c>
-      <c r="B262">
+      <c r="B262" t="n">
         <v>425978000000</v>
       </c>
-      <c r="C262">
+      <c r="C262" t="n">
         <v>0.1148435256962389</v>
       </c>
-      <c r="D262">
+      <c r="D262" t="n">
         <v>48920815389.03244</v>
       </c>
     </row>
-    <row r="263" spans="1:4">
-      <c r="A263" s="2">
+    <row r="263">
+      <c r="A263" s="2" t="n">
         <v>38991</v>
       </c>
-      <c r="B263">
+      <c r="B263" t="n">
         <v>426423000000</v>
       </c>
-      <c r="C263">
+      <c r="C263" t="n">
         <v>0.1152206475400392</v>
       </c>
-      <c r="D263">
+      <c r="D263" t="n">
         <v>49132734185.96613</v>
       </c>
     </row>
-    <row r="264" spans="1:4">
-      <c r="A264" s="2">
+    <row r="264">
+      <c r="A264" s="2" t="n">
         <v>39022</v>
       </c>
-      <c r="B264">
+      <c r="B264" t="n">
         <v>432534000000</v>
       </c>
-      <c r="C264">
+      <c r="C264" t="n">
         <v>0.11883541295306</v>
       </c>
-      <c r="D264">
+      <c r="D264" t="n">
         <v>51400356506.23886</v>
       </c>
     </row>
-    <row r="265" spans="1:4">
-      <c r="A265" s="2">
+    <row r="265">
+      <c r="A265" s="2" t="n">
         <v>39052</v>
       </c>
-      <c r="B265">
+      <c r="B265" t="n">
         <v>450659000000</v>
       </c>
-      <c r="C265">
+      <c r="C265" t="n">
         <v>0.1187648456057007</v>
       </c>
-      <c r="D265">
+      <c r="D265" t="n">
         <v>53522446555.81948</v>
       </c>
     </row>
-    <row r="266" spans="1:4">
-      <c r="A266" s="2">
+    <row r="266">
+      <c r="A266" s="2" t="n">
         <v>39083</v>
       </c>
-      <c r="B266">
+      <c r="B266" t="n">
         <v>452812000000</v>
       </c>
-      <c r="C266">
+      <c r="C266" t="n">
         <v>0.1172195522213105</v>
       </c>
-      <c r="D266">
+      <c r="D266" t="n">
         <v>53078419880.43605</v>
       </c>
     </row>
-    <row r="267" spans="1:4">
-      <c r="A267" s="2">
+    <row r="267">
+      <c r="A267" s="2" t="n">
         <v>39114</v>
       </c>
-      <c r="B267">
+      <c r="B267" t="n">
         <v>455605000000</v>
       </c>
-      <c r="C267">
+      <c r="C267" t="n">
         <v>0.1187620246549963</v>
       </c>
-      <c r="D267">
+      <c r="D267" t="n">
         <v>54108572242.93961</v>
       </c>
     </row>
-    <row r="268" spans="1:4">
-      <c r="A268" s="2">
+    <row r="268">
+      <c r="A268" s="2" t="n">
         <v>39142</v>
       </c>
-      <c r="B268">
+      <c r="B268" t="n">
         <v>462326000000</v>
       </c>
-      <c r="C268">
+      <c r="C268" t="n">
         <v>0.1196888090963495</v>
       </c>
-      <c r="D268">
+      <c r="D268" t="n">
         <v>55335248354.27888</v>
       </c>
     </row>
-    <row r="269" spans="1:4">
-      <c r="A269" s="2">
+    <row r="269">
+      <c r="A269" s="2" t="n">
         <v>39173</v>
       </c>
-      <c r="B269">
+      <c r="B269" t="n">
         <v>467714000000</v>
       </c>
-      <c r="C269">
+      <c r="C269" t="n">
         <v>0.1218397806883948</v>
       </c>
-      <c r="D269">
+      <c r="D269" t="n">
         <v>56986171184.89187</v>
       </c>
     </row>
-    <row r="270" spans="1:4">
-      <c r="A270" s="2">
+    <row r="270">
+      <c r="A270" s="2" t="n">
         <v>39203</v>
       </c>
-      <c r="B270">
+      <c r="B270" t="n">
         <v>472502000000</v>
       </c>
-      <c r="C270">
+      <c r="C270" t="n">
         <v>0.1204238921001927</v>
       </c>
-      <c r="D270">
+      <c r="D270" t="n">
         <v>56900529865.12524</v>
       </c>
     </row>
-    <row r="271" spans="1:4">
-      <c r="A271" s="2">
+    <row r="271">
+      <c r="A271" s="2" t="n">
         <v>39234</v>
       </c>
-      <c r="B271">
+      <c r="B271" t="n">
         <v>485628000000</v>
       </c>
-      <c r="C271">
+      <c r="C271" t="n">
         <v>0.121056581846355</v>
       </c>
-      <c r="D271">
+      <c r="D271" t="n">
         <v>58788465728.88168</v>
       </c>
     </row>
-    <row r="272" spans="1:4">
-      <c r="A272" s="2">
+    <row r="272">
+      <c r="A272" s="2" t="n">
         <v>39264</v>
       </c>
-      <c r="B272">
+      <c r="B272" t="n">
         <v>503370000000</v>
       </c>
-      <c r="C272">
+      <c r="C272" t="n">
         <v>0.1220837250186178</v>
       </c>
-      <c r="D272">
+      <c r="D272" t="n">
         <v>61453284662.62162</v>
       </c>
     </row>
-    <row r="273" spans="1:4">
-      <c r="A273" s="2">
+    <row r="273">
+      <c r="A273" s="2" t="n">
         <v>39295</v>
       </c>
-      <c r="B273">
+      <c r="B273" t="n">
         <v>502008000000</v>
       </c>
-      <c r="C273">
+      <c r="C273" t="n">
         <v>0.1217819129502886</v>
       </c>
-      <c r="D273">
+      <c r="D273" t="n">
         <v>61135494556.3485</v>
       </c>
     </row>
-    <row r="274" spans="1:4">
-      <c r="A274" s="2">
+    <row r="274">
+      <c r="A274" s="2" t="n">
         <v>39326</v>
       </c>
-      <c r="B274">
+      <c r="B274" t="n">
         <v>504108000000</v>
       </c>
-      <c r="C274">
+      <c r="C274" t="n">
         <v>0.1264782141276165</v>
       </c>
-      <c r="D274">
+      <c r="D274" t="n">
         <v>63758679567.4445</v>
       </c>
     </row>
-    <row r="275" spans="1:4">
-      <c r="A275" s="2">
+    <row r="275">
+      <c r="A275" s="2" t="n">
         <v>39356</v>
       </c>
-      <c r="B275">
+      <c r="B275" t="n">
         <v>508758000000</v>
       </c>
-      <c r="C275">
+      <c r="C275" t="n">
         <v>0.1280540900476361</v>
       </c>
-      <c r="D275">
+      <c r="D275" t="n">
         <v>65148542744.45526</v>
       </c>
     </row>
-    <row r="276" spans="1:4">
-      <c r="A276" s="2">
+    <row r="276">
+      <c r="A276" s="2" t="n">
         <v>39387</v>
       </c>
-      <c r="B276">
+      <c r="B276" t="n">
         <v>511404000000</v>
       </c>
-      <c r="C276">
+      <c r="C276" t="n">
         <v>0.1291489086917215</v>
       </c>
-      <c r="D276">
+      <c r="D276" t="n">
         <v>66047268500.58117</v>
       </c>
     </row>
-    <row r="277" spans="1:4">
-      <c r="A277" s="2">
+    <row r="277">
+      <c r="A277" s="2" t="n">
         <v>39417</v>
       </c>
-      <c r="B277">
+      <c r="B277" t="n">
         <v>529596000000</v>
       </c>
-      <c r="C277">
+      <c r="C277" t="n">
         <v>0.1288344348677515</v>
       </c>
-      <c r="D277">
+      <c r="D277" t="n">
         <v>68230201368.22169</v>
       </c>
     </row>
-    <row r="278" spans="1:4">
-      <c r="A278" s="2">
+    <row r="278">
+      <c r="A278" s="2" t="n">
         <v>39448</v>
       </c>
-      <c r="B278">
+      <c r="B278" t="n">
         <v>524683000000</v>
       </c>
-      <c r="C278">
+      <c r="C278" t="n">
         <v>0.1312732189506019</v>
       </c>
-      <c r="D278">
+      <c r="D278" t="n">
         <v>68876826338.65865</v>
       </c>
     </row>
-    <row r="279" spans="1:4">
-      <c r="A279" s="2">
+    <row r="279">
+      <c r="A279" s="2" t="n">
         <v>39479</v>
       </c>
-      <c r="B279">
+      <c r="B279" t="n">
         <v>524944000000</v>
       </c>
-      <c r="C279">
+      <c r="C279" t="n">
         <v>0.1332320769548477</v>
       </c>
-      <c r="D279">
+      <c r="D279" t="n">
         <v>69939379404.98555</v>
       </c>
     </row>
-    <row r="280" spans="1:4">
-      <c r="A280" s="2">
+    <row r="280">
+      <c r="A280" s="2" t="n">
         <v>39508</v>
       </c>
-      <c r="B280">
+      <c r="B280" t="n">
         <v>534960000000</v>
       </c>
-      <c r="C280">
+      <c r="C280" t="n">
         <v>0.1380071763731714</v>
       </c>
-      <c r="D280">
+      <c r="D280" t="n">
         <v>73828319072.59177</v>
       </c>
     </row>
-    <row r="281" spans="1:4">
-      <c r="A281" s="2">
+    <row r="281">
+      <c r="A281" s="2" t="n">
         <v>39539</v>
       </c>
-      <c r="B281">
+      <c r="B281" t="n">
         <v>532802000000</v>
       </c>
-      <c r="C281">
+      <c r="C281" t="n">
         <v>0.1363456635261716</v>
       </c>
-      <c r="D281">
+      <c r="D281" t="n">
         <v>72645242218.07126</v>
       </c>
     </row>
-    <row r="282" spans="1:4">
-      <c r="A282" s="2">
+    <row r="282">
+      <c r="A282" s="2" t="n">
         <v>39569</v>
       </c>
-      <c r="B282">
+      <c r="B282" t="n">
         <v>533524000000</v>
       </c>
-      <c r="C282">
+      <c r="C282" t="n">
         <v>0.1363586778662594</v>
       </c>
-      <c r="D282">
+      <c r="D282" t="n">
         <v>72750627249.91818</v>
       </c>
     </row>
-    <row r="283" spans="1:4">
-      <c r="A283" s="2">
+    <row r="283">
+      <c r="A283" s="2" t="n">
         <v>39600</v>
       </c>
-      <c r="B283">
+      <c r="B283" t="n">
         <v>549025000000</v>
       </c>
-      <c r="C283">
+      <c r="C283" t="n">
         <v>0.1379196204452045</v>
       </c>
-      <c r="D283">
+      <c r="D283" t="n">
         <v>75721319614.92842</v>
       </c>
     </row>
-    <row r="284" spans="1:4">
-      <c r="A284" s="2">
+    <row r="284">
+      <c r="A284" s="2" t="n">
         <v>39630</v>
       </c>
-      <c r="B284">
+      <c r="B284" t="n">
         <v>547682000000</v>
       </c>
-      <c r="C284">
+      <c r="C284" t="n">
         <v>0.1366867140513942</v>
       </c>
-      <c r="D284">
+      <c r="D284" t="n">
         <v>74860852925.09569</v>
       </c>
     </row>
-    <row r="285" spans="1:4">
-      <c r="A285" s="2">
+    <row r="285">
+      <c r="A285" s="2" t="n">
         <v>39661</v>
       </c>
-      <c r="B285">
+      <c r="B285" t="n">
         <v>551652000000</v>
       </c>
-      <c r="C285">
+      <c r="C285" t="n">
         <v>0.1294146575041089</v>
       </c>
-      <c r="D285">
+      <c r="D285" t="n">
         <v>71391854641.4567</v>
       </c>
     </row>
-    <row r="286" spans="1:4">
-      <c r="A286" s="2">
+    <row r="286">
+      <c r="A286" s="2" t="n">
         <v>39692</v>
       </c>
-      <c r="B286">
+      <c r="B286" t="n">
         <v>551004000000</v>
       </c>
-      <c r="C286">
+      <c r="C286" t="n">
         <v>0.1254075746175069</v>
       </c>
-      <c r="D286">
+      <c r="D286" t="n">
         <v>69100075244.54477</v>
       </c>
     </row>
-    <row r="287" spans="1:4">
-      <c r="A287" s="2">
+    <row r="287">
+      <c r="A287" s="2" t="n">
         <v>39722</v>
       </c>
-      <c r="B287">
+      <c r="B287" t="n">
         <v>549691000000</v>
       </c>
-      <c r="C287">
+      <c r="C287" t="n">
         <v>0.1151410477835348</v>
       </c>
-      <c r="D287">
+      <c r="D287" t="n">
         <v>63291997697.17904</v>
       </c>
     </row>
-    <row r="288" spans="1:4">
-      <c r="A288" s="2">
+    <row r="288">
+      <c r="A288" s="2" t="n">
         <v>39753</v>
       </c>
-      <c r="B288">
+      <c r="B288" t="n">
         <v>552926000000</v>
       </c>
-      <c r="C288">
+      <c r="C288" t="n">
         <v>0.1149055476398401</v>
       </c>
-      <c r="D288">
+      <c r="D288" t="n">
         <v>63534264834.3062</v>
       </c>
     </row>
-    <row r="289" spans="1:4">
-      <c r="A289" s="2">
+    <row r="289">
+      <c r="A289" s="2" t="n">
         <v>39783</v>
       </c>
-      <c r="B289">
+      <c r="B289" t="n">
         <v>568746000000</v>
       </c>
-      <c r="C289">
+      <c r="C289" t="n">
         <v>0.1243672814555947</v>
       </c>
-      <c r="D289">
+      <c r="D289" t="n">
         <v>70733393858.74365</v>
       </c>
     </row>
-    <row r="290" spans="1:4">
-      <c r="A290" s="2">
+    <row r="290">
+      <c r="A290" s="2" t="n">
         <v>39814</v>
       </c>
-      <c r="B290">
+      <c r="B290" t="n">
         <v>550255000000</v>
       </c>
-      <c r="C290">
+      <c r="C290" t="n">
         <v>0.1160065891742651</v>
       </c>
-      <c r="D290">
+      <c r="D290" t="n">
         <v>63833205726.08524</v>
       </c>
     </row>
-    <row r="291" spans="1:4">
-      <c r="A291" s="2">
+    <row r="291">
+      <c r="A291" s="2" t="n">
         <v>39845</v>
       </c>
-      <c r="B291">
+      <c r="B291" t="n">
         <v>555141000000</v>
       </c>
-      <c r="C291">
+      <c r="C291" t="n">
         <v>0.1150483202945237</v>
       </c>
-      <c r="D291">
+      <c r="D291" t="n">
         <v>63868039576.62218</v>
       </c>
     </row>
-    <row r="292" spans="1:4">
-      <c r="A292" s="2">
+    <row r="292">
+      <c r="A292" s="2" t="n">
         <v>39873</v>
       </c>
-      <c r="B292">
+      <c r="B292" t="n">
         <v>559134000000</v>
       </c>
-      <c r="C292">
+      <c r="C292" t="n">
         <v>0.1188452990741951</v>
       </c>
-      <c r="D292">
+      <c r="D292" t="n">
         <v>66450447452.55101</v>
       </c>
     </row>
-    <row r="293" spans="1:4">
-      <c r="A293" s="2">
+    <row r="293">
+      <c r="A293" s="2" t="n">
         <v>39904</v>
       </c>
-      <c r="B293">
+      <c r="B293" t="n">
         <v>555185000000</v>
       </c>
-      <c r="C293">
+      <c r="C293" t="n">
         <v>0.1191185229303157</v>
       </c>
-      <c r="D293">
+      <c r="D293" t="n">
         <v>66132817153.06731</v>
       </c>
     </row>
-    <row r="294" spans="1:4">
-      <c r="A294" s="2">
+    <row r="294">
+      <c r="A294" s="2" t="n">
         <v>39934</v>
       </c>
-      <c r="B294">
+      <c r="B294" t="n">
         <v>561892000000</v>
       </c>
-      <c r="C294">
+      <c r="C294" t="n">
         <v>0.1256612925520552</v>
       </c>
-      <c r="D294">
+      <c r="D294" t="n">
         <v>70608074994.65939</v>
       </c>
     </row>
-    <row r="295" spans="1:4">
-      <c r="A295" s="2">
+    <row r="295">
+      <c r="A295" s="2" t="n">
         <v>39965</v>
       </c>
-      <c r="B295">
+      <c r="B295" t="n">
         <v>572633000000</v>
       </c>
-      <c r="C295">
+      <c r="C295" t="n">
         <v>0.124470998257406</v>
       </c>
-      <c r="D295">
+      <c r="D295" t="n">
         <v>71276201145.13318</v>
       </c>
     </row>
-    <row r="296" spans="1:4">
-      <c r="A296" s="2">
+    <row r="296">
+      <c r="A296" s="2" t="n">
         <v>39995</v>
       </c>
-      <c r="B296">
+      <c r="B296" t="n">
         <v>581455000000</v>
       </c>
-      <c r="C296">
+      <c r="C296" t="n">
         <v>0.1265230208636461</v>
       </c>
-      <c r="D296">
+      <c r="D296" t="n">
         <v>73567443096.27136</v>
       </c>
     </row>
-    <row r="297" spans="1:4">
-      <c r="A297" s="2">
+    <row r="297">
+      <c r="A297" s="2" t="n">
         <v>40026</v>
       </c>
-      <c r="B297">
+      <c r="B297" t="n">
         <v>583646000000</v>
       </c>
-      <c r="C297">
+      <c r="C297" t="n">
         <v>0.127053502229789</v>
       </c>
-      <c r="D297">
+      <c r="D297" t="n">
         <v>74154268362.40739</v>
       </c>
     </row>
-    <row r="298" spans="1:4">
-      <c r="A298" s="2">
+    <row r="298">
+      <c r="A298" s="2" t="n">
         <v>40057</v>
       </c>
-      <c r="B298">
+      <c r="B298" t="n">
         <v>584132000000</v>
       </c>
-      <c r="C298">
+      <c r="C298" t="n">
         <v>0.129362759048925</v>
       </c>
-      <c r="D298">
+      <c r="D298" t="n">
         <v>75564927168.76666</v>
       </c>
     </row>
-    <row r="299" spans="1:4">
-      <c r="A299" s="2">
+    <row r="299">
+      <c r="A299" s="2" t="n">
         <v>40087</v>
       </c>
-      <c r="B299">
+      <c r="B299" t="n">
         <v>585355000000</v>
       </c>
-      <c r="C299">
+      <c r="C299" t="n">
         <v>0.1301151519094398</v>
       </c>
-      <c r="D299">
+      <c r="D299" t="n">
         <v>76163554745.95016</v>
       </c>
     </row>
-    <row r="300" spans="1:4">
-      <c r="A300" s="2">
+    <row r="300">
+      <c r="A300" s="2" t="n">
         <v>40118</v>
       </c>
-      <c r="B300">
+      <c r="B300" t="n">
         <v>594114000000</v>
       </c>
-      <c r="C300">
+      <c r="C300" t="n">
         <v>0.1318269902579854</v>
       </c>
-      <c r="D300">
+      <c r="D300" t="n">
         <v>78320260490.13275</v>
       </c>
     </row>
-    <row r="301" spans="1:4">
-      <c r="A301" s="2">
+    <row r="301">
+      <c r="A301" s="2" t="n">
         <v>40148</v>
       </c>
-      <c r="B301">
+      <c r="B301" t="n">
         <v>612715000000</v>
       </c>
-      <c r="C301">
+      <c r="C301" t="n">
         <v>0.1271100264388855</v>
       </c>
-      <c r="D301">
+      <c r="D301" t="n">
         <v>77882219849.50172</v>
       </c>
     </row>
-    <row r="302" spans="1:4">
-      <c r="A302" s="2">
+    <row r="302">
+      <c r="A302" s="2" t="n">
         <v>40179</v>
       </c>
-      <c r="B302">
+      <c r="B302" t="n">
         <v>610550000000</v>
       </c>
-      <c r="C302">
+      <c r="C302" t="n">
         <v>0.1233197681588359</v>
       </c>
-      <c r="D302">
+      <c r="D302" t="n">
         <v>75292884449.37723</v>
       </c>
     </row>
-    <row r="303" spans="1:4">
-      <c r="A303" s="2">
+    <row r="303">
+      <c r="A303" s="2" t="n">
         <v>40210</v>
       </c>
-      <c r="B303">
+      <c r="B303" t="n">
         <v>607246000000</v>
       </c>
-      <c r="C303">
+      <c r="C303" t="n">
         <v>0.1214432313615001</v>
       </c>
-      <c r="D303">
+      <c r="D303" t="n">
         <v>73745916471.34547</v>
       </c>
     </row>
-    <row r="304" spans="1:4">
-      <c r="A304" s="2">
+    <row r="304">
+      <c r="A304" s="2" t="n">
         <v>40238</v>
       </c>
-      <c r="B304">
+      <c r="B304" t="n">
         <v>608011000000</v>
       </c>
-      <c r="C304">
+      <c r="C304" t="n">
         <v>0.1212121212121212</v>
       </c>
-      <c r="D304">
+      <c r="D304" t="n">
         <v>73698303030.30304</v>
       </c>
     </row>
-    <row r="305" spans="1:4">
-      <c r="A305" s="2">
+    <row r="305">
+      <c r="A305" s="2" t="n">
         <v>40269</v>
       </c>
-      <c r="B305">
+      <c r="B305" t="n">
         <v>607105000000</v>
       </c>
-      <c r="C305">
+      <c r="C305" t="n">
         <v>0.1197604790419162</v>
       </c>
-      <c r="D305">
+      <c r="D305" t="n">
         <v>72707185628.74251</v>
       </c>
     </row>
-    <row r="306" spans="1:4">
-      <c r="A306" s="2">
+    <row r="306">
+      <c r="A306" s="2" t="n">
         <v>40299</v>
       </c>
-      <c r="B306">
+      <c r="B306" t="n">
         <v>613038000000</v>
       </c>
-      <c r="C306">
+      <c r="C306" t="n">
         <v>0.1123595505617977</v>
       </c>
-      <c r="D306">
+      <c r="D306" t="n">
         <v>68880674157.30338</v>
       </c>
     </row>
-    <row r="307" spans="1:4">
-      <c r="A307" s="2">
+    <row r="307">
+      <c r="A307" s="2" t="n">
         <v>40330</v>
       </c>
-      <c r="B307">
+      <c r="B307" t="n">
         <v>618568000000</v>
       </c>
-      <c r="C307">
+      <c r="C307" t="n">
         <v>0.1118568232662192</v>
       </c>
-      <c r="D307">
+      <c r="D307" t="n">
         <v>69191051454.1387</v>
       </c>
     </row>
-    <row r="308" spans="1:4">
-      <c r="A308" s="2">
+    <row r="308">
+      <c r="A308" s="2" t="n">
         <v>40360</v>
       </c>
-      <c r="B308">
+      <c r="B308" t="n">
         <v>621576000000</v>
       </c>
-      <c r="C308">
+      <c r="C308" t="n">
         <v>0.1173419697023034</v>
       </c>
-      <c r="D308">
+      <c r="D308" t="n">
         <v>72936952159.67896</v>
       </c>
     </row>
-    <row r="309" spans="1:4">
-      <c r="A309" s="2">
+    <row r="309">
+      <c r="A309" s="2" t="n">
         <v>40391</v>
       </c>
-      <c r="B309">
+      <c r="B309" t="n">
         <v>620613000000</v>
       </c>
-      <c r="C309">
+      <c r="C309" t="n">
         <v>0.1152073732718894</v>
       </c>
-      <c r="D309">
+      <c r="D309" t="n">
         <v>71499193548.3871</v>
       </c>
     </row>
-    <row r="310" spans="1:4">
-      <c r="A310" s="2">
+    <row r="310">
+      <c r="A310" s="2" t="n">
         <v>40422</v>
       </c>
-      <c r="B310">
+      <c r="B310" t="n">
         <v>624197000000</v>
       </c>
-      <c r="C310">
+      <c r="C310" t="n">
         <v>0.1221001221001221</v>
       </c>
-      <c r="D310">
+      <c r="D310" t="n">
         <v>76214529914.52992</v>
       </c>
     </row>
-    <row r="311" spans="1:4">
-      <c r="A311" s="2">
+    <row r="311">
+      <c r="A311" s="2" t="n">
         <v>40452</v>
       </c>
-      <c r="B311">
+      <c r="B311" t="n">
         <v>621983000000</v>
       </c>
-      <c r="C311">
+      <c r="C311" t="n">
         <v>0.1239095955590801</v>
       </c>
-      <c r="D311">
+      <c r="D311" t="n">
         <v>77069661974.62332</v>
       </c>
     </row>
-    <row r="312" spans="1:4">
-      <c r="A312" s="2">
+    <row r="312">
+      <c r="A312" s="2" t="n">
         <v>40483</v>
       </c>
-      <c r="B312">
+      <c r="B312" t="n">
         <v>629903000000</v>
       </c>
-      <c r="C312">
+      <c r="C312" t="n">
         <v>0.1172332942555686</v>
       </c>
-      <c r="D312">
+      <c r="D312" t="n">
         <v>73845603751.46542</v>
       </c>
     </row>
-    <row r="313" spans="1:4">
-      <c r="A313" s="2">
+    <row r="313">
+      <c r="A313" s="2" t="n">
         <v>40513</v>
       </c>
-      <c r="B313">
+      <c r="B313" t="n">
         <v>643504000000</v>
       </c>
-      <c r="C313">
+      <c r="C313" t="n">
         <v>0.1200393729143159</v>
       </c>
-      <c r="D313">
+      <c r="D313" t="n">
         <v>77245816627.85393</v>
       </c>
     </row>
-    <row r="314" spans="1:4">
-      <c r="A314" s="2">
+    <row r="314">
+      <c r="A314" s="2" t="n">
         <v>40544</v>
       </c>
-      <c r="B314">
+      <c r="B314" t="n">
         <v>637936000000</v>
       </c>
-      <c r="C314">
+      <c r="C314" t="n">
         <v>0.1221612773183156</v>
       </c>
-      <c r="D314">
+      <c r="D314" t="n">
         <v>77931076607.33701</v>
       </c>
     </row>
-    <row r="315" spans="1:4">
-      <c r="A315" s="2">
+    <row r="315">
+      <c r="A315" s="2" t="n">
         <v>40575</v>
       </c>
-      <c r="B315">
+      <c r="B315" t="n">
         <v>641132000000</v>
       </c>
-      <c r="C315">
+      <c r="C315" t="n">
         <v>0.1234567901234568</v>
       </c>
-      <c r="D315">
+      <c r="D315" t="n">
         <v>79152098765.4321</v>
       </c>
     </row>
-    <row r="316" spans="1:4">
-      <c r="A316" s="2">
+    <row r="316">
+      <c r="A316" s="2" t="n">
         <v>40603</v>
       </c>
-      <c r="B316">
+      <c r="B316" t="n">
         <v>644847000000</v>
       </c>
-      <c r="C316">
+      <c r="C316" t="n">
         <v>0.1256123602562492</v>
       </c>
-      <c r="D316">
+      <c r="D316" t="n">
         <v>81000753674.16154</v>
       </c>
     </row>
-    <row r="317" spans="1:4">
-      <c r="A317" s="2">
+    <row r="317">
+      <c r="A317" s="2" t="n">
         <v>40634</v>
       </c>
-      <c r="B317">
+      <c r="B317" t="n">
         <v>644505000000</v>
       </c>
-      <c r="C317">
+      <c r="C317" t="n">
         <v>0.1306165099268548</v>
       </c>
-      <c r="D317">
+      <c r="D317" t="n">
         <v>84182993730.40752</v>
       </c>
     </row>
-    <row r="318" spans="1:4">
-      <c r="A318" s="2">
+    <row r="318">
+      <c r="A318" s="2" t="n">
         <v>40664</v>
       </c>
-      <c r="B318">
+      <c r="B318" t="n">
         <v>643629000000</v>
       </c>
-      <c r="C318">
+      <c r="C318" t="n">
         <v>0.1272361757895005</v>
       </c>
-      <c r="D318">
+      <c r="D318" t="n">
         <v>81892892587.2204</v>
       </c>
     </row>
-    <row r="319" spans="1:4">
-      <c r="A319" s="2">
+    <row r="319">
+      <c r="A319" s="2" t="n">
         <v>40695</v>
       </c>
-      <c r="B319">
+      <c r="B319" t="n">
         <v>658158000000</v>
       </c>
-      <c r="C319">
+      <c r="C319" t="n">
         <v>0.1283367556468173</v>
       </c>
-      <c r="D319">
+      <c r="D319" t="n">
         <v>84465862422.99796</v>
       </c>
     </row>
-    <row r="320" spans="1:4">
-      <c r="A320" s="2">
+    <row r="320">
+      <c r="A320" s="2" t="n">
         <v>40725</v>
       </c>
-      <c r="B320">
+      <c r="B320" t="n">
         <v>661791000000</v>
       </c>
-      <c r="C320">
+      <c r="C320" t="n">
         <v>0.1275933345242045</v>
       </c>
-      <c r="D320">
+      <c r="D320" t="n">
         <v>84440120448.10779</v>
       </c>
     </row>
-    <row r="321" spans="1:4">
-      <c r="A321" s="2">
+    <row r="321">
+      <c r="A321" s="2" t="n">
         <v>40756</v>
       </c>
-      <c r="B321">
+      <c r="B321" t="n">
         <v>663601000000</v>
       </c>
-      <c r="C321">
+      <c r="C321" t="n">
         <v>0.1274713508139046</v>
       </c>
-      <c r="D321">
+      <c r="D321" t="n">
         <v>84590115871.45789</v>
       </c>
     </row>
-    <row r="322" spans="1:4">
-      <c r="A322" s="2">
+    <row r="322">
+      <c r="A322" s="2" t="n">
         <v>40787</v>
       </c>
-      <c r="B322">
+      <c r="B322" t="n">
         <v>665942000000</v>
       </c>
-      <c r="C322">
+      <c r="C322" t="n">
         <v>0.1201720864277646</v>
       </c>
-      <c r="D322">
+      <c r="D322" t="n">
         <v>80027639579.87839</v>
       </c>
     </row>
-    <row r="323" spans="1:4">
-      <c r="A323" s="2">
+    <row r="323">
+      <c r="A323" s="2" t="n">
         <v>40817</v>
       </c>
-      <c r="B323">
+      <c r="B323" t="n">
         <v>663555000000</v>
       </c>
-      <c r="C323">
+      <c r="C323" t="n">
         <v>0.1236674828720536</v>
       </c>
-      <c r="D323">
+      <c r="D323" t="n">
         <v>82060176597.16554</v>
       </c>
     </row>
-    <row r="324" spans="1:4">
-      <c r="A324" s="2">
+    <row r="324">
+      <c r="A324" s="2" t="n">
         <v>40848</v>
       </c>
-      <c r="B324">
+      <c r="B324" t="n">
         <v>669757000000</v>
       </c>
-      <c r="C324">
+      <c r="C324" t="n">
         <v>0.1207481555719236</v>
       </c>
-      <c r="D324">
+      <c r="D324" t="n">
         <v>80871922431.38486</v>
       </c>
     </row>
-    <row r="325" spans="1:4">
-      <c r="A325" s="2">
+    <row r="325">
+      <c r="A325" s="2" t="n">
         <v>40878</v>
       </c>
-      <c r="B325">
+      <c r="B325" t="n">
         <v>689692000000</v>
       </c>
-      <c r="C325">
+      <c r="C325" t="n">
         <v>0.1167651386002195</v>
       </c>
-      <c r="D325">
+      <c r="D325" t="n">
         <v>80531981971.4626</v>
       </c>
     </row>
-    <row r="326" spans="1:4">
-      <c r="A326" s="2">
+    <row r="326">
+      <c r="A326" s="2" t="n">
         <v>40909</v>
       </c>
-      <c r="B326">
+      <c r="B326" t="n">
         <v>681727000000</v>
       </c>
-      <c r="C326">
+      <c r="C326" t="n">
         <v>0.1179732200790421</v>
       </c>
-      <c r="D326">
+      <c r="D326" t="n">
         <v>80425529404.82512</v>
       </c>
     </row>
-    <row r="327" spans="1:4">
-      <c r="A327" s="2">
+    <row r="327">
+      <c r="A327" s="2" t="n">
         <v>40940</v>
       </c>
-      <c r="B327">
+      <c r="B327" t="n">
         <v>679804000000</v>
       </c>
-      <c r="C327">
+      <c r="C327" t="n">
         <v>0.1197662163456932</v>
       </c>
-      <c r="D327">
+      <c r="D327" t="n">
         <v>81417552936.66762</v>
       </c>
     </row>
-    <row r="328" spans="1:4">
-      <c r="A328" s="2">
+    <row r="328">
+      <c r="A328" s="2" t="n">
         <v>40969</v>
       </c>
-      <c r="B328">
+      <c r="B328" t="n">
         <v>687546000000</v>
       </c>
-      <c r="C328">
+      <c r="C328" t="n">
         <v>0.11999904000768</v>
       </c>
-      <c r="D328">
+      <c r="D328" t="n">
         <v>82504859961.12032</v>
       </c>
     </row>
-    <row r="329" spans="1:4">
-      <c r="A329" s="2">
+    <row r="329">
+      <c r="A329" s="2" t="n">
         <v>41000</v>
       </c>
-      <c r="B329">
+      <c r="B329" t="n">
         <v>679751000000</v>
       </c>
-      <c r="C329">
+      <c r="C329" t="n">
         <v>0.1192961526990755</v>
       </c>
-      <c r="D329">
+      <c r="D329" t="n">
         <v>81091679093.34924</v>
       </c>
     </row>
-    <row r="330" spans="1:4">
-      <c r="A330" s="2">
+    <row r="330">
+      <c r="A330" s="2" t="n">
         <v>41030</v>
       </c>
-      <c r="B330">
+      <c r="B330" t="n">
         <v>679502000000</v>
       </c>
-      <c r="C330">
+      <c r="C330" t="n">
         <v>0.1125923257070798</v>
       </c>
-      <c r="D330">
+      <c r="D330" t="n">
         <v>76506710502.61214</v>
       </c>
     </row>
-    <row r="331" spans="1:4">
-      <c r="A331" s="2">
+    <row r="331">
+      <c r="A331" s="2" t="n">
         <v>41061</v>
       </c>
-      <c r="B331">
+      <c r="B331" t="n">
         <v>696401000000</v>
       </c>
-      <c r="C331">
+      <c r="C331" t="n">
         <v>0.1144623132833515</v>
       </c>
-      <c r="D331">
+      <c r="D331" t="n">
         <v>79711669432.83925</v>
       </c>
     </row>
-    <row r="332" spans="1:4">
-      <c r="A332" s="2">
+    <row r="332">
+      <c r="A332" s="2" t="n">
         <v>41091</v>
       </c>
-      <c r="B332">
+      <c r="B332" t="n">
         <v>704008000000</v>
       </c>
-      <c r="C332">
+      <c r="C332" t="n">
         <v>0.1121554025257397</v>
       </c>
-      <c r="D332">
+      <c r="D332" t="n">
         <v>78958300621.34093</v>
       </c>
     </row>
-    <row r="333" spans="1:4">
-      <c r="A333" s="2">
+    <row r="333">
+      <c r="A333" s="2" t="n">
         <v>41122</v>
       </c>
-      <c r="B333">
+      <c r="B333" t="n">
         <v>701193000000</v>
       </c>
-      <c r="C333">
+      <c r="C333" t="n">
         <v>0.1137785868699511</v>
       </c>
-      <c r="D333">
+      <c r="D333" t="n">
         <v>79780748663.10161</v>
       </c>
     </row>
-    <row r="334" spans="1:4">
-      <c r="A334" s="2">
+    <row r="334">
+      <c r="A334" s="2" t="n">
         <v>41153</v>
       </c>
-      <c r="B334">
+      <c r="B334" t="n">
         <v>705217000000</v>
       </c>
-      <c r="C334">
+      <c r="C334" t="n">
         <v>0.1167201634082288</v>
       </c>
-      <c r="D334">
+      <c r="D334" t="n">
         <v>82313043478.26086</v>
       </c>
     </row>
-    <row r="335" spans="1:4">
-      <c r="A335" s="2">
+    <row r="335">
+      <c r="A335" s="2" t="n">
         <v>41183</v>
       </c>
-      <c r="B335">
+      <c r="B335" t="n">
         <v>697870000000</v>
       </c>
-      <c r="C335">
+      <c r="C335" t="n">
         <v>0.1170768258130986</v>
       </c>
-      <c r="D335">
+      <c r="D335" t="n">
         <v>81704404430.18709</v>
       </c>
     </row>
-    <row r="336" spans="1:4">
-      <c r="A336" s="2">
+    <row r="336">
+      <c r="A336" s="2" t="n">
         <v>41214</v>
       </c>
-      <c r="B336">
+      <c r="B336" t="n">
         <v>705249000000</v>
       </c>
-      <c r="C336">
+      <c r="C336" t="n">
         <v>0.1173708920187793</v>
       </c>
-      <c r="D336">
+      <c r="D336" t="n">
         <v>82775704225.35211</v>
       </c>
     </row>
-    <row r="337" spans="1:4">
-      <c r="A337" s="2">
+    <row r="337">
+      <c r="A337" s="2" t="n">
         <v>41244</v>
       </c>
-      <c r="B337">
+      <c r="B337" t="n">
         <v>723519000000</v>
       </c>
-      <c r="C337">
+      <c r="C337" t="n">
         <v>0.1187676666904202</v>
       </c>
-      <c r="D337">
+      <c r="D337" t="n">
         <v>85930663436.18613</v>
       </c>
     </row>
-    <row r="338" spans="1:4">
-      <c r="A338" s="2">
+    <row r="338">
+      <c r="A338" s="2" t="n">
         <v>41275</v>
       </c>
-      <c r="B338">
+      <c r="B338" t="n">
         <v>707561000000</v>
       </c>
-      <c r="C338">
+      <c r="C338" t="n">
         <v>0.1214181641573579</v>
       </c>
-      <c r="D338">
+      <c r="D338" t="n">
         <v>85910757649.34433</v>
       </c>
     </row>
-    <row r="339" spans="1:4">
-      <c r="A339" s="2">
+    <row r="339">
+      <c r="A339" s="2" t="n">
         <v>41306</v>
       </c>
-      <c r="B339">
+      <c r="B339" t="n">
         <v>709297000000</v>
       </c>
-      <c r="C339">
+      <c r="C339" t="n">
         <v>0.1179189660865054</v>
       </c>
-      <c r="D339">
+      <c r="D339" t="n">
         <v>83639568888.25999</v>
       </c>
     </row>
-    <row r="340" spans="1:4">
-      <c r="A340" s="2">
+    <row r="340">
+      <c r="A340" s="2" t="n">
         <v>41334</v>
       </c>
-      <c r="B340">
+      <c r="B340" t="n">
         <v>709542000000</v>
       </c>
-      <c r="C340">
+      <c r="C340" t="n">
         <v>0.1159124629080119</v>
       </c>
-      <c r="D340">
+      <c r="D340" t="n">
         <v>82244760756.67656</v>
       </c>
     </row>
-    <row r="341" spans="1:4">
-      <c r="A341" s="2">
+    <row r="341">
+      <c r="A341" s="2" t="n">
         <v>41365</v>
       </c>
-      <c r="B341">
+      <c r="B341" t="n">
         <v>710148000000</v>
       </c>
-      <c r="C341">
+      <c r="C341" t="n">
         <v>0.1184918359125056</v>
       </c>
-      <c r="D341">
+      <c r="D341" t="n">
         <v>84146740289.59406</v>
       </c>
     </row>
-    <row r="342" spans="1:4">
-      <c r="A342" s="2">
+    <row r="342">
+      <c r="A342" s="2" t="n">
         <v>41395</v>
       </c>
-      <c r="B342">
+      <c r="B342" t="n">
         <v>716030000000</v>
       </c>
-      <c r="C342">
+      <c r="C342" t="n">
         <v>0.1168224299065421</v>
       </c>
-      <c r="D342">
+      <c r="D342" t="n">
         <v>83648364485.98131</v>
       </c>
     </row>
-    <row r="343" spans="1:4">
-      <c r="A343" s="2">
+    <row r="343">
+      <c r="A343" s="2" t="n">
         <v>41426</v>
       </c>
-      <c r="B343">
+      <c r="B343" t="n">
         <v>737639000000</v>
       </c>
-      <c r="C343">
+      <c r="C343" t="n">
         <v>0.1177024482109228</v>
       </c>
-      <c r="D343">
+      <c r="D343" t="n">
         <v>86821916195.85687</v>
       </c>
     </row>
-    <row r="344" spans="1:4">
-      <c r="A344" s="2">
+    <row r="344">
+      <c r="A344" s="2" t="n">
         <v>41456</v>
       </c>
-      <c r="B344">
+      <c r="B344" t="n">
         <v>735688000000</v>
       </c>
-      <c r="C344">
+      <c r="C344" t="n">
         <v>0.1195128655599775</v>
       </c>
-      <c r="D344">
+      <c r="D344" t="n">
         <v>87924181038.08875</v>
       </c>
     </row>
-    <row r="345" spans="1:4">
-      <c r="A345" s="2">
+    <row r="345">
+      <c r="A345" s="2" t="n">
         <v>41487</v>
       </c>
-      <c r="B345">
+      <c r="B345" t="n">
         <v>743270000000</v>
       </c>
-      <c r="C345">
+      <c r="C345" t="n">
         <v>0.1185255422543558</v>
       </c>
-      <c r="D345">
+      <c r="D345" t="n">
         <v>88096479791.39505</v>
       </c>
     </row>
-    <row r="346" spans="1:4">
-      <c r="A346" s="2">
+    <row r="346">
+      <c r="A346" s="2" t="n">
         <v>41518</v>
       </c>
-      <c r="B346">
+      <c r="B346" t="n">
         <v>737832000000</v>
       </c>
-      <c r="C346">
+      <c r="C346" t="n">
         <v>0.1212018374198553</v>
       </c>
-      <c r="D346">
+      <c r="D346" t="n">
         <v>89426594107.16666</v>
       </c>
     </row>
-    <row r="347" spans="1:4">
-      <c r="A347" s="2">
+    <row r="347">
+      <c r="A347" s="2" t="n">
         <v>41548</v>
       </c>
-      <c r="B347">
+      <c r="B347" t="n">
         <v>737721000000</v>
       </c>
-      <c r="C347">
+      <c r="C347" t="n">
         <v>0.1216826273712902</v>
       </c>
-      <c r="D347">
+      <c r="D347" t="n">
         <v>89767829546.97559</v>
       </c>
     </row>
-    <row r="348" spans="1:4">
-      <c r="A348" s="2">
+    <row r="348">
+      <c r="A348" s="2" t="n">
         <v>41579</v>
       </c>
-      <c r="B348">
+      <c r="B348" t="n">
         <v>738523000000</v>
       </c>
-      <c r="C348">
+      <c r="C348" t="n">
         <v>0.1212782729973925</v>
       </c>
-      <c r="D348">
+      <c r="D348" t="n">
         <v>89566794008.85332</v>
       </c>
     </row>
-    <row r="349" spans="1:4">
-      <c r="A349" s="2">
+    <row r="349">
+      <c r="A349" s="2" t="n">
         <v>41609</v>
       </c>
-      <c r="B349">
+      <c r="B349" t="n">
         <v>749263000000</v>
       </c>
-      <c r="C349">
+      <c r="C349" t="n">
         <v>0.1225520233339052</v>
       </c>
-      <c r="D349">
+      <c r="D349" t="n">
         <v>91823696659.23184</v>
       </c>
     </row>
-    <row r="350" spans="1:4">
-      <c r="A350" s="2">
+    <row r="350">
+      <c r="A350" s="2" t="n">
         <v>41640</v>
       </c>
-      <c r="B350">
+      <c r="B350" t="n">
         <v>740107000000</v>
       </c>
-      <c r="C350">
+      <c r="C350" t="n">
         <v>0.1205545509342978</v>
       </c>
-      <c r="D350">
+      <c r="D350" t="n">
         <v>89223267028.33032</v>
       </c>
     </row>
-    <row r="351" spans="1:4">
-      <c r="A351" s="2">
+    <row r="351">
+      <c r="A351" s="2" t="n">
         <v>41671</v>
       </c>
-      <c r="B351">
+      <c r="B351" t="n">
         <v>741809000000</v>
       </c>
-      <c r="C351">
+      <c r="C351" t="n">
         <v>0.1233684522193984</v>
       </c>
-      <c r="D351">
+      <c r="D351" t="n">
         <v>91515828172.41974</v>
       </c>
     </row>
-    <row r="352" spans="1:4">
-      <c r="A352" s="2">
+    <row r="352">
+      <c r="A352" s="2" t="n">
         <v>41699</v>
       </c>
-      <c r="B352">
+      <c r="B352" t="n">
         <v>747655000000</v>
       </c>
-      <c r="C352">
+      <c r="C352" t="n">
         <v>0.1228818245493309</v>
       </c>
-      <c r="D352">
+      <c r="D352" t="n">
         <v>91873210533.42999</v>
       </c>
     </row>
-    <row r="353" spans="1:4">
-      <c r="A353" s="2">
+    <row r="353">
+      <c r="A353" s="2" t="n">
         <v>41730</v>
       </c>
-      <c r="B353">
+      <c r="B353" t="n">
         <v>756028000000</v>
       </c>
-      <c r="C353">
+      <c r="C353" t="n">
         <v>0.1235605199426679</v>
       </c>
-      <c r="D353">
+      <c r="D353" t="n">
         <v>93415212771.21535</v>
       </c>
     </row>
-    <row r="354" spans="1:4">
-      <c r="A354" s="2">
+    <row r="354">
+      <c r="A354" s="2" t="n">
         <v>41760</v>
       </c>
-      <c r="B354">
+      <c r="B354" t="n">
         <v>750398000000</v>
       </c>
-      <c r="C354">
+      <c r="C354" t="n">
         <v>0.1216989168796398</v>
       </c>
-      <c r="D354">
+      <c r="D354" t="n">
         <v>91322623828.64792</v>
       </c>
     </row>
-    <row r="355" spans="1:4">
-      <c r="A355" s="2">
+    <row r="355">
+      <c r="A355" s="2" t="n">
         <v>41791</v>
       </c>
-      <c r="B355">
+      <c r="B355" t="n">
         <v>762679000000</v>
       </c>
-      <c r="C355">
+      <c r="C355" t="n">
         <v>0.1222972311906858</v>
       </c>
-      <c r="D355">
+      <c r="D355" t="n">
         <v>93273529987.2811</v>
       </c>
     </row>
-    <row r="356" spans="1:4">
-      <c r="A356" s="2">
+    <row r="356">
+      <c r="A356" s="2" t="n">
         <v>41821</v>
       </c>
-      <c r="B356">
+      <c r="B356" t="n">
         <v>768127000000</v>
       </c>
-      <c r="C356">
+      <c r="C356" t="n">
         <v>0.1201143488601148</v>
       </c>
-      <c r="D356">
+      <c r="D356" t="n">
         <v>92263074446.87341</v>
       </c>
     </row>
-    <row r="357" spans="1:4">
-      <c r="A357" s="2">
+    <row r="357">
+      <c r="A357" s="2" t="n">
         <v>41852</v>
       </c>
-      <c r="B357">
+      <c r="B357" t="n">
         <v>768813000000</v>
       </c>
-      <c r="C357">
+      <c r="C357" t="n">
         <v>0.1182983958737519</v>
       </c>
-      <c r="D357">
+      <c r="D357" t="n">
         <v>90949344626.88686</v>
       </c>
     </row>
-    <row r="358" spans="1:4">
-      <c r="A358" s="2">
+    <row r="358">
+      <c r="A358" s="2" t="n">
         <v>41883</v>
       </c>
-      <c r="B358">
+      <c r="B358" t="n">
         <v>776823000000</v>
       </c>
-      <c r="C358">
+      <c r="C358" t="n">
         <v>0.1143131494415803</v>
       </c>
-      <c r="D358">
+      <c r="D358" t="n">
         <v>88801083688.65671</v>
       </c>
     </row>
-    <row r="359" spans="1:4">
-      <c r="A359" s="2">
+    <row r="359">
+      <c r="A359" s="2" t="n">
         <v>41913</v>
       </c>
-      <c r="B359">
+      <c r="B359" t="n">
         <v>778410000000</v>
       </c>
-      <c r="C359">
+      <c r="C359" t="n">
         <v>0.1137863547403395</v>
       </c>
-      <c r="D359">
+      <c r="D359" t="n">
         <v>88572436393.4277</v>
       </c>
     </row>
-    <row r="360" spans="1:4">
-      <c r="A360" s="2">
+    <row r="360">
+      <c r="A360" s="2" t="n">
         <v>41944</v>
       </c>
-      <c r="B360">
+      <c r="B360" t="n">
         <v>775757000000</v>
       </c>
-      <c r="C360">
+      <c r="C360" t="n">
         <v>0.1136880400181901</v>
       </c>
-      <c r="D360">
+      <c r="D360" t="n">
         <v>88194292860.3911</v>
       </c>
     </row>
-    <row r="361" spans="1:4">
-      <c r="A361" s="2">
+    <row r="361">
+      <c r="A361" s="2" t="n">
         <v>41974</v>
       </c>
-      <c r="B361">
+      <c r="B361" t="n">
         <v>790616000000</v>
       </c>
-      <c r="C361">
+      <c r="C361" t="n">
         <v>0.1105962242449043</v>
       </c>
-      <c r="D361">
+      <c r="D361" t="n">
         <v>87439144427.60925</v>
       </c>
     </row>
-    <row r="362" spans="1:4">
-      <c r="A362" s="2">
+    <row r="362">
+      <c r="A362" s="2" t="n">
         <v>42005</v>
       </c>
-      <c r="B362">
+      <c r="B362" t="n">
         <v>778544000000</v>
       </c>
-      <c r="C362">
+      <c r="C362" t="n">
         <v>0.1044932079414838</v>
       </c>
-      <c r="D362">
+      <c r="D362" t="n">
         <v>81352560083.59456</v>
       </c>
     </row>
-    <row r="363" spans="1:4">
-      <c r="A363" s="2">
+    <row r="363">
+      <c r="A363" s="2" t="n">
         <v>42036</v>
       </c>
-      <c r="B363">
+      <c r="B363" t="n">
         <v>777818000000</v>
       </c>
-      <c r="C363">
+      <c r="C363" t="n">
         <v>0.1039220169185043</v>
       </c>
-      <c r="D363">
+      <c r="D363" t="n">
         <v>80832415355.51721</v>
       </c>
     </row>
-    <row r="364" spans="1:4">
-      <c r="A364" s="2">
+    <row r="364">
+      <c r="A364" s="2" t="n">
         <v>42064</v>
       </c>
-      <c r="B364">
+      <c r="B364" t="n">
         <v>784583000000</v>
       </c>
-      <c r="C364">
+      <c r="C364" t="n">
         <v>0.100636019644151</v>
       </c>
-      <c r="D364">
+      <c r="D364" t="n">
         <v>78957310200.46695</v>
       </c>
     </row>
-    <row r="365" spans="1:4">
-      <c r="A365" s="2">
+    <row r="365">
+      <c r="A365" s="2" t="n">
         <v>42095</v>
       </c>
-      <c r="B365">
+      <c r="B365" t="n">
         <v>785446000000</v>
       </c>
-      <c r="C365">
+      <c r="C365" t="n">
         <v>0.1033015164662617</v>
       </c>
-      <c r="D365">
+      <c r="D365" t="n">
         <v>81137762902.35941</v>
       </c>
     </row>
-    <row r="366" spans="1:4">
-      <c r="A366" s="2">
+    <row r="366">
+      <c r="A366" s="2" t="n">
         <v>42125</v>
       </c>
-      <c r="B366">
+      <c r="B366" t="n">
         <v>792275000000</v>
       </c>
-      <c r="C366">
+      <c r="C366" t="n">
         <v>0.1019129052311894</v>
       </c>
-      <c r="D366">
+      <c r="D366" t="n">
         <v>80743046992.0406</v>
       </c>
     </row>
-    <row r="367" spans="1:4">
-      <c r="A367" s="2">
+    <row r="367">
+      <c r="A367" s="2" t="n">
         <v>42156</v>
       </c>
-      <c r="B367">
+      <c r="B367" t="n">
         <v>803355000000</v>
       </c>
-      <c r="C367">
+      <c r="C367" t="n">
         <v>0.1031672340864541</v>
       </c>
-      <c r="D367">
+      <c r="D367" t="n">
         <v>82879913339.52338</v>
       </c>
     </row>
-    <row r="368" spans="1:4">
-      <c r="A368" s="2">
+    <row r="368">
+      <c r="A368" s="2" t="n">
         <v>42186</v>
       </c>
-      <c r="B368">
+      <c r="B368" t="n">
         <v>811638000000</v>
       </c>
-      <c r="C368">
+      <c r="C368" t="n">
         <v>0.1022808632504858</v>
       </c>
-      <c r="D368">
+      <c r="D368" t="n">
         <v>83015035286.89783</v>
       </c>
     </row>
-    <row r="369" spans="1:4">
-      <c r="A369" s="2">
+    <row r="369">
+      <c r="A369" s="2" t="n">
         <v>42217</v>
       </c>
-      <c r="B369">
+      <c r="B369" t="n">
         <v>817163000000</v>
       </c>
-      <c r="C369">
+      <c r="C369" t="n">
         <v>0.1031757495718206</v>
       </c>
-      <c r="D369">
+      <c r="D369" t="n">
         <v>84311405047.35767</v>
       </c>
     </row>
-    <row r="370" spans="1:4">
-      <c r="A370" s="2">
+    <row r="370">
+      <c r="A370" s="2" t="n">
         <v>42248</v>
       </c>
-      <c r="B370">
+      <c r="B370" t="n">
         <v>821940000000</v>
       </c>
-      <c r="C370">
+      <c r="C370" t="n">
         <v>0.1029357269321036</v>
       </c>
-      <c r="D370">
+      <c r="D370" t="n">
         <v>84606991394.57323</v>
       </c>
     </row>
-    <row r="371" spans="1:4">
-      <c r="A371" s="2">
+    <row r="371">
+      <c r="A371" s="2" t="n">
         <v>42278</v>
       </c>
-      <c r="B371">
+      <c r="B371" t="n">
         <v>817277000000</v>
       </c>
-      <c r="C371">
+      <c r="C371" t="n">
         <v>0.102082482645978</v>
       </c>
-      <c r="D371">
+      <c r="D371" t="n">
         <v>83429665169.45692</v>
       </c>
     </row>
-    <row r="372" spans="1:4">
-      <c r="A372" s="2">
+    <row r="372">
+      <c r="A372" s="2" t="n">
         <v>42309</v>
       </c>
-      <c r="B372">
+      <c r="B372" t="n">
         <v>820168000000</v>
       </c>
-      <c r="C372">
+      <c r="C372" t="n">
         <v>0.09962143853357243</v>
       </c>
-      <c r="D372">
+      <c r="D372" t="n">
         <v>81706315999.20303</v>
       </c>
     </row>
-    <row r="373" spans="1:4">
-      <c r="A373" s="2">
+    <row r="373">
+      <c r="A373" s="2" t="n">
         <v>42339</v>
       </c>
-      <c r="B373">
+      <c r="B373" t="n">
         <v>845457000000</v>
       </c>
-      <c r="C373">
+      <c r="C373" t="n">
         <v>0.1010203050813214</v>
       </c>
-      <c r="D373">
+      <c r="D373" t="n">
         <v>85408324073.13872</v>
       </c>
     </row>
-    <row r="374" spans="1:4">
-      <c r="A374" s="2">
+    <row r="374">
+      <c r="A374" s="2" t="n">
         <v>42370</v>
       </c>
-      <c r="B374">
+      <c r="B374" t="n">
         <v>826865000000</v>
       </c>
-      <c r="C374">
+      <c r="C374" t="n">
         <v>0.1011275724326238</v>
       </c>
-      <c r="D374">
+      <c r="D374" t="n">
         <v>83618850179.50143</v>
       </c>
     </row>
-    <row r="375" spans="1:4">
-      <c r="A375" s="2">
+    <row r="375">
+      <c r="A375" s="2" t="n">
         <v>42401</v>
       </c>
-      <c r="B375">
+      <c r="B375" t="n">
         <v>838238000000</v>
       </c>
-      <c r="C375">
+      <c r="C375" t="n">
         <v>0.101098945537998</v>
       </c>
-      <c r="D375">
+      <c r="D375" t="n">
         <v>84744977909.8804</v>
       </c>
     </row>
-    <row r="376" spans="1:4">
-      <c r="A376" s="2">
+    <row r="376">
+      <c r="A376" s="2" t="n">
         <v>42430</v>
       </c>
-      <c r="B376">
+      <c r="B376" t="n">
         <v>843272000000</v>
       </c>
-      <c r="C376">
+      <c r="C376" t="n">
         <v>0.1040691018836507</v>
       </c>
-      <c r="D376">
+      <c r="D376" t="n">
         <v>87758559683.62993</v>
       </c>
     </row>
-    <row r="377" spans="1:4">
-      <c r="A377" s="2">
+    <row r="377">
+      <c r="A377" s="2" t="n">
         <v>42461</v>
       </c>
-      <c r="B377">
+      <c r="B377" t="n">
         <v>844280000000</v>
       </c>
-      <c r="C377">
+      <c r="C377" t="n">
         <v>0.1043863128666569</v>
       </c>
-      <c r="D377">
+      <c r="D377" t="n">
         <v>88131276227.06111</v>
       </c>
     </row>
-    <row r="378" spans="1:4">
-      <c r="A378" s="2">
+    <row r="378">
+      <c r="A378" s="2" t="n">
         <v>42491</v>
       </c>
-      <c r="B378">
+      <c r="B378" t="n">
         <v>845537000000</v>
       </c>
-      <c r="C378">
+      <c r="C378" t="n">
         <v>0.1025378108177391</v>
       </c>
-      <c r="D378">
+      <c r="D378" t="n">
         <v>86699512945.39862</v>
       </c>
     </row>
-    <row r="379" spans="1:4">
-      <c r="A379" s="2">
+    <row r="379">
+      <c r="A379" s="2" t="n">
         <v>42522</v>
       </c>
-      <c r="B379">
+      <c r="B379" t="n">
         <v>866103000000</v>
       </c>
-      <c r="C379">
+      <c r="C379" t="n">
         <v>0.1024086514828773</v>
       </c>
-      <c r="D379">
+      <c r="D379" t="n">
         <v>88696440275.27446</v>
       </c>
     </row>
-    <row r="380" spans="1:4">
-      <c r="A380" s="2">
+    <row r="380">
+      <c r="A380" s="2" t="n">
         <v>42552</v>
       </c>
-      <c r="B380">
+      <c r="B380" t="n">
         <v>867428000000</v>
       </c>
-      <c r="C380">
+      <c r="C380" t="n">
         <v>0.1027295234377408</v>
       </c>
-      <c r="D380">
+      <c r="D380" t="n">
         <v>89110465056.55261</v>
       </c>
     </row>
-    <row r="381" spans="1:4">
-      <c r="A381" s="2">
+    <row r="381">
+      <c r="A381" s="2" t="n">
         <v>42583</v>
       </c>
-      <c r="B381">
+      <c r="B381" t="n">
         <v>868167000000</v>
       </c>
-      <c r="C381">
+      <c r="C381" t="n">
         <v>0.102717916058919</v>
       </c>
-      <c r="D381">
+      <c r="D381" t="n">
         <v>89176305031.12352</v>
       </c>
     </row>
-    <row r="382" spans="1:4">
-      <c r="A382" s="2">
+    <row r="382">
+      <c r="A382" s="2" t="n">
         <v>42614</v>
       </c>
-      <c r="B382">
+      <c r="B382" t="n">
         <v>875346000000</v>
       </c>
-      <c r="C382">
+      <c r="C382" t="n">
         <v>0.1032311345101683</v>
       </c>
-      <c r="D382">
+      <c r="D382" t="n">
         <v>90362960668.93776</v>
       </c>
     </row>
-    <row r="383" spans="1:4">
-      <c r="A383" s="2">
+    <row r="383">
+      <c r="A383" s="2" t="n">
         <v>42644</v>
       </c>
-      <c r="B383">
+      <c r="B383" t="n">
         <v>874717000000</v>
       </c>
-      <c r="C383">
+      <c r="C383" t="n">
         <v>0.1014806019829309</v>
       </c>
-      <c r="D383">
+      <c r="D383" t="n">
         <v>88766807724.70341</v>
       </c>
     </row>
-    <row r="384" spans="1:4">
-      <c r="A384" s="2">
+    <row r="384">
+      <c r="A384" s="2" t="n">
         <v>42675</v>
       </c>
-      <c r="B384">
+      <c r="B384" t="n">
         <v>875733000000</v>
       </c>
-      <c r="C384">
+      <c r="C384" t="n">
         <v>0.09934432743890323</v>
       </c>
-      <c r="D384">
+      <c r="D384" t="n">
         <v>86999105901.05304</v>
       </c>
     </row>
-    <row r="385" spans="1:4">
-      <c r="A385" s="2">
+    <row r="385">
+      <c r="A385" s="2" t="n">
         <v>42705</v>
       </c>
-      <c r="B385">
+      <c r="B385" t="n">
         <v>898088000000</v>
       </c>
-      <c r="C385">
+      <c r="C385" t="n">
         <v>0.09886307464162135</v>
       </c>
-      <c r="D385">
+      <c r="D385" t="n">
         <v>88787740978.74443</v>
       </c>
     </row>
-    <row r="386" spans="1:4">
-      <c r="A386" s="2">
+    <row r="386">
+      <c r="A386" s="2" t="n">
         <v>42736</v>
       </c>
-      <c r="B386">
+      <c r="B386" t="n">
         <v>891694000000</v>
       </c>
-      <c r="C386">
+      <c r="C386" t="n">
         <v>0.1003280727980496</v>
       </c>
-      <c r="D386">
+      <c r="D386" t="n">
         <v>89461940545.58406</v>
       </c>
     </row>
-    <row r="387" spans="1:4">
-      <c r="A387" s="2">
+    <row r="387">
+      <c r="A387" s="2" t="n">
         <v>42767</v>
       </c>
-      <c r="B387">
+      <c r="B387" t="n">
         <v>893577000000</v>
       </c>
-      <c r="C387">
+      <c r="C387" t="n">
         <v>0.09908838684106222</v>
       </c>
-      <c r="D387">
+      <c r="D387" t="n">
         <v>88543103448.27585</v>
       </c>
     </row>
-    <row r="388" spans="1:4">
-      <c r="A388" s="2">
+    <row r="388">
+      <c r="A388" s="2" t="n">
         <v>42795</v>
       </c>
-      <c r="B388">
+      <c r="B388" t="n">
         <v>900868000000</v>
       </c>
-      <c r="C388">
+      <c r="C388" t="n">
         <v>0.09952229299363058</v>
       </c>
-      <c r="D388">
+      <c r="D388" t="n">
         <v>89656449044.586</v>
       </c>
     </row>
-    <row r="389" spans="1:4">
-      <c r="A389" s="2">
+    <row r="389">
+      <c r="A389" s="2" t="n">
         <v>42826</v>
       </c>
-      <c r="B389">
+      <c r="B389" t="n">
         <v>902483000000</v>
       </c>
-      <c r="C389">
+      <c r="C389" t="n">
         <v>0.1011081452721831</v>
       </c>
-      <c r="D389">
+      <c r="D389" t="n">
         <v>91248382269.67564</v>
       </c>
     </row>
-    <row r="390" spans="1:4">
-      <c r="A390" s="2">
+    <row r="390">
+      <c r="A390" s="2" t="n">
         <v>42856</v>
       </c>
-      <c r="B390">
+      <c r="B390" t="n">
         <v>899447000000</v>
       </c>
-      <c r="C390">
+      <c r="C390" t="n">
         <v>0.1027696418477982</v>
       </c>
-      <c r="D390">
+      <c r="D390" t="n">
         <v>92435846051.07652</v>
       </c>
     </row>
-    <row r="391" spans="1:4">
-      <c r="A391" s="2">
+    <row r="391">
+      <c r="A391" s="2" t="n">
         <v>42887</v>
       </c>
-      <c r="B391">
+      <c r="B391" t="n">
         <v>918650000000</v>
       </c>
-      <c r="C391">
+      <c r="C391" t="n">
         <v>0.1037721164323146</v>
       </c>
-      <c r="D391">
+      <c r="D391" t="n">
         <v>95330254760.54584</v>
       </c>
     </row>
-    <row r="392" spans="1:4">
-      <c r="A392" s="2">
+    <row r="392">
+      <c r="A392" s="2" t="n">
         <v>42917</v>
       </c>
-      <c r="B392">
+      <c r="B392" t="n">
         <v>918924000000</v>
       </c>
-      <c r="C392">
+      <c r="C392" t="n">
         <v>0.1061064247440183</v>
       </c>
-      <c r="D392">
+      <c r="D392" t="n">
         <v>97503740251.47223</v>
       </c>
     </row>
-    <row r="393" spans="1:4">
-      <c r="A393" s="2">
+    <row r="393">
+      <c r="A393" s="2" t="n">
         <v>42948</v>
       </c>
-      <c r="B393">
+      <c r="B393" t="n">
         <v>931990000000</v>
       </c>
-      <c r="C393">
+      <c r="C393" t="n">
         <v>0.106951871657754</v>
       </c>
-      <c r="D393">
+      <c r="D393" t="n">
         <v>99678074866.31017</v>
       </c>
     </row>
-    <row r="394" spans="1:4">
-      <c r="A394" s="2">
+    <row r="394">
+      <c r="A394" s="2" t="n">
         <v>42979</v>
       </c>
-      <c r="B394">
+      <c r="B394" t="n">
         <v>942828000000</v>
       </c>
-      <c r="C394">
+      <c r="C394" t="n">
         <v>0.1062902574350035</v>
       </c>
-      <c r="D394">
+      <c r="D394" t="n">
         <v>100213430836.9295</v>
       </c>
     </row>
-    <row r="395" spans="1:4">
-      <c r="A395" s="2">
+    <row r="395">
+      <c r="A395" s="2" t="n">
         <v>43009</v>
       </c>
-      <c r="B395">
+      <c r="B395" t="n">
         <v>934594000000</v>
       </c>
-      <c r="C395">
+      <c r="C395" t="n">
         <v>0.1053574250645314</v>
       </c>
-      <c r="D395">
+      <c r="D395" t="n">
         <v>98466417320.76068</v>
       </c>
     </row>
-    <row r="396" spans="1:4">
-      <c r="A396" s="2">
+    <row r="396">
+      <c r="A396" s="2" t="n">
         <v>43040</v>
       </c>
-      <c r="B396">
+      <c r="B396" t="n">
         <v>938893000000</v>
       </c>
-      <c r="C396">
+      <c r="C396" t="n">
         <v>0.1065416577881952</v>
       </c>
-      <c r="D396">
+      <c r="D396" t="n">
         <v>100031216705.7319</v>
       </c>
     </row>
-    <row r="397" spans="1:4">
-      <c r="A397" s="2">
+    <row r="397">
+      <c r="A397" s="2" t="n">
         <v>43070</v>
       </c>
-      <c r="B397">
+      <c r="B397" t="n">
         <v>964904000000</v>
       </c>
-      <c r="C397">
+      <c r="C397" t="n">
         <v>0.1070778455937467</v>
       </c>
-      <c r="D397">
+      <c r="D397" t="n">
         <v>103319841524.7885</v>
       </c>
     </row>
-    <row r="398" spans="1:4">
-      <c r="A398" s="2">
+    <row r="398">
+      <c r="A398" s="2" t="n">
         <v>43101</v>
       </c>
-      <c r="B398">
+      <c r="B398" t="n">
         <v>951872000000</v>
       </c>
-      <c r="C398">
+      <c r="C398" t="n">
         <v>0.1093852548676438</v>
       </c>
-      <c r="D398">
+      <c r="D398" t="n">
         <v>104120761321.3739</v>
       </c>
     </row>
-    <row r="399" spans="1:4">
-      <c r="A399" s="2">
+    <row r="399">
+      <c r="A399" s="2" t="n">
         <v>43132</v>
       </c>
-      <c r="B399">
+      <c r="B399" t="n">
         <v>954807000000</v>
       </c>
-      <c r="C399">
+      <c r="C399" t="n">
         <v>0.1080543729604737</v>
       </c>
-      <c r="D399">
+      <c r="D399" t="n">
         <v>103171071683.271</v>
       </c>
     </row>
-    <row r="400" spans="1:4">
-      <c r="A400" s="2">
+    <row r="400">
+      <c r="A400" s="2" t="n">
         <v>43160</v>
       </c>
-      <c r="B400">
+      <c r="B400" t="n">
         <v>966999000000</v>
       </c>
-      <c r="C400">
+      <c r="C400" t="n">
         <v>0.1088198487404102</v>
       </c>
-      <c r="D400">
+      <c r="D400" t="n">
         <v>105228684912.128</v>
       </c>
     </row>
-    <row r="401" spans="1:4">
-      <c r="A401" s="2">
+    <row r="401">
+      <c r="A401" s="2" t="n">
         <v>43191</v>
       </c>
-      <c r="B401">
+      <c r="B401" t="n">
         <v>963385000000</v>
       </c>
-      <c r="C401">
+      <c r="C401" t="n">
         <v>0.107653055731987</v>
       </c>
-      <c r="D401">
+      <c r="D401" t="n">
         <v>103711339096.3602</v>
       </c>
     </row>
-    <row r="402" spans="1:4">
-      <c r="A402" s="2">
+    <row r="402">
+      <c r="A402" s="2" t="n">
         <v>43221</v>
       </c>
-      <c r="B402">
+      <c r="B402" t="n">
         <v>966476000000</v>
       </c>
-      <c r="C402">
+      <c r="C402" t="n">
         <v>0.1054818940328893</v>
       </c>
-      <c r="D402">
+      <c r="D402" t="n">
         <v>101945719017.3307</v>
       </c>
     </row>
-    <row r="403" spans="1:4">
-      <c r="A403" s="2">
+    <row r="403">
+      <c r="A403" s="2" t="n">
         <v>43252</v>
       </c>
-      <c r="B403">
+      <c r="B403" t="n">
         <v>986336000000</v>
       </c>
-      <c r="C403">
+      <c r="C403" t="n">
         <v>0.1055019254101387</v>
       </c>
-      <c r="D403">
+      <c r="D403" t="n">
         <v>104060347101.3346</v>
       </c>
     </row>
-    <row r="404" spans="1:4">
-      <c r="A404" s="2">
+    <row r="404">
+      <c r="A404" s="2" t="n">
         <v>43282</v>
       </c>
-      <c r="B404">
+      <c r="B404" t="n">
         <v>983475000000</v>
       </c>
-      <c r="C404">
+      <c r="C404" t="n">
         <v>0.1059254708387179</v>
       </c>
-      <c r="D404">
+      <c r="D404" t="n">
         <v>104175052433.1081</v>
       </c>
     </row>
-    <row r="405" spans="1:4">
-      <c r="A405" s="2">
+    <row r="405">
+      <c r="A405" s="2" t="n">
         <v>43313</v>
       </c>
-      <c r="B405">
+      <c r="B405" t="n">
         <v>992377000000</v>
       </c>
-      <c r="C405">
+      <c r="C405" t="n">
         <v>0.1061098024235479</v>
       </c>
-      <c r="D405">
+      <c r="D405" t="n">
         <v>105300927399.6732</v>
       </c>
     </row>
-    <row r="406" spans="1:4">
-      <c r="A406" s="2">
+    <row r="406">
+      <c r="A406" s="2" t="n">
         <v>43344</v>
       </c>
-      <c r="B406">
+      <c r="B406" t="n">
         <v>996911000000</v>
       </c>
-      <c r="C406">
+      <c r="C406" t="n">
         <v>0.1062416998671979</v>
       </c>
-      <c r="D406">
+      <c r="D406" t="n">
         <v>105913519256.3081</v>
       </c>
     </row>
-    <row r="407" spans="1:4">
-      <c r="A407" s="2">
+    <row r="407">
+      <c r="A407" s="2" t="n">
         <v>43374</v>
       </c>
-      <c r="B407">
+      <c r="B407" t="n">
         <v>986440000000</v>
       </c>
-      <c r="C407">
+      <c r="C407" t="n">
         <v>0.1045806316670153</v>
       </c>
-      <c r="D407">
+      <c r="D407" t="n">
         <v>103162518301.6105</v>
       </c>
     </row>
-    <row r="408" spans="1:4">
-      <c r="A408" s="2">
+    <row r="408">
+      <c r="A408" s="2" t="n">
         <v>43405</v>
       </c>
-      <c r="B408">
+      <c r="B408" t="n">
         <v>993709000000</v>
       </c>
-      <c r="C408">
+      <c r="C408" t="n">
         <v>0.105113785672991</v>
       </c>
-      <c r="D408">
+      <c r="D408" t="n">
         <v>104452514847.3222</v>
       </c>
     </row>
-    <row r="409" spans="1:4">
-      <c r="A409" s="2">
+    <row r="409">
+      <c r="A409" s="2" t="n">
         <v>43435</v>
       </c>
-      <c r="B409">
+      <c r="B409" t="n">
         <v>1017888000000</v>
       </c>
-      <c r="C409">
+      <c r="C409" t="n">
         <v>0.1047032709301838</v>
       </c>
-      <c r="D409">
+      <c r="D409" t="n">
         <v>106576203040.583</v>
       </c>
     </row>
-    <row r="410" spans="1:4">
-      <c r="A410" s="2">
+    <row r="410">
+      <c r="A410" s="2" t="n">
         <v>43466</v>
       </c>
-      <c r="B410">
+      <c r="B410" t="n">
         <v>998128000000</v>
       </c>
-      <c r="C410">
+      <c r="C410" t="n">
         <v>0.1050045151941533</v>
       </c>
-      <c r="D410">
+      <c r="D410" t="n">
         <v>104807946741.7099</v>
       </c>
     </row>
-    <row r="411" spans="1:4">
-      <c r="A411" s="2">
+    <row r="411">
+      <c r="A411" s="2" t="n">
         <v>43497</v>
       </c>
-      <c r="B411">
+      <c r="B411" t="n">
         <v>999715000000</v>
       </c>
-      <c r="C411">
+      <c r="C411" t="n">
         <v>0.1047087526046302</v>
       </c>
-      <c r="D411">
+      <c r="D411" t="n">
         <v>104678910610.1379</v>
       </c>
     </row>
-    <row r="412" spans="1:4">
-      <c r="A412" s="2">
+    <row r="412">
+      <c r="A412" s="2" t="n">
         <v>43525</v>
       </c>
-      <c r="B412">
+      <c r="B412" t="n">
         <v>1010491000000</v>
       </c>
-      <c r="C412">
+      <c r="C412" t="n">
         <v>0.1036215740117093</v>
       </c>
-      <c r="D412">
+      <c r="D412" t="n">
         <v>104708667944.6661</v>
       </c>
     </row>
-    <row r="413" spans="1:4">
-      <c r="A413" s="2">
+    <row r="413">
+      <c r="A413" s="2" t="n">
         <v>43556</v>
       </c>
-      <c r="B413">
+      <c r="B413" t="n">
         <v>1006665000000</v>
       </c>
-      <c r="C413">
+      <c r="C413" t="n">
         <v>0.1037096958194622</v>
       </c>
-      <c r="D413">
+      <c r="D413" t="n">
         <v>104400920942.0989</v>
       </c>
     </row>
-    <row r="414" spans="1:4">
-      <c r="A414" s="2">
+    <row r="414">
+      <c r="A414" s="2" t="n">
         <v>43586</v>
       </c>
-      <c r="B414">
+      <c r="B414" t="n">
         <v>1013474000000</v>
       </c>
-      <c r="C414">
+      <c r="C414" t="n">
         <v>0.1031661697496157</v>
       </c>
-      <c r="D414">
+      <c r="D414" t="n">
         <v>104556230720.822</v>
       </c>
     </row>
-    <row r="415" spans="1:4">
-      <c r="A415" s="2">
+    <row r="415">
+      <c r="A415" s="2" t="n">
         <v>43617</v>
       </c>
-      <c r="B415">
+      <c r="B415" t="n">
         <v>1030056000000</v>
       </c>
-      <c r="C415">
+      <c r="C415" t="n">
         <v>0.1044822902518023</v>
       </c>
-      <c r="D415">
+      <c r="D415" t="n">
         <v>107622609967.6105</v>
       </c>
     </row>
-    <row r="416" spans="1:4">
-      <c r="A416" s="2">
+    <row r="416">
+      <c r="A416" s="2" t="n">
         <v>43647</v>
       </c>
-      <c r="B416">
+      <c r="B416" t="n">
         <v>1030860000000</v>
       </c>
-      <c r="C416">
+      <c r="C416" t="n">
         <v>0.1036806635562468</v>
       </c>
-      <c r="D416">
+      <c r="D416" t="n">
         <v>106880248833.5925</v>
       </c>
     </row>
-    <row r="417" spans="1:4">
-      <c r="A417" s="2">
+    <row r="417">
+      <c r="A417" s="2" t="n">
         <v>43678</v>
       </c>
-      <c r="B417">
+      <c r="B417" t="n">
         <v>1043542000000</v>
       </c>
-      <c r="C417">
+      <c r="C417" t="n">
         <v>0.1036699149906697</v>
       </c>
-      <c r="D417">
+      <c r="D417" t="n">
         <v>108183910429.1934</v>
       </c>
     </row>
-    <row r="418" spans="1:4">
-      <c r="A418" s="2">
+    <row r="418">
+      <c r="A418" s="2" t="n">
         <v>43709</v>
       </c>
-      <c r="B418">
+      <c r="B418" t="n">
         <v>1044136000000</v>
       </c>
-      <c r="C418">
+      <c r="C418" t="n">
         <v>0.1026694045174538</v>
       </c>
-      <c r="D418">
+      <c r="D418" t="n">
         <v>107200821355.2361</v>
       </c>
     </row>
-    <row r="419" spans="1:4">
-      <c r="A419" s="2">
+    <row r="419">
+      <c r="A419" s="2" t="n">
         <v>43739</v>
       </c>
-      <c r="B419">
+      <c r="B419" t="n">
         <v>1043064000000</v>
       </c>
-      <c r="C419">
+      <c r="C419" t="n">
         <v>0.1040691018836507</v>
       </c>
-      <c r="D419">
+      <c r="D419" t="n">
         <v>108550733687.1683</v>
       </c>
     </row>
-    <row r="420" spans="1:4">
-      <c r="A420" s="2">
+    <row r="420">
+      <c r="A420" s="2" t="n">
         <v>43770</v>
       </c>
-      <c r="B420">
+      <c r="B420" t="n">
         <v>1046410000000</v>
       </c>
-      <c r="C420">
+      <c r="C420" t="n">
         <v>0.1036376826614157</v>
       </c>
-      <c r="D420">
+      <c r="D420" t="n">
         <v>108447507513.732</v>
       </c>
     </row>
-    <row r="421" spans="1:4">
-      <c r="A421" s="2">
+    <row r="421">
+      <c r="A421" s="2" t="n">
         <v>43800</v>
       </c>
-      <c r="B421">
+      <c r="B421" t="n">
         <v>1078347000000</v>
       </c>
-      <c r="C421">
+      <c r="C421" t="n">
         <v>0.104602510460251</v>
       </c>
-      <c r="D421">
+      <c r="D421" t="n">
         <v>112797803347.2803</v>
       </c>
     </row>
-    <row r="422" spans="1:4">
-      <c r="A422" s="2">
+    <row r="422">
+      <c r="A422" s="2" t="n">
         <v>43831</v>
       </c>
-      <c r="B422">
+      <c r="B422" t="n">
         <v>1069640000000</v>
       </c>
-      <c r="C422">
+      <c r="C422" t="n">
         <v>0.1043187982474442</v>
       </c>
-      <c r="D422">
+      <c r="D422" t="n">
         <v>111583559357.3962</v>
       </c>
     </row>
-    <row r="423" spans="1:4">
-      <c r="A423" s="2">
+    <row r="423">
+      <c r="A423" s="2" t="n">
         <v>43862</v>
       </c>
-      <c r="B423">
+      <c r="B423" t="n">
         <v>1068605000000</v>
       </c>
-      <c r="C423">
+      <c r="C423" t="n">
         <v>0.1042600663094022</v>
       </c>
-      <c r="D423">
+      <c r="D423" t="n">
         <v>111412828158.5587</v>
       </c>
     </row>
-    <row r="424" spans="1:4">
-      <c r="A424" s="2">
+    <row r="424">
+      <c r="A424" s="2" t="n">
         <v>43891</v>
       </c>
-      <c r="B424">
+      <c r="B424" t="n">
         <v>1093610000000</v>
       </c>
-      <c r="C424">
+      <c r="C424" t="n">
         <v>0.09909722428674772</v>
       </c>
-      <c r="D424">
+      <c r="D424" t="n">
         <v>108373715452.2302</v>
       </c>
     </row>
-    <row r="425" spans="1:4">
-      <c r="A425" s="2">
+    <row r="425">
+      <c r="A425" s="2" t="n">
         <v>43922</v>
       </c>
-      <c r="B425">
+      <c r="B425" t="n">
         <v>1097707000000</v>
       </c>
-      <c r="C425">
+      <c r="C425" t="n">
         <v>0.1016053647632595</v>
       </c>
-      <c r="D425">
+      <c r="D425" t="n">
         <v>111532920138.1833</v>
       </c>
     </row>
-    <row r="426" spans="1:4">
-      <c r="A426" s="2">
+    <row r="426">
+      <c r="A426" s="2" t="n">
         <v>43952</v>
       </c>
-      <c r="B426">
+      <c r="B426" t="n">
         <v>1118736000000</v>
       </c>
-      <c r="C426">
+      <c r="C426" t="n">
         <v>0.1021951518619957</v>
       </c>
-      <c r="D426">
+      <c r="D426" t="n">
         <v>114329395413.4816</v>
       </c>
     </row>
-    <row r="427" spans="1:4">
-      <c r="A427" s="2">
+    <row r="427">
+      <c r="A427" s="2" t="n">
         <v>43983</v>
       </c>
-      <c r="B427">
+      <c r="B427" t="n">
         <v>1144358000000</v>
       </c>
-      <c r="C427">
+      <c r="C427" t="n">
         <v>0.1030874697180558</v>
       </c>
-      <c r="D427">
+      <c r="D427" t="n">
         <v>117968970671.6149</v>
       </c>
     </row>
-    <row r="428" spans="1:4">
-      <c r="A428" s="2">
+    <row r="428">
+      <c r="A428" s="2" t="n">
         <v>44013</v>
       </c>
-      <c r="B428">
+      <c r="B428" t="n">
         <v>1155666000000</v>
       </c>
-      <c r="C428">
+      <c r="C428" t="n">
         <v>0.1072340060479979</v>
       </c>
-      <c r="D428">
+      <c r="D428" t="n">
         <v>123926694833.4656</v>
       </c>
     </row>
-    <row r="429" spans="1:4">
-      <c r="A429" s="2">
+    <row r="429">
+      <c r="A429" s="2" t="n">
         <v>44044</v>
       </c>
-      <c r="B429">
+      <c r="B429" t="n">
         <v>1149273000000</v>
       </c>
-      <c r="C429">
+      <c r="C429" t="n">
         <v>0.1095098339830917</v>
       </c>
-      <c r="D429">
+      <c r="D429" t="n">
         <v>125856695431.2497</v>
       </c>
     </row>
-    <row r="430" spans="1:4">
-      <c r="A430" s="2">
+    <row r="430">
+      <c r="A430" s="2" t="n">
         <v>44075</v>
       </c>
-      <c r="B430">
+      <c r="B430" t="n">
         <v>1160903000000</v>
       </c>
-      <c r="C430">
+      <c r="C430" t="n">
         <v>0.1082368221669012</v>
       </c>
-      <c r="D430">
+      <c r="D430" t="n">
         <v>125652451564.0221</v>
       </c>
     </row>
-    <row r="431" spans="1:4">
-      <c r="A431" s="2">
+    <row r="431">
+      <c r="A431" s="2" t="n">
         <v>44105</v>
       </c>
-      <c r="B431">
+      <c r="B431" t="n">
         <v>1159159000000</v>
       </c>
-      <c r="C431">
+      <c r="C431" t="n">
         <v>0.1083658430862592</v>
       </c>
-      <c r="D431">
+      <c r="D431" t="n">
         <v>125613242306.0251</v>
       </c>
     </row>
-    <row r="432" spans="1:4">
-      <c r="A432" s="2">
+    <row r="432">
+      <c r="A432" s="2" t="n">
         <v>44136</v>
       </c>
-      <c r="B432">
+      <c r="B432" t="n">
         <v>1164080000000</v>
       </c>
-      <c r="C432">
+      <c r="C432" t="n">
         <v>0.1098961481400077</v>
       </c>
-      <c r="D432">
+      <c r="D432" t="n">
         <v>127927908126.8201</v>
       </c>
     </row>
-    <row r="433" spans="1:4">
-      <c r="A433" s="2">
+    <row r="433">
+      <c r="A433" s="2" t="n">
         <v>44166</v>
       </c>
-      <c r="B433">
+      <c r="B433" t="n">
         <v>1188755000000</v>
       </c>
-      <c r="C433">
+      <c r="C433" t="n">
         <v>0.1123355688111527</v>
       </c>
-      <c r="D433">
+      <c r="D433" t="n">
         <v>133539469102.1018</v>
       </c>
     </row>
-    <row r="434" spans="1:4">
-      <c r="A434" s="2">
+    <row r="434">
+      <c r="A434" s="2" t="n">
         <v>44197</v>
       </c>
-      <c r="B434">
+      <c r="B434" t="n">
         <v>1182578000000</v>
       </c>
-      <c r="C434">
+      <c r="C434" t="n">
         <v>0.1118968758392266</v>
       </c>
-      <c r="D434">
+      <c r="D434" t="n">
         <v>132326783636.2009</v>
       </c>
     </row>
-    <row r="435" spans="1:4">
-      <c r="A435" s="2">
+    <row r="435">
+      <c r="A435" s="2" t="n">
         <v>44228</v>
       </c>
-      <c r="B435">
+      <c r="B435" t="n">
         <v>1180145000000</v>
       </c>
-      <c r="C435">
+      <c r="C435" t="n">
         <v>0.112020970325645</v>
       </c>
-      <c r="D435">
+      <c r="D435" t="n">
         <v>132200988024.9583</v>
       </c>
     </row>
-    <row r="436" spans="1:4">
-      <c r="A436" s="2">
+    <row r="436">
+      <c r="A436" s="2" t="n">
         <v>44256</v>
       </c>
-      <c r="B436">
+      <c r="B436" t="n">
         <v>1187894000000</v>
       </c>
-      <c r="C436">
+      <c r="C436" t="n">
         <v>0.1103436100015448</v>
       </c>
-      <c r="D436">
+      <c r="D436" t="n">
         <v>131076512259.1751</v>
       </c>
     </row>
-    <row r="437" spans="1:4">
-      <c r="A437" s="2">
+    <row r="437">
+      <c r="A437" s="2" t="n">
         <v>44287</v>
       </c>
-      <c r="B437">
+      <c r="B437" t="n">
         <v>1188514000000</v>
       </c>
-      <c r="C437">
+      <c r="C437" t="n">
         <v>0.1119808288820954</v>
       </c>
-      <c r="D437">
+      <c r="D437" t="n">
         <v>133090782857.9747</v>
       </c>
     </row>
-    <row r="438" spans="1:4">
-      <c r="A438" s="2">
+    <row r="438">
+      <c r="A438" s="2" t="n">
         <v>44317</v>
       </c>
-      <c r="B438">
+      <c r="B438" t="n">
         <v>1196472000000</v>
       </c>
-      <c r="C438">
+      <c r="C438" t="n">
         <v>0.1133093117592404</v>
       </c>
-      <c r="D438">
+      <c r="D438" t="n">
         <v>135571418859.2018</v>
       </c>
     </row>
-    <row r="439" spans="1:4">
-      <c r="A439" s="2">
+    <row r="439">
+      <c r="A439" s="2" t="n">
         <v>44348</v>
       </c>
-      <c r="B439">
+      <c r="B439" t="n">
         <v>1214727000000</v>
       </c>
-      <c r="C439">
+      <c r="C439" t="n">
         <v>0.1120197154699227</v>
       </c>
-      <c r="D439">
+      <c r="D439" t="n">
         <v>136073372913.6328</v>
       </c>
     </row>
-    <row r="440" spans="1:4">
-      <c r="A440" s="2">
+    <row r="440">
+      <c r="A440" s="2" t="n">
         <v>44378</v>
       </c>
-      <c r="B440">
+      <c r="B440" t="n">
         <v>1222002000000</v>
       </c>
-      <c r="C440">
+      <c r="C440" t="n">
         <v>0.1131234516227559</v>
       </c>
-      <c r="D440">
+      <c r="D440" t="n">
         <v>138237084129.911</v>
       </c>
     </row>
-    <row r="441" spans="1:4">
-      <c r="A441" s="2">
+    <row r="441">
+      <c r="A441" s="2" t="n">
         <v>44409</v>
       </c>
-      <c r="B441">
+      <c r="B441" t="n">
         <v>1225272000000</v>
       </c>
-      <c r="C441">
+      <c r="C441" t="n">
         <v>0.1117480751394057</v>
       </c>
-      <c r="D441">
+      <c r="D441" t="n">
         <v>136921787522.2099</v>
       </c>
     </row>
-    <row r="442" spans="1:4">
-      <c r="A442" s="2">
+    <row r="442">
+      <c r="A442" s="2" t="n">
         <v>44440</v>
       </c>
-      <c r="B442">
+      <c r="B442" t="n">
         <v>1231818000000</v>
       </c>
-      <c r="C442">
+      <c r="C442" t="n">
         <v>0.1102535832414553</v>
       </c>
-      <c r="D442">
+      <c r="D442" t="n">
         <v>135812348401.323</v>
       </c>
     </row>
-    <row r="443" spans="1:4">
-      <c r="A443" s="2">
+    <row r="443">
+      <c r="A443" s="2" t="n">
         <v>44470</v>
       </c>
-      <c r="B443">
+      <c r="B443" t="n">
         <v>1226937000000</v>
       </c>
-      <c r="C443">
+      <c r="C443" t="n">
         <v>0.1100594320933304</v>
       </c>
-      <c r="D443">
+      <c r="D443" t="n">
         <v>135035989434.2945</v>
       </c>
     </row>
-    <row r="444" spans="1:4">
-      <c r="A444" s="2">
+    <row r="444">
+      <c r="A444" s="2" t="n">
         <v>44501</v>
       </c>
-      <c r="B444">
+      <c r="B444" t="n">
         <v>1230482000000</v>
       </c>
-      <c r="C444">
+      <c r="C444" t="n">
         <v>0.1082239369703791</v>
       </c>
-      <c r="D444">
+      <c r="D444" t="n">
         <v>133167606411.186</v>
       </c>
     </row>
-    <row r="445" spans="1:4">
-      <c r="A445" s="2">
+    <row r="445">
+      <c r="A445" s="2" t="n">
         <v>44531</v>
       </c>
-      <c r="B445">
+      <c r="B445" t="n">
         <v>1260988000000</v>
       </c>
-      <c r="C445">
+      <c r="C445" t="n">
         <v>0.1081291494561104</v>
       </c>
-      <c r="D445">
+      <c r="D445" t="n">
         <v>136349559914.3617</v>
       </c>
     </row>
-    <row r="446" spans="1:4">
-      <c r="A446" s="2">
+    <row r="446">
+      <c r="A446" s="2" t="n">
         <v>44562</v>
       </c>
-      <c r="B446">
+      <c r="B446" t="n">
         <v>1250996000000</v>
       </c>
-      <c r="C446">
+      <c r="C446" t="n">
         <v>0.1062767020213829</v>
       </c>
-      <c r="D446">
+      <c r="D446" t="n">
         <v>132951729121.9419</v>
       </c>
     </row>
-    <row r="447" spans="1:4">
-      <c r="A447" s="2">
+    <row r="447">
+      <c r="A447" s="2" t="n">
         <v>44593</v>
       </c>
-      <c r="B447">
+      <c r="B447" t="n">
         <v>1246378000000</v>
       </c>
-      <c r="C447">
+      <c r="C447" t="n">
         <v>0.1047625034047814</v>
       </c>
-      <c r="D447">
+      <c r="D447" t="n">
         <v>130573679468.6446</v>
       </c>
     </row>
-    <row r="448" spans="1:4">
-      <c r="A448" s="2">
+    <row r="448">
+      <c r="A448" s="2" t="n">
         <v>44621</v>
       </c>
-      <c r="B448">
+      <c r="B448" t="n">
         <v>1269224000000</v>
       </c>
-      <c r="C448">
+      <c r="C448" t="n">
         <v>0.1031746850592739</v>
       </c>
-      <c r="D448">
+      <c r="D448" t="n">
         <v>130951786469.6718</v>
       </c>
     </row>
-    <row r="449" spans="1:4">
-      <c r="A449" s="2">
+    <row r="449">
+      <c r="A449" s="2" t="n">
         <v>44652</v>
       </c>
-      <c r="B449">
+      <c r="B449" t="n">
         <v>1270570000000</v>
       </c>
-      <c r="C449">
+      <c r="C449" t="n">
         <v>0.1001371879474881</v>
       </c>
-      <c r="D449">
+      <c r="D449" t="n">
         <v>127231306890.4399</v>
       </c>
     </row>
-    <row r="450" spans="1:4">
-      <c r="A450" s="2">
+    <row r="450">
+      <c r="A450" s="2" t="n">
         <v>44682</v>
       </c>
-      <c r="B450">
+      <c r="B450" t="n">
         <v>1277411000000</v>
       </c>
-      <c r="C450">
+      <c r="C450" t="n">
         <v>0.1014301653311695</v>
       </c>
-      <c r="D450">
+      <c r="D450" t="n">
         <v>129568008925.8545</v>
       </c>
     </row>
-    <row r="451" spans="1:4">
-      <c r="A451" s="2">
+    <row r="451">
+      <c r="A451" s="2" t="n">
         <v>44713</v>
       </c>
-      <c r="B451">
+      <c r="B451" t="n">
         <v>1297962000000</v>
       </c>
-      <c r="C451">
+      <c r="C451" t="n">
         <v>0.09957184108334163</v>
       </c>
-      <c r="D451">
+      <c r="D451" t="n">
         <v>129240465996.2163</v>
       </c>
     </row>
-    <row r="452" spans="1:4">
-      <c r="A452" s="2">
+    <row r="452">
+      <c r="A452" s="2" t="n">
         <v>44743</v>
       </c>
-      <c r="B452">
+      <c r="B452" t="n">
         <v>1304702000000</v>
       </c>
-      <c r="C452">
+      <c r="C452" t="n">
         <v>0.09717700791992614</v>
       </c>
-      <c r="D452">
+      <c r="D452" t="n">
         <v>126787036587.1435</v>
       </c>
     </row>
-    <row r="453" spans="1:4">
-      <c r="A453" s="2">
+    <row r="453">
+      <c r="A453" s="2" t="n">
         <v>44774</v>
       </c>
-      <c r="B453">
+      <c r="B453" t="n">
         <v>1305964000000</v>
       </c>
-      <c r="C453">
+      <c r="C453" t="n">
         <v>0.09471311397776137</v>
       </c>
-      <c r="D453">
+      <c r="D453" t="n">
         <v>123691917182.8531</v>
       </c>
     </row>
-    <row r="454" spans="1:4">
-      <c r="A454" s="2">
+    <row r="454">
+      <c r="A454" s="2" t="n">
         <v>44805</v>
       </c>
-      <c r="B454">
+      <c r="B454" t="n">
         <v>1315853000000</v>
       </c>
-      <c r="C454">
+      <c r="C454" t="n">
         <v>0.09132169894888724</v>
       </c>
-      <c r="D454">
+      <c r="D454" t="n">
         <v>120165931526.9901</v>
       </c>
     </row>
-    <row r="455" spans="1:4">
-      <c r="A455" s="2">
+    <row r="455">
+      <c r="A455" s="2" t="n">
         <v>44835</v>
       </c>
-      <c r="B455">
+      <c r="B455" t="n">
         <v>1318682000000</v>
       </c>
-      <c r="C455">
+      <c r="C455" t="n">
         <v>0.09129835389067936</v>
       </c>
-      <c r="D455">
+      <c r="D455" t="n">
         <v>120393495905.2688</v>
       </c>
     </row>
-    <row r="456" spans="1:4">
-      <c r="A456" s="2">
+    <row r="456">
+      <c r="A456" s="2" t="n">
         <v>44866</v>
       </c>
-      <c r="B456">
+      <c r="B456" t="n">
         <v>1329615000000</v>
       </c>
-      <c r="C456">
+      <c r="C456" t="n">
         <v>0.09372334742307656</v>
       </c>
-      <c r="D456">
+      <c r="D456" t="n">
         <v>124615968583.9339</v>
       </c>
     </row>
-    <row r="457" spans="1:4">
-      <c r="A457" s="2">
+    <row r="457">
+      <c r="A457" s="2" t="n">
         <v>44896</v>
       </c>
-      <c r="B457">
+      <c r="B457" t="n">
         <v>1375618000000</v>
       </c>
-      <c r="C457">
+      <c r="C457" t="n">
         <v>0.09604763962925611</v>
       </c>
-      <c r="D457">
+      <c r="D457" t="n">
         <v>132124861931.518</v>
       </c>
     </row>
-    <row r="458" spans="1:4">
-      <c r="A458" s="2">
+    <row r="458">
+      <c r="A458" s="2" t="n">
         <v>44927</v>
       </c>
-      <c r="B458">
+      <c r="B458" t="n">
         <v>1365405000000</v>
       </c>
-      <c r="C458">
+      <c r="C458" t="n">
         <v>0.09818456734970396</v>
       </c>
-      <c r="D458">
+      <c r="D458" t="n">
         <v>134061699182.1225</v>
       </c>
     </row>
-    <row r="459" spans="1:4">
-      <c r="A459" s="2">
+    <row r="459">
+      <c r="A459" s="2" t="n">
         <v>44958</v>
       </c>
-      <c r="B459">
+      <c r="B459" t="n">
         <v>1371522000000</v>
       </c>
-      <c r="C459">
+      <c r="C459" t="n">
         <v>0.09607347699520594</v>
       </c>
-      <c r="D459">
+      <c r="D459" t="n">
         <v>131766887315.4188</v>
       </c>
     </row>
-    <row r="460" spans="1:4">
-      <c r="A460" s="2">
+    <row r="460">
+      <c r="A460" s="2" t="n">
         <v>44986</v>
       </c>
-      <c r="B460">
+      <c r="B460" t="n">
         <v>1393850000000</v>
       </c>
-      <c r="C460">
+      <c r="C460" t="n">
         <v>0.09767818943708059</v>
       </c>
-      <c r="D460">
+      <c r="D460" t="n">
         <v>136148744346.8748</v>
       </c>
     </row>
-    <row r="461" spans="1:4">
-      <c r="A461" s="2">
+    <row r="461">
+      <c r="A461" s="2" t="n">
         <v>45017</v>
       </c>
-      <c r="B461">
+      <c r="B461" t="n">
         <v>1391394000000</v>
       </c>
-      <c r="C461">
+      <c r="C461" t="n">
         <v>0.09943323058566172</v>
       </c>
-      <c r="D461">
+      <c r="D461" t="n">
         <v>138350800437.5062</v>
       </c>
     </row>
-    <row r="462" spans="1:4">
-      <c r="A462" s="2">
+    <row r="462">
+      <c r="A462" s="2" t="n">
         <v>45047</v>
       </c>
-      <c r="B462">
+      <c r="B462" t="n">
         <v>1394414000000</v>
       </c>
-      <c r="C462">
+      <c r="C462" t="n">
         <v>0.09827237170541873</v>
       </c>
-      <c r="D462">
+      <c r="D462" t="n">
         <v>137032370919.2398</v>
       </c>
     </row>
-    <row r="463" spans="1:4">
-      <c r="A463" s="2">
+    <row r="463">
+      <c r="A463" s="2" t="n">
         <v>45078</v>
       </c>
-      <c r="B463">
+      <c r="B463" t="n">
         <v>1430306000000</v>
       </c>
-      <c r="C463">
+      <c r="C463" t="n">
         <v>0.1012115016750504</v>
       </c>
-      <c r="D463">
+      <c r="D463" t="n">
         <v>144763418114.8346</v>
       </c>
     </row>
-    <row r="464" spans="1:4">
-      <c r="A464" s="2">
+    <row r="464">
+      <c r="A464" s="2" t="n">
         <v>45108</v>
       </c>
-      <c r="B464">
+      <c r="B464" t="n">
         <v>1417792000000</v>
       </c>
-      <c r="C464">
+      <c r="C464" t="n">
         <v>0.1015383053256841</v>
       </c>
-      <c r="D464">
+      <c r="D464" t="n">
         <v>143960196984.3123</v>
       </c>
     </row>
-    <row r="465" spans="1:4">
-      <c r="A465" s="2">
+    <row r="465">
+      <c r="A465" s="2" t="n">
         <v>45139</v>
       </c>
-      <c r="B465">
+      <c r="B465" t="n">
         <v>1419788000000</v>
       </c>
-      <c r="C465">
+      <c r="C465" t="n">
         <v>0.09842132199519704</v>
       </c>
-      <c r="D465">
+      <c r="D465" t="n">
         <v>139737411912.9168</v>
       </c>
     </row>
-    <row r="466" spans="1:4">
-      <c r="A466" s="2">
+    <row r="466">
+      <c r="A466" s="2" t="n">
         <v>45170</v>
       </c>
-      <c r="B466">
-        <v>1430700000000</v>
-      </c>
-      <c r="C466">
+      <c r="B466" t="n">
+        <v>1430691000000</v>
+      </c>
+      <c r="C466" t="n">
         <v>0.09724504779594098</v>
       </c>
-      <c r="D466">
-        <v>139128489881.6528</v>
-      </c>
-    </row>
-    <row r="467" spans="1:4">
-      <c r="A467" s="2">
+      <c r="D466" t="n">
+        <v>139127614676.2226</v>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" s="2" t="n">
         <v>45200</v>
       </c>
-      <c r="B467">
+      <c r="B467" t="n">
         <v>1427951000000</v>
       </c>
-      <c r="C467">
+      <c r="C467" t="n">
         <v>0.09711094925952901</v>
       </c>
-      <c r="D467">
+      <c r="D467" t="n">
         <v>138669677106.0937</v>
       </c>
     </row>
+    <row r="468">
+      <c r="A468" s="2" t="n">
+        <v>45231</v>
+      </c>
+      <c r="B468" t="n">
+        <v>1439487000000</v>
+      </c>
+      <c r="C468" t="n">
+        <v>0.09911097455821283</v>
+      </c>
+      <c r="D468" t="n">
+        <v>142668959433.8781</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/Global_M2/TVDataFeed/FinalData/Morocco.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/Morocco.xlsx
@@ -1,40 +1,57 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+  <si>
+    <t>Morocco_M2 (MAD)</t>
+  </si>
+  <si>
+    <t>Morocco_FX (USD)</t>
+  </si>
+  <si>
+    <t>Morocco_M2 (USD)</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -49,96 +66,38 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -426,5971 +385,5671 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D468"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D469"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Morocco_M2 (MAD)</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Morocco_FX (USD)</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Morocco_M2 (USD)</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
+    <row r="1" spans="1:4">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="2">
         <v>31048</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B2">
         <v>38311000000</v>
       </c>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="2">
         <v>31079</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3">
         <v>39529000000</v>
       </c>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="2">
         <v>31107</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4">
         <v>39712000000</v>
       </c>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="2">
         <v>31138</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5">
         <v>40425000000</v>
       </c>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="2">
         <v>31168</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B6">
         <v>40941000000</v>
       </c>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="2">
         <v>31199</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B7">
         <v>42409000000</v>
       </c>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="2">
         <v>31229</v>
       </c>
-      <c r="B8" t="n">
+      <c r="B8">
         <v>42939000000</v>
       </c>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="2">
         <v>31260</v>
       </c>
-      <c r="B9" t="n">
+      <c r="B9">
         <v>43443000000</v>
       </c>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="2">
         <v>31291</v>
       </c>
-      <c r="B10" t="n">
+      <c r="B10">
         <v>42620000000</v>
       </c>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="2">
         <v>31321</v>
       </c>
-      <c r="B11" t="n">
+      <c r="B11">
         <v>42861000000</v>
       </c>
-      <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="2">
         <v>31352</v>
       </c>
-      <c r="B12" t="n">
+      <c r="B12">
         <v>42957000000</v>
       </c>
-      <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="2">
         <v>31382</v>
       </c>
-      <c r="B13" t="n">
+      <c r="B13">
         <v>44211000000</v>
       </c>
-      <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="2">
         <v>31413</v>
       </c>
-      <c r="B14" t="n">
+      <c r="B14">
         <v>44318000000</v>
       </c>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="2">
         <v>31444</v>
       </c>
-      <c r="B15" t="n">
+      <c r="B15">
         <v>45628000000</v>
       </c>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="2">
         <v>31472</v>
       </c>
-      <c r="B16" t="n">
+      <c r="B16">
         <v>45865000000</v>
       </c>
-      <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="2">
         <v>31503</v>
       </c>
-      <c r="B17" t="n">
+      <c r="B17">
         <v>47578000000</v>
       </c>
-      <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="2">
         <v>31533</v>
       </c>
-      <c r="B18" t="n">
+      <c r="B18">
         <v>48184000000</v>
       </c>
-      <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="2">
         <v>31564</v>
       </c>
-      <c r="B19" t="n">
+      <c r="B19">
         <v>50292000000</v>
       </c>
-      <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="2">
         <v>31594</v>
       </c>
-      <c r="B20" t="n">
+      <c r="B20">
         <v>52728000000</v>
       </c>
-      <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="2">
         <v>31625</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B21">
         <v>52765000000</v>
       </c>
-      <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="2">
         <v>31656</v>
       </c>
-      <c r="B22" t="n">
+      <c r="B22">
         <v>51837000000</v>
       </c>
-      <c r="C22" t="inlineStr"/>
-      <c r="D22" t="inlineStr"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="2">
         <v>31686</v>
       </c>
-      <c r="B23" t="n">
+      <c r="B23">
         <v>55536000000</v>
       </c>
-      <c r="C23" t="inlineStr"/>
-      <c r="D23" t="inlineStr"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="2">
         <v>31717</v>
       </c>
-      <c r="B24" t="n">
+      <c r="B24">
         <v>55658000000</v>
       </c>
-      <c r="C24" t="inlineStr"/>
-      <c r="D24" t="inlineStr"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="n">
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="2">
         <v>31747</v>
       </c>
-      <c r="B25" t="n">
+      <c r="B25">
         <v>52924000000</v>
       </c>
-      <c r="C25" t="inlineStr"/>
-      <c r="D25" t="inlineStr"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="2" t="n">
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="2">
         <v>31778</v>
       </c>
-      <c r="B26" t="n">
+      <c r="B26">
         <v>53892000000</v>
       </c>
-      <c r="C26" t="inlineStr"/>
-      <c r="D26" t="inlineStr"/>
-    </row>
-    <row r="27">
-      <c r="A27" s="2" t="n">
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="2">
         <v>31809</v>
       </c>
-      <c r="B27" t="n">
+      <c r="B27">
         <v>58360000000</v>
       </c>
-      <c r="C27" t="inlineStr"/>
-      <c r="D27" t="inlineStr"/>
-    </row>
-    <row r="28">
-      <c r="A28" s="2" t="n">
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="2">
         <v>31837</v>
       </c>
-      <c r="B28" t="n">
+      <c r="B28">
         <v>54499000000</v>
       </c>
-      <c r="C28" t="inlineStr"/>
-      <c r="D28" t="inlineStr"/>
-    </row>
-    <row r="29">
-      <c r="A29" s="2" t="n">
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="2">
         <v>31868</v>
       </c>
-      <c r="B29" t="n">
+      <c r="B29">
         <v>55554000000</v>
       </c>
-      <c r="C29" t="inlineStr"/>
-      <c r="D29" t="inlineStr"/>
-    </row>
-    <row r="30">
-      <c r="A30" s="2" t="n">
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="2">
         <v>31898</v>
       </c>
-      <c r="B30" t="n">
+      <c r="B30">
         <v>56755000000</v>
       </c>
-      <c r="C30" t="inlineStr"/>
-      <c r="D30" t="inlineStr"/>
-    </row>
-    <row r="31">
-      <c r="A31" s="2" t="n">
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="2">
         <v>31929</v>
       </c>
-      <c r="B31" t="n">
+      <c r="B31">
         <v>56685000000</v>
       </c>
-      <c r="C31" t="inlineStr"/>
-      <c r="D31" t="inlineStr"/>
-    </row>
-    <row r="32">
-      <c r="A32" s="2" t="n">
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="2">
         <v>31959</v>
       </c>
-      <c r="B32" t="n">
+      <c r="B32">
         <v>58381000000</v>
       </c>
-      <c r="C32" t="inlineStr"/>
-      <c r="D32" t="inlineStr"/>
-    </row>
-    <row r="33">
-      <c r="A33" s="2" t="n">
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="2">
         <v>31990</v>
       </c>
-      <c r="B33" t="n">
+      <c r="B33">
         <v>59170000000</v>
       </c>
-      <c r="C33" t="inlineStr"/>
-      <c r="D33" t="inlineStr"/>
-    </row>
-    <row r="34">
-      <c r="A34" s="2" t="n">
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="2">
         <v>32021</v>
       </c>
-      <c r="B34" t="n">
+      <c r="B34">
         <v>57957000000</v>
       </c>
-      <c r="C34" t="inlineStr"/>
-      <c r="D34" t="inlineStr"/>
-    </row>
-    <row r="35">
-      <c r="A35" s="2" t="n">
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="2">
         <v>32051</v>
       </c>
-      <c r="B35" t="n">
+      <c r="B35">
         <v>57606000000</v>
       </c>
-      <c r="C35" t="inlineStr"/>
-      <c r="D35" t="inlineStr"/>
-    </row>
-    <row r="36">
-      <c r="A36" s="2" t="n">
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="2">
         <v>32082</v>
       </c>
-      <c r="B36" t="n">
+      <c r="B36">
         <v>57515000000</v>
       </c>
-      <c r="C36" t="inlineStr"/>
-      <c r="D36" t="inlineStr"/>
-    </row>
-    <row r="37">
-      <c r="A37" s="2" t="n">
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="2">
         <v>32112</v>
       </c>
-      <c r="B37" t="n">
+      <c r="B37">
         <v>59123000000</v>
       </c>
-      <c r="C37" t="inlineStr"/>
-      <c r="D37" t="inlineStr"/>
-    </row>
-    <row r="38">
-      <c r="A38" s="2" t="n">
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="2">
         <v>32143</v>
       </c>
-      <c r="B38" t="n">
+      <c r="B38">
         <v>62343000000</v>
       </c>
-      <c r="C38" t="inlineStr"/>
-      <c r="D38" t="inlineStr"/>
-    </row>
-    <row r="39">
-      <c r="A39" s="2" t="n">
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="2">
         <v>32174</v>
       </c>
-      <c r="B39" t="n">
+      <c r="B39">
         <v>63042000000</v>
       </c>
-      <c r="C39" t="inlineStr"/>
-      <c r="D39" t="inlineStr"/>
-    </row>
-    <row r="40">
-      <c r="A40" s="2" t="n">
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" s="2">
         <v>32203</v>
       </c>
-      <c r="B40" t="n">
+      <c r="B40">
         <v>64202000000</v>
       </c>
-      <c r="C40" t="inlineStr"/>
-      <c r="D40" t="inlineStr"/>
-    </row>
-    <row r="41">
-      <c r="A41" s="2" t="n">
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="2">
         <v>32234</v>
       </c>
-      <c r="B41" t="n">
+      <c r="B41">
         <v>65385000000</v>
       </c>
-      <c r="C41" t="inlineStr"/>
-      <c r="D41" t="inlineStr"/>
-    </row>
-    <row r="42">
-      <c r="A42" s="2" t="n">
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="2">
         <v>32264</v>
       </c>
-      <c r="B42" t="n">
+      <c r="B42">
         <v>65658000000</v>
       </c>
-      <c r="C42" t="inlineStr"/>
-      <c r="D42" t="inlineStr"/>
-    </row>
-    <row r="43">
-      <c r="A43" s="2" t="n">
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="2">
         <v>32295</v>
       </c>
-      <c r="B43" t="n">
+      <c r="B43">
         <v>72591000000</v>
       </c>
-      <c r="C43" t="inlineStr"/>
-      <c r="D43" t="inlineStr"/>
-    </row>
-    <row r="44">
-      <c r="A44" s="2" t="n">
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" s="2">
         <v>32325</v>
       </c>
-      <c r="B44" t="n">
+      <c r="B44">
         <v>68609000000</v>
       </c>
-      <c r="C44" t="inlineStr"/>
-      <c r="D44" t="inlineStr"/>
-    </row>
-    <row r="45">
-      <c r="A45" s="2" t="n">
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" s="2">
         <v>32356</v>
       </c>
-      <c r="B45" t="n">
+      <c r="B45">
         <v>68417000000</v>
       </c>
-      <c r="C45" t="inlineStr"/>
-      <c r="D45" t="inlineStr"/>
-    </row>
-    <row r="46">
-      <c r="A46" s="2" t="n">
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" s="2">
         <v>32387</v>
       </c>
-      <c r="B46" t="n">
+      <c r="B46">
         <v>69770000000</v>
       </c>
-      <c r="C46" t="inlineStr"/>
-      <c r="D46" t="inlineStr"/>
-    </row>
-    <row r="47">
-      <c r="A47" s="2" t="n">
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" s="2">
         <v>32417</v>
       </c>
-      <c r="B47" t="n">
+      <c r="B47">
         <v>70447000000</v>
       </c>
-      <c r="C47" t="inlineStr"/>
-      <c r="D47" t="inlineStr"/>
-    </row>
-    <row r="48">
-      <c r="A48" s="2" t="n">
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" s="2">
         <v>32448</v>
       </c>
-      <c r="B48" t="n">
+      <c r="B48">
         <v>69919000000</v>
       </c>
-      <c r="C48" t="inlineStr"/>
-      <c r="D48" t="inlineStr"/>
-    </row>
-    <row r="49">
-      <c r="A49" s="2" t="n">
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" s="2">
         <v>32478</v>
       </c>
-      <c r="B49" t="n">
+      <c r="B49">
         <v>71375000000</v>
       </c>
-      <c r="C49" t="inlineStr"/>
-      <c r="D49" t="inlineStr"/>
-    </row>
-    <row r="50">
-      <c r="A50" s="2" t="n">
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" s="2">
         <v>32509</v>
       </c>
-      <c r="B50" t="n">
+      <c r="B50">
         <v>69215000000</v>
       </c>
-      <c r="C50" t="inlineStr"/>
-      <c r="D50" t="inlineStr"/>
-    </row>
-    <row r="51">
-      <c r="A51" s="2" t="n">
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" s="2">
         <v>32540</v>
       </c>
-      <c r="B51" t="n">
+      <c r="B51">
         <v>69532000000</v>
       </c>
-      <c r="C51" t="inlineStr"/>
-      <c r="D51" t="inlineStr"/>
-    </row>
-    <row r="52">
-      <c r="A52" s="2" t="n">
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" s="2">
         <v>32568</v>
       </c>
-      <c r="B52" t="n">
+      <c r="B52">
         <v>70476000000</v>
       </c>
-      <c r="C52" t="inlineStr"/>
-      <c r="D52" t="inlineStr"/>
-    </row>
-    <row r="53">
-      <c r="A53" s="2" t="n">
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" s="2">
         <v>32599</v>
       </c>
-      <c r="B53" t="n">
+      <c r="B53">
         <v>70341000000</v>
       </c>
-      <c r="C53" t="inlineStr"/>
-      <c r="D53" t="inlineStr"/>
-    </row>
-    <row r="54">
-      <c r="A54" s="2" t="n">
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" s="2">
         <v>32629</v>
       </c>
-      <c r="B54" t="n">
+      <c r="B54">
         <v>71622000000</v>
       </c>
-      <c r="C54" t="inlineStr"/>
-      <c r="D54" t="inlineStr"/>
-    </row>
-    <row r="55">
-      <c r="A55" s="2" t="n">
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" s="2">
         <v>32660</v>
       </c>
-      <c r="B55" t="n">
+      <c r="B55">
         <v>72300000000</v>
       </c>
-      <c r="C55" t="inlineStr"/>
-      <c r="D55" t="inlineStr"/>
-    </row>
-    <row r="56">
-      <c r="A56" s="2" t="n">
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" s="2">
         <v>32690</v>
       </c>
-      <c r="B56" t="n">
+      <c r="B56">
         <v>75417000000</v>
       </c>
-      <c r="C56" t="inlineStr"/>
-      <c r="D56" t="inlineStr"/>
-    </row>
-    <row r="57">
-      <c r="A57" s="2" t="n">
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" s="2">
         <v>32721</v>
       </c>
-      <c r="B57" t="n">
+      <c r="B57">
         <v>75390000000</v>
       </c>
-      <c r="C57" t="inlineStr"/>
-      <c r="D57" t="inlineStr"/>
-    </row>
-    <row r="58">
-      <c r="A58" s="2" t="n">
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" s="2">
         <v>32752</v>
       </c>
-      <c r="B58" t="n">
+      <c r="B58">
         <v>74120000000</v>
       </c>
-      <c r="C58" t="inlineStr"/>
-      <c r="D58" t="inlineStr"/>
-    </row>
-    <row r="59">
-      <c r="A59" s="2" t="n">
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" s="2">
         <v>32782</v>
       </c>
-      <c r="B59" t="n">
+      <c r="B59">
         <v>74488000000</v>
       </c>
-      <c r="C59" t="inlineStr"/>
-      <c r="D59" t="inlineStr"/>
-    </row>
-    <row r="60">
-      <c r="A60" s="2" t="n">
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" s="2">
         <v>32813</v>
       </c>
-      <c r="B60" t="n">
+      <c r="B60">
         <v>75402000000</v>
       </c>
-      <c r="C60" t="inlineStr"/>
-      <c r="D60" t="inlineStr"/>
-    </row>
-    <row r="61">
-      <c r="A61" s="2" t="n">
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" s="2">
         <v>32843</v>
       </c>
-      <c r="B61" t="n">
+      <c r="B61">
         <v>76884000000</v>
       </c>
-      <c r="C61" t="inlineStr"/>
-      <c r="D61" t="inlineStr"/>
-    </row>
-    <row r="62">
-      <c r="A62" s="2" t="n">
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" s="2">
         <v>32874</v>
       </c>
-      <c r="B62" t="n">
+      <c r="B62">
         <v>83697000000</v>
       </c>
-      <c r="C62" t="inlineStr"/>
-      <c r="D62" t="inlineStr"/>
-    </row>
-    <row r="63">
-      <c r="A63" s="2" t="n">
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" s="2">
         <v>32905</v>
       </c>
-      <c r="B63" t="n">
+      <c r="B63">
         <v>84613000000</v>
       </c>
-      <c r="C63" t="inlineStr"/>
-      <c r="D63" t="inlineStr"/>
-    </row>
-    <row r="64">
-      <c r="A64" s="2" t="n">
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" s="2">
         <v>32933</v>
       </c>
-      <c r="B64" t="n">
+      <c r="B64">
         <v>85038000000</v>
       </c>
-      <c r="C64" t="inlineStr"/>
-      <c r="D64" t="inlineStr"/>
-    </row>
-    <row r="65">
-      <c r="A65" s="2" t="n">
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" s="2">
         <v>32964</v>
       </c>
-      <c r="B65" t="n">
+      <c r="B65">
         <v>86334000000</v>
       </c>
-      <c r="C65" t="inlineStr"/>
-      <c r="D65" t="inlineStr"/>
-    </row>
-    <row r="66">
-      <c r="A66" s="2" t="n">
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" s="2">
         <v>32994</v>
       </c>
-      <c r="B66" t="n">
+      <c r="B66">
         <v>88489000000</v>
       </c>
-      <c r="C66" t="inlineStr"/>
-      <c r="D66" t="inlineStr"/>
-    </row>
-    <row r="67">
-      <c r="A67" s="2" t="n">
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" s="2">
         <v>33025</v>
       </c>
-      <c r="B67" t="n">
+      <c r="B67">
         <v>90310000000</v>
       </c>
-      <c r="C67" t="inlineStr"/>
-      <c r="D67" t="inlineStr"/>
-    </row>
-    <row r="68">
-      <c r="A68" s="2" t="n">
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" s="2">
         <v>33055</v>
       </c>
-      <c r="B68" t="n">
+      <c r="B68">
         <v>92844000000</v>
       </c>
-      <c r="C68" t="inlineStr"/>
-      <c r="D68" t="inlineStr"/>
-    </row>
-    <row r="69">
-      <c r="A69" s="2" t="n">
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" s="2">
         <v>33086</v>
       </c>
-      <c r="B69" t="n">
+      <c r="B69">
         <v>95016000000</v>
       </c>
-      <c r="C69" t="inlineStr"/>
-      <c r="D69" t="inlineStr"/>
-    </row>
-    <row r="70">
-      <c r="A70" s="2" t="n">
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" s="2">
         <v>33117</v>
       </c>
-      <c r="B70" t="n">
+      <c r="B70">
         <v>95372000000</v>
       </c>
-      <c r="C70" t="inlineStr"/>
-      <c r="D70" t="inlineStr"/>
-    </row>
-    <row r="71">
-      <c r="A71" s="2" t="n">
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" s="2">
         <v>33147</v>
       </c>
-      <c r="B71" t="n">
+      <c r="B71">
         <v>96957000000</v>
       </c>
-      <c r="C71" t="inlineStr"/>
-      <c r="D71" t="inlineStr"/>
-    </row>
-    <row r="72">
-      <c r="A72" s="2" t="n">
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" s="2">
         <v>33178</v>
       </c>
-      <c r="B72" t="n">
+      <c r="B72">
         <v>98356000000</v>
       </c>
-      <c r="C72" t="inlineStr"/>
-      <c r="D72" t="inlineStr"/>
-    </row>
-    <row r="73">
-      <c r="A73" s="2" t="n">
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73" s="2">
         <v>33208</v>
       </c>
-      <c r="B73" t="n">
+      <c r="B73">
         <v>101547000000</v>
       </c>
-      <c r="C73" t="inlineStr"/>
-      <c r="D73" t="inlineStr"/>
-    </row>
-    <row r="74">
-      <c r="A74" s="2" t="n">
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74" s="2">
         <v>33239</v>
       </c>
-      <c r="B74" t="n">
+      <c r="B74">
         <v>102802000000</v>
       </c>
-      <c r="C74" t="inlineStr"/>
-      <c r="D74" t="inlineStr"/>
-    </row>
-    <row r="75">
-      <c r="A75" s="2" t="n">
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75" s="2">
         <v>33270</v>
       </c>
-      <c r="B75" t="n">
+      <c r="B75">
         <v>94779000000</v>
       </c>
-      <c r="C75" t="inlineStr"/>
-      <c r="D75" t="inlineStr"/>
-    </row>
-    <row r="76">
-      <c r="A76" s="2" t="n">
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76" s="2">
         <v>33298</v>
       </c>
-      <c r="B76" t="n">
+      <c r="B76">
         <v>96186000000</v>
       </c>
-      <c r="C76" t="inlineStr"/>
-      <c r="D76" t="inlineStr"/>
-    </row>
-    <row r="77">
-      <c r="A77" s="2" t="n">
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77" s="2">
         <v>33329</v>
       </c>
-      <c r="B77" t="n">
+      <c r="B77">
         <v>96655000000</v>
       </c>
-      <c r="C77" t="inlineStr"/>
-      <c r="D77" t="inlineStr"/>
-    </row>
-    <row r="78">
-      <c r="A78" s="2" t="n">
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78" s="2">
         <v>33359</v>
       </c>
-      <c r="B78" t="n">
+      <c r="B78">
         <v>97183000000</v>
       </c>
-      <c r="C78" t="inlineStr"/>
-      <c r="D78" t="inlineStr"/>
-    </row>
-    <row r="79">
-      <c r="A79" s="2" t="n">
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79" s="2">
         <v>33390</v>
       </c>
-      <c r="B79" t="n">
+      <c r="B79">
         <v>100525000000</v>
       </c>
-      <c r="C79" t="inlineStr"/>
-      <c r="D79" t="inlineStr"/>
-    </row>
-    <row r="80">
-      <c r="A80" s="2" t="n">
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80" s="2">
         <v>33420</v>
       </c>
-      <c r="B80" t="n">
+      <c r="B80">
         <v>103374000000</v>
       </c>
-      <c r="C80" t="inlineStr"/>
-      <c r="D80" t="inlineStr"/>
-    </row>
-    <row r="81">
-      <c r="A81" s="2" t="n">
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81" s="2">
         <v>33451</v>
       </c>
-      <c r="B81" t="n">
+      <c r="B81">
         <v>103987000000</v>
       </c>
-      <c r="C81" t="inlineStr"/>
-      <c r="D81" t="inlineStr"/>
-    </row>
-    <row r="82">
-      <c r="A82" s="2" t="n">
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82" s="2">
         <v>33482</v>
       </c>
-      <c r="B82" t="n">
+      <c r="B82">
         <v>103398000000</v>
       </c>
-      <c r="C82" t="inlineStr"/>
-      <c r="D82" t="inlineStr"/>
-    </row>
-    <row r="83">
-      <c r="A83" s="2" t="n">
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83" s="2">
         <v>33512</v>
       </c>
-      <c r="B83" t="n">
+      <c r="B83">
         <v>103038000000</v>
       </c>
-      <c r="C83" t="inlineStr"/>
-      <c r="D83" t="inlineStr"/>
-    </row>
-    <row r="84">
-      <c r="A84" s="2" t="n">
+    </row>
+    <row r="84" spans="1:2">
+      <c r="A84" s="2">
         <v>33543</v>
       </c>
-      <c r="B84" t="n">
+      <c r="B84">
         <v>103643000000</v>
       </c>
-      <c r="C84" t="inlineStr"/>
-      <c r="D84" t="inlineStr"/>
-    </row>
-    <row r="85">
-      <c r="A85" s="2" t="n">
+    </row>
+    <row r="85" spans="1:2">
+      <c r="A85" s="2">
         <v>33573</v>
       </c>
-      <c r="B85" t="n">
+      <c r="B85">
         <v>106820000000</v>
       </c>
-      <c r="C85" t="inlineStr"/>
-      <c r="D85" t="inlineStr"/>
-    </row>
-    <row r="86">
-      <c r="A86" s="2" t="n">
+    </row>
+    <row r="86" spans="1:2">
+      <c r="A86" s="2">
         <v>33604</v>
       </c>
-      <c r="B86" t="n">
+      <c r="B86">
         <v>106314000000</v>
       </c>
-      <c r="C86" t="inlineStr"/>
-      <c r="D86" t="inlineStr"/>
-    </row>
-    <row r="87">
-      <c r="A87" s="2" t="n">
+    </row>
+    <row r="87" spans="1:2">
+      <c r="A87" s="2">
         <v>33635</v>
       </c>
-      <c r="B87" t="n">
+      <c r="B87">
         <v>107196000000</v>
       </c>
-      <c r="C87" t="inlineStr"/>
-      <c r="D87" t="inlineStr"/>
-    </row>
-    <row r="88">
-      <c r="A88" s="2" t="n">
+    </row>
+    <row r="88" spans="1:2">
+      <c r="A88" s="2">
         <v>33664</v>
       </c>
-      <c r="B88" t="n">
+      <c r="B88">
         <v>108342000000</v>
       </c>
-      <c r="C88" t="inlineStr"/>
-      <c r="D88" t="inlineStr"/>
-    </row>
-    <row r="89">
-      <c r="A89" s="2" t="n">
+    </row>
+    <row r="89" spans="1:2">
+      <c r="A89" s="2">
         <v>33695</v>
       </c>
-      <c r="B89" t="n">
+      <c r="B89">
         <v>108991000000</v>
       </c>
-      <c r="C89" t="inlineStr"/>
-      <c r="D89" t="inlineStr"/>
-    </row>
-    <row r="90">
-      <c r="A90" s="2" t="n">
+    </row>
+    <row r="90" spans="1:2">
+      <c r="A90" s="2">
         <v>33725</v>
       </c>
-      <c r="B90" t="n">
+      <c r="B90">
         <v>108712000000</v>
       </c>
-      <c r="C90" t="inlineStr"/>
-      <c r="D90" t="inlineStr"/>
-    </row>
-    <row r="91">
-      <c r="A91" s="2" t="n">
+    </row>
+    <row r="91" spans="1:2">
+      <c r="A91" s="2">
         <v>33756</v>
       </c>
-      <c r="B91" t="n">
+      <c r="B91">
         <v>108797000000</v>
       </c>
-      <c r="C91" t="inlineStr"/>
-      <c r="D91" t="inlineStr"/>
-    </row>
-    <row r="92">
-      <c r="A92" s="2" t="n">
+    </row>
+    <row r="92" spans="1:2">
+      <c r="A92" s="2">
         <v>33786</v>
       </c>
-      <c r="B92" t="n">
+      <c r="B92">
         <v>112673000000</v>
       </c>
-      <c r="C92" t="inlineStr"/>
-      <c r="D92" t="inlineStr"/>
-    </row>
-    <row r="93">
-      <c r="A93" s="2" t="n">
+    </row>
+    <row r="93" spans="1:2">
+      <c r="A93" s="2">
         <v>33817</v>
       </c>
-      <c r="B93" t="n">
+      <c r="B93">
         <v>113625000000</v>
       </c>
-      <c r="C93" t="inlineStr"/>
-      <c r="D93" t="inlineStr"/>
-    </row>
-    <row r="94">
-      <c r="A94" s="2" t="n">
+    </row>
+    <row r="94" spans="1:2">
+      <c r="A94" s="2">
         <v>33848</v>
       </c>
-      <c r="B94" t="n">
+      <c r="B94">
         <v>112708000000</v>
       </c>
-      <c r="C94" t="inlineStr"/>
-      <c r="D94" t="inlineStr"/>
-    </row>
-    <row r="95">
-      <c r="A95" s="2" t="n">
+    </row>
+    <row r="95" spans="1:2">
+      <c r="A95" s="2">
         <v>33878</v>
       </c>
-      <c r="B95" t="n">
+      <c r="B95">
         <v>112263000000</v>
       </c>
-      <c r="C95" t="inlineStr"/>
-      <c r="D95" t="inlineStr"/>
-    </row>
-    <row r="96">
-      <c r="A96" s="2" t="n">
+    </row>
+    <row r="96" spans="1:2">
+      <c r="A96" s="2">
         <v>33909</v>
       </c>
-      <c r="B96" t="n">
+      <c r="B96">
         <v>111018000000</v>
       </c>
-      <c r="C96" t="inlineStr"/>
-      <c r="D96" t="inlineStr"/>
-    </row>
-    <row r="97">
-      <c r="A97" s="2" t="n">
+    </row>
+    <row r="97" spans="1:2">
+      <c r="A97" s="2">
         <v>33939</v>
       </c>
-      <c r="B97" t="n">
+      <c r="B97">
         <v>113885000000</v>
       </c>
-      <c r="C97" t="inlineStr"/>
-      <c r="D97" t="inlineStr"/>
-    </row>
-    <row r="98">
-      <c r="A98" s="2" t="n">
+    </row>
+    <row r="98" spans="1:2">
+      <c r="A98" s="2">
         <v>33970</v>
       </c>
-      <c r="B98" t="n">
+      <c r="B98">
         <v>111458000000</v>
       </c>
-      <c r="C98" t="inlineStr"/>
-      <c r="D98" t="inlineStr"/>
-    </row>
-    <row r="99">
-      <c r="A99" s="2" t="n">
+    </row>
+    <row r="99" spans="1:2">
+      <c r="A99" s="2">
         <v>34001</v>
       </c>
-      <c r="B99" t="n">
+      <c r="B99">
         <v>111633000000</v>
       </c>
-      <c r="C99" t="inlineStr"/>
-      <c r="D99" t="inlineStr"/>
-    </row>
-    <row r="100">
-      <c r="A100" s="2" t="n">
+    </row>
+    <row r="100" spans="1:2">
+      <c r="A100" s="2">
         <v>34029</v>
       </c>
-      <c r="B100" t="n">
+      <c r="B100">
         <v>113221000000</v>
       </c>
-      <c r="C100" t="inlineStr"/>
-      <c r="D100" t="inlineStr"/>
-    </row>
-    <row r="101">
-      <c r="A101" s="2" t="n">
+    </row>
+    <row r="101" spans="1:2">
+      <c r="A101" s="2">
         <v>34060</v>
       </c>
-      <c r="B101" t="n">
+      <c r="B101">
         <v>112189000000</v>
       </c>
-      <c r="C101" t="inlineStr"/>
-      <c r="D101" t="inlineStr"/>
-    </row>
-    <row r="102">
-      <c r="A102" s="2" t="n">
+    </row>
+    <row r="102" spans="1:2">
+      <c r="A102" s="2">
         <v>34090</v>
       </c>
-      <c r="B102" t="n">
+      <c r="B102">
         <v>114242000000</v>
       </c>
-      <c r="C102" t="inlineStr"/>
-      <c r="D102" t="inlineStr"/>
-    </row>
-    <row r="103">
-      <c r="A103" s="2" t="n">
+    </row>
+    <row r="103" spans="1:2">
+      <c r="A103" s="2">
         <v>34121</v>
       </c>
-      <c r="B103" t="n">
+      <c r="B103">
         <v>114471000000</v>
       </c>
-      <c r="C103" t="inlineStr"/>
-      <c r="D103" t="inlineStr"/>
-    </row>
-    <row r="104">
-      <c r="A104" s="2" t="n">
+    </row>
+    <row r="104" spans="1:2">
+      <c r="A104" s="2">
         <v>34151</v>
       </c>
-      <c r="B104" t="n">
+      <c r="B104">
         <v>118049000000</v>
       </c>
-      <c r="C104" t="inlineStr"/>
-      <c r="D104" t="inlineStr"/>
-    </row>
-    <row r="105">
-      <c r="A105" s="2" t="n">
+    </row>
+    <row r="105" spans="1:2">
+      <c r="A105" s="2">
         <v>34182</v>
       </c>
-      <c r="B105" t="n">
+      <c r="B105">
         <v>118530000000</v>
       </c>
-      <c r="C105" t="inlineStr"/>
-      <c r="D105" t="inlineStr"/>
-    </row>
-    <row r="106">
-      <c r="A106" s="2" t="n">
+    </row>
+    <row r="106" spans="1:2">
+      <c r="A106" s="2">
         <v>34213</v>
       </c>
-      <c r="B106" t="n">
+      <c r="B106">
         <v>116190000000</v>
       </c>
-      <c r="C106" t="inlineStr"/>
-      <c r="D106" t="inlineStr"/>
-    </row>
-    <row r="107">
-      <c r="A107" s="2" t="n">
+    </row>
+    <row r="107" spans="1:2">
+      <c r="A107" s="2">
         <v>34243</v>
       </c>
-      <c r="B107" t="n">
+      <c r="B107">
         <v>117012000000</v>
       </c>
-      <c r="C107" t="inlineStr"/>
-      <c r="D107" t="inlineStr"/>
-    </row>
-    <row r="108">
-      <c r="A108" s="2" t="n">
+    </row>
+    <row r="108" spans="1:2">
+      <c r="A108" s="2">
         <v>34274</v>
       </c>
-      <c r="B108" t="n">
+      <c r="B108">
         <v>116249000000</v>
       </c>
-      <c r="C108" t="inlineStr"/>
-      <c r="D108" t="inlineStr"/>
-    </row>
-    <row r="109">
-      <c r="A109" s="2" t="n">
+    </row>
+    <row r="109" spans="1:2">
+      <c r="A109" s="2">
         <v>34304</v>
       </c>
-      <c r="B109" t="n">
+      <c r="B109">
         <v>119601000000</v>
       </c>
-      <c r="C109" t="inlineStr"/>
-      <c r="D109" t="inlineStr"/>
-    </row>
-    <row r="110">
-      <c r="A110" s="2" t="n">
+    </row>
+    <row r="110" spans="1:2">
+      <c r="A110" s="2">
         <v>34335</v>
       </c>
-      <c r="B110" t="n">
+      <c r="B110">
         <v>117951000000</v>
       </c>
-      <c r="C110" t="inlineStr"/>
-      <c r="D110" t="inlineStr"/>
-    </row>
-    <row r="111">
-      <c r="A111" s="2" t="n">
+    </row>
+    <row r="111" spans="1:2">
+      <c r="A111" s="2">
         <v>34366</v>
       </c>
-      <c r="B111" t="n">
+      <c r="B111">
         <v>120500000000</v>
       </c>
-      <c r="C111" t="inlineStr"/>
-      <c r="D111" t="inlineStr"/>
-    </row>
-    <row r="112">
-      <c r="A112" s="2" t="n">
+    </row>
+    <row r="112" spans="1:2">
+      <c r="A112" s="2">
         <v>34394</v>
       </c>
-      <c r="B112" t="n">
+      <c r="B112">
         <v>121431000000</v>
       </c>
-      <c r="C112" t="inlineStr"/>
-      <c r="D112" t="inlineStr"/>
-    </row>
-    <row r="113">
-      <c r="A113" s="2" t="n">
+    </row>
+    <row r="113" spans="1:2">
+      <c r="A113" s="2">
         <v>34425</v>
       </c>
-      <c r="B113" t="n">
+      <c r="B113">
         <v>122436000000</v>
       </c>
-      <c r="C113" t="inlineStr"/>
-      <c r="D113" t="inlineStr"/>
-    </row>
-    <row r="114">
-      <c r="A114" s="2" t="n">
+    </row>
+    <row r="114" spans="1:2">
+      <c r="A114" s="2">
         <v>34455</v>
       </c>
-      <c r="B114" t="n">
+      <c r="B114">
         <v>124481000000</v>
       </c>
-      <c r="C114" t="inlineStr"/>
-      <c r="D114" t="inlineStr"/>
-    </row>
-    <row r="115">
-      <c r="A115" s="2" t="n">
+    </row>
+    <row r="115" spans="1:2">
+      <c r="A115" s="2">
         <v>34486</v>
       </c>
-      <c r="B115" t="n">
+      <c r="B115">
         <v>126540000000</v>
       </c>
-      <c r="C115" t="inlineStr"/>
-      <c r="D115" t="inlineStr"/>
-    </row>
-    <row r="116">
-      <c r="A116" s="2" t="n">
+    </row>
+    <row r="116" spans="1:2">
+      <c r="A116" s="2">
         <v>34516</v>
       </c>
-      <c r="B116" t="n">
+      <c r="B116">
         <v>131619000000</v>
       </c>
-      <c r="C116" t="inlineStr"/>
-      <c r="D116" t="inlineStr"/>
-    </row>
-    <row r="117">
-      <c r="A117" s="2" t="n">
+    </row>
+    <row r="117" spans="1:2">
+      <c r="A117" s="2">
         <v>34547</v>
       </c>
-      <c r="B117" t="n">
+      <c r="B117">
         <v>132919000000</v>
       </c>
-      <c r="C117" t="inlineStr"/>
-      <c r="D117" t="inlineStr"/>
-    </row>
-    <row r="118">
-      <c r="A118" s="2" t="n">
+    </row>
+    <row r="118" spans="1:2">
+      <c r="A118" s="2">
         <v>34578</v>
       </c>
-      <c r="B118" t="n">
+      <c r="B118">
         <v>130711000000</v>
       </c>
-      <c r="C118" t="inlineStr"/>
-      <c r="D118" t="inlineStr"/>
-    </row>
-    <row r="119">
-      <c r="A119" s="2" t="n">
+    </row>
+    <row r="119" spans="1:2">
+      <c r="A119" s="2">
         <v>34608</v>
       </c>
-      <c r="B119" t="n">
+      <c r="B119">
         <v>130777000000</v>
       </c>
-      <c r="C119" t="inlineStr"/>
-      <c r="D119" t="inlineStr"/>
-    </row>
-    <row r="120">
-      <c r="A120" s="2" t="n">
+    </row>
+    <row r="120" spans="1:2">
+      <c r="A120" s="2">
         <v>34639</v>
       </c>
-      <c r="B120" t="n">
+      <c r="B120">
         <v>131221000000</v>
       </c>
-      <c r="C120" t="inlineStr"/>
-      <c r="D120" t="inlineStr"/>
-    </row>
-    <row r="121">
-      <c r="A121" s="2" t="n">
+    </row>
+    <row r="121" spans="1:2">
+      <c r="A121" s="2">
         <v>34669</v>
       </c>
-      <c r="B121" t="n">
+      <c r="B121">
         <v>133806000000</v>
       </c>
-      <c r="C121" t="inlineStr"/>
-      <c r="D121" t="inlineStr"/>
-    </row>
-    <row r="122">
-      <c r="A122" s="2" t="n">
+    </row>
+    <row r="122" spans="1:2">
+      <c r="A122" s="2">
         <v>34700</v>
       </c>
-      <c r="B122" t="n">
+      <c r="B122">
         <v>134146000000</v>
       </c>
-      <c r="C122" t="inlineStr"/>
-      <c r="D122" t="inlineStr"/>
-    </row>
-    <row r="123">
-      <c r="A123" s="2" t="n">
+    </row>
+    <row r="123" spans="1:2">
+      <c r="A123" s="2">
         <v>34731</v>
       </c>
-      <c r="B123" t="n">
+      <c r="B123">
         <v>135906000000</v>
       </c>
-      <c r="C123" t="inlineStr"/>
-      <c r="D123" t="inlineStr"/>
-    </row>
-    <row r="124">
-      <c r="A124" s="2" t="n">
+    </row>
+    <row r="124" spans="1:2">
+      <c r="A124" s="2">
         <v>34759</v>
       </c>
-      <c r="B124" t="n">
+      <c r="B124">
         <v>134738000000</v>
       </c>
-      <c r="C124" t="inlineStr"/>
-      <c r="D124" t="inlineStr"/>
-    </row>
-    <row r="125">
-      <c r="A125" s="2" t="n">
+    </row>
+    <row r="125" spans="1:2">
+      <c r="A125" s="2">
         <v>34790</v>
       </c>
-      <c r="B125" t="n">
+      <c r="B125">
         <v>135225000000</v>
       </c>
-      <c r="C125" t="inlineStr"/>
-      <c r="D125" t="inlineStr"/>
-    </row>
-    <row r="126">
-      <c r="A126" s="2" t="n">
+    </row>
+    <row r="126" spans="1:2">
+      <c r="A126" s="2">
         <v>34820</v>
       </c>
-      <c r="B126" t="n">
+      <c r="B126">
         <v>136898000000</v>
       </c>
-      <c r="C126" t="inlineStr"/>
-      <c r="D126" t="inlineStr"/>
-    </row>
-    <row r="127">
-      <c r="A127" s="2" t="n">
+    </row>
+    <row r="127" spans="1:2">
+      <c r="A127" s="2">
         <v>34851</v>
       </c>
-      <c r="B127" t="n">
+      <c r="B127">
         <v>136616000000</v>
       </c>
-      <c r="C127" t="inlineStr"/>
-      <c r="D127" t="inlineStr"/>
-    </row>
-    <row r="128">
-      <c r="A128" s="2" t="n">
+    </row>
+    <row r="128" spans="1:2">
+      <c r="A128" s="2">
         <v>34881</v>
       </c>
-      <c r="B128" t="n">
+      <c r="B128">
         <v>139809000000</v>
       </c>
-      <c r="C128" t="inlineStr"/>
-      <c r="D128" t="inlineStr"/>
-    </row>
-    <row r="129">
-      <c r="A129" s="2" t="n">
+    </row>
+    <row r="129" spans="1:2">
+      <c r="A129" s="2">
         <v>34912</v>
       </c>
-      <c r="B129" t="n">
+      <c r="B129">
         <v>141583000000</v>
       </c>
-      <c r="C129" t="inlineStr"/>
-      <c r="D129" t="inlineStr"/>
-    </row>
-    <row r="130">
-      <c r="A130" s="2" t="n">
+    </row>
+    <row r="130" spans="1:2">
+      <c r="A130" s="2">
         <v>34943</v>
       </c>
-      <c r="B130" t="n">
+      <c r="B130">
         <v>140924000000</v>
       </c>
-      <c r="C130" t="inlineStr"/>
-      <c r="D130" t="inlineStr"/>
-    </row>
-    <row r="131">
-      <c r="A131" s="2" t="n">
+    </row>
+    <row r="131" spans="1:2">
+      <c r="A131" s="2">
         <v>34973</v>
       </c>
-      <c r="B131" t="n">
+      <c r="B131">
         <v>139999000000</v>
       </c>
-      <c r="C131" t="inlineStr"/>
-      <c r="D131" t="inlineStr"/>
-    </row>
-    <row r="132">
-      <c r="A132" s="2" t="n">
+    </row>
+    <row r="132" spans="1:2">
+      <c r="A132" s="2">
         <v>35004</v>
       </c>
-      <c r="B132" t="n">
+      <c r="B132">
         <v>139645000000</v>
       </c>
-      <c r="C132" t="inlineStr"/>
-      <c r="D132" t="inlineStr"/>
-    </row>
-    <row r="133">
-      <c r="A133" s="2" t="n">
+    </row>
+    <row r="133" spans="1:2">
+      <c r="A133" s="2">
         <v>35034</v>
       </c>
-      <c r="B133" t="n">
+      <c r="B133">
         <v>142391000000</v>
       </c>
-      <c r="C133" t="inlineStr"/>
-      <c r="D133" t="inlineStr"/>
-    </row>
-    <row r="134">
-      <c r="A134" s="2" t="n">
+    </row>
+    <row r="134" spans="1:2">
+      <c r="A134" s="2">
         <v>35065</v>
       </c>
-      <c r="B134" t="n">
+      <c r="B134">
         <v>141539000000</v>
       </c>
-      <c r="C134" t="inlineStr"/>
-      <c r="D134" t="inlineStr"/>
-    </row>
-    <row r="135">
-      <c r="A135" s="2" t="n">
+    </row>
+    <row r="135" spans="1:2">
+      <c r="A135" s="2">
         <v>35096</v>
       </c>
-      <c r="B135" t="n">
+      <c r="B135">
         <v>141952000000</v>
       </c>
-      <c r="C135" t="inlineStr"/>
-      <c r="D135" t="inlineStr"/>
-    </row>
-    <row r="136">
-      <c r="A136" s="2" t="n">
+    </row>
+    <row r="136" spans="1:2">
+      <c r="A136" s="2">
         <v>35125</v>
       </c>
-      <c r="B136" t="n">
+      <c r="B136">
         <v>141801000000</v>
       </c>
-      <c r="C136" t="inlineStr"/>
-      <c r="D136" t="inlineStr"/>
-    </row>
-    <row r="137">
-      <c r="A137" s="2" t="n">
+    </row>
+    <row r="137" spans="1:2">
+      <c r="A137" s="2">
         <v>35156</v>
       </c>
-      <c r="B137" t="n">
+      <c r="B137">
         <v>143139000000</v>
       </c>
-      <c r="C137" t="inlineStr"/>
-      <c r="D137" t="inlineStr"/>
-    </row>
-    <row r="138">
-      <c r="A138" s="2" t="n">
+    </row>
+    <row r="138" spans="1:2">
+      <c r="A138" s="2">
         <v>35186</v>
       </c>
-      <c r="B138" t="n">
+      <c r="B138">
         <v>142762000000</v>
       </c>
-      <c r="C138" t="inlineStr"/>
-      <c r="D138" t="inlineStr"/>
-    </row>
-    <row r="139">
-      <c r="A139" s="2" t="n">
+    </row>
+    <row r="139" spans="1:2">
+      <c r="A139" s="2">
         <v>35217</v>
       </c>
-      <c r="B139" t="n">
+      <c r="B139">
         <v>145319000000</v>
       </c>
-      <c r="C139" t="inlineStr"/>
-      <c r="D139" t="inlineStr"/>
-    </row>
-    <row r="140">
-      <c r="A140" s="2" t="n">
+    </row>
+    <row r="140" spans="1:2">
+      <c r="A140" s="2">
         <v>35247</v>
       </c>
-      <c r="B140" t="n">
+      <c r="B140">
         <v>148897000000</v>
       </c>
-      <c r="C140" t="inlineStr"/>
-      <c r="D140" t="inlineStr"/>
-    </row>
-    <row r="141">
-      <c r="A141" s="2" t="n">
+    </row>
+    <row r="141" spans="1:2">
+      <c r="A141" s="2">
         <v>35278</v>
       </c>
-      <c r="B141" t="n">
+      <c r="B141">
         <v>149813000000</v>
       </c>
-      <c r="C141" t="inlineStr"/>
-      <c r="D141" t="inlineStr"/>
-    </row>
-    <row r="142">
-      <c r="A142" s="2" t="n">
+    </row>
+    <row r="142" spans="1:2">
+      <c r="A142" s="2">
         <v>35309</v>
       </c>
-      <c r="B142" t="n">
+      <c r="B142">
         <v>149470000000</v>
       </c>
-      <c r="C142" t="inlineStr"/>
-      <c r="D142" t="inlineStr"/>
-    </row>
-    <row r="143">
-      <c r="A143" s="2" t="n">
+    </row>
+    <row r="143" spans="1:2">
+      <c r="A143" s="2">
         <v>35339</v>
       </c>
-      <c r="B143" t="n">
+      <c r="B143">
         <v>148428000000</v>
       </c>
-      <c r="C143" t="inlineStr"/>
-      <c r="D143" t="inlineStr"/>
-    </row>
-    <row r="144">
-      <c r="A144" s="2" t="n">
+    </row>
+    <row r="144" spans="1:2">
+      <c r="A144" s="2">
         <v>35370</v>
       </c>
-      <c r="B144" t="n">
+      <c r="B144">
         <v>149603000000</v>
       </c>
-      <c r="C144" t="inlineStr"/>
-      <c r="D144" t="inlineStr"/>
-    </row>
-    <row r="145">
-      <c r="A145" s="2" t="n">
+    </row>
+    <row r="145" spans="1:4">
+      <c r="A145" s="2">
         <v>35400</v>
       </c>
-      <c r="B145" t="n">
+      <c r="B145">
         <v>151448000000</v>
       </c>
-      <c r="C145" t="inlineStr"/>
-      <c r="D145" t="inlineStr"/>
-    </row>
-    <row r="146">
-      <c r="A146" s="2" t="n">
+    </row>
+    <row r="146" spans="1:4">
+      <c r="A146" s="2">
         <v>35431</v>
       </c>
-      <c r="B146" t="n">
+      <c r="B146">
         <v>151822000000</v>
       </c>
-      <c r="C146" t="inlineStr"/>
-      <c r="D146" t="inlineStr"/>
-    </row>
-    <row r="147">
-      <c r="A147" s="2" t="n">
+    </row>
+    <row r="147" spans="1:4">
+      <c r="A147" s="2">
         <v>35462</v>
       </c>
-      <c r="B147" t="n">
+      <c r="B147">
         <v>152459000000</v>
       </c>
-      <c r="C147" t="inlineStr"/>
-      <c r="D147" t="inlineStr"/>
-    </row>
-    <row r="148">
-      <c r="A148" s="2" t="n">
+    </row>
+    <row r="148" spans="1:4">
+      <c r="A148" s="2">
         <v>35490</v>
       </c>
-      <c r="B148" t="n">
+      <c r="B148">
         <v>152805000000</v>
       </c>
-      <c r="C148" t="inlineStr"/>
-      <c r="D148" t="inlineStr"/>
-    </row>
-    <row r="149">
-      <c r="A149" s="2" t="n">
+    </row>
+    <row r="149" spans="1:4">
+      <c r="A149" s="2">
         <v>35521</v>
       </c>
-      <c r="B149" t="n">
+      <c r="B149">
         <v>154234000000</v>
       </c>
-      <c r="C149" t="inlineStr"/>
-      <c r="D149" t="inlineStr"/>
-    </row>
-    <row r="150">
-      <c r="A150" s="2" t="n">
+    </row>
+    <row r="150" spans="1:4">
+      <c r="A150" s="2">
         <v>35551</v>
       </c>
-      <c r="B150" t="n">
+      <c r="B150">
         <v>152647000000</v>
       </c>
-      <c r="C150" t="inlineStr"/>
-      <c r="D150" t="inlineStr"/>
-    </row>
-    <row r="151">
-      <c r="A151" s="2" t="n">
+    </row>
+    <row r="151" spans="1:4">
+      <c r="A151" s="2">
         <v>35582</v>
       </c>
-      <c r="B151" t="n">
+      <c r="B151">
         <v>159095000000</v>
       </c>
-      <c r="C151" t="inlineStr"/>
-      <c r="D151" t="inlineStr"/>
-    </row>
-    <row r="152">
-      <c r="A152" s="2" t="n">
+    </row>
+    <row r="152" spans="1:4">
+      <c r="A152" s="2">
         <v>35612</v>
       </c>
-      <c r="B152" t="n">
+      <c r="B152">
         <v>159166000000</v>
       </c>
-      <c r="C152" t="inlineStr"/>
-      <c r="D152" t="inlineStr"/>
-    </row>
-    <row r="153">
-      <c r="A153" s="2" t="n">
+    </row>
+    <row r="153" spans="1:4">
+      <c r="A153" s="2">
         <v>35643</v>
       </c>
-      <c r="B153" t="n">
+      <c r="B153">
         <v>160199000000</v>
       </c>
-      <c r="C153" t="n">
+      <c r="C153">
         <v>0.1029866117404737</v>
       </c>
-      <c r="D153" t="n">
+      <c r="D153">
         <v>16498352214.21215</v>
       </c>
     </row>
-    <row r="154">
-      <c r="A154" s="2" t="n">
+    <row r="154" spans="1:4">
+      <c r="A154" s="2">
         <v>35674</v>
       </c>
-      <c r="B154" t="n">
+      <c r="B154">
         <v>159313000000</v>
       </c>
-      <c r="C154" t="n">
+      <c r="C154">
         <v>0.1038745195803469</v>
       </c>
-      <c r="D154" t="n">
+      <c r="D154">
         <v>16548561337.90381</v>
       </c>
     </row>
-    <row r="155">
-      <c r="A155" s="2" t="n">
+    <row r="155" spans="1:4">
+      <c r="A155" s="2">
         <v>35704</v>
       </c>
-      <c r="B155" t="n">
+      <c r="B155">
         <v>160113000000</v>
       </c>
-      <c r="C155" t="n">
+      <c r="C155">
         <v>0.1059973288673125</v>
       </c>
-      <c r="D155" t="n">
+      <c r="D155">
         <v>16971550316.93201</v>
       </c>
     </row>
-    <row r="156">
-      <c r="A156" s="2" t="n">
+    <row r="156" spans="1:4">
+      <c r="A156" s="2">
         <v>35735</v>
       </c>
-      <c r="B156" t="n">
+      <c r="B156">
         <v>160228000000</v>
       </c>
-      <c r="C156" t="n">
+      <c r="C156">
         <v>0.1044713748432929</v>
       </c>
-      <c r="D156" t="n">
+      <c r="D156">
         <v>16739239448.39114</v>
       </c>
     </row>
-    <row r="157">
-      <c r="A157" s="2" t="n">
+    <row r="157" spans="1:4">
+      <c r="A157" s="2">
         <v>35765</v>
       </c>
-      <c r="B157" t="n">
+      <c r="B157">
         <v>163184000000</v>
       </c>
-      <c r="C157" t="n">
+      <c r="C157">
         <v>0.1032204789430223</v>
       </c>
-      <c r="D157" t="n">
+      <c r="D157">
         <v>16843930635.83815</v>
       </c>
     </row>
-    <row r="158">
-      <c r="A158" s="2" t="n">
+    <row r="158" spans="1:4">
+      <c r="A158" s="2">
         <v>35796</v>
       </c>
-      <c r="B158" t="n">
+      <c r="B158">
         <v>161461000000</v>
       </c>
-      <c r="C158" t="n">
+      <c r="C158">
         <v>0.1017293997965412</v>
       </c>
-      <c r="D158" t="n">
+      <c r="D158">
         <v>16425330620.54934</v>
       </c>
     </row>
-    <row r="159">
-      <c r="A159" s="2" t="n">
+    <row r="159" spans="1:4">
+      <c r="A159" s="2">
         <v>35827</v>
       </c>
-      <c r="B159" t="n">
+      <c r="B159">
         <v>161374000000</v>
       </c>
-      <c r="C159" t="n">
+      <c r="C159">
         <v>0.1022306732912143</v>
       </c>
-      <c r="D159" t="n">
+      <c r="D159">
         <v>16497372671.69642</v>
       </c>
     </row>
-    <row r="160">
-      <c r="A160" s="2" t="n">
+    <row r="160" spans="1:4">
+      <c r="A160" s="2">
         <v>35855</v>
       </c>
-      <c r="B160" t="n">
+      <c r="B160">
         <v>162918000000</v>
       </c>
-      <c r="C160" t="n">
+      <c r="C160">
         <v>0.1011695196471207</v>
       </c>
-      <c r="D160" t="n">
+      <c r="D160">
         <v>16482335801.86961</v>
       </c>
     </row>
-    <row r="161">
-      <c r="A161" s="2" t="n">
+    <row r="161" spans="1:4">
+      <c r="A161" s="2">
         <v>35886</v>
       </c>
-      <c r="B161" t="n">
+      <c r="B161">
         <v>163812000000</v>
       </c>
-      <c r="C161" t="n">
+      <c r="C161">
         <v>0.1028912439551394</v>
       </c>
-      <c r="D161" t="n">
+      <c r="D161">
         <v>16854820454.7793</v>
       </c>
     </row>
-    <row r="162">
-      <c r="A162" s="2" t="n">
+    <row r="162" spans="1:4">
+      <c r="A162" s="2">
         <v>35916</v>
       </c>
-      <c r="B162" t="n">
+      <c r="B162">
         <v>164643000000</v>
       </c>
-      <c r="C162" t="n">
+      <c r="C162">
         <v>0.1030609089972174</v>
       </c>
-      <c r="D162" t="n">
+      <c r="D162">
         <v>16968257240.02886</v>
       </c>
     </row>
-    <row r="163">
-      <c r="A163" s="2" t="n">
+    <row r="163" spans="1:4">
+      <c r="A163" s="2">
         <v>35947</v>
       </c>
-      <c r="B163" t="n">
+      <c r="B163">
         <v>168271000000</v>
       </c>
-      <c r="C163" t="n">
+      <c r="C163">
         <v>0.1025209911729427</v>
       </c>
-      <c r="D163" t="n">
+      <c r="D163">
         <v>17251309705.66224</v>
       </c>
     </row>
-    <row r="164">
-      <c r="A164" s="2" t="n">
+    <row r="164" spans="1:4">
+      <c r="A164" s="2">
         <v>35977</v>
       </c>
-      <c r="B164" t="n">
+      <c r="B164">
         <v>173811000000</v>
       </c>
-      <c r="C164" t="n">
+      <c r="C164">
         <v>0.1033837501421526</v>
       </c>
-      <c r="D164" t="n">
+      <c r="D164">
         <v>17969232995.9577</v>
       </c>
     </row>
-    <row r="165">
-      <c r="A165" s="2" t="n">
+    <row r="165" spans="1:4">
+      <c r="A165" s="2">
         <v>36008</v>
       </c>
-      <c r="B165" t="n">
+      <c r="B165">
         <v>174922000000</v>
       </c>
-      <c r="C165" t="n">
+      <c r="C165">
         <v>0.1039447014188452</v>
       </c>
-      <c r="D165" t="n">
+      <c r="D165">
         <v>18182215061.58724</v>
       </c>
     </row>
-    <row r="166">
-      <c r="A166" s="2" t="n">
+    <row r="166" spans="1:4">
+      <c r="A166" s="2">
         <v>36039</v>
       </c>
-      <c r="B166" t="n">
+      <c r="B166">
         <v>176781000000</v>
       </c>
-      <c r="C166" t="n">
+      <c r="C166">
         <v>0.1081993464759473</v>
       </c>
-      <c r="D166" t="n">
+      <c r="D166">
         <v>19127588669.36444</v>
       </c>
     </row>
-    <row r="167">
-      <c r="A167" s="2" t="n">
+    <row r="167" spans="1:4">
+      <c r="A167" s="2">
         <v>36069</v>
       </c>
-      <c r="B167" t="n">
+      <c r="B167">
         <v>174993000000</v>
       </c>
-      <c r="C167" t="n">
+      <c r="C167">
         <v>0.1090857523098908</v>
       </c>
-      <c r="D167" t="n">
+      <c r="D167">
         <v>19089243053.96472</v>
       </c>
     </row>
-    <row r="168">
-      <c r="A168" s="2" t="n">
+    <row r="168" spans="1:4">
+      <c r="A168" s="2">
         <v>36100</v>
       </c>
-      <c r="B168" t="n">
+      <c r="B168">
         <v>174225000000</v>
       </c>
-      <c r="C168" t="n">
+      <c r="C168">
         <v>0.1063377286261166</v>
       </c>
-      <c r="D168" t="n">
+      <c r="D168">
         <v>18526690769.88515</v>
       </c>
     </row>
-    <row r="169">
-      <c r="A169" s="2" t="n">
+    <row r="169" spans="1:4">
+      <c r="A169" s="2">
         <v>36130</v>
       </c>
-      <c r="B169" t="n">
+      <c r="B169">
         <v>175995000000</v>
       </c>
-      <c r="C169" t="n">
+      <c r="C169">
         <v>0.1077354018530489</v>
       </c>
-      <c r="D169" t="n">
+      <c r="D169">
         <v>18960892049.12735</v>
       </c>
     </row>
-    <row r="170">
-      <c r="A170" s="2" t="n">
+    <row r="170" spans="1:4">
+      <c r="A170" s="2">
         <v>36161</v>
       </c>
-      <c r="B170" t="n">
+      <c r="B170">
         <v>178892000000</v>
       </c>
-      <c r="C170" t="n">
+      <c r="C170">
         <v>0.106951871657754</v>
       </c>
-      <c r="D170" t="n">
+      <c r="D170">
         <v>19132834224.59893</v>
       </c>
     </row>
-    <row r="171">
-      <c r="A171" s="2" t="n">
+    <row r="171" spans="1:4">
+      <c r="A171" s="2">
         <v>36192</v>
       </c>
-      <c r="B171" t="n">
+      <c r="B171">
         <v>178083000000</v>
       </c>
-      <c r="C171" t="n">
+      <c r="C171">
         <v>0.1034757504578802</v>
       </c>
-      <c r="D171" t="n">
+      <c r="D171">
         <v>18427272068.79068</v>
       </c>
     </row>
-    <row r="172">
-      <c r="A172" s="2" t="n">
+    <row r="172" spans="1:4">
+      <c r="A172" s="2">
         <v>36220</v>
       </c>
-      <c r="B172" t="n">
+      <c r="B172">
         <v>181361000000</v>
       </c>
-      <c r="C172" t="n">
+      <c r="C172">
         <v>0.1030715316429602</v>
       </c>
-      <c r="D172" t="n">
+      <c r="D172">
         <v>18693156050.29891</v>
       </c>
     </row>
-    <row r="173">
-      <c r="A173" s="2" t="n">
+    <row r="173" spans="1:4">
+      <c r="A173" s="2">
         <v>36251</v>
       </c>
-      <c r="B173" t="n">
+      <c r="B173">
         <v>179073000000</v>
       </c>
-      <c r="C173" t="n">
+      <c r="C173">
         <v>0.1022285831118381</v>
       </c>
-      <c r="D173" t="n">
+      <c r="D173">
         <v>18306379063.58618</v>
       </c>
     </row>
-    <row r="174">
-      <c r="A174" s="2" t="n">
+    <row r="174" spans="1:4">
+      <c r="A174" s="2">
         <v>36281</v>
       </c>
-      <c r="B174" t="n">
+      <c r="B174">
         <v>180201000000</v>
       </c>
-      <c r="C174" t="n">
+      <c r="C174">
         <v>0.1015331505736623</v>
       </c>
-      <c r="D174" t="n">
+      <c r="D174">
         <v>18296375266.52452</v>
       </c>
     </row>
-    <row r="175">
-      <c r="A175" s="2" t="n">
+    <row r="175" spans="1:4">
+      <c r="A175" s="2">
         <v>36312</v>
       </c>
-      <c r="B175" t="n">
+      <c r="B175">
         <v>184525000000</v>
       </c>
-      <c r="C175" t="n">
+      <c r="C175">
         <v>0.09998000399920015</v>
       </c>
-      <c r="D175" t="n">
+      <c r="D175">
         <v>18448810237.95241</v>
       </c>
     </row>
-    <row r="176">
-      <c r="A176" s="2" t="n">
+    <row r="176" spans="1:4">
+      <c r="A176" s="2">
         <v>36342</v>
       </c>
-      <c r="B176" t="n">
+      <c r="B176">
         <v>192468000000</v>
       </c>
-      <c r="C176" t="n">
+      <c r="C176">
         <v>0.102997219075085</v>
       </c>
-      <c r="D176" t="n">
+      <c r="D176">
         <v>19823668760.94345</v>
       </c>
     </row>
-    <row r="177">
-      <c r="A177" s="2" t="n">
+    <row r="177" spans="1:4">
+      <c r="A177" s="2">
         <v>36373</v>
       </c>
-      <c r="B177" t="n">
+      <c r="B177">
         <v>190370000000</v>
       </c>
-      <c r="C177" t="n">
+      <c r="C177">
         <v>0.1026167265264238</v>
       </c>
-      <c r="D177" t="n">
+      <c r="D177">
         <v>19535146228.8353</v>
       </c>
     </row>
-    <row r="178">
-      <c r="A178" s="2" t="n">
+    <row r="178" spans="1:4">
+      <c r="A178" s="2">
         <v>36404</v>
       </c>
-      <c r="B178" t="n">
+      <c r="B178">
         <v>189087000000</v>
       </c>
-      <c r="C178" t="n">
+      <c r="C178">
         <v>0.1028425685959933</v>
       </c>
-      <c r="D178" t="n">
+      <c r="D178">
         <v>19446192768.11058</v>
       </c>
     </row>
-    <row r="179">
-      <c r="A179" s="2" t="n">
+    <row r="179" spans="1:4">
+      <c r="A179" s="2">
         <v>36434</v>
       </c>
-      <c r="B179" t="n">
+      <c r="B179">
         <v>189042000000</v>
       </c>
-      <c r="C179" t="n">
+      <c r="C179">
         <v>0.101633246267519</v>
       </c>
-      <c r="D179" t="n">
+      <c r="D179">
         <v>19212952140.90433</v>
       </c>
     </row>
-    <row r="180">
-      <c r="A180" s="2" t="n">
+    <row r="180" spans="1:4">
+      <c r="A180" s="2">
         <v>36465</v>
       </c>
-      <c r="B180" t="n">
+      <c r="B180">
         <v>189123000000</v>
       </c>
-      <c r="C180" t="n">
+      <c r="C180">
         <v>0.09959167413604222</v>
       </c>
-      <c r="D180" t="n">
+      <c r="D180">
         <v>18835076187.63071</v>
       </c>
     </row>
-    <row r="181">
-      <c r="A181" s="2" t="n">
+    <row r="181" spans="1:4">
+      <c r="A181" s="2">
         <v>36495</v>
       </c>
-      <c r="B181" t="n">
+      <c r="B181">
         <v>195067000000</v>
       </c>
-      <c r="C181" t="n">
+      <c r="C181">
         <v>0.09943323058566172</v>
       </c>
-      <c r="D181" t="n">
+      <c r="D181">
         <v>19396141990.65327</v>
       </c>
     </row>
-    <row r="182">
-      <c r="A182" s="2" t="n">
+    <row r="182" spans="1:4">
+      <c r="A182" s="2">
         <v>36526</v>
       </c>
-      <c r="B182" t="n">
+      <c r="B182">
         <v>192396000000</v>
       </c>
-      <c r="C182" t="n">
+      <c r="C182">
         <v>0.09800078400627205</v>
       </c>
-      <c r="D182" t="n">
+      <c r="D182">
         <v>18854958839.67072</v>
       </c>
     </row>
-    <row r="183">
-      <c r="A183" s="2" t="n">
+    <row r="183" spans="1:4">
+      <c r="A183" s="2">
         <v>36557</v>
       </c>
-      <c r="B183" t="n">
+      <c r="B183">
         <v>194116000000</v>
       </c>
-      <c r="C183" t="n">
+      <c r="C183">
         <v>0.09722897423432182</v>
       </c>
-      <c r="D183" t="n">
+      <c r="D183">
         <v>18873699562.46962</v>
       </c>
     </row>
-    <row r="184">
-      <c r="A184" s="2" t="n">
+    <row r="184" spans="1:4">
+      <c r="A184" s="2">
         <v>36586</v>
       </c>
-      <c r="B184" t="n">
+      <c r="B184">
         <v>195625000000</v>
       </c>
-      <c r="C184" t="n">
+      <c r="C184">
         <v>0.09664637092877162</v>
       </c>
-      <c r="D184" t="n">
+      <c r="D184">
         <v>18906446312.94095</v>
       </c>
     </row>
-    <row r="185">
-      <c r="A185" s="2" t="n">
+    <row r="185" spans="1:4">
+      <c r="A185" s="2">
         <v>36617</v>
       </c>
-      <c r="B185" t="n">
+      <c r="B185">
         <v>195469000000</v>
       </c>
-      <c r="C185" t="n">
+      <c r="C185">
         <v>0.09417082587814295</v>
       </c>
-      <c r="D185" t="n">
+      <c r="D185">
         <v>18407477163.57472</v>
       </c>
     </row>
-    <row r="186">
-      <c r="A186" s="2" t="n">
+    <row r="186" spans="1:4">
+      <c r="A186" s="2">
         <v>36647</v>
       </c>
-      <c r="B186" t="n">
+      <c r="B186">
         <v>195335000000</v>
       </c>
-      <c r="C186" t="n">
+      <c r="C186">
         <v>0.09479571523367145</v>
       </c>
-      <c r="D186" t="n">
+      <c r="D186">
         <v>18516921035.16921</v>
       </c>
     </row>
-    <row r="187">
-      <c r="A187" s="2" t="n">
+    <row r="187" spans="1:4">
+      <c r="A187" s="2">
         <v>36678</v>
       </c>
-      <c r="B187" t="n">
+      <c r="B187">
         <v>200209000000</v>
       </c>
-      <c r="C187" t="n">
+      <c r="C187">
         <v>0.09640412609659695</v>
       </c>
-      <c r="D187" t="n">
+      <c r="D187">
         <v>19300973681.67358</v>
       </c>
     </row>
-    <row r="188">
-      <c r="A188" s="2" t="n">
+    <row r="188" spans="1:4">
+      <c r="A188" s="2">
         <v>36708</v>
       </c>
-      <c r="B188" t="n">
+      <c r="B188">
         <v>202612000000</v>
       </c>
-      <c r="C188" t="n">
+      <c r="C188">
         <v>0.09416195856873824</v>
       </c>
-      <c r="D188" t="n">
+      <c r="D188">
         <v>19078342749.52919</v>
       </c>
     </row>
-    <row r="189">
-      <c r="A189" s="2" t="n">
+    <row r="189" spans="1:4">
+      <c r="A189" s="2">
         <v>36739</v>
       </c>
-      <c r="B189" t="n">
+      <c r="B189">
         <v>205152000000</v>
       </c>
-      <c r="C189" t="n">
+      <c r="C189">
         <v>0.0927643784786642</v>
       </c>
-      <c r="D189" t="n">
+      <c r="D189">
         <v>19030797773.65492</v>
       </c>
     </row>
-    <row r="190">
-      <c r="A190" s="2" t="n">
+    <row r="190" spans="1:4">
+      <c r="A190" s="2">
         <v>36770</v>
       </c>
-      <c r="B190" t="n">
+      <c r="B190">
         <v>206559000000</v>
       </c>
-      <c r="C190" t="n">
+      <c r="C190">
         <v>0.09230201218386561</v>
       </c>
-      <c r="D190" t="n">
+      <c r="D190">
         <v>19065811334.6871</v>
       </c>
     </row>
-    <row r="191">
-      <c r="A191" s="2" t="n">
+    <row r="191" spans="1:4">
+      <c r="A191" s="2">
         <v>36800</v>
       </c>
-      <c r="B191" t="n">
+      <c r="B191">
         <v>203731000000</v>
       </c>
-      <c r="C191" t="n">
+      <c r="C191">
         <v>0.08980691513246521</v>
       </c>
-      <c r="D191" t="n">
+      <c r="D191">
         <v>18296452626.85227</v>
       </c>
     </row>
-    <row r="192">
-      <c r="A192" s="2" t="n">
+    <row r="192" spans="1:4">
+      <c r="A192" s="2">
         <v>36831</v>
       </c>
-      <c r="B192" t="n">
+      <c r="B192">
         <v>202437000000</v>
       </c>
-      <c r="C192" t="n">
+      <c r="C192">
         <v>0.09110787172011661</v>
       </c>
-      <c r="D192" t="n">
+      <c r="D192">
         <v>18443604227.40525</v>
       </c>
     </row>
-    <row r="193">
-      <c r="A193" s="2" t="n">
+    <row r="193" spans="1:4">
+      <c r="A193" s="2">
         <v>36861</v>
       </c>
-      <c r="B193" t="n">
+      <c r="B193">
         <v>208951000000</v>
       </c>
-      <c r="C193" t="n">
+      <c r="C193">
         <v>0.09456264775413713</v>
       </c>
-      <c r="D193" t="n">
+      <c r="D193">
         <v>19758959810.87471</v>
       </c>
     </row>
-    <row r="194">
-      <c r="A194" s="2" t="n">
+    <row r="194" spans="1:4">
+      <c r="A194" s="2">
         <v>36892</v>
       </c>
-      <c r="B194" t="n">
+      <c r="B194">
         <v>205278000000</v>
       </c>
-      <c r="C194" t="n">
+      <c r="C194">
         <v>0.09404683532399136</v>
       </c>
-      <c r="D194" t="n">
+      <c r="D194">
         <v>19305746261.6383</v>
       </c>
     </row>
-    <row r="195">
-      <c r="A195" s="2" t="n">
+    <row r="195" spans="1:4">
+      <c r="A195" s="2">
         <v>36923</v>
       </c>
-      <c r="B195" t="n">
+      <c r="B195">
         <v>210265000000</v>
       </c>
-      <c r="C195" t="n">
+      <c r="C195">
         <v>0.09373388948774429</v>
       </c>
-      <c r="D195" t="n">
+      <c r="D195">
         <v>19708956273.14055</v>
       </c>
     </row>
-    <row r="196">
-      <c r="A196" s="2" t="n">
+    <row r="196" spans="1:4">
+      <c r="A196" s="2">
         <v>36951</v>
       </c>
-      <c r="B196" t="n">
+      <c r="B196">
         <v>213236000000</v>
       </c>
-      <c r="C196" t="n">
+      <c r="C196">
         <v>0.09101168590046961</v>
       </c>
-      <c r="D196" t="n">
+      <c r="D196">
         <v>19406967854.67254</v>
       </c>
     </row>
-    <row r="197">
-      <c r="A197" s="2" t="n">
+    <row r="197" spans="1:4">
+      <c r="A197" s="2">
         <v>36982</v>
       </c>
-      <c r="B197" t="n">
+      <c r="B197">
         <v>212781000000</v>
       </c>
-      <c r="C197" t="n">
+      <c r="C197">
         <v>0.08680555555555555</v>
       </c>
-      <c r="D197" t="n">
+      <c r="D197">
         <v>18470572916.66666</v>
       </c>
     </row>
-    <row r="198">
-      <c r="A198" s="2" t="n">
+    <row r="198" spans="1:4">
+      <c r="A198" s="2">
         <v>37012</v>
       </c>
-      <c r="B198" t="n">
+      <c r="B198">
         <v>216013000000</v>
       </c>
-      <c r="C198" t="n">
+      <c r="C198">
         <v>0.08399126490844952</v>
       </c>
-      <c r="D198" t="n">
+      <c r="D198">
         <v>18143205106.66891</v>
       </c>
     </row>
-    <row r="199">
-      <c r="A199" s="2" t="n">
+    <row r="199" spans="1:4">
+      <c r="A199" s="2">
         <v>37043</v>
       </c>
-      <c r="B199" t="n">
+      <c r="B199">
         <v>221194000000</v>
       </c>
-      <c r="C199" t="n">
+      <c r="C199">
         <v>0.08408943752575239</v>
       </c>
-      <c r="D199" t="n">
+      <c r="D199">
         <v>18600079044.07127</v>
       </c>
     </row>
-    <row r="200">
-      <c r="A200" s="2" t="n">
+    <row r="200" spans="1:4">
+      <c r="A200" s="2">
         <v>37073</v>
       </c>
-      <c r="B200" t="n">
+      <c r="B200">
         <v>227160000000</v>
       </c>
-      <c r="C200" t="n">
+      <c r="C200">
         <v>0.08599487470546754</v>
       </c>
-      <c r="D200" t="n">
+      <c r="D200">
         <v>19534595738.09401</v>
       </c>
     </row>
-    <row r="201">
-      <c r="A201" s="2" t="n">
+    <row r="201" spans="1:4">
+      <c r="A201" s="2">
         <v>37104</v>
       </c>
-      <c r="B201" t="n">
+      <c r="B201">
         <v>230304000000</v>
       </c>
-      <c r="C201" t="n">
+      <c r="C201">
         <v>0.08854258898530193</v>
       </c>
-      <c r="D201" t="n">
+      <c r="D201">
         <v>20391712413.67097</v>
       </c>
     </row>
-    <row r="202">
-      <c r="A202" s="2" t="n">
+    <row r="202" spans="1:4">
+      <c r="A202" s="2">
         <v>37135</v>
       </c>
-      <c r="B202" t="n">
+      <c r="B202">
         <v>230508000000</v>
       </c>
-      <c r="C202" t="n">
+      <c r="C202">
         <v>0.08866427273130292</v>
       </c>
-      <c r="D202" t="n">
+      <c r="D202">
         <v>20437824178.74717</v>
       </c>
     </row>
-    <row r="203">
-      <c r="A203" s="2" t="n">
+    <row r="203" spans="1:4">
+      <c r="A203" s="2">
         <v>37165</v>
       </c>
-      <c r="B203" t="n">
+      <c r="B203">
         <v>231543000000</v>
       </c>
-      <c r="C203" t="n">
+      <c r="C203">
         <v>0.08795848359574281</v>
       </c>
-      <c r="D203" t="n">
+      <c r="D203">
         <v>20366171167.20908</v>
       </c>
     </row>
-    <row r="204">
-      <c r="A204" s="2" t="n">
+    <row r="204" spans="1:4">
+      <c r="A204" s="2">
         <v>37196</v>
       </c>
-      <c r="B204" t="n">
+      <c r="B204">
         <v>233523000000</v>
       </c>
-      <c r="C204" t="n">
+      <c r="C204">
         <v>0.08733624454148473</v>
       </c>
-      <c r="D204" t="n">
+      <c r="D204">
         <v>20395021834.06114</v>
       </c>
     </row>
-    <row r="205">
-      <c r="A205" s="2" t="n">
+    <row r="205" spans="1:4">
+      <c r="A205" s="2">
         <v>37226</v>
       </c>
-      <c r="B205" t="n">
+      <c r="B205">
         <v>255903000000</v>
       </c>
-      <c r="C205" t="n">
+      <c r="C205">
         <v>0.0862738331464067</v>
       </c>
-      <c r="D205" t="n">
+      <c r="D205">
         <v>22077732723.66491</v>
       </c>
     </row>
-    <row r="206">
-      <c r="A206" s="2" t="n">
+    <row r="206" spans="1:4">
+      <c r="A206" s="2">
         <v>37257</v>
       </c>
-      <c r="B206" t="n">
+      <c r="B206">
         <v>251220000000</v>
       </c>
-      <c r="C206" t="n">
+      <c r="C206">
         <v>0.08488243782361429</v>
       </c>
-      <c r="D206" t="n">
+      <c r="D206">
         <v>21324166030.04838</v>
       </c>
     </row>
-    <row r="207">
-      <c r="A207" s="2" t="n">
+    <row r="207" spans="1:4">
+      <c r="A207" s="2">
         <v>37288</v>
       </c>
-      <c r="B207" t="n">
+      <c r="B207">
         <v>254503000000</v>
       </c>
-      <c r="C207" t="n">
+      <c r="C207">
         <v>0.08538324268479068</v>
       </c>
-      <c r="D207" t="n">
+      <c r="D207">
         <v>21730291413.00728</v>
       </c>
     </row>
-    <row r="208">
-      <c r="A208" s="2" t="n">
+    <row r="208" spans="1:4">
+      <c r="A208" s="2">
         <v>37316</v>
       </c>
-      <c r="B208" t="n">
+      <c r="B208">
         <v>255041000000</v>
       </c>
-      <c r="C208" t="n">
+      <c r="C208">
         <v>0.08558786021790669</v>
       </c>
-      <c r="D208" t="n">
+      <c r="D208">
         <v>21828413457.83514</v>
       </c>
     </row>
-    <row r="209">
-      <c r="A209" s="2" t="n">
+    <row r="209" spans="1:4">
+      <c r="A209" s="2">
         <v>37347</v>
       </c>
-      <c r="B209" t="n">
+      <c r="B209">
         <v>255563000000</v>
       </c>
-      <c r="C209" t="n">
+      <c r="C209">
         <v>0.08778706369829342</v>
       </c>
-      <c r="D209" t="n">
+      <c r="D209">
         <v>22435125359.92696</v>
       </c>
     </row>
-    <row r="210">
-      <c r="A210" s="2" t="n">
+    <row r="210" spans="1:4">
+      <c r="A210" s="2">
         <v>37377</v>
       </c>
-      <c r="B210" t="n">
+      <c r="B210">
         <v>256609000000</v>
       </c>
-      <c r="C210" t="n">
+      <c r="C210">
         <v>0.09016238245079387</v>
       </c>
-      <c r="D210" t="n">
+      <c r="D210">
         <v>23136478798.31577</v>
       </c>
     </row>
-    <row r="211">
-      <c r="A211" s="2" t="n">
+    <row r="211" spans="1:4">
+      <c r="A211" s="2">
         <v>37408</v>
       </c>
-      <c r="B211" t="n">
+      <c r="B211">
         <v>263546000000</v>
       </c>
-      <c r="C211" t="n">
+      <c r="C211">
         <v>0.09433428296511519</v>
       </c>
-      <c r="D211" t="n">
+      <c r="D211">
         <v>24861422938.32425</v>
       </c>
     </row>
-    <row r="212">
-      <c r="A212" s="2" t="n">
+    <row r="212" spans="1:4">
+      <c r="A212" s="2">
         <v>37438</v>
       </c>
-      <c r="B212" t="n">
+      <c r="B212">
         <v>268198000000</v>
       </c>
-      <c r="C212" t="n">
+      <c r="C212">
         <v>0.09338463262485526</v>
       </c>
-      <c r="D212" t="n">
+      <c r="D212">
         <v>25045571700.72093</v>
       </c>
     </row>
-    <row r="213">
-      <c r="A213" s="2" t="n">
+    <row r="213" spans="1:4">
+      <c r="A213" s="2">
         <v>37469</v>
       </c>
-      <c r="B213" t="n">
+      <c r="B213">
         <v>272019000000</v>
       </c>
-      <c r="C213" t="n">
+      <c r="C213">
         <v>0.09373125374925016</v>
       </c>
-      <c r="D213" t="n">
+      <c r="D213">
         <v>25496681913.61728</v>
       </c>
     </row>
-    <row r="214">
-      <c r="A214" s="2" t="n">
+    <row r="214" spans="1:4">
+      <c r="A214" s="2">
         <v>37500</v>
       </c>
-      <c r="B214" t="n">
+      <c r="B214">
         <v>272225000000</v>
       </c>
-      <c r="C214" t="n">
+      <c r="C214">
         <v>0.09407514722760542</v>
       </c>
-      <c r="D214" t="n">
+      <c r="D214">
         <v>25609606954.03489</v>
       </c>
     </row>
-    <row r="215">
-      <c r="A215" s="2" t="n">
+    <row r="215" spans="1:4">
+      <c r="A215" s="2">
         <v>37530</v>
       </c>
-      <c r="B215" t="n">
+      <c r="B215">
         <v>271258000000</v>
       </c>
-      <c r="C215" t="n">
+      <c r="C215">
         <v>0.09445189564954568</v>
       </c>
-      <c r="D215" t="n">
+      <c r="D215">
         <v>25620832310.10446</v>
       </c>
     </row>
-    <row r="216">
-      <c r="A216" s="2" t="n">
+    <row r="216" spans="1:4">
+      <c r="A216" s="2">
         <v>37561</v>
       </c>
-      <c r="B216" t="n">
+      <c r="B216">
         <v>275508000000</v>
       </c>
-      <c r="C216" t="n">
+      <c r="C216">
         <v>0.09461991181424219</v>
       </c>
-      <c r="D216" t="n">
+      <c r="D216">
         <v>26068542664.11824</v>
       </c>
     </row>
-    <row r="217">
-      <c r="A217" s="2" t="n">
+    <row r="217" spans="1:4">
+      <c r="A217" s="2">
         <v>37591</v>
       </c>
-      <c r="B217" t="n">
+      <c r="B217">
         <v>287109000000</v>
       </c>
-      <c r="C217" t="n">
+      <c r="C217">
         <v>0.09866019455790367</v>
       </c>
-      <c r="D217" t="n">
+      <c r="D217">
         <v>28326229799.32516</v>
       </c>
     </row>
-    <row r="218">
-      <c r="A218" s="2" t="n">
+    <row r="218" spans="1:4">
+      <c r="A218" s="2">
         <v>37622</v>
       </c>
-      <c r="B218" t="n">
+      <c r="B218">
         <v>286480000000</v>
       </c>
-      <c r="C218" t="n">
+      <c r="C218">
         <v>0.1003623079316332</v>
       </c>
-      <c r="D218" t="n">
+      <c r="D218">
         <v>28751793976.25428</v>
       </c>
     </row>
-    <row r="219">
-      <c r="A219" s="2" t="n">
+    <row r="219" spans="1:4">
+      <c r="A219" s="2">
         <v>37653</v>
       </c>
-      <c r="B219" t="n">
+      <c r="B219">
         <v>291159000000</v>
       </c>
-      <c r="C219" t="n">
+      <c r="C219">
         <v>0.1007556675062972</v>
       </c>
-      <c r="D219" t="n">
+      <c r="D219">
         <v>29335919395.46599</v>
       </c>
     </row>
-    <row r="220">
-      <c r="A220" s="2" t="n">
+    <row r="220" spans="1:4">
+      <c r="A220" s="2">
         <v>37681</v>
       </c>
-      <c r="B220" t="n">
+      <c r="B220">
         <v>289957000000</v>
       </c>
-      <c r="C220" t="n">
+      <c r="C220">
         <v>0.1015135672882681</v>
       </c>
-      <c r="D220" t="n">
+      <c r="D220">
         <v>29434569430.20435</v>
       </c>
     </row>
-    <row r="221">
-      <c r="A221" s="2" t="n">
+    <row r="221" spans="1:4">
+      <c r="A221" s="2">
         <v>37712</v>
       </c>
-      <c r="B221" t="n">
+      <c r="B221">
         <v>287788000000</v>
       </c>
-      <c r="C221" t="n">
+      <c r="C221">
         <v>0.1041449697979588</v>
       </c>
-      <c r="D221" t="n">
+      <c r="D221">
         <v>29971672568.21495</v>
       </c>
     </row>
-    <row r="222">
-      <c r="A222" s="2" t="n">
+    <row r="222" spans="1:4">
+      <c r="A222" s="2">
         <v>37742</v>
       </c>
-      <c r="B222" t="n">
+      <c r="B222">
         <v>285983000000</v>
       </c>
-      <c r="C222" t="n">
+      <c r="C222">
         <v>0.1079097874177188</v>
       </c>
-      <c r="D222" t="n">
+      <c r="D222">
         <v>30860364735.08147</v>
       </c>
     </row>
-    <row r="223">
-      <c r="A223" s="2" t="n">
+    <row r="223" spans="1:4">
+      <c r="A223" s="2">
         <v>37773</v>
       </c>
-      <c r="B223" t="n">
+      <c r="B223">
         <v>291372000000</v>
       </c>
-      <c r="C223" t="n">
+      <c r="C223">
         <v>0.1065416577881952</v>
       </c>
-      <c r="D223" t="n">
+      <c r="D223">
         <v>31043255913.06201</v>
       </c>
     </row>
-    <row r="224">
-      <c r="A224" s="2" t="n">
+    <row r="224" spans="1:4">
+      <c r="A224" s="2">
         <v>37803</v>
       </c>
-      <c r="B224" t="n">
+      <c r="B224">
         <v>301023000000</v>
       </c>
-      <c r="C224" t="n">
+      <c r="C224">
         <v>0.1039371388184426</v>
       </c>
-      <c r="D224" t="n">
+      <c r="D224">
         <v>31287469338.54405</v>
       </c>
     </row>
-    <row r="225">
-      <c r="A225" s="2" t="n">
+    <row r="225" spans="1:4">
+      <c r="A225" s="2">
         <v>37834</v>
       </c>
-      <c r="B225" t="n">
+      <c r="B225">
         <v>303815000000</v>
       </c>
-      <c r="C225" t="n">
+      <c r="C225">
         <v>0.1021909744931328</v>
       </c>
-      <c r="D225" t="n">
+      <c r="D225">
         <v>31047150915.63113</v>
       </c>
     </row>
-    <row r="226">
-      <c r="A226" s="2" t="n">
+    <row r="226" spans="1:4">
+      <c r="A226" s="2">
         <v>37865</v>
       </c>
-      <c r="B226" t="n">
+      <c r="B226">
         <v>303847000000</v>
       </c>
-      <c r="C226" t="n">
+      <c r="C226">
         <v>0.107654214662504</v>
       </c>
-      <c r="D226" t="n">
+      <c r="D226">
         <v>32710410162.55787</v>
       </c>
     </row>
-    <row r="227">
-      <c r="A227" s="2" t="n">
+    <row r="227" spans="1:4">
+      <c r="A227" s="2">
         <v>37895</v>
       </c>
-      <c r="B227" t="n">
+      <c r="B227">
         <v>306349000000</v>
       </c>
-      <c r="C227" t="n">
+      <c r="C227">
         <v>0.1065371175317481</v>
       </c>
-      <c r="D227" t="n">
+      <c r="D227">
         <v>32637539418.73349</v>
       </c>
     </row>
-    <row r="228">
-      <c r="A228" s="2" t="n">
+    <row r="228" spans="1:4">
+      <c r="A228" s="2">
         <v>37926</v>
       </c>
-      <c r="B228" t="n">
+      <c r="B228">
         <v>306538000000</v>
       </c>
-      <c r="C228" t="n">
+      <c r="C228">
         <v>0.1095326242921454</v>
       </c>
-      <c r="D228" t="n">
+      <c r="D228">
         <v>33575911585.26567</v>
       </c>
     </row>
-    <row r="229">
-      <c r="A229" s="2" t="n">
+    <row r="229" spans="1:4">
+      <c r="A229" s="2">
         <v>37956</v>
       </c>
-      <c r="B229" t="n">
+      <c r="B229">
         <v>316143000000</v>
       </c>
-      <c r="C229" t="n">
+      <c r="C229">
         <v>0.1138096647167278</v>
       </c>
-      <c r="D229" t="n">
+      <c r="D229">
         <v>35980128832.54046</v>
       </c>
     </row>
-    <row r="230">
-      <c r="A230" s="2" t="n">
+    <row r="230" spans="1:4">
+      <c r="A230" s="2">
         <v>37987</v>
       </c>
-      <c r="B230" t="n">
+      <c r="B230">
         <v>317571000000</v>
       </c>
-      <c r="C230" t="n">
+      <c r="C230">
         <v>0.113245153107447</v>
       </c>
-      <c r="D230" t="n">
+      <c r="D230">
         <v>35963376517.48505</v>
       </c>
     </row>
-    <row r="231">
-      <c r="A231" s="2" t="n">
+    <row r="231" spans="1:4">
+      <c r="A231" s="2">
         <v>38018</v>
       </c>
-      <c r="B231" t="n">
+      <c r="B231">
         <v>319168000000</v>
       </c>
-      <c r="C231" t="n">
+      <c r="C231">
         <v>0.112555574314818</v>
       </c>
-      <c r="D231" t="n">
+      <c r="D231">
         <v>35924137542.91182</v>
       </c>
     </row>
-    <row r="232">
-      <c r="A232" s="2" t="n">
+    <row r="232" spans="1:4">
+      <c r="A232" s="2">
         <v>38047</v>
       </c>
-      <c r="B232" t="n">
+      <c r="B232">
         <v>320816000000</v>
       </c>
-      <c r="C232" t="n">
+      <c r="C232">
         <v>0.1120448179271709</v>
       </c>
-      <c r="D232" t="n">
+      <c r="D232">
         <v>35945770308.12325</v>
       </c>
     </row>
-    <row r="233">
-      <c r="A233" s="2" t="n">
+    <row r="233" spans="1:4">
+      <c r="A233" s="2">
         <v>38078</v>
       </c>
-      <c r="B233" t="n">
+      <c r="B233">
         <v>321936000000</v>
       </c>
-      <c r="C233" t="n">
+      <c r="C233">
         <v>0.109379272627837</v>
       </c>
-      <c r="D233" t="n">
+      <c r="D233">
         <v>35213125512.71534</v>
       </c>
     </row>
-    <row r="234">
-      <c r="A234" s="2" t="n">
+    <row r="234" spans="1:4">
+      <c r="A234" s="2">
         <v>38108</v>
       </c>
-      <c r="B234" t="n">
+      <c r="B234">
         <v>323096000000</v>
       </c>
-      <c r="C234" t="n">
+      <c r="C234">
         <v>0.1110494169905608</v>
       </c>
-      <c r="D234" t="n">
+      <c r="D234">
         <v>35879622431.98222</v>
       </c>
     </row>
-    <row r="235">
-      <c r="A235" s="2" t="n">
+    <row r="235" spans="1:4">
+      <c r="A235" s="2">
         <v>38139</v>
       </c>
-      <c r="B235" t="n">
+      <c r="B235">
         <v>328793000000</v>
       </c>
-      <c r="C235" t="n">
+      <c r="C235">
         <v>0.1110432513463994</v>
       </c>
-      <c r="D235" t="n">
+      <c r="D235">
         <v>36510243739.93671</v>
       </c>
     </row>
-    <row r="236">
-      <c r="A236" s="2" t="n">
+    <row r="236" spans="1:4">
+      <c r="A236" s="2">
         <v>38169</v>
       </c>
-      <c r="B236" t="n">
+      <c r="B236">
         <v>336435000000</v>
       </c>
-      <c r="C236" t="n">
+      <c r="C236">
         <v>0.1099565671559734</v>
       </c>
-      <c r="D236" t="n">
+      <c r="D236">
         <v>36993237671.11991</v>
       </c>
     </row>
-    <row r="237">
-      <c r="A237" s="2" t="n">
+    <row r="237" spans="1:4">
+      <c r="A237" s="2">
         <v>38200</v>
       </c>
-      <c r="B237" t="n">
+      <c r="B237">
         <v>336331000000</v>
       </c>
-      <c r="C237" t="n">
+      <c r="C237">
         <v>0.1108057796294655</v>
       </c>
-      <c r="D237" t="n">
+      <c r="D237">
         <v>37267418668.55775</v>
       </c>
     </row>
-    <row r="238">
-      <c r="A238" s="2" t="n">
+    <row r="238" spans="1:4">
+      <c r="A238" s="2">
         <v>38231</v>
       </c>
-      <c r="B238" t="n">
+      <c r="B238">
         <v>336466000000</v>
       </c>
-      <c r="C238" t="n">
+      <c r="C238">
         <v>0.1128095211235828</v>
       </c>
-      <c r="D238" t="n">
+      <c r="D238">
         <v>37956568334.36742</v>
       </c>
     </row>
-    <row r="239">
-      <c r="A239" s="2" t="n">
+    <row r="239" spans="1:4">
+      <c r="A239" s="2">
         <v>38261</v>
       </c>
-      <c r="B239" t="n">
+      <c r="B239">
         <v>336958000000</v>
       </c>
-      <c r="C239" t="n">
+      <c r="C239">
         <v>0.1150020125352194</v>
       </c>
-      <c r="D239" t="n">
+      <c r="D239">
         <v>38750848139.84245</v>
       </c>
     </row>
-    <row r="240">
-      <c r="A240" s="2" t="n">
+    <row r="240" spans="1:4">
+      <c r="A240" s="2">
         <v>38292</v>
       </c>
-      <c r="B240" t="n">
+      <c r="B240">
         <v>337951000000</v>
       </c>
-      <c r="C240" t="n">
+      <c r="C240">
         <v>0.1191440690082448</v>
       </c>
-      <c r="D240" t="n">
+      <c r="D240">
         <v>40264857265.40533</v>
       </c>
     </row>
-    <row r="241">
-      <c r="A241" s="2" t="n">
+    <row r="241" spans="1:4">
+      <c r="A241" s="2">
         <v>38322</v>
       </c>
-      <c r="B241" t="n">
+      <c r="B241">
         <v>345506000000</v>
       </c>
-      <c r="C241" t="n">
+      <c r="C241">
         <v>0.1214919207872676</v>
       </c>
-      <c r="D241" t="n">
+      <c r="D241">
         <v>41976187583.5257</v>
       </c>
     </row>
-    <row r="242">
-      <c r="A242" s="2" t="n">
+    <row r="242" spans="1:4">
+      <c r="A242" s="2">
         <v>38353</v>
       </c>
-      <c r="B242" t="n">
+      <c r="B242">
         <v>347156000000</v>
       </c>
-      <c r="C242" t="n">
+      <c r="C242">
         <v>0.1177273904546632</v>
       </c>
-      <c r="D242" t="n">
+      <c r="D242">
         <v>40869769960.67905</v>
       </c>
     </row>
-    <row r="243">
-      <c r="A243" s="2" t="n">
+    <row r="243" spans="1:4">
+      <c r="A243" s="2">
         <v>38384</v>
       </c>
-      <c r="B243" t="n">
+      <c r="B243">
         <v>346557000000</v>
       </c>
-      <c r="C243" t="n">
+      <c r="C243">
         <v>0.11718795776546</v>
       </c>
-      <c r="D243" t="n">
+      <c r="D243">
         <v>40612307079.32452</v>
       </c>
     </row>
-    <row r="244">
-      <c r="A244" s="2" t="n">
+    <row r="244" spans="1:4">
+      <c r="A244" s="2">
         <v>38412</v>
       </c>
-      <c r="B244" t="n">
+      <c r="B244">
         <v>353457000000</v>
       </c>
-      <c r="C244" t="n">
+      <c r="C244">
         <v>0.1170275014628438</v>
       </c>
-      <c r="D244" t="n">
+      <c r="D244">
         <v>41364189584.55237</v>
       </c>
     </row>
-    <row r="245">
-      <c r="A245" s="2" t="n">
+    <row r="245" spans="1:4">
+      <c r="A245" s="2">
         <v>38443</v>
       </c>
-      <c r="B245" t="n">
+      <c r="B245">
         <v>352484000000</v>
       </c>
-      <c r="C245" t="n">
+      <c r="C245">
         <v>0.1160631383472609</v>
       </c>
-      <c r="D245" t="n">
+      <c r="D245">
         <v>40910399257.19592</v>
       </c>
     </row>
-    <row r="246">
-      <c r="A246" s="2" t="n">
+    <row r="246" spans="1:4">
+      <c r="A246" s="2">
         <v>38473</v>
       </c>
-      <c r="B246" t="n">
+      <c r="B246">
         <v>349974000000</v>
       </c>
-      <c r="C246" t="n">
+      <c r="C246">
         <v>0.1118630795905811</v>
       </c>
-      <c r="D246" t="n">
+      <c r="D246">
         <v>39149169416.63403</v>
       </c>
     </row>
-    <row r="247">
-      <c r="A247" s="2" t="n">
+    <row r="247" spans="1:4">
+      <c r="A247" s="2">
         <v>38504</v>
       </c>
-      <c r="B247" t="n">
+      <c r="B247">
         <v>358579000000</v>
       </c>
-      <c r="C247" t="n">
+      <c r="C247">
         <v>0.1105583195135434</v>
       </c>
-      <c r="D247" t="n">
+      <c r="D247">
         <v>39643891652.84688</v>
       </c>
     </row>
-    <row r="248">
-      <c r="A248" s="2" t="n">
+    <row r="248" spans="1:4">
+      <c r="A248" s="2">
         <v>38534</v>
       </c>
-      <c r="B248" t="n">
+      <c r="B248">
         <v>366714000000</v>
       </c>
-      <c r="C248" t="n">
+      <c r="C248">
         <v>0.1106427235812837</v>
       </c>
-      <c r="D248" t="n">
+      <c r="D248">
         <v>40574235735.38686</v>
       </c>
     </row>
-    <row r="249">
-      <c r="A249" s="2" t="n">
+    <row r="249" spans="1:4">
+      <c r="A249" s="2">
         <v>38565</v>
       </c>
-      <c r="B249" t="n">
+      <c r="B249">
         <v>371935000000</v>
       </c>
-      <c r="C249" t="n">
+      <c r="C249">
         <v>0.112113907730254</v>
       </c>
-      <c r="D249" t="n">
+      <c r="D249">
         <v>41699086271.652</v>
       </c>
     </row>
-    <row r="250">
-      <c r="A250" s="2" t="n">
+    <row r="250" spans="1:4">
+      <c r="A250" s="2">
         <v>38596</v>
       </c>
-      <c r="B250" t="n">
+      <c r="B250">
         <v>377129000000</v>
       </c>
-      <c r="C250" t="n">
+      <c r="C250">
         <v>0.1099106426475276</v>
       </c>
-      <c r="D250" t="n">
+      <c r="D250">
         <v>41450490751.01942</v>
       </c>
     </row>
-    <row r="251">
-      <c r="A251" s="2" t="n">
+    <row r="251" spans="1:4">
+      <c r="A251" s="2">
         <v>38626</v>
       </c>
-      <c r="B251" t="n">
+      <c r="B251">
         <v>375296000000</v>
       </c>
-      <c r="C251" t="n">
+      <c r="C251">
         <v>0.1098357954857488</v>
       </c>
-      <c r="D251" t="n">
+      <c r="D251">
         <v>41220934702.61958</v>
       </c>
     </row>
-    <row r="252">
-      <c r="A252" s="2" t="n">
+    <row r="252" spans="1:4">
+      <c r="A252" s="2">
         <v>38657</v>
       </c>
-      <c r="B252" t="n">
+      <c r="B252">
         <v>377488000000</v>
       </c>
-      <c r="C252" t="n">
+      <c r="C252">
         <v>0.1080905799059612</v>
       </c>
-      <c r="D252" t="n">
+      <c r="D252">
         <v>40802896827.54148</v>
       </c>
     </row>
-    <row r="253">
-      <c r="A253" s="2" t="n">
+    <row r="253" spans="1:4">
+      <c r="A253" s="2">
         <v>38687</v>
       </c>
-      <c r="B253" t="n">
+      <c r="B253">
         <v>388329000000</v>
       </c>
-      <c r="C253" t="n">
+      <c r="C253">
         <v>0.1086130118388183</v>
       </c>
-      <c r="D253" t="n">
+      <c r="D253">
         <v>42177582274.35647</v>
       </c>
     </row>
-    <row r="254">
-      <c r="A254" s="2" t="n">
+    <row r="254" spans="1:4">
+      <c r="A254" s="2">
         <v>38718</v>
       </c>
-      <c r="B254" t="n">
+      <c r="B254">
         <v>388759000000</v>
       </c>
-      <c r="C254" t="n">
+      <c r="C254">
         <v>0.1111111111111111</v>
       </c>
-      <c r="D254" t="n">
+      <c r="D254">
         <v>43195444444.44444</v>
       </c>
     </row>
-    <row r="255">
-      <c r="A255" s="2" t="n">
+    <row r="255" spans="1:4">
+      <c r="A255" s="2">
         <v>38749</v>
       </c>
-      <c r="B255" t="n">
+      <c r="B255">
         <v>392863000000</v>
       </c>
-      <c r="C255" t="n">
+      <c r="C255">
         <v>0.1091881858382923</v>
       </c>
-      <c r="D255" t="n">
+      <c r="D255">
         <v>42895998252.98902</v>
       </c>
     </row>
-    <row r="256">
-      <c r="A256" s="2" t="n">
+    <row r="256" spans="1:4">
+      <c r="A256" s="2">
         <v>38777</v>
       </c>
-      <c r="B256" t="n">
+      <c r="B256">
         <v>398623000000</v>
       </c>
-      <c r="C256" t="n">
+      <c r="C256">
         <v>0.1106011170712824</v>
       </c>
-      <c r="D256" t="n">
+      <c r="D256">
         <v>44088149090.30582</v>
       </c>
     </row>
-    <row r="257">
-      <c r="A257" s="2" t="n">
+    <row r="257" spans="1:4">
+      <c r="A257" s="2">
         <v>38808</v>
       </c>
-      <c r="B257" t="n">
+      <c r="B257">
         <v>400533000000</v>
       </c>
-      <c r="C257" t="n">
+      <c r="C257">
         <v>0.1143445200388771</v>
       </c>
-      <c r="D257" t="n">
+      <c r="D257">
         <v>45798753644.73158</v>
       </c>
     </row>
-    <row r="258">
-      <c r="A258" s="2" t="n">
+    <row r="258" spans="1:4">
+      <c r="A258" s="2">
         <v>38838</v>
       </c>
-      <c r="B258" t="n">
+      <c r="B258">
         <v>402245000000</v>
       </c>
-      <c r="C258" t="n">
+      <c r="C258">
         <v>0.1163399453202257</v>
       </c>
-      <c r="D258" t="n">
+      <c r="D258">
         <v>46797161305.33419</v>
       </c>
     </row>
-    <row r="259">
-      <c r="A259" s="2" t="n">
+    <row r="259" spans="1:4">
+      <c r="A259" s="2">
         <v>38869</v>
       </c>
-      <c r="B259" t="n">
+      <c r="B259">
         <v>410419000000</v>
       </c>
-      <c r="C259" t="n">
+      <c r="C259">
         <v>0.1152538465971302</v>
       </c>
-      <c r="D259" t="n">
+      <c r="D259">
         <v>47302368466.54757</v>
       </c>
     </row>
-    <row r="260">
-      <c r="A260" s="2" t="n">
+    <row r="260" spans="1:4">
+      <c r="A260" s="2">
         <v>38899</v>
       </c>
-      <c r="B260" t="n">
+      <c r="B260">
         <v>420174000000</v>
       </c>
-      <c r="C260" t="n">
+      <c r="C260">
         <v>0.1152379086624336</v>
       </c>
-      <c r="D260" t="n">
+      <c r="D260">
         <v>48419973034.32938</v>
       </c>
     </row>
-    <row r="261">
-      <c r="A261" s="2" t="n">
+    <row r="261" spans="1:4">
+      <c r="A261" s="2">
         <v>38930</v>
       </c>
-      <c r="B261" t="n">
+      <c r="B261">
         <v>426131000000</v>
       </c>
-      <c r="C261" t="n">
+      <c r="C261">
         <v>0.1157742402315485</v>
       </c>
-      <c r="D261" t="n">
+      <c r="D261">
         <v>49334992764.10999</v>
       </c>
     </row>
-    <row r="262">
-      <c r="A262" s="2" t="n">
+    <row r="262" spans="1:4">
+      <c r="A262" s="2">
         <v>38961</v>
       </c>
-      <c r="B262" t="n">
+      <c r="B262">
         <v>425978000000</v>
       </c>
-      <c r="C262" t="n">
+      <c r="C262">
         <v>0.1148435256962389</v>
       </c>
-      <c r="D262" t="n">
+      <c r="D262">
         <v>48920815389.03244</v>
       </c>
     </row>
-    <row r="263">
-      <c r="A263" s="2" t="n">
+    <row r="263" spans="1:4">
+      <c r="A263" s="2">
         <v>38991</v>
       </c>
-      <c r="B263" t="n">
+      <c r="B263">
         <v>426423000000</v>
       </c>
-      <c r="C263" t="n">
+      <c r="C263">
         <v>0.1152206475400392</v>
       </c>
-      <c r="D263" t="n">
+      <c r="D263">
         <v>49132734185.96613</v>
       </c>
     </row>
-    <row r="264">
-      <c r="A264" s="2" t="n">
+    <row r="264" spans="1:4">
+      <c r="A264" s="2">
         <v>39022</v>
       </c>
-      <c r="B264" t="n">
+      <c r="B264">
         <v>432534000000</v>
       </c>
-      <c r="C264" t="n">
+      <c r="C264">
         <v>0.11883541295306</v>
       </c>
-      <c r="D264" t="n">
+      <c r="D264">
         <v>51400356506.23886</v>
       </c>
     </row>
-    <row r="265">
-      <c r="A265" s="2" t="n">
+    <row r="265" spans="1:4">
+      <c r="A265" s="2">
         <v>39052</v>
       </c>
-      <c r="B265" t="n">
+      <c r="B265">
         <v>450659000000</v>
       </c>
-      <c r="C265" t="n">
+      <c r="C265">
         <v>0.1187648456057007</v>
       </c>
-      <c r="D265" t="n">
+      <c r="D265">
         <v>53522446555.81948</v>
       </c>
     </row>
-    <row r="266">
-      <c r="A266" s="2" t="n">
+    <row r="266" spans="1:4">
+      <c r="A266" s="2">
         <v>39083</v>
       </c>
-      <c r="B266" t="n">
+      <c r="B266">
         <v>452812000000</v>
       </c>
-      <c r="C266" t="n">
+      <c r="C266">
         <v>0.1172195522213105</v>
       </c>
-      <c r="D266" t="n">
+      <c r="D266">
         <v>53078419880.43605</v>
       </c>
     </row>
-    <row r="267">
-      <c r="A267" s="2" t="n">
+    <row r="267" spans="1:4">
+      <c r="A267" s="2">
         <v>39114</v>
       </c>
-      <c r="B267" t="n">
+      <c r="B267">
         <v>455605000000</v>
       </c>
-      <c r="C267" t="n">
+      <c r="C267">
         <v>0.1187620246549963</v>
       </c>
-      <c r="D267" t="n">
+      <c r="D267">
         <v>54108572242.93961</v>
       </c>
     </row>
-    <row r="268">
-      <c r="A268" s="2" t="n">
+    <row r="268" spans="1:4">
+      <c r="A268" s="2">
         <v>39142</v>
       </c>
-      <c r="B268" t="n">
+      <c r="B268">
         <v>462326000000</v>
       </c>
-      <c r="C268" t="n">
+      <c r="C268">
         <v>0.1196888090963495</v>
       </c>
-      <c r="D268" t="n">
+      <c r="D268">
         <v>55335248354.27888</v>
       </c>
     </row>
-    <row r="269">
-      <c r="A269" s="2" t="n">
+    <row r="269" spans="1:4">
+      <c r="A269" s="2">
         <v>39173</v>
       </c>
-      <c r="B269" t="n">
+      <c r="B269">
         <v>467714000000</v>
       </c>
-      <c r="C269" t="n">
+      <c r="C269">
         <v>0.1218397806883948</v>
       </c>
-      <c r="D269" t="n">
+      <c r="D269">
         <v>56986171184.89187</v>
       </c>
     </row>
-    <row r="270">
-      <c r="A270" s="2" t="n">
+    <row r="270" spans="1:4">
+      <c r="A270" s="2">
         <v>39203</v>
       </c>
-      <c r="B270" t="n">
+      <c r="B270">
         <v>472502000000</v>
       </c>
-      <c r="C270" t="n">
+      <c r="C270">
         <v>0.1204238921001927</v>
       </c>
-      <c r="D270" t="n">
+      <c r="D270">
         <v>56900529865.12524</v>
       </c>
     </row>
-    <row r="271">
-      <c r="A271" s="2" t="n">
+    <row r="271" spans="1:4">
+      <c r="A271" s="2">
         <v>39234</v>
       </c>
-      <c r="B271" t="n">
+      <c r="B271">
         <v>485628000000</v>
       </c>
-      <c r="C271" t="n">
+      <c r="C271">
         <v>0.121056581846355</v>
       </c>
-      <c r="D271" t="n">
+      <c r="D271">
         <v>58788465728.88168</v>
       </c>
     </row>
-    <row r="272">
-      <c r="A272" s="2" t="n">
+    <row r="272" spans="1:4">
+      <c r="A272" s="2">
         <v>39264</v>
       </c>
-      <c r="B272" t="n">
+      <c r="B272">
         <v>503370000000</v>
       </c>
-      <c r="C272" t="n">
+      <c r="C272">
         <v>0.1220837250186178</v>
       </c>
-      <c r="D272" t="n">
+      <c r="D272">
         <v>61453284662.62162</v>
       </c>
     </row>
-    <row r="273">
-      <c r="A273" s="2" t="n">
+    <row r="273" spans="1:4">
+      <c r="A273" s="2">
         <v>39295</v>
       </c>
-      <c r="B273" t="n">
+      <c r="B273">
         <v>502008000000</v>
       </c>
-      <c r="C273" t="n">
+      <c r="C273">
         <v>0.1217819129502886</v>
       </c>
-      <c r="D273" t="n">
+      <c r="D273">
         <v>61135494556.3485</v>
       </c>
     </row>
-    <row r="274">
-      <c r="A274" s="2" t="n">
+    <row r="274" spans="1:4">
+      <c r="A274" s="2">
         <v>39326</v>
       </c>
-      <c r="B274" t="n">
+      <c r="B274">
         <v>504108000000</v>
       </c>
-      <c r="C274" t="n">
+      <c r="C274">
         <v>0.1264782141276165</v>
       </c>
-      <c r="D274" t="n">
+      <c r="D274">
         <v>63758679567.4445</v>
       </c>
     </row>
-    <row r="275">
-      <c r="A275" s="2" t="n">
+    <row r="275" spans="1:4">
+      <c r="A275" s="2">
         <v>39356</v>
       </c>
-      <c r="B275" t="n">
+      <c r="B275">
         <v>508758000000</v>
       </c>
-      <c r="C275" t="n">
+      <c r="C275">
         <v>0.1280540900476361</v>
       </c>
-      <c r="D275" t="n">
+      <c r="D275">
         <v>65148542744.45526</v>
       </c>
     </row>
-    <row r="276">
-      <c r="A276" s="2" t="n">
+    <row r="276" spans="1:4">
+      <c r="A276" s="2">
         <v>39387</v>
       </c>
-      <c r="B276" t="n">
+      <c r="B276">
         <v>511404000000</v>
       </c>
-      <c r="C276" t="n">
+      <c r="C276">
         <v>0.1291489086917215</v>
       </c>
-      <c r="D276" t="n">
+      <c r="D276">
         <v>66047268500.58117</v>
       </c>
     </row>
-    <row r="277">
-      <c r="A277" s="2" t="n">
+    <row r="277" spans="1:4">
+      <c r="A277" s="2">
         <v>39417</v>
       </c>
-      <c r="B277" t="n">
+      <c r="B277">
         <v>529596000000</v>
       </c>
-      <c r="C277" t="n">
+      <c r="C277">
         <v>0.1288344348677515</v>
       </c>
-      <c r="D277" t="n">
+      <c r="D277">
         <v>68230201368.22169</v>
       </c>
     </row>
-    <row r="278">
-      <c r="A278" s="2" t="n">
+    <row r="278" spans="1:4">
+      <c r="A278" s="2">
         <v>39448</v>
       </c>
-      <c r="B278" t="n">
+      <c r="B278">
         <v>524683000000</v>
       </c>
-      <c r="C278" t="n">
+      <c r="C278">
         <v>0.1312732189506019</v>
       </c>
-      <c r="D278" t="n">
+      <c r="D278">
         <v>68876826338.65865</v>
       </c>
     </row>
-    <row r="279">
-      <c r="A279" s="2" t="n">
+    <row r="279" spans="1:4">
+      <c r="A279" s="2">
         <v>39479</v>
       </c>
-      <c r="B279" t="n">
+      <c r="B279">
         <v>524944000000</v>
       </c>
-      <c r="C279" t="n">
+      <c r="C279">
         <v>0.1332320769548477</v>
       </c>
-      <c r="D279" t="n">
+      <c r="D279">
         <v>69939379404.98555</v>
       </c>
     </row>
-    <row r="280">
-      <c r="A280" s="2" t="n">
+    <row r="280" spans="1:4">
+      <c r="A280" s="2">
         <v>39508</v>
       </c>
-      <c r="B280" t="n">
+      <c r="B280">
         <v>534960000000</v>
       </c>
-      <c r="C280" t="n">
+      <c r="C280">
         <v>0.1380071763731714</v>
       </c>
-      <c r="D280" t="n">
+      <c r="D280">
         <v>73828319072.59177</v>
       </c>
     </row>
-    <row r="281">
-      <c r="A281" s="2" t="n">
+    <row r="281" spans="1:4">
+      <c r="A281" s="2">
         <v>39539</v>
       </c>
-      <c r="B281" t="n">
+      <c r="B281">
         <v>532802000000</v>
       </c>
-      <c r="C281" t="n">
+      <c r="C281">
         <v>0.1363456635261716</v>
       </c>
-      <c r="D281" t="n">
+      <c r="D281">
         <v>72645242218.07126</v>
       </c>
     </row>
-    <row r="282">
-      <c r="A282" s="2" t="n">
+    <row r="282" spans="1:4">
+      <c r="A282" s="2">
         <v>39569</v>
       </c>
-      <c r="B282" t="n">
+      <c r="B282">
         <v>533524000000</v>
       </c>
-      <c r="C282" t="n">
+      <c r="C282">
         <v>0.1363586778662594</v>
       </c>
-      <c r="D282" t="n">
+      <c r="D282">
         <v>72750627249.91818</v>
       </c>
     </row>
-    <row r="283">
-      <c r="A283" s="2" t="n">
+    <row r="283" spans="1:4">
+      <c r="A283" s="2">
         <v>39600</v>
       </c>
-      <c r="B283" t="n">
+      <c r="B283">
         <v>549025000000</v>
       </c>
-      <c r="C283" t="n">
+      <c r="C283">
         <v>0.1379196204452045</v>
       </c>
-      <c r="D283" t="n">
+      <c r="D283">
         <v>75721319614.92842</v>
       </c>
     </row>
-    <row r="284">
-      <c r="A284" s="2" t="n">
+    <row r="284" spans="1:4">
+      <c r="A284" s="2">
         <v>39630</v>
       </c>
-      <c r="B284" t="n">
+      <c r="B284">
         <v>547682000000</v>
       </c>
-      <c r="C284" t="n">
+      <c r="C284">
         <v>0.1366867140513942</v>
       </c>
-      <c r="D284" t="n">
+      <c r="D284">
         <v>74860852925.09569</v>
       </c>
     </row>
-    <row r="285">
-      <c r="A285" s="2" t="n">
+    <row r="285" spans="1:4">
+      <c r="A285" s="2">
         <v>39661</v>
       </c>
-      <c r="B285" t="n">
+      <c r="B285">
         <v>551652000000</v>
       </c>
-      <c r="C285" t="n">
+      <c r="C285">
         <v>0.1294146575041089</v>
       </c>
-      <c r="D285" t="n">
+      <c r="D285">
         <v>71391854641.4567</v>
       </c>
     </row>
-    <row r="286">
-      <c r="A286" s="2" t="n">
+    <row r="286" spans="1:4">
+      <c r="A286" s="2">
         <v>39692</v>
       </c>
-      <c r="B286" t="n">
+      <c r="B286">
         <v>551004000000</v>
       </c>
-      <c r="C286" t="n">
+      <c r="C286">
         <v>0.1254075746175069</v>
       </c>
-      <c r="D286" t="n">
+      <c r="D286">
         <v>69100075244.54477</v>
       </c>
     </row>
-    <row r="287">
-      <c r="A287" s="2" t="n">
+    <row r="287" spans="1:4">
+      <c r="A287" s="2">
         <v>39722</v>
       </c>
-      <c r="B287" t="n">
+      <c r="B287">
         <v>549691000000</v>
       </c>
-      <c r="C287" t="n">
+      <c r="C287">
         <v>0.1151410477835348</v>
       </c>
-      <c r="D287" t="n">
+      <c r="D287">
         <v>63291997697.17904</v>
       </c>
     </row>
-    <row r="288">
-      <c r="A288" s="2" t="n">
+    <row r="288" spans="1:4">
+      <c r="A288" s="2">
         <v>39753</v>
       </c>
-      <c r="B288" t="n">
+      <c r="B288">
         <v>552926000000</v>
       </c>
-      <c r="C288" t="n">
+      <c r="C288">
         <v>0.1149055476398401</v>
       </c>
-      <c r="D288" t="n">
+      <c r="D288">
         <v>63534264834.3062</v>
       </c>
     </row>
-    <row r="289">
-      <c r="A289" s="2" t="n">
+    <row r="289" spans="1:4">
+      <c r="A289" s="2">
         <v>39783</v>
       </c>
-      <c r="B289" t="n">
+      <c r="B289">
         <v>568746000000</v>
       </c>
-      <c r="C289" t="n">
+      <c r="C289">
         <v>0.1243672814555947</v>
       </c>
-      <c r="D289" t="n">
+      <c r="D289">
         <v>70733393858.74365</v>
       </c>
     </row>
-    <row r="290">
-      <c r="A290" s="2" t="n">
+    <row r="290" spans="1:4">
+      <c r="A290" s="2">
         <v>39814</v>
       </c>
-      <c r="B290" t="n">
+      <c r="B290">
         <v>550255000000</v>
       </c>
-      <c r="C290" t="n">
+      <c r="C290">
         <v>0.1160065891742651</v>
       </c>
-      <c r="D290" t="n">
+      <c r="D290">
         <v>63833205726.08524</v>
       </c>
     </row>
-    <row r="291">
-      <c r="A291" s="2" t="n">
+    <row r="291" spans="1:4">
+      <c r="A291" s="2">
         <v>39845</v>
       </c>
-      <c r="B291" t="n">
+      <c r="B291">
         <v>555141000000</v>
       </c>
-      <c r="C291" t="n">
+      <c r="C291">
         <v>0.1150483202945237</v>
       </c>
-      <c r="D291" t="n">
+      <c r="D291">
         <v>63868039576.62218</v>
       </c>
     </row>
-    <row r="292">
-      <c r="A292" s="2" t="n">
+    <row r="292" spans="1:4">
+      <c r="A292" s="2">
         <v>39873</v>
       </c>
-      <c r="B292" t="n">
+      <c r="B292">
         <v>559134000000</v>
       </c>
-      <c r="C292" t="n">
+      <c r="C292">
         <v>0.1188452990741951</v>
       </c>
-      <c r="D292" t="n">
+      <c r="D292">
         <v>66450447452.55101</v>
       </c>
     </row>
-    <row r="293">
-      <c r="A293" s="2" t="n">
+    <row r="293" spans="1:4">
+      <c r="A293" s="2">
         <v>39904</v>
       </c>
-      <c r="B293" t="n">
+      <c r="B293">
         <v>555185000000</v>
       </c>
-      <c r="C293" t="n">
+      <c r="C293">
         <v>0.1191185229303157</v>
       </c>
-      <c r="D293" t="n">
+      <c r="D293">
         <v>66132817153.06731</v>
       </c>
     </row>
-    <row r="294">
-      <c r="A294" s="2" t="n">
+    <row r="294" spans="1:4">
+      <c r="A294" s="2">
         <v>39934</v>
       </c>
-      <c r="B294" t="n">
+      <c r="B294">
         <v>561892000000</v>
       </c>
-      <c r="C294" t="n">
+      <c r="C294">
         <v>0.1256612925520552</v>
       </c>
-      <c r="D294" t="n">
+      <c r="D294">
         <v>70608074994.65939</v>
       </c>
     </row>
-    <row r="295">
-      <c r="A295" s="2" t="n">
+    <row r="295" spans="1:4">
+      <c r="A295" s="2">
         <v>39965</v>
       </c>
-      <c r="B295" t="n">
+      <c r="B295">
         <v>572633000000</v>
       </c>
-      <c r="C295" t="n">
+      <c r="C295">
         <v>0.124470998257406</v>
       </c>
-      <c r="D295" t="n">
+      <c r="D295">
         <v>71276201145.13318</v>
       </c>
     </row>
-    <row r="296">
-      <c r="A296" s="2" t="n">
+    <row r="296" spans="1:4">
+      <c r="A296" s="2">
         <v>39995</v>
       </c>
-      <c r="B296" t="n">
+      <c r="B296">
         <v>581455000000</v>
       </c>
-      <c r="C296" t="n">
+      <c r="C296">
         <v>0.1265230208636461</v>
       </c>
-      <c r="D296" t="n">
+      <c r="D296">
         <v>73567443096.27136</v>
       </c>
     </row>
-    <row r="297">
-      <c r="A297" s="2" t="n">
+    <row r="297" spans="1:4">
+      <c r="A297" s="2">
         <v>40026</v>
       </c>
-      <c r="B297" t="n">
+      <c r="B297">
         <v>583646000000</v>
       </c>
-      <c r="C297" t="n">
+      <c r="C297">
         <v>0.127053502229789</v>
       </c>
-      <c r="D297" t="n">
+      <c r="D297">
         <v>74154268362.40739</v>
       </c>
     </row>
-    <row r="298">
-      <c r="A298" s="2" t="n">
+    <row r="298" spans="1:4">
+      <c r="A298" s="2">
         <v>40057</v>
       </c>
-      <c r="B298" t="n">
+      <c r="B298">
         <v>584132000000</v>
       </c>
-      <c r="C298" t="n">
+      <c r="C298">
         <v>0.129362759048925</v>
       </c>
-      <c r="D298" t="n">
+      <c r="D298">
         <v>75564927168.76666</v>
       </c>
     </row>
-    <row r="299">
-      <c r="A299" s="2" t="n">
+    <row r="299" spans="1:4">
+      <c r="A299" s="2">
         <v>40087</v>
       </c>
-      <c r="B299" t="n">
+      <c r="B299">
         <v>585355000000</v>
       </c>
-      <c r="C299" t="n">
+      <c r="C299">
         <v>0.1301151519094398</v>
       </c>
-      <c r="D299" t="n">
+      <c r="D299">
         <v>76163554745.95016</v>
       </c>
     </row>
-    <row r="300">
-      <c r="A300" s="2" t="n">
+    <row r="300" spans="1:4">
+      <c r="A300" s="2">
         <v>40118</v>
       </c>
-      <c r="B300" t="n">
+      <c r="B300">
         <v>594114000000</v>
       </c>
-      <c r="C300" t="n">
+      <c r="C300">
         <v>0.1318269902579854</v>
       </c>
-      <c r="D300" t="n">
+      <c r="D300">
         <v>78320260490.13275</v>
       </c>
     </row>
-    <row r="301">
-      <c r="A301" s="2" t="n">
+    <row r="301" spans="1:4">
+      <c r="A301" s="2">
         <v>40148</v>
       </c>
-      <c r="B301" t="n">
+      <c r="B301">
         <v>612715000000</v>
       </c>
-      <c r="C301" t="n">
+      <c r="C301">
         <v>0.1271100264388855</v>
       </c>
-      <c r="D301" t="n">
+      <c r="D301">
         <v>77882219849.50172</v>
       </c>
     </row>
-    <row r="302">
-      <c r="A302" s="2" t="n">
+    <row r="302" spans="1:4">
+      <c r="A302" s="2">
         <v>40179</v>
       </c>
-      <c r="B302" t="n">
+      <c r="B302">
         <v>610550000000</v>
       </c>
-      <c r="C302" t="n">
+      <c r="C302">
         <v>0.1233197681588359</v>
       </c>
-      <c r="D302" t="n">
+      <c r="D302">
         <v>75292884449.37723</v>
       </c>
     </row>
-    <row r="303">
-      <c r="A303" s="2" t="n">
+    <row r="303" spans="1:4">
+      <c r="A303" s="2">
         <v>40210</v>
       </c>
-      <c r="B303" t="n">
+      <c r="B303">
         <v>607246000000</v>
       </c>
-      <c r="C303" t="n">
+      <c r="C303">
         <v>0.1214432313615001</v>
       </c>
-      <c r="D303" t="n">
+      <c r="D303">
         <v>73745916471.34547</v>
       </c>
     </row>
-    <row r="304">
-      <c r="A304" s="2" t="n">
+    <row r="304" spans="1:4">
+      <c r="A304" s="2">
         <v>40238</v>
       </c>
-      <c r="B304" t="n">
+      <c r="B304">
         <v>608011000000</v>
       </c>
-      <c r="C304" t="n">
+      <c r="C304">
         <v>0.1212121212121212</v>
       </c>
-      <c r="D304" t="n">
+      <c r="D304">
         <v>73698303030.30304</v>
       </c>
     </row>
-    <row r="305">
-      <c r="A305" s="2" t="n">
+    <row r="305" spans="1:4">
+      <c r="A305" s="2">
         <v>40269</v>
       </c>
-      <c r="B305" t="n">
+      <c r="B305">
         <v>607105000000</v>
       </c>
-      <c r="C305" t="n">
+      <c r="C305">
         <v>0.1197604790419162</v>
       </c>
-      <c r="D305" t="n">
+      <c r="D305">
         <v>72707185628.74251</v>
       </c>
     </row>
-    <row r="306">
-      <c r="A306" s="2" t="n">
+    <row r="306" spans="1:4">
+      <c r="A306" s="2">
         <v>40299</v>
       </c>
-      <c r="B306" t="n">
+      <c r="B306">
         <v>613038000000</v>
       </c>
-      <c r="C306" t="n">
+      <c r="C306">
         <v>0.1123595505617977</v>
       </c>
-      <c r="D306" t="n">
+      <c r="D306">
         <v>68880674157.30338</v>
       </c>
     </row>
-    <row r="307">
-      <c r="A307" s="2" t="n">
+    <row r="307" spans="1:4">
+      <c r="A307" s="2">
         <v>40330</v>
       </c>
-      <c r="B307" t="n">
+      <c r="B307">
         <v>618568000000</v>
       </c>
-      <c r="C307" t="n">
+      <c r="C307">
         <v>0.1118568232662192</v>
       </c>
-      <c r="D307" t="n">
+      <c r="D307">
         <v>69191051454.1387</v>
       </c>
     </row>
-    <row r="308">
-      <c r="A308" s="2" t="n">
+    <row r="308" spans="1:4">
+      <c r="A308" s="2">
         <v>40360</v>
       </c>
-      <c r="B308" t="n">
+      <c r="B308">
         <v>621576000000</v>
       </c>
-      <c r="C308" t="n">
+      <c r="C308">
         <v>0.1173419697023034</v>
       </c>
-      <c r="D308" t="n">
+      <c r="D308">
         <v>72936952159.67896</v>
       </c>
     </row>
-    <row r="309">
-      <c r="A309" s="2" t="n">
+    <row r="309" spans="1:4">
+      <c r="A309" s="2">
         <v>40391</v>
       </c>
-      <c r="B309" t="n">
+      <c r="B309">
         <v>620613000000</v>
       </c>
-      <c r="C309" t="n">
+      <c r="C309">
         <v>0.1152073732718894</v>
       </c>
-      <c r="D309" t="n">
+      <c r="D309">
         <v>71499193548.3871</v>
       </c>
     </row>
-    <row r="310">
-      <c r="A310" s="2" t="n">
+    <row r="310" spans="1:4">
+      <c r="A310" s="2">
         <v>40422</v>
       </c>
-      <c r="B310" t="n">
+      <c r="B310">
         <v>624197000000</v>
       </c>
-      <c r="C310" t="n">
+      <c r="C310">
         <v>0.1221001221001221</v>
       </c>
-      <c r="D310" t="n">
+      <c r="D310">
         <v>76214529914.52992</v>
       </c>
     </row>
-    <row r="311">
-      <c r="A311" s="2" t="n">
+    <row r="311" spans="1:4">
+      <c r="A311" s="2">
         <v>40452</v>
       </c>
-      <c r="B311" t="n">
+      <c r="B311">
         <v>621983000000</v>
       </c>
-      <c r="C311" t="n">
+      <c r="C311">
         <v>0.1239095955590801</v>
       </c>
-      <c r="D311" t="n">
+      <c r="D311">
         <v>77069661974.62332</v>
       </c>
     </row>
-    <row r="312">
-      <c r="A312" s="2" t="n">
+    <row r="312" spans="1:4">
+      <c r="A312" s="2">
         <v>40483</v>
       </c>
-      <c r="B312" t="n">
+      <c r="B312">
         <v>629903000000</v>
       </c>
-      <c r="C312" t="n">
+      <c r="C312">
         <v>0.1172332942555686</v>
       </c>
-      <c r="D312" t="n">
+      <c r="D312">
         <v>73845603751.46542</v>
       </c>
     </row>
-    <row r="313">
-      <c r="A313" s="2" t="n">
+    <row r="313" spans="1:4">
+      <c r="A313" s="2">
         <v>40513</v>
       </c>
-      <c r="B313" t="n">
+      <c r="B313">
         <v>643504000000</v>
       </c>
-      <c r="C313" t="n">
+      <c r="C313">
         <v>0.1200393729143159</v>
       </c>
-      <c r="D313" t="n">
+      <c r="D313">
         <v>77245816627.85393</v>
       </c>
     </row>
-    <row r="314">
-      <c r="A314" s="2" t="n">
+    <row r="314" spans="1:4">
+      <c r="A314" s="2">
         <v>40544</v>
       </c>
-      <c r="B314" t="n">
+      <c r="B314">
         <v>637936000000</v>
       </c>
-      <c r="C314" t="n">
+      <c r="C314">
         <v>0.1221612773183156</v>
       </c>
-      <c r="D314" t="n">
+      <c r="D314">
         <v>77931076607.33701</v>
       </c>
     </row>
-    <row r="315">
-      <c r="A315" s="2" t="n">
+    <row r="315" spans="1:4">
+      <c r="A315" s="2">
         <v>40575</v>
       </c>
-      <c r="B315" t="n">
+      <c r="B315">
         <v>641132000000</v>
       </c>
-      <c r="C315" t="n">
+      <c r="C315">
         <v>0.1234567901234568</v>
       </c>
-      <c r="D315" t="n">
+      <c r="D315">
         <v>79152098765.4321</v>
       </c>
     </row>
-    <row r="316">
-      <c r="A316" s="2" t="n">
+    <row r="316" spans="1:4">
+      <c r="A316" s="2">
         <v>40603</v>
       </c>
-      <c r="B316" t="n">
+      <c r="B316">
         <v>644847000000</v>
       </c>
-      <c r="C316" t="n">
+      <c r="C316">
         <v>0.1256123602562492</v>
       </c>
-      <c r="D316" t="n">
+      <c r="D316">
         <v>81000753674.16154</v>
       </c>
     </row>
-    <row r="317">
-      <c r="A317" s="2" t="n">
+    <row r="317" spans="1:4">
+      <c r="A317" s="2">
         <v>40634</v>
       </c>
-      <c r="B317" t="n">
+      <c r="B317">
         <v>644505000000</v>
       </c>
-      <c r="C317" t="n">
+      <c r="C317">
         <v>0.1306165099268548</v>
       </c>
-      <c r="D317" t="n">
+      <c r="D317">
         <v>84182993730.40752</v>
       </c>
     </row>
-    <row r="318">
-      <c r="A318" s="2" t="n">
+    <row r="318" spans="1:4">
+      <c r="A318" s="2">
         <v>40664</v>
       </c>
-      <c r="B318" t="n">
+      <c r="B318">
         <v>643629000000</v>
       </c>
-      <c r="C318" t="n">
+      <c r="C318">
         <v>0.1272361757895005</v>
       </c>
-      <c r="D318" t="n">
+      <c r="D318">
         <v>81892892587.2204</v>
       </c>
     </row>
-    <row r="319">
-      <c r="A319" s="2" t="n">
+    <row r="319" spans="1:4">
+      <c r="A319" s="2">
         <v>40695</v>
       </c>
-      <c r="B319" t="n">
+      <c r="B319">
         <v>658158000000</v>
       </c>
-      <c r="C319" t="n">
+      <c r="C319">
         <v>0.1283367556468173</v>
       </c>
-      <c r="D319" t="n">
+      <c r="D319">
         <v>84465862422.99796</v>
       </c>
     </row>
-    <row r="320">
-      <c r="A320" s="2" t="n">
+    <row r="320" spans="1:4">
+      <c r="A320" s="2">
         <v>40725</v>
       </c>
-      <c r="B320" t="n">
+      <c r="B320">
         <v>661791000000</v>
       </c>
-      <c r="C320" t="n">
+      <c r="C320">
         <v>0.1275933345242045</v>
       </c>
-      <c r="D320" t="n">
+      <c r="D320">
         <v>84440120448.10779</v>
       </c>
     </row>
-    <row r="321">
-      <c r="A321" s="2" t="n">
+    <row r="321" spans="1:4">
+      <c r="A321" s="2">
         <v>40756</v>
       </c>
-      <c r="B321" t="n">
+      <c r="B321">
         <v>663601000000</v>
       </c>
-      <c r="C321" t="n">
+      <c r="C321">
         <v>0.1274713508139046</v>
       </c>
-      <c r="D321" t="n">
+      <c r="D321">
         <v>84590115871.45789</v>
       </c>
     </row>
-    <row r="322">
-      <c r="A322" s="2" t="n">
+    <row r="322" spans="1:4">
+      <c r="A322" s="2">
         <v>40787</v>
       </c>
-      <c r="B322" t="n">
+      <c r="B322">
         <v>665942000000</v>
       </c>
-      <c r="C322" t="n">
+      <c r="C322">
         <v>0.1201720864277646</v>
       </c>
-      <c r="D322" t="n">
+      <c r="D322">
         <v>80027639579.87839</v>
       </c>
     </row>
-    <row r="323">
-      <c r="A323" s="2" t="n">
+    <row r="323" spans="1:4">
+      <c r="A323" s="2">
         <v>40817</v>
       </c>
-      <c r="B323" t="n">
+      <c r="B323">
         <v>663555000000</v>
       </c>
-      <c r="C323" t="n">
+      <c r="C323">
         <v>0.1236674828720536</v>
       </c>
-      <c r="D323" t="n">
+      <c r="D323">
         <v>82060176597.16554</v>
       </c>
     </row>
-    <row r="324">
-      <c r="A324" s="2" t="n">
+    <row r="324" spans="1:4">
+      <c r="A324" s="2">
         <v>40848</v>
       </c>
-      <c r="B324" t="n">
+      <c r="B324">
         <v>669757000000</v>
       </c>
-      <c r="C324" t="n">
+      <c r="C324">
         <v>0.1207481555719236</v>
       </c>
-      <c r="D324" t="n">
+      <c r="D324">
         <v>80871922431.38486</v>
       </c>
     </row>
-    <row r="325">
-      <c r="A325" s="2" t="n">
+    <row r="325" spans="1:4">
+      <c r="A325" s="2">
         <v>40878</v>
       </c>
-      <c r="B325" t="n">
+      <c r="B325">
         <v>689692000000</v>
       </c>
-      <c r="C325" t="n">
+      <c r="C325">
         <v>0.1167651386002195</v>
       </c>
-      <c r="D325" t="n">
+      <c r="D325">
         <v>80531981971.4626</v>
       </c>
     </row>
-    <row r="326">
-      <c r="A326" s="2" t="n">
+    <row r="326" spans="1:4">
+      <c r="A326" s="2">
         <v>40909</v>
       </c>
-      <c r="B326" t="n">
+      <c r="B326">
         <v>681727000000</v>
       </c>
-      <c r="C326" t="n">
+      <c r="C326">
         <v>0.1179732200790421</v>
       </c>
-      <c r="D326" t="n">
+      <c r="D326">
         <v>80425529404.82512</v>
       </c>
     </row>
-    <row r="327">
-      <c r="A327" s="2" t="n">
+    <row r="327" spans="1:4">
+      <c r="A327" s="2">
         <v>40940</v>
       </c>
-      <c r="B327" t="n">
+      <c r="B327">
         <v>679804000000</v>
       </c>
-      <c r="C327" t="n">
+      <c r="C327">
         <v>0.1197662163456932</v>
       </c>
-      <c r="D327" t="n">
+      <c r="D327">
         <v>81417552936.66762</v>
       </c>
     </row>
-    <row r="328">
-      <c r="A328" s="2" t="n">
+    <row r="328" spans="1:4">
+      <c r="A328" s="2">
         <v>40969</v>
       </c>
-      <c r="B328" t="n">
+      <c r="B328">
         <v>687546000000</v>
       </c>
-      <c r="C328" t="n">
+      <c r="C328">
         <v>0.11999904000768</v>
       </c>
-      <c r="D328" t="n">
+      <c r="D328">
         <v>82504859961.12032</v>
       </c>
     </row>
-    <row r="329">
-      <c r="A329" s="2" t="n">
+    <row r="329" spans="1:4">
+      <c r="A329" s="2">
         <v>41000</v>
       </c>
-      <c r="B329" t="n">
+      <c r="B329">
         <v>679751000000</v>
       </c>
-      <c r="C329" t="n">
+      <c r="C329">
         <v>0.1192961526990755</v>
       </c>
-      <c r="D329" t="n">
+      <c r="D329">
         <v>81091679093.34924</v>
       </c>
     </row>
-    <row r="330">
-      <c r="A330" s="2" t="n">
+    <row r="330" spans="1:4">
+      <c r="A330" s="2">
         <v>41030</v>
       </c>
-      <c r="B330" t="n">
+      <c r="B330">
         <v>679502000000</v>
       </c>
-      <c r="C330" t="n">
+      <c r="C330">
         <v>0.1125923257070798</v>
       </c>
-      <c r="D330" t="n">
+      <c r="D330">
         <v>76506710502.61214</v>
       </c>
     </row>
-    <row r="331">
-      <c r="A331" s="2" t="n">
+    <row r="331" spans="1:4">
+      <c r="A331" s="2">
         <v>41061</v>
       </c>
-      <c r="B331" t="n">
+      <c r="B331">
         <v>696401000000</v>
       </c>
-      <c r="C331" t="n">
+      <c r="C331">
         <v>0.1144623132833515</v>
       </c>
-      <c r="D331" t="n">
+      <c r="D331">
         <v>79711669432.83925</v>
       </c>
     </row>
-    <row r="332">
-      <c r="A332" s="2" t="n">
+    <row r="332" spans="1:4">
+      <c r="A332" s="2">
         <v>41091</v>
       </c>
-      <c r="B332" t="n">
+      <c r="B332">
         <v>704008000000</v>
       </c>
-      <c r="C332" t="n">
+      <c r="C332">
         <v>0.1121554025257397</v>
       </c>
-      <c r="D332" t="n">
+      <c r="D332">
         <v>78958300621.34093</v>
       </c>
     </row>
-    <row r="333">
-      <c r="A333" s="2" t="n">
+    <row r="333" spans="1:4">
+      <c r="A333" s="2">
         <v>41122</v>
       </c>
-      <c r="B333" t="n">
+      <c r="B333">
         <v>701193000000</v>
       </c>
-      <c r="C333" t="n">
+      <c r="C333">
         <v>0.1137785868699511</v>
       </c>
-      <c r="D333" t="n">
+      <c r="D333">
         <v>79780748663.10161</v>
       </c>
     </row>
-    <row r="334">
-      <c r="A334" s="2" t="n">
+    <row r="334" spans="1:4">
+      <c r="A334" s="2">
         <v>41153</v>
       </c>
-      <c r="B334" t="n">
+      <c r="B334">
         <v>705217000000</v>
       </c>
-      <c r="C334" t="n">
+      <c r="C334">
         <v>0.1167201634082288</v>
       </c>
-      <c r="D334" t="n">
+      <c r="D334">
         <v>82313043478.26086</v>
       </c>
     </row>
-    <row r="335">
-      <c r="A335" s="2" t="n">
+    <row r="335" spans="1:4">
+      <c r="A335" s="2">
         <v>41183</v>
       </c>
-      <c r="B335" t="n">
+      <c r="B335">
         <v>697870000000</v>
       </c>
-      <c r="C335" t="n">
+      <c r="C335">
         <v>0.1170768258130986</v>
       </c>
-      <c r="D335" t="n">
+      <c r="D335">
         <v>81704404430.18709</v>
       </c>
     </row>
-    <row r="336">
-      <c r="A336" s="2" t="n">
+    <row r="336" spans="1:4">
+      <c r="A336" s="2">
         <v>41214</v>
       </c>
-      <c r="B336" t="n">
+      <c r="B336">
         <v>705249000000</v>
       </c>
-      <c r="C336" t="n">
+      <c r="C336">
         <v>0.1173708920187793</v>
       </c>
-      <c r="D336" t="n">
+      <c r="D336">
         <v>82775704225.35211</v>
       </c>
     </row>
-    <row r="337">
-      <c r="A337" s="2" t="n">
+    <row r="337" spans="1:4">
+      <c r="A337" s="2">
         <v>41244</v>
       </c>
-      <c r="B337" t="n">
+      <c r="B337">
         <v>723519000000</v>
       </c>
-      <c r="C337" t="n">
+      <c r="C337">
         <v>0.1187676666904202</v>
       </c>
-      <c r="D337" t="n">
+      <c r="D337">
         <v>85930663436.18613</v>
       </c>
     </row>
-    <row r="338">
-      <c r="A338" s="2" t="n">
+    <row r="338" spans="1:4">
+      <c r="A338" s="2">
         <v>41275</v>
       </c>
-      <c r="B338" t="n">
+      <c r="B338">
         <v>707561000000</v>
       </c>
-      <c r="C338" t="n">
+      <c r="C338">
         <v>0.1214181641573579</v>
       </c>
-      <c r="D338" t="n">
+      <c r="D338">
         <v>85910757649.34433</v>
       </c>
     </row>
-    <row r="339">
-      <c r="A339" s="2" t="n">
+    <row r="339" spans="1:4">
+      <c r="A339" s="2">
         <v>41306</v>
       </c>
-      <c r="B339" t="n">
+      <c r="B339">
         <v>709297000000</v>
       </c>
-      <c r="C339" t="n">
+      <c r="C339">
         <v>0.1179189660865054</v>
       </c>
-      <c r="D339" t="n">
+      <c r="D339">
         <v>83639568888.25999</v>
       </c>
     </row>
-    <row r="340">
-      <c r="A340" s="2" t="n">
+    <row r="340" spans="1:4">
+      <c r="A340" s="2">
         <v>41334</v>
       </c>
-      <c r="B340" t="n">
+      <c r="B340">
         <v>709542000000</v>
       </c>
-      <c r="C340" t="n">
+      <c r="C340">
         <v>0.1159124629080119</v>
       </c>
-      <c r="D340" t="n">
+      <c r="D340">
         <v>82244760756.67656</v>
       </c>
     </row>
-    <row r="341">
-      <c r="A341" s="2" t="n">
+    <row r="341" spans="1:4">
+      <c r="A341" s="2">
         <v>41365</v>
       </c>
-      <c r="B341" t="n">
+      <c r="B341">
         <v>710148000000</v>
       </c>
-      <c r="C341" t="n">
+      <c r="C341">
         <v>0.1184918359125056</v>
       </c>
-      <c r="D341" t="n">
+      <c r="D341">
         <v>84146740289.59406</v>
       </c>
     </row>
-    <row r="342">
-      <c r="A342" s="2" t="n">
+    <row r="342" spans="1:4">
+      <c r="A342" s="2">
         <v>41395</v>
       </c>
-      <c r="B342" t="n">
+      <c r="B342">
         <v>716030000000</v>
       </c>
-      <c r="C342" t="n">
+      <c r="C342">
         <v>0.1168224299065421</v>
       </c>
-      <c r="D342" t="n">
+      <c r="D342">
         <v>83648364485.98131</v>
       </c>
     </row>
-    <row r="343">
-      <c r="A343" s="2" t="n">
+    <row r="343" spans="1:4">
+      <c r="A343" s="2">
         <v>41426</v>
       </c>
-      <c r="B343" t="n">
+      <c r="B343">
         <v>737639000000</v>
       </c>
-      <c r="C343" t="n">
+      <c r="C343">
         <v>0.1177024482109228</v>
       </c>
-      <c r="D343" t="n">
+      <c r="D343">
         <v>86821916195.85687</v>
       </c>
     </row>
-    <row r="344">
-      <c r="A344" s="2" t="n">
+    <row r="344" spans="1:4">
+      <c r="A344" s="2">
         <v>41456</v>
       </c>
-      <c r="B344" t="n">
+      <c r="B344">
         <v>735688000000</v>
       </c>
-      <c r="C344" t="n">
+      <c r="C344">
         <v>0.1195128655599775</v>
       </c>
-      <c r="D344" t="n">
+      <c r="D344">
         <v>87924181038.08875</v>
       </c>
     </row>
-    <row r="345">
-      <c r="A345" s="2" t="n">
+    <row r="345" spans="1:4">
+      <c r="A345" s="2">
         <v>41487</v>
       </c>
-      <c r="B345" t="n">
+      <c r="B345">
         <v>743270000000</v>
       </c>
-      <c r="C345" t="n">
+      <c r="C345">
         <v>0.1185255422543558</v>
       </c>
-      <c r="D345" t="n">
+      <c r="D345">
         <v>88096479791.39505</v>
       </c>
     </row>
-    <row r="346">
-      <c r="A346" s="2" t="n">
+    <row r="346" spans="1:4">
+      <c r="A346" s="2">
         <v>41518</v>
       </c>
-      <c r="B346" t="n">
+      <c r="B346">
         <v>737832000000</v>
       </c>
-      <c r="C346" t="n">
+      <c r="C346">
         <v>0.1212018374198553</v>
       </c>
-      <c r="D346" t="n">
+      <c r="D346">
         <v>89426594107.16666</v>
       </c>
     </row>
-    <row r="347">
-      <c r="A347" s="2" t="n">
+    <row r="347" spans="1:4">
+      <c r="A347" s="2">
         <v>41548</v>
       </c>
-      <c r="B347" t="n">
+      <c r="B347">
         <v>737721000000</v>
       </c>
-      <c r="C347" t="n">
+      <c r="C347">
         <v>0.1216826273712902</v>
       </c>
-      <c r="D347" t="n">
+      <c r="D347">
         <v>89767829546.97559</v>
       </c>
     </row>
-    <row r="348">
-      <c r="A348" s="2" t="n">
+    <row r="348" spans="1:4">
+      <c r="A348" s="2">
         <v>41579</v>
       </c>
-      <c r="B348" t="n">
+      <c r="B348">
         <v>738523000000</v>
       </c>
-      <c r="C348" t="n">
+      <c r="C348">
         <v>0.1212782729973925</v>
       </c>
-      <c r="D348" t="n">
+      <c r="D348">
         <v>89566794008.85332</v>
       </c>
     </row>
-    <row r="349">
-      <c r="A349" s="2" t="n">
+    <row r="349" spans="1:4">
+      <c r="A349" s="2">
         <v>41609</v>
       </c>
-      <c r="B349" t="n">
+      <c r="B349">
         <v>749263000000</v>
       </c>
-      <c r="C349" t="n">
+      <c r="C349">
         <v>0.1225520233339052</v>
       </c>
-      <c r="D349" t="n">
+      <c r="D349">
         <v>91823696659.23184</v>
       </c>
     </row>
-    <row r="350">
-      <c r="A350" s="2" t="n">
+    <row r="350" spans="1:4">
+      <c r="A350" s="2">
         <v>41640</v>
       </c>
-      <c r="B350" t="n">
+      <c r="B350">
         <v>740107000000</v>
       </c>
-      <c r="C350" t="n">
+      <c r="C350">
         <v>0.1205545509342978</v>
       </c>
-      <c r="D350" t="n">
+      <c r="D350">
         <v>89223267028.33032</v>
       </c>
     </row>
-    <row r="351">
-      <c r="A351" s="2" t="n">
+    <row r="351" spans="1:4">
+      <c r="A351" s="2">
         <v>41671</v>
       </c>
-      <c r="B351" t="n">
+      <c r="B351">
         <v>741809000000</v>
       </c>
-      <c r="C351" t="n">
+      <c r="C351">
         <v>0.1233684522193984</v>
       </c>
-      <c r="D351" t="n">
+      <c r="D351">
         <v>91515828172.41974</v>
       </c>
     </row>
-    <row r="352">
-      <c r="A352" s="2" t="n">
+    <row r="352" spans="1:4">
+      <c r="A352" s="2">
         <v>41699</v>
       </c>
-      <c r="B352" t="n">
+      <c r="B352">
         <v>747655000000</v>
       </c>
-      <c r="C352" t="n">
+      <c r="C352">
         <v>0.1228818245493309</v>
       </c>
-      <c r="D352" t="n">
+      <c r="D352">
         <v>91873210533.42999</v>
       </c>
     </row>
-    <row r="353">
-      <c r="A353" s="2" t="n">
+    <row r="353" spans="1:4">
+      <c r="A353" s="2">
         <v>41730</v>
       </c>
-      <c r="B353" t="n">
+      <c r="B353">
         <v>756028000000</v>
       </c>
-      <c r="C353" t="n">
+      <c r="C353">
         <v>0.1235605199426679</v>
       </c>
-      <c r="D353" t="n">
+      <c r="D353">
         <v>93415212771.21535</v>
       </c>
     </row>
-    <row r="354">
-      <c r="A354" s="2" t="n">
+    <row r="354" spans="1:4">
+      <c r="A354" s="2">
         <v>41760</v>
       </c>
-      <c r="B354" t="n">
+      <c r="B354">
         <v>750398000000</v>
       </c>
-      <c r="C354" t="n">
+      <c r="C354">
         <v>0.1216989168796398</v>
       </c>
-      <c r="D354" t="n">
+      <c r="D354">
         <v>91322623828.64792</v>
       </c>
     </row>
-    <row r="355">
-      <c r="A355" s="2" t="n">
+    <row r="355" spans="1:4">
+      <c r="A355" s="2">
         <v>41791</v>
       </c>
-      <c r="B355" t="n">
+      <c r="B355">
         <v>762679000000</v>
       </c>
-      <c r="C355" t="n">
+      <c r="C355">
         <v>0.1222972311906858</v>
       </c>
-      <c r="D355" t="n">
+      <c r="D355">
         <v>93273529987.2811</v>
       </c>
     </row>
-    <row r="356">
-      <c r="A356" s="2" t="n">
+    <row r="356" spans="1:4">
+      <c r="A356" s="2">
         <v>41821</v>
       </c>
-      <c r="B356" t="n">
+      <c r="B356">
         <v>768127000000</v>
       </c>
-      <c r="C356" t="n">
+      <c r="C356">
         <v>0.1201143488601148</v>
       </c>
-      <c r="D356" t="n">
+      <c r="D356">
         <v>92263074446.87341</v>
       </c>
     </row>
-    <row r="357">
-      <c r="A357" s="2" t="n">
+    <row r="357" spans="1:4">
+      <c r="A357" s="2">
         <v>41852</v>
       </c>
-      <c r="B357" t="n">
+      <c r="B357">
         <v>768813000000</v>
       </c>
-      <c r="C357" t="n">
+      <c r="C357">
         <v>0.1182983958737519</v>
       </c>
-      <c r="D357" t="n">
+      <c r="D357">
         <v>90949344626.88686</v>
       </c>
     </row>
-    <row r="358">
-      <c r="A358" s="2" t="n">
+    <row r="358" spans="1:4">
+      <c r="A358" s="2">
         <v>41883</v>
       </c>
-      <c r="B358" t="n">
+      <c r="B358">
         <v>776823000000</v>
       </c>
-      <c r="C358" t="n">
+      <c r="C358">
         <v>0.1143131494415803</v>
       </c>
-      <c r="D358" t="n">
+      <c r="D358">
         <v>88801083688.65671</v>
       </c>
     </row>
-    <row r="359">
-      <c r="A359" s="2" t="n">
+    <row r="359" spans="1:4">
+      <c r="A359" s="2">
         <v>41913</v>
       </c>
-      <c r="B359" t="n">
+      <c r="B359">
         <v>778410000000</v>
       </c>
-      <c r="C359" t="n">
+      <c r="C359">
         <v>0.1137863547403395</v>
       </c>
-      <c r="D359" t="n">
+      <c r="D359">
         <v>88572436393.4277</v>
       </c>
     </row>
-    <row r="360">
-      <c r="A360" s="2" t="n">
+    <row r="360" spans="1:4">
+      <c r="A360" s="2">
         <v>41944</v>
       </c>
-      <c r="B360" t="n">
+      <c r="B360">
         <v>775757000000</v>
       </c>
-      <c r="C360" t="n">
+      <c r="C360">
         <v>0.1136880400181901</v>
       </c>
-      <c r="D360" t="n">
+      <c r="D360">
         <v>88194292860.3911</v>
       </c>
     </row>
-    <row r="361">
-      <c r="A361" s="2" t="n">
+    <row r="361" spans="1:4">
+      <c r="A361" s="2">
         <v>41974</v>
       </c>
-      <c r="B361" t="n">
+      <c r="B361">
         <v>790616000000</v>
       </c>
-      <c r="C361" t="n">
+      <c r="C361">
         <v>0.1105962242449043</v>
       </c>
-      <c r="D361" t="n">
+      <c r="D361">
         <v>87439144427.60925</v>
       </c>
     </row>
-    <row r="362">
-      <c r="A362" s="2" t="n">
+    <row r="362" spans="1:4">
+      <c r="A362" s="2">
         <v>42005</v>
       </c>
-      <c r="B362" t="n">
+      <c r="B362">
         <v>778544000000</v>
       </c>
-      <c r="C362" t="n">
+      <c r="C362">
         <v>0.1044932079414838</v>
       </c>
-      <c r="D362" t="n">
+      <c r="D362">
         <v>81352560083.59456</v>
       </c>
     </row>
-    <row r="363">
-      <c r="A363" s="2" t="n">
+    <row r="363" spans="1:4">
+      <c r="A363" s="2">
         <v>42036</v>
       </c>
-      <c r="B363" t="n">
+      <c r="B363">
         <v>777818000000</v>
       </c>
-      <c r="C363" t="n">
+      <c r="C363">
         <v>0.1039220169185043</v>
       </c>
-      <c r="D363" t="n">
+      <c r="D363">
         <v>80832415355.51721</v>
       </c>
     </row>
-    <row r="364">
-      <c r="A364" s="2" t="n">
+    <row r="364" spans="1:4">
+      <c r="A364" s="2">
         <v>42064</v>
       </c>
-      <c r="B364" t="n">
+      <c r="B364">
         <v>784583000000</v>
       </c>
-      <c r="C364" t="n">
+      <c r="C364">
         <v>0.100636019644151</v>
       </c>
-      <c r="D364" t="n">
+      <c r="D364">
         <v>78957310200.46695</v>
       </c>
     </row>
-    <row r="365">
-      <c r="A365" s="2" t="n">
+    <row r="365" spans="1:4">
+      <c r="A365" s="2">
         <v>42095</v>
       </c>
-      <c r="B365" t="n">
+      <c r="B365">
         <v>785446000000</v>
       </c>
-      <c r="C365" t="n">
+      <c r="C365">
         <v>0.1033015164662617</v>
       </c>
-      <c r="D365" t="n">
+      <c r="D365">
         <v>81137762902.35941</v>
       </c>
     </row>
-    <row r="366">
-      <c r="A366" s="2" t="n">
+    <row r="366" spans="1:4">
+      <c r="A366" s="2">
         <v>42125</v>
       </c>
-      <c r="B366" t="n">
+      <c r="B366">
         <v>792275000000</v>
       </c>
-      <c r="C366" t="n">
+      <c r="C366">
         <v>0.1019129052311894</v>
       </c>
-      <c r="D366" t="n">
+      <c r="D366">
         <v>80743046992.0406</v>
       </c>
     </row>
-    <row r="367">
-      <c r="A367" s="2" t="n">
+    <row r="367" spans="1:4">
+      <c r="A367" s="2">
         <v>42156</v>
       </c>
-      <c r="B367" t="n">
+      <c r="B367">
         <v>803355000000</v>
       </c>
-      <c r="C367" t="n">
+      <c r="C367">
         <v>0.1031672340864541</v>
       </c>
-      <c r="D367" t="n">
+      <c r="D367">
         <v>82879913339.52338</v>
       </c>
     </row>
-    <row r="368">
-      <c r="A368" s="2" t="n">
+    <row r="368" spans="1:4">
+      <c r="A368" s="2">
         <v>42186</v>
       </c>
-      <c r="B368" t="n">
+      <c r="B368">
         <v>811638000000</v>
       </c>
-      <c r="C368" t="n">
+      <c r="C368">
         <v>0.1022808632504858</v>
       </c>
-      <c r="D368" t="n">
+      <c r="D368">
         <v>83015035286.89783</v>
       </c>
     </row>
-    <row r="369">
-      <c r="A369" s="2" t="n">
+    <row r="369" spans="1:4">
+      <c r="A369" s="2">
         <v>42217</v>
       </c>
-      <c r="B369" t="n">
+      <c r="B369">
         <v>817163000000</v>
       </c>
-      <c r="C369" t="n">
+      <c r="C369">
         <v>0.1031757495718206</v>
       </c>
-      <c r="D369" t="n">
+      <c r="D369">
         <v>84311405047.35767</v>
       </c>
     </row>
-    <row r="370">
-      <c r="A370" s="2" t="n">
+    <row r="370" spans="1:4">
+      <c r="A370" s="2">
         <v>42248</v>
       </c>
-      <c r="B370" t="n">
+      <c r="B370">
         <v>821940000000</v>
       </c>
-      <c r="C370" t="n">
+      <c r="C370">
         <v>0.1029357269321036</v>
       </c>
-      <c r="D370" t="n">
+      <c r="D370">
         <v>84606991394.57323</v>
       </c>
     </row>
-    <row r="371">
-      <c r="A371" s="2" t="n">
+    <row r="371" spans="1:4">
+      <c r="A371" s="2">
         <v>42278</v>
       </c>
-      <c r="B371" t="n">
+      <c r="B371">
         <v>817277000000</v>
       </c>
-      <c r="C371" t="n">
+      <c r="C371">
         <v>0.102082482645978</v>
       </c>
-      <c r="D371" t="n">
+      <c r="D371">
         <v>83429665169.45692</v>
       </c>
     </row>
-    <row r="372">
-      <c r="A372" s="2" t="n">
+    <row r="372" spans="1:4">
+      <c r="A372" s="2">
         <v>42309</v>
       </c>
-      <c r="B372" t="n">
+      <c r="B372">
         <v>820168000000</v>
       </c>
-      <c r="C372" t="n">
+      <c r="C372">
         <v>0.09962143853357243</v>
       </c>
-      <c r="D372" t="n">
+      <c r="D372">
         <v>81706315999.20303</v>
       </c>
     </row>
-    <row r="373">
-      <c r="A373" s="2" t="n">
+    <row r="373" spans="1:4">
+      <c r="A373" s="2">
         <v>42339</v>
       </c>
-      <c r="B373" t="n">
+      <c r="B373">
         <v>845457000000</v>
       </c>
-      <c r="C373" t="n">
+      <c r="C373">
         <v>0.1010203050813214</v>
       </c>
-      <c r="D373" t="n">
+      <c r="D373">
         <v>85408324073.13872</v>
       </c>
     </row>
-    <row r="374">
-      <c r="A374" s="2" t="n">
+    <row r="374" spans="1:4">
+      <c r="A374" s="2">
         <v>42370</v>
       </c>
-      <c r="B374" t="n">
+      <c r="B374">
         <v>826865000000</v>
       </c>
-      <c r="C374" t="n">
+      <c r="C374">
         <v>0.1011275724326238</v>
       </c>
-      <c r="D374" t="n">
+      <c r="D374">
         <v>83618850179.50143</v>
       </c>
     </row>
-    <row r="375">
-      <c r="A375" s="2" t="n">
+    <row r="375" spans="1:4">
+      <c r="A375" s="2">
         <v>42401</v>
       </c>
-      <c r="B375" t="n">
+      <c r="B375">
         <v>838238000000</v>
       </c>
-      <c r="C375" t="n">
+      <c r="C375">
         <v>0.101098945537998</v>
       </c>
-      <c r="D375" t="n">
+      <c r="D375">
         <v>84744977909.8804</v>
       </c>
     </row>
-    <row r="376">
-      <c r="A376" s="2" t="n">
+    <row r="376" spans="1:4">
+      <c r="A376" s="2">
         <v>42430</v>
       </c>
-      <c r="B376" t="n">
+      <c r="B376">
         <v>843272000000</v>
       </c>
-      <c r="C376" t="n">
+      <c r="C376">
         <v>0.1040691018836507</v>
       </c>
-      <c r="D376" t="n">
+      <c r="D376">
         <v>87758559683.62993</v>
       </c>
     </row>
-    <row r="377">
-      <c r="A377" s="2" t="n">
+    <row r="377" spans="1:4">
+      <c r="A377" s="2">
         <v>42461</v>
       </c>
-      <c r="B377" t="n">
+      <c r="B377">
         <v>844280000000</v>
       </c>
-      <c r="C377" t="n">
+      <c r="C377">
         <v>0.1043863128666569</v>
       </c>
-      <c r="D377" t="n">
+      <c r="D377">
         <v>88131276227.06111</v>
       </c>
     </row>
-    <row r="378">
-      <c r="A378" s="2" t="n">
+    <row r="378" spans="1:4">
+      <c r="A378" s="2">
         <v>42491</v>
       </c>
-      <c r="B378" t="n">
+      <c r="B378">
         <v>845537000000</v>
       </c>
-      <c r="C378" t="n">
+      <c r="C378">
         <v>0.1025378108177391</v>
       </c>
-      <c r="D378" t="n">
+      <c r="D378">
         <v>86699512945.39862</v>
       </c>
     </row>
-    <row r="379">
-      <c r="A379" s="2" t="n">
+    <row r="379" spans="1:4">
+      <c r="A379" s="2">
         <v>42522</v>
       </c>
-      <c r="B379" t="n">
+      <c r="B379">
         <v>866103000000</v>
       </c>
-      <c r="C379" t="n">
+      <c r="C379">
         <v>0.1024086514828773</v>
       </c>
-      <c r="D379" t="n">
+      <c r="D379">
         <v>88696440275.27446</v>
       </c>
     </row>
-    <row r="380">
-      <c r="A380" s="2" t="n">
+    <row r="380" spans="1:4">
+      <c r="A380" s="2">
         <v>42552</v>
       </c>
-      <c r="B380" t="n">
+      <c r="B380">
         <v>867428000000</v>
       </c>
-      <c r="C380" t="n">
+      <c r="C380">
         <v>0.1027295234377408</v>
       </c>
-      <c r="D380" t="n">
+      <c r="D380">
         <v>89110465056.55261</v>
       </c>
     </row>
-    <row r="381">
-      <c r="A381" s="2" t="n">
+    <row r="381" spans="1:4">
+      <c r="A381" s="2">
         <v>42583</v>
       </c>
-      <c r="B381" t="n">
+      <c r="B381">
         <v>868167000000</v>
       </c>
-      <c r="C381" t="n">
+      <c r="C381">
         <v>0.102717916058919</v>
       </c>
-      <c r="D381" t="n">
+      <c r="D381">
         <v>89176305031.12352</v>
       </c>
     </row>
-    <row r="382">
-      <c r="A382" s="2" t="n">
+    <row r="382" spans="1:4">
+      <c r="A382" s="2">
         <v>42614</v>
       </c>
-      <c r="B382" t="n">
+      <c r="B382">
         <v>875346000000</v>
       </c>
-      <c r="C382" t="n">
+      <c r="C382">
         <v>0.1032311345101683</v>
       </c>
-      <c r="D382" t="n">
+      <c r="D382">
         <v>90362960668.93776</v>
       </c>
     </row>
-    <row r="383">
-      <c r="A383" s="2" t="n">
+    <row r="383" spans="1:4">
+      <c r="A383" s="2">
         <v>42644</v>
       </c>
-      <c r="B383" t="n">
+      <c r="B383">
         <v>874717000000</v>
       </c>
-      <c r="C383" t="n">
+      <c r="C383">
         <v>0.1014806019829309</v>
       </c>
-      <c r="D383" t="n">
+      <c r="D383">
         <v>88766807724.70341</v>
       </c>
     </row>
-    <row r="384">
-      <c r="A384" s="2" t="n">
+    <row r="384" spans="1:4">
+      <c r="A384" s="2">
         <v>42675</v>
       </c>
-      <c r="B384" t="n">
+      <c r="B384">
         <v>875733000000</v>
       </c>
-      <c r="C384" t="n">
+      <c r="C384">
         <v>0.09934432743890323</v>
       </c>
-      <c r="D384" t="n">
+      <c r="D384">
         <v>86999105901.05304</v>
       </c>
     </row>
-    <row r="385">
-      <c r="A385" s="2" t="n">
+    <row r="385" spans="1:4">
+      <c r="A385" s="2">
         <v>42705</v>
       </c>
-      <c r="B385" t="n">
+      <c r="B385">
         <v>898088000000</v>
       </c>
-      <c r="C385" t="n">
+      <c r="C385">
         <v>0.09886307464162135</v>
       </c>
-      <c r="D385" t="n">
+      <c r="D385">
         <v>88787740978.74443</v>
       </c>
     </row>
-    <row r="386">
-      <c r="A386" s="2" t="n">
+    <row r="386" spans="1:4">
+      <c r="A386" s="2">
         <v>42736</v>
       </c>
-      <c r="B386" t="n">
+      <c r="B386">
         <v>891694000000</v>
       </c>
-      <c r="C386" t="n">
+      <c r="C386">
         <v>0.1003280727980496</v>
       </c>
-      <c r="D386" t="n">
+      <c r="D386">
         <v>89461940545.58406</v>
       </c>
     </row>
-    <row r="387">
-      <c r="A387" s="2" t="n">
+    <row r="387" spans="1:4">
+      <c r="A387" s="2">
         <v>42767</v>
       </c>
-      <c r="B387" t="n">
+      <c r="B387">
         <v>893577000000</v>
       </c>
-      <c r="C387" t="n">
+      <c r="C387">
         <v>0.09908838684106222</v>
       </c>
-      <c r="D387" t="n">
+      <c r="D387">
         <v>88543103448.27585</v>
       </c>
     </row>
-    <row r="388">
-      <c r="A388" s="2" t="n">
+    <row r="388" spans="1:4">
+      <c r="A388" s="2">
         <v>42795</v>
       </c>
-      <c r="B388" t="n">
+      <c r="B388">
         <v>900868000000</v>
       </c>
-      <c r="C388" t="n">
+      <c r="C388">
         <v>0.09952229299363058</v>
       </c>
-      <c r="D388" t="n">
+      <c r="D388">
         <v>89656449044.586</v>
       </c>
     </row>
-    <row r="389">
-      <c r="A389" s="2" t="n">
+    <row r="389" spans="1:4">
+      <c r="A389" s="2">
         <v>42826</v>
       </c>
-      <c r="B389" t="n">
+      <c r="B389">
         <v>902483000000</v>
       </c>
-      <c r="C389" t="n">
+      <c r="C389">
         <v>0.1011081452721831</v>
       </c>
-      <c r="D389" t="n">
+      <c r="D389">
         <v>91248382269.67564</v>
       </c>
     </row>
-    <row r="390">
-      <c r="A390" s="2" t="n">
+    <row r="390" spans="1:4">
+      <c r="A390" s="2">
         <v>42856</v>
       </c>
-      <c r="B390" t="n">
+      <c r="B390">
         <v>899447000000</v>
       </c>
-      <c r="C390" t="n">
+      <c r="C390">
         <v>0.1027696418477982</v>
       </c>
-      <c r="D390" t="n">
+      <c r="D390">
         <v>92435846051.07652</v>
       </c>
     </row>
-    <row r="391">
-      <c r="A391" s="2" t="n">
+    <row r="391" spans="1:4">
+      <c r="A391" s="2">
         <v>42887</v>
       </c>
-      <c r="B391" t="n">
+      <c r="B391">
         <v>918650000000</v>
       </c>
-      <c r="C391" t="n">
+      <c r="C391">
         <v>0.1037721164323146</v>
       </c>
-      <c r="D391" t="n">
+      <c r="D391">
         <v>95330254760.54584</v>
       </c>
     </row>
-    <row r="392">
-      <c r="A392" s="2" t="n">
+    <row r="392" spans="1:4">
+      <c r="A392" s="2">
         <v>42917</v>
       </c>
-      <c r="B392" t="n">
+      <c r="B392">
         <v>918924000000</v>
       </c>
-      <c r="C392" t="n">
+      <c r="C392">
         <v>0.1061064247440183</v>
       </c>
-      <c r="D392" t="n">
+      <c r="D392">
         <v>97503740251.47223</v>
       </c>
     </row>
-    <row r="393">
-      <c r="A393" s="2" t="n">
+    <row r="393" spans="1:4">
+      <c r="A393" s="2">
         <v>42948</v>
       </c>
-      <c r="B393" t="n">
+      <c r="B393">
         <v>931990000000</v>
       </c>
-      <c r="C393" t="n">
+      <c r="C393">
         <v>0.106951871657754</v>
       </c>
-      <c r="D393" t="n">
+      <c r="D393">
         <v>99678074866.31017</v>
       </c>
     </row>
-    <row r="394">
-      <c r="A394" s="2" t="n">
+    <row r="394" spans="1:4">
+      <c r="A394" s="2">
         <v>42979</v>
       </c>
-      <c r="B394" t="n">
+      <c r="B394">
         <v>942828000000</v>
       </c>
-      <c r="C394" t="n">
+      <c r="C394">
         <v>0.1062902574350035</v>
       </c>
-      <c r="D394" t="n">
+      <c r="D394">
         <v>100213430836.9295</v>
       </c>
     </row>
-    <row r="395">
-      <c r="A395" s="2" t="n">
+    <row r="395" spans="1:4">
+      <c r="A395" s="2">
         <v>43009</v>
       </c>
-      <c r="B395" t="n">
+      <c r="B395">
         <v>934594000000</v>
       </c>
-      <c r="C395" t="n">
+      <c r="C395">
         <v>0.1053574250645314</v>
       </c>
-      <c r="D395" t="n">
+      <c r="D395">
         <v>98466417320.76068</v>
       </c>
     </row>
-    <row r="396">
-      <c r="A396" s="2" t="n">
+    <row r="396" spans="1:4">
+      <c r="A396" s="2">
         <v>43040</v>
       </c>
-      <c r="B396" t="n">
+      <c r="B396">
         <v>938893000000</v>
       </c>
-      <c r="C396" t="n">
+      <c r="C396">
         <v>0.1065416577881952</v>
       </c>
-      <c r="D396" t="n">
+      <c r="D396">
         <v>100031216705.7319</v>
       </c>
     </row>
-    <row r="397">
-      <c r="A397" s="2" t="n">
+    <row r="397" spans="1:4">
+      <c r="A397" s="2">
         <v>43070</v>
       </c>
-      <c r="B397" t="n">
+      <c r="B397">
         <v>964904000000</v>
       </c>
-      <c r="C397" t="n">
+      <c r="C397">
         <v>0.1070778455937467</v>
       </c>
-      <c r="D397" t="n">
+      <c r="D397">
         <v>103319841524.7885</v>
       </c>
     </row>
-    <row r="398">
-      <c r="A398" s="2" t="n">
+    <row r="398" spans="1:4">
+      <c r="A398" s="2">
         <v>43101</v>
       </c>
-      <c r="B398" t="n">
+      <c r="B398">
         <v>951872000000</v>
       </c>
-      <c r="C398" t="n">
+      <c r="C398">
         <v>0.1093852548676438</v>
       </c>
-      <c r="D398" t="n">
+      <c r="D398">
         <v>104120761321.3739</v>
       </c>
     </row>
-    <row r="399">
-      <c r="A399" s="2" t="n">
+    <row r="399" spans="1:4">
+      <c r="A399" s="2">
         <v>43132</v>
       </c>
-      <c r="B399" t="n">
+      <c r="B399">
         <v>954807000000</v>
       </c>
-      <c r="C399" t="n">
+      <c r="C399">
         <v>0.1080543729604737</v>
       </c>
-      <c r="D399" t="n">
+      <c r="D399">
         <v>103171071683.271</v>
       </c>
     </row>
-    <row r="400">
-      <c r="A400" s="2" t="n">
+    <row r="400" spans="1:4">
+      <c r="A400" s="2">
         <v>43160</v>
       </c>
-      <c r="B400" t="n">
+      <c r="B400">
         <v>966999000000</v>
       </c>
-      <c r="C400" t="n">
+      <c r="C400">
         <v>0.1088198487404102</v>
       </c>
-      <c r="D400" t="n">
+      <c r="D400">
         <v>105228684912.128</v>
       </c>
     </row>
-    <row r="401">
-      <c r="A401" s="2" t="n">
+    <row r="401" spans="1:4">
+      <c r="A401" s="2">
         <v>43191</v>
       </c>
-      <c r="B401" t="n">
+      <c r="B401">
         <v>963385000000</v>
       </c>
-      <c r="C401" t="n">
+      <c r="C401">
         <v>0.107653055731987</v>
       </c>
-      <c r="D401" t="n">
+      <c r="D401">
         <v>103711339096.3602</v>
       </c>
     </row>
-    <row r="402">
-      <c r="A402" s="2" t="n">
+    <row r="402" spans="1:4">
+      <c r="A402" s="2">
         <v>43221</v>
       </c>
-      <c r="B402" t="n">
+      <c r="B402">
         <v>966476000000</v>
       </c>
-      <c r="C402" t="n">
+      <c r="C402">
         <v>0.1054818940328893</v>
       </c>
-      <c r="D402" t="n">
+      <c r="D402">
         <v>101945719017.3307</v>
       </c>
     </row>
-    <row r="403">
-      <c r="A403" s="2" t="n">
+    <row r="403" spans="1:4">
+      <c r="A403" s="2">
         <v>43252</v>
       </c>
-      <c r="B403" t="n">
+      <c r="B403">
         <v>986336000000</v>
       </c>
-      <c r="C403" t="n">
+      <c r="C403">
         <v>0.1055019254101387</v>
       </c>
-      <c r="D403" t="n">
+      <c r="D403">
         <v>104060347101.3346</v>
       </c>
     </row>
-    <row r="404">
-      <c r="A404" s="2" t="n">
+    <row r="404" spans="1:4">
+      <c r="A404" s="2">
         <v>43282</v>
       </c>
-      <c r="B404" t="n">
+      <c r="B404">
         <v>983475000000</v>
       </c>
-      <c r="C404" t="n">
+      <c r="C404">
         <v>0.1059254708387179</v>
       </c>
-      <c r="D404" t="n">
+      <c r="D404">
         <v>104175052433.1081</v>
       </c>
     </row>
-    <row r="405">
-      <c r="A405" s="2" t="n">
+    <row r="405" spans="1:4">
+      <c r="A405" s="2">
         <v>43313</v>
       </c>
-      <c r="B405" t="n">
+      <c r="B405">
         <v>992377000000</v>
       </c>
-      <c r="C405" t="n">
+      <c r="C405">
         <v>0.1061098024235479</v>
       </c>
-      <c r="D405" t="n">
+      <c r="D405">
         <v>105300927399.6732</v>
       </c>
     </row>
-    <row r="406">
-      <c r="A406" s="2" t="n">
+    <row r="406" spans="1:4">
+      <c r="A406" s="2">
         <v>43344</v>
       </c>
-      <c r="B406" t="n">
+      <c r="B406">
         <v>996911000000</v>
       </c>
-      <c r="C406" t="n">
+      <c r="C406">
         <v>0.1062416998671979</v>
       </c>
-      <c r="D406" t="n">
+      <c r="D406">
         <v>105913519256.3081</v>
       </c>
     </row>
-    <row r="407">
-      <c r="A407" s="2" t="n">
+    <row r="407" spans="1:4">
+      <c r="A407" s="2">
         <v>43374</v>
       </c>
-      <c r="B407" t="n">
+      <c r="B407">
         <v>986440000000</v>
       </c>
-      <c r="C407" t="n">
+      <c r="C407">
         <v>0.1045806316670153</v>
       </c>
-      <c r="D407" t="n">
+      <c r="D407">
         <v>103162518301.6105</v>
       </c>
     </row>
-    <row r="408">
-      <c r="A408" s="2" t="n">
+    <row r="408" spans="1:4">
+      <c r="A408" s="2">
         <v>43405</v>
       </c>
-      <c r="B408" t="n">
+      <c r="B408">
         <v>993709000000</v>
       </c>
-      <c r="C408" t="n">
+      <c r="C408">
         <v>0.105113785672991</v>
       </c>
-      <c r="D408" t="n">
+      <c r="D408">
         <v>104452514847.3222</v>
       </c>
     </row>
-    <row r="409">
-      <c r="A409" s="2" t="n">
+    <row r="409" spans="1:4">
+      <c r="A409" s="2">
         <v>43435</v>
       </c>
-      <c r="B409" t="n">
+      <c r="B409">
         <v>1017888000000</v>
       </c>
-      <c r="C409" t="n">
+      <c r="C409">
         <v>0.1047032709301838</v>
       </c>
-      <c r="D409" t="n">
+      <c r="D409">
         <v>106576203040.583</v>
       </c>
     </row>
-    <row r="410">
-      <c r="A410" s="2" t="n">
+    <row r="410" spans="1:4">
+      <c r="A410" s="2">
         <v>43466</v>
       </c>
-      <c r="B410" t="n">
+      <c r="B410">
         <v>998128000000</v>
       </c>
-      <c r="C410" t="n">
+      <c r="C410">
         <v>0.1050045151941533</v>
       </c>
-      <c r="D410" t="n">
+      <c r="D410">
         <v>104807946741.7099</v>
       </c>
     </row>
-    <row r="411">
-      <c r="A411" s="2" t="n">
+    <row r="411" spans="1:4">
+      <c r="A411" s="2">
         <v>43497</v>
       </c>
-      <c r="B411" t="n">
+      <c r="B411">
         <v>999715000000</v>
       </c>
-      <c r="C411" t="n">
+      <c r="C411">
         <v>0.1047087526046302</v>
       </c>
-      <c r="D411" t="n">
+      <c r="D411">
         <v>104678910610.1379</v>
       </c>
     </row>
-    <row r="412">
-      <c r="A412" s="2" t="n">
+    <row r="412" spans="1:4">
+      <c r="A412" s="2">
         <v>43525</v>
       </c>
-      <c r="B412" t="n">
+      <c r="B412">
         <v>1010491000000</v>
       </c>
-      <c r="C412" t="n">
+      <c r="C412">
         <v>0.1036215740117093</v>
       </c>
-      <c r="D412" t="n">
+      <c r="D412">
         <v>104708667944.6661</v>
       </c>
     </row>
-    <row r="413">
-      <c r="A413" s="2" t="n">
+    <row r="413" spans="1:4">
+      <c r="A413" s="2">
         <v>43556</v>
       </c>
-      <c r="B413" t="n">
+      <c r="B413">
         <v>1006665000000</v>
       </c>
-      <c r="C413" t="n">
+      <c r="C413">
         <v>0.1037096958194622</v>
       </c>
-      <c r="D413" t="n">
+      <c r="D413">
         <v>104400920942.0989</v>
       </c>
     </row>
-    <row r="414">
-      <c r="A414" s="2" t="n">
+    <row r="414" spans="1:4">
+      <c r="A414" s="2">
         <v>43586</v>
       </c>
-      <c r="B414" t="n">
+      <c r="B414">
         <v>1013474000000</v>
       </c>
-      <c r="C414" t="n">
+      <c r="C414">
         <v>0.1031661697496157</v>
       </c>
-      <c r="D414" t="n">
+      <c r="D414">
         <v>104556230720.822</v>
       </c>
     </row>
-    <row r="415">
-      <c r="A415" s="2" t="n">
+    <row r="415" spans="1:4">
+      <c r="A415" s="2">
         <v>43617</v>
       </c>
-      <c r="B415" t="n">
+      <c r="B415">
         <v>1030056000000</v>
       </c>
-      <c r="C415" t="n">
+      <c r="C415">
         <v>0.1044822902518023</v>
       </c>
-      <c r="D415" t="n">
+      <c r="D415">
         <v>107622609967.6105</v>
       </c>
     </row>
-    <row r="416">
-      <c r="A416" s="2" t="n">
+    <row r="416" spans="1:4">
+      <c r="A416" s="2">
         <v>43647</v>
       </c>
-      <c r="B416" t="n">
+      <c r="B416">
         <v>1030860000000</v>
       </c>
-      <c r="C416" t="n">
+      <c r="C416">
         <v>0.1036806635562468</v>
       </c>
-      <c r="D416" t="n">
+      <c r="D416">
         <v>106880248833.5925</v>
       </c>
     </row>
-    <row r="417">
-      <c r="A417" s="2" t="n">
+    <row r="417" spans="1:4">
+      <c r="A417" s="2">
         <v>43678</v>
       </c>
-      <c r="B417" t="n">
+      <c r="B417">
         <v>1043542000000</v>
       </c>
-      <c r="C417" t="n">
+      <c r="C417">
         <v>0.1036699149906697</v>
       </c>
-      <c r="D417" t="n">
+      <c r="D417">
         <v>108183910429.1934</v>
       </c>
     </row>
-    <row r="418">
-      <c r="A418" s="2" t="n">
+    <row r="418" spans="1:4">
+      <c r="A418" s="2">
         <v>43709</v>
       </c>
-      <c r="B418" t="n">
+      <c r="B418">
         <v>1044136000000</v>
       </c>
-      <c r="C418" t="n">
+      <c r="C418">
         <v>0.1026694045174538</v>
       </c>
-      <c r="D418" t="n">
+      <c r="D418">
         <v>107200821355.2361</v>
       </c>
     </row>
-    <row r="419">
-      <c r="A419" s="2" t="n">
+    <row r="419" spans="1:4">
+      <c r="A419" s="2">
         <v>43739</v>
       </c>
-      <c r="B419" t="n">
+      <c r="B419">
         <v>1043064000000</v>
       </c>
-      <c r="C419" t="n">
+      <c r="C419">
         <v>0.1040691018836507</v>
       </c>
-      <c r="D419" t="n">
+      <c r="D419">
         <v>108550733687.1683</v>
       </c>
     </row>
-    <row r="420">
-      <c r="A420" s="2" t="n">
+    <row r="420" spans="1:4">
+      <c r="A420" s="2">
         <v>43770</v>
       </c>
-      <c r="B420" t="n">
+      <c r="B420">
         <v>1046410000000</v>
       </c>
-      <c r="C420" t="n">
+      <c r="C420">
         <v>0.1036376826614157</v>
       </c>
-      <c r="D420" t="n">
+      <c r="D420">
         <v>108447507513.732</v>
       </c>
     </row>
-    <row r="421">
-      <c r="A421" s="2" t="n">
+    <row r="421" spans="1:4">
+      <c r="A421" s="2">
         <v>43800</v>
       </c>
-      <c r="B421" t="n">
+      <c r="B421">
         <v>1078347000000</v>
       </c>
-      <c r="C421" t="n">
+      <c r="C421">
         <v>0.104602510460251</v>
       </c>
-      <c r="D421" t="n">
+      <c r="D421">
         <v>112797803347.2803</v>
       </c>
     </row>
-    <row r="422">
-      <c r="A422" s="2" t="n">
+    <row r="422" spans="1:4">
+      <c r="A422" s="2">
         <v>43831</v>
       </c>
-      <c r="B422" t="n">
+      <c r="B422">
         <v>1069640000000</v>
       </c>
-      <c r="C422" t="n">
+      <c r="C422">
         <v>0.1043187982474442</v>
       </c>
-      <c r="D422" t="n">
+      <c r="D422">
         <v>111583559357.3962</v>
       </c>
     </row>
-    <row r="423">
-      <c r="A423" s="2" t="n">
+    <row r="423" spans="1:4">
+      <c r="A423" s="2">
         <v>43862</v>
       </c>
-      <c r="B423" t="n">
+      <c r="B423">
         <v>1068605000000</v>
       </c>
-      <c r="C423" t="n">
+      <c r="C423">
         <v>0.1042600663094022</v>
       </c>
-      <c r="D423" t="n">
+      <c r="D423">
         <v>111412828158.5587</v>
       </c>
     </row>
-    <row r="424">
-      <c r="A424" s="2" t="n">
+    <row r="424" spans="1:4">
+      <c r="A424" s="2">
         <v>43891</v>
       </c>
-      <c r="B424" t="n">
+      <c r="B424">
         <v>1093610000000</v>
       </c>
-      <c r="C424" t="n">
+      <c r="C424">
         <v>0.09909722428674772</v>
       </c>
-      <c r="D424" t="n">
+      <c r="D424">
         <v>108373715452.2302</v>
       </c>
     </row>
-    <row r="425">
-      <c r="A425" s="2" t="n">
+    <row r="425" spans="1:4">
+      <c r="A425" s="2">
         <v>43922</v>
       </c>
-      <c r="B425" t="n">
+      <c r="B425">
         <v>1097707000000</v>
       </c>
-      <c r="C425" t="n">
+      <c r="C425">
         <v>0.1016053647632595</v>
       </c>
-      <c r="D425" t="n">
+      <c r="D425">
         <v>111532920138.1833</v>
       </c>
     </row>
-    <row r="426">
-      <c r="A426" s="2" t="n">
+    <row r="426" spans="1:4">
+      <c r="A426" s="2">
         <v>43952</v>
       </c>
-      <c r="B426" t="n">
+      <c r="B426">
         <v>1118736000000</v>
       </c>
-      <c r="C426" t="n">
+      <c r="C426">
         <v>0.1021951518619957</v>
       </c>
-      <c r="D426" t="n">
+      <c r="D426">
         <v>114329395413.4816</v>
       </c>
     </row>
-    <row r="427">
-      <c r="A427" s="2" t="n">
+    <row r="427" spans="1:4">
+      <c r="A427" s="2">
         <v>43983</v>
       </c>
-      <c r="B427" t="n">
+      <c r="B427">
         <v>1144358000000</v>
       </c>
-      <c r="C427" t="n">
+      <c r="C427">
         <v>0.1030874697180558</v>
       </c>
-      <c r="D427" t="n">
+      <c r="D427">
         <v>117968970671.6149</v>
       </c>
     </row>
-    <row r="428">
-      <c r="A428" s="2" t="n">
+    <row r="428" spans="1:4">
+      <c r="A428" s="2">
         <v>44013</v>
       </c>
-      <c r="B428" t="n">
+      <c r="B428">
         <v>1155666000000</v>
       </c>
-      <c r="C428" t="n">
+      <c r="C428">
         <v>0.1072340060479979</v>
       </c>
-      <c r="D428" t="n">
+      <c r="D428">
         <v>123926694833.4656</v>
       </c>
     </row>
-    <row r="429">
-      <c r="A429" s="2" t="n">
+    <row r="429" spans="1:4">
+      <c r="A429" s="2">
         <v>44044</v>
       </c>
-      <c r="B429" t="n">
+      <c r="B429">
         <v>1149273000000</v>
       </c>
-      <c r="C429" t="n">
+      <c r="C429">
         <v>0.1095098339830917</v>
       </c>
-      <c r="D429" t="n">
+      <c r="D429">
         <v>125856695431.2497</v>
       </c>
     </row>
-    <row r="430">
-      <c r="A430" s="2" t="n">
+    <row r="430" spans="1:4">
+      <c r="A430" s="2">
         <v>44075</v>
       </c>
-      <c r="B430" t="n">
+      <c r="B430">
         <v>1160903000000</v>
       </c>
-      <c r="C430" t="n">
+      <c r="C430">
         <v>0.1082368221669012</v>
       </c>
-      <c r="D430" t="n">
+      <c r="D430">
         <v>125652451564.0221</v>
       </c>
     </row>
-    <row r="431">
-      <c r="A431" s="2" t="n">
+    <row r="431" spans="1:4">
+      <c r="A431" s="2">
         <v>44105</v>
       </c>
-      <c r="B431" t="n">
+      <c r="B431">
         <v>1159159000000</v>
       </c>
-      <c r="C431" t="n">
+      <c r="C431">
         <v>0.1083658430862592</v>
       </c>
-      <c r="D431" t="n">
+      <c r="D431">
         <v>125613242306.0251</v>
       </c>
     </row>
-    <row r="432">
-      <c r="A432" s="2" t="n">
+    <row r="432" spans="1:4">
+      <c r="A432" s="2">
         <v>44136</v>
       </c>
-      <c r="B432" t="n">
+      <c r="B432">
         <v>1164080000000</v>
       </c>
-      <c r="C432" t="n">
+      <c r="C432">
         <v>0.1098961481400077</v>
       </c>
-      <c r="D432" t="n">
+      <c r="D432">
         <v>127927908126.8201</v>
       </c>
     </row>
-    <row r="433">
-      <c r="A433" s="2" t="n">
+    <row r="433" spans="1:4">
+      <c r="A433" s="2">
         <v>44166</v>
       </c>
-      <c r="B433" t="n">
+      <c r="B433">
         <v>1188755000000</v>
       </c>
-      <c r="C433" t="n">
+      <c r="C433">
         <v>0.1123355688111527</v>
       </c>
-      <c r="D433" t="n">
+      <c r="D433">
         <v>133539469102.1018</v>
       </c>
     </row>
-    <row r="434">
-      <c r="A434" s="2" t="n">
+    <row r="434" spans="1:4">
+      <c r="A434" s="2">
         <v>44197</v>
       </c>
-      <c r="B434" t="n">
+      <c r="B434">
         <v>1182578000000</v>
       </c>
-      <c r="C434" t="n">
+      <c r="C434">
         <v>0.1118968758392266</v>
       </c>
-      <c r="D434" t="n">
+      <c r="D434">
         <v>132326783636.2009</v>
       </c>
     </row>
-    <row r="435">
-      <c r="A435" s="2" t="n">
+    <row r="435" spans="1:4">
+      <c r="A435" s="2">
         <v>44228</v>
       </c>
-      <c r="B435" t="n">
+      <c r="B435">
         <v>1180145000000</v>
       </c>
-      <c r="C435" t="n">
+      <c r="C435">
         <v>0.112020970325645</v>
       </c>
-      <c r="D435" t="n">
+      <c r="D435">
         <v>132200988024.9583</v>
       </c>
     </row>
-    <row r="436">
-      <c r="A436" s="2" t="n">
+    <row r="436" spans="1:4">
+      <c r="A436" s="2">
         <v>44256</v>
       </c>
-      <c r="B436" t="n">
+      <c r="B436">
         <v>1187894000000</v>
       </c>
-      <c r="C436" t="n">
+      <c r="C436">
         <v>0.1103436100015448</v>
       </c>
-      <c r="D436" t="n">
+      <c r="D436">
         <v>131076512259.1751</v>
       </c>
     </row>
-    <row r="437">
-      <c r="A437" s="2" t="n">
+    <row r="437" spans="1:4">
+      <c r="A437" s="2">
         <v>44287</v>
       </c>
-      <c r="B437" t="n">
+      <c r="B437">
         <v>1188514000000</v>
       </c>
-      <c r="C437" t="n">
+      <c r="C437">
         <v>0.1119808288820954</v>
       </c>
-      <c r="D437" t="n">
+      <c r="D437">
         <v>133090782857.9747</v>
       </c>
     </row>
-    <row r="438">
-      <c r="A438" s="2" t="n">
+    <row r="438" spans="1:4">
+      <c r="A438" s="2">
         <v>44317</v>
       </c>
-      <c r="B438" t="n">
+      <c r="B438">
         <v>1196472000000</v>
       </c>
-      <c r="C438" t="n">
+      <c r="C438">
         <v>0.1133093117592404</v>
       </c>
-      <c r="D438" t="n">
+      <c r="D438">
         <v>135571418859.2018</v>
       </c>
     </row>
-    <row r="439">
-      <c r="A439" s="2" t="n">
+    <row r="439" spans="1:4">
+      <c r="A439" s="2">
         <v>44348</v>
       </c>
-      <c r="B439" t="n">
+      <c r="B439">
         <v>1214727000000</v>
       </c>
-      <c r="C439" t="n">
+      <c r="C439">
         <v>0.1120197154699227</v>
       </c>
-      <c r="D439" t="n">
+      <c r="D439">
         <v>136073372913.6328</v>
       </c>
     </row>
-    <row r="440">
-      <c r="A440" s="2" t="n">
+    <row r="440" spans="1:4">
+      <c r="A440" s="2">
         <v>44378</v>
       </c>
-      <c r="B440" t="n">
+      <c r="B440">
         <v>1222002000000</v>
       </c>
-      <c r="C440" t="n">
+      <c r="C440">
         <v>0.1131234516227559</v>
       </c>
-      <c r="D440" t="n">
+      <c r="D440">
         <v>138237084129.911</v>
       </c>
     </row>
-    <row r="441">
-      <c r="A441" s="2" t="n">
+    <row r="441" spans="1:4">
+      <c r="A441" s="2">
         <v>44409</v>
       </c>
-      <c r="B441" t="n">
+      <c r="B441">
         <v>1225272000000</v>
       </c>
-      <c r="C441" t="n">
+      <c r="C441">
         <v>0.1117480751394057</v>
       </c>
-      <c r="D441" t="n">
+      <c r="D441">
         <v>136921787522.2099</v>
       </c>
     </row>
-    <row r="442">
-      <c r="A442" s="2" t="n">
+    <row r="442" spans="1:4">
+      <c r="A442" s="2">
         <v>44440</v>
       </c>
-      <c r="B442" t="n">
+      <c r="B442">
         <v>1231818000000</v>
       </c>
-      <c r="C442" t="n">
+      <c r="C442">
         <v>0.1102535832414553</v>
       </c>
-      <c r="D442" t="n">
+      <c r="D442">
         <v>135812348401.323</v>
       </c>
     </row>
-    <row r="443">
-      <c r="A443" s="2" t="n">
+    <row r="443" spans="1:4">
+      <c r="A443" s="2">
         <v>44470</v>
       </c>
-      <c r="B443" t="n">
+      <c r="B443">
         <v>1226937000000</v>
       </c>
-      <c r="C443" t="n">
+      <c r="C443">
         <v>0.1100594320933304</v>
       </c>
-      <c r="D443" t="n">
+      <c r="D443">
         <v>135035989434.2945</v>
       </c>
     </row>
-    <row r="444">
-      <c r="A444" s="2" t="n">
+    <row r="444" spans="1:4">
+      <c r="A444" s="2">
         <v>44501</v>
       </c>
-      <c r="B444" t="n">
+      <c r="B444">
         <v>1230482000000</v>
       </c>
-      <c r="C444" t="n">
+      <c r="C444">
         <v>0.1082239369703791</v>
       </c>
-      <c r="D444" t="n">
+      <c r="D444">
         <v>133167606411.186</v>
       </c>
     </row>
-    <row r="445">
-      <c r="A445" s="2" t="n">
+    <row r="445" spans="1:4">
+      <c r="A445" s="2">
         <v>44531</v>
       </c>
-      <c r="B445" t="n">
+      <c r="B445">
         <v>1260988000000</v>
       </c>
-      <c r="C445" t="n">
+      <c r="C445">
         <v>0.1081291494561104</v>
       </c>
-      <c r="D445" t="n">
+      <c r="D445">
         <v>136349559914.3617</v>
       </c>
     </row>
-    <row r="446">
-      <c r="A446" s="2" t="n">
+    <row r="446" spans="1:4">
+      <c r="A446" s="2">
         <v>44562</v>
       </c>
-      <c r="B446" t="n">
+      <c r="B446">
         <v>1250996000000</v>
       </c>
-      <c r="C446" t="n">
+      <c r="C446">
         <v>0.1062767020213829</v>
       </c>
-      <c r="D446" t="n">
+      <c r="D446">
         <v>132951729121.9419</v>
       </c>
     </row>
-    <row r="447">
-      <c r="A447" s="2" t="n">
+    <row r="447" spans="1:4">
+      <c r="A447" s="2">
         <v>44593</v>
       </c>
-      <c r="B447" t="n">
+      <c r="B447">
         <v>1246378000000</v>
       </c>
-      <c r="C447" t="n">
+      <c r="C447">
         <v>0.1047625034047814</v>
       </c>
-      <c r="D447" t="n">
+      <c r="D447">
         <v>130573679468.6446</v>
       </c>
     </row>
-    <row r="448">
-      <c r="A448" s="2" t="n">
+    <row r="448" spans="1:4">
+      <c r="A448" s="2">
         <v>44621</v>
       </c>
-      <c r="B448" t="n">
+      <c r="B448">
         <v>1269224000000</v>
       </c>
-      <c r="C448" t="n">
+      <c r="C448">
         <v>0.1031746850592739</v>
       </c>
-      <c r="D448" t="n">
+      <c r="D448">
         <v>130951786469.6718</v>
       </c>
     </row>
-    <row r="449">
-      <c r="A449" s="2" t="n">
+    <row r="449" spans="1:4">
+      <c r="A449" s="2">
         <v>44652</v>
       </c>
-      <c r="B449" t="n">
+      <c r="B449">
         <v>1270570000000</v>
       </c>
-      <c r="C449" t="n">
+      <c r="C449">
         <v>0.1001371879474881</v>
       </c>
-      <c r="D449" t="n">
+      <c r="D449">
         <v>127231306890.4399</v>
       </c>
     </row>
-    <row r="450">
-      <c r="A450" s="2" t="n">
+    <row r="450" spans="1:4">
+      <c r="A450" s="2">
         <v>44682</v>
       </c>
-      <c r="B450" t="n">
+      <c r="B450">
         <v>1277411000000</v>
       </c>
-      <c r="C450" t="n">
+      <c r="C450">
         <v>0.1014301653311695</v>
       </c>
-      <c r="D450" t="n">
+      <c r="D450">
         <v>129568008925.8545</v>
       </c>
     </row>
-    <row r="451">
-      <c r="A451" s="2" t="n">
+    <row r="451" spans="1:4">
+      <c r="A451" s="2">
         <v>44713</v>
       </c>
-      <c r="B451" t="n">
+      <c r="B451">
         <v>1297962000000</v>
       </c>
-      <c r="C451" t="n">
+      <c r="C451">
         <v>0.09957184108334163</v>
       </c>
-      <c r="D451" t="n">
+      <c r="D451">
         <v>129240465996.2163</v>
       </c>
     </row>
-    <row r="452">
-      <c r="A452" s="2" t="n">
+    <row r="452" spans="1:4">
+      <c r="A452" s="2">
         <v>44743</v>
       </c>
-      <c r="B452" t="n">
+      <c r="B452">
         <v>1304702000000</v>
       </c>
-      <c r="C452" t="n">
+      <c r="C452">
         <v>0.09717700791992614</v>
       </c>
-      <c r="D452" t="n">
+      <c r="D452">
         <v>126787036587.1435</v>
       </c>
     </row>
-    <row r="453">
-      <c r="A453" s="2" t="n">
+    <row r="453" spans="1:4">
+      <c r="A453" s="2">
         <v>44774</v>
       </c>
-      <c r="B453" t="n">
+      <c r="B453">
         <v>1305964000000</v>
       </c>
-      <c r="C453" t="n">
+      <c r="C453">
         <v>0.09471311397776137</v>
       </c>
-      <c r="D453" t="n">
+      <c r="D453">
         <v>123691917182.8531</v>
       </c>
     </row>
-    <row r="454">
-      <c r="A454" s="2" t="n">
+    <row r="454" spans="1:4">
+      <c r="A454" s="2">
         <v>44805</v>
       </c>
-      <c r="B454" t="n">
+      <c r="B454">
         <v>1315853000000</v>
       </c>
-      <c r="C454" t="n">
+      <c r="C454">
         <v>0.09132169894888724</v>
       </c>
-      <c r="D454" t="n">
+      <c r="D454">
         <v>120165931526.9901</v>
       </c>
     </row>
-    <row r="455">
-      <c r="A455" s="2" t="n">
+    <row r="455" spans="1:4">
+      <c r="A455" s="2">
         <v>44835</v>
       </c>
-      <c r="B455" t="n">
+      <c r="B455">
         <v>1318682000000</v>
       </c>
-      <c r="C455" t="n">
+      <c r="C455">
         <v>0.09129835389067936</v>
       </c>
-      <c r="D455" t="n">
+      <c r="D455">
         <v>120393495905.2688</v>
       </c>
     </row>
-    <row r="456">
-      <c r="A456" s="2" t="n">
+    <row r="456" spans="1:4">
+      <c r="A456" s="2">
         <v>44866</v>
       </c>
-      <c r="B456" t="n">
+      <c r="B456">
         <v>1329615000000</v>
       </c>
-      <c r="C456" t="n">
+      <c r="C456">
         <v>0.09372334742307656</v>
       </c>
-      <c r="D456" t="n">
+      <c r="D456">
         <v>124615968583.9339</v>
       </c>
     </row>
-    <row r="457">
-      <c r="A457" s="2" t="n">
+    <row r="457" spans="1:4">
+      <c r="A457" s="2">
         <v>44896</v>
       </c>
-      <c r="B457" t="n">
+      <c r="B457">
         <v>1375618000000</v>
       </c>
-      <c r="C457" t="n">
+      <c r="C457">
         <v>0.09604763962925611</v>
       </c>
-      <c r="D457" t="n">
+      <c r="D457">
         <v>132124861931.518</v>
       </c>
     </row>
-    <row r="458">
-      <c r="A458" s="2" t="n">
+    <row r="458" spans="1:4">
+      <c r="A458" s="2">
         <v>44927</v>
       </c>
-      <c r="B458" t="n">
+      <c r="B458">
         <v>1365405000000</v>
       </c>
-      <c r="C458" t="n">
+      <c r="C458">
         <v>0.09818456734970396</v>
       </c>
-      <c r="D458" t="n">
+      <c r="D458">
         <v>134061699182.1225</v>
       </c>
     </row>
-    <row r="459">
-      <c r="A459" s="2" t="n">
+    <row r="459" spans="1:4">
+      <c r="A459" s="2">
         <v>44958</v>
       </c>
-      <c r="B459" t="n">
+      <c r="B459">
         <v>1371522000000</v>
       </c>
-      <c r="C459" t="n">
+      <c r="C459">
         <v>0.09607347699520594</v>
       </c>
-      <c r="D459" t="n">
+      <c r="D459">
         <v>131766887315.4188</v>
       </c>
     </row>
-    <row r="460">
-      <c r="A460" s="2" t="n">
+    <row r="460" spans="1:4">
+      <c r="A460" s="2">
         <v>44986</v>
       </c>
-      <c r="B460" t="n">
+      <c r="B460">
         <v>1393850000000</v>
       </c>
-      <c r="C460" t="n">
+      <c r="C460">
         <v>0.09767818943708059</v>
       </c>
-      <c r="D460" t="n">
+      <c r="D460">
         <v>136148744346.8748</v>
       </c>
     </row>
-    <row r="461">
-      <c r="A461" s="2" t="n">
+    <row r="461" spans="1:4">
+      <c r="A461" s="2">
         <v>45017</v>
       </c>
-      <c r="B461" t="n">
+      <c r="B461">
         <v>1391394000000</v>
       </c>
-      <c r="C461" t="n">
+      <c r="C461">
         <v>0.09943323058566172</v>
       </c>
-      <c r="D461" t="n">
+      <c r="D461">
         <v>138350800437.5062</v>
       </c>
     </row>
-    <row r="462">
-      <c r="A462" s="2" t="n">
+    <row r="462" spans="1:4">
+      <c r="A462" s="2">
         <v>45047</v>
       </c>
-      <c r="B462" t="n">
+      <c r="B462">
         <v>1394414000000</v>
       </c>
-      <c r="C462" t="n">
+      <c r="C462">
         <v>0.09827237170541873</v>
       </c>
-      <c r="D462" t="n">
+      <c r="D462">
         <v>137032370919.2398</v>
       </c>
     </row>
-    <row r="463">
-      <c r="A463" s="2" t="n">
+    <row r="463" spans="1:4">
+      <c r="A463" s="2">
         <v>45078</v>
       </c>
-      <c r="B463" t="n">
+      <c r="B463">
         <v>1430306000000</v>
       </c>
-      <c r="C463" t="n">
+      <c r="C463">
         <v>0.1012115016750504</v>
       </c>
-      <c r="D463" t="n">
+      <c r="D463">
         <v>144763418114.8346</v>
       </c>
     </row>
-    <row r="464">
-      <c r="A464" s="2" t="n">
+    <row r="464" spans="1:4">
+      <c r="A464" s="2">
         <v>45108</v>
       </c>
-      <c r="B464" t="n">
+      <c r="B464">
         <v>1417792000000</v>
       </c>
-      <c r="C464" t="n">
+      <c r="C464">
         <v>0.1015383053256841</v>
       </c>
-      <c r="D464" t="n">
+      <c r="D464">
         <v>143960196984.3123</v>
       </c>
     </row>
-    <row r="465">
-      <c r="A465" s="2" t="n">
+    <row r="465" spans="1:4">
+      <c r="A465" s="2">
         <v>45139</v>
       </c>
-      <c r="B465" t="n">
+      <c r="B465">
         <v>1419788000000</v>
       </c>
-      <c r="C465" t="n">
+      <c r="C465">
         <v>0.09842132199519704</v>
       </c>
-      <c r="D465" t="n">
+      <c r="D465">
         <v>139737411912.9168</v>
       </c>
     </row>
-    <row r="466">
-      <c r="A466" s="2" t="n">
+    <row r="466" spans="1:4">
+      <c r="A466" s="2">
         <v>45170</v>
       </c>
-      <c r="B466" t="n">
+      <c r="B466">
         <v>1430691000000</v>
       </c>
-      <c r="C466" t="n">
+      <c r="C466">
         <v>0.09724504779594098</v>
       </c>
-      <c r="D466" t="n">
+      <c r="D466">
         <v>139127614676.2226</v>
       </c>
     </row>
-    <row r="467">
-      <c r="A467" s="2" t="n">
+    <row r="467" spans="1:4">
+      <c r="A467" s="2">
         <v>45200</v>
       </c>
-      <c r="B467" t="n">
+      <c r="B467">
         <v>1427951000000</v>
       </c>
-      <c r="C467" t="n">
+      <c r="C467">
         <v>0.09711094925952901</v>
       </c>
-      <c r="D467" t="n">
+      <c r="D467">
         <v>138669677106.0937</v>
       </c>
     </row>
-    <row r="468">
-      <c r="A468" s="2" t="n">
+    <row r="468" spans="1:4">
+      <c r="A468" s="2">
         <v>45231</v>
       </c>
-      <c r="B468" t="n">
+      <c r="B468">
         <v>1439487000000</v>
       </c>
-      <c r="C468" t="n">
+      <c r="C468">
         <v>0.09911097455821283</v>
       </c>
-      <c r="D468" t="n">
+      <c r="D468">
         <v>142668959433.8781</v>
       </c>
     </row>
+    <row r="469" spans="1:4">
+      <c r="A469" s="2">
+        <v>45261</v>
+      </c>
+      <c r="B469">
+        <v>1468280000000</v>
+      </c>
+      <c r="C469">
+        <v>0.1016033000751864</v>
+      </c>
+      <c r="D469">
+        <v>149182093434.3947</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>